--- a/模电和数电.xlsx
+++ b/模电和数电.xlsx
@@ -4,20 +4,23 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860" activeTab="3"/>
+    <workbookView windowWidth="20490" windowHeight="7860" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="第一章" sheetId="1" r:id="rId1"/>
     <sheet name="第二章" sheetId="2" r:id="rId2"/>
     <sheet name="第三章" sheetId="3" r:id="rId3"/>
-    <sheet name="书签" sheetId="4" r:id="rId4"/>
+    <sheet name="第四章" sheetId="5" r:id="rId4"/>
+    <sheet name="第五章" sheetId="6" r:id="rId5"/>
+    <sheet name="第六章" sheetId="7" r:id="rId6"/>
+    <sheet name="书签" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="222">
   <si>
     <t>模电和数电</t>
   </si>
@@ -416,6 +419,273 @@
   </si>
   <si>
     <t>⑸加法器</t>
+  </si>
+  <si>
+    <t>这是反向加法器，推到公式</t>
+  </si>
+  <si>
+    <t>⑹减法器</t>
+  </si>
+  <si>
+    <t>3.3.3集成运算放大器的非线性应用电路</t>
+  </si>
+  <si>
+    <t>当集成运算放大器处于开环或正反馈，它就会工作在非线性状态</t>
+  </si>
+  <si>
+    <t>⑴电压比较器</t>
+  </si>
+  <si>
+    <t>⑵方波信号发生器</t>
+  </si>
+  <si>
+    <t>3.3.4集成运算放大器的保护电路</t>
+  </si>
+  <si>
+    <t>⑴电源级性错接保护电路</t>
+  </si>
+  <si>
+    <t>⑵输入保护电路</t>
+  </si>
+  <si>
+    <t>⑶输出保护电路</t>
+  </si>
+  <si>
+    <t>3.4小功率集成立体声功放器的原里和检修</t>
+  </si>
+  <si>
+    <t>第四章：谐振电路和滤波电路</t>
+  </si>
+  <si>
+    <t>4.1谐振电路</t>
+  </si>
+  <si>
+    <t>谐振电路是一种由电感和电容构成的电路，也叫LC谐振电路。谐振电路分为串联谐振电路和并联谐振电路。</t>
+  </si>
+  <si>
+    <t>4.1.1串联谐振电路</t>
+  </si>
+  <si>
+    <t>⑴电路构成</t>
+  </si>
+  <si>
+    <t>⑵频率公式</t>
+  </si>
+  <si>
+    <t>4.1.2并联谐振电路</t>
+  </si>
+  <si>
+    <t>4.2滤波电路</t>
+  </si>
+  <si>
+    <t>分为有缘滤波器和无缘滤波器</t>
+  </si>
+  <si>
+    <t>也分为低通滤波器，高通滤波器，带通滤波器，带阻滤波器</t>
+  </si>
+  <si>
+    <t>4.2.1无缘滤波器</t>
+  </si>
+  <si>
+    <t>⑴低通滤波器</t>
+  </si>
+  <si>
+    <t>⑵高通滤波器</t>
+  </si>
+  <si>
+    <t>⑶带通滤波器</t>
+  </si>
+  <si>
+    <t>选取某一段频率范围的信号</t>
+  </si>
+  <si>
+    <t>⑷带阻滤波器</t>
+  </si>
+  <si>
+    <t>选取某一段频率范围以外的信号</t>
+  </si>
+  <si>
+    <t>4.2.2有源滤波器</t>
+  </si>
+  <si>
+    <t>由运算放大器和RC元件构成</t>
+  </si>
+  <si>
+    <t>⑴一阶低通滤波器</t>
+  </si>
+  <si>
+    <t>⑵一节高通滤波器</t>
+  </si>
+  <si>
+    <t>⑶二阶带通滤波器</t>
+  </si>
+  <si>
+    <t>⑷二阶带阻滤波器</t>
+  </si>
+  <si>
+    <t>第五章：正弦波振荡器</t>
+  </si>
+  <si>
+    <t>5.1 振荡器基础知识</t>
+  </si>
+  <si>
+    <t>是产生交流信号的电路，正弦波振荡器用于产生正弦波信号</t>
+  </si>
+  <si>
+    <t>5.1.1振荡器组成及原里</t>
+  </si>
+  <si>
+    <t>一个振荡电路产生震荡信号，通过放大器一放大就能产生震荡信号了，实现无中生有。</t>
+  </si>
+  <si>
+    <t>5.1.2振荡器的工作条件</t>
+  </si>
+  <si>
+    <t>5.2 RC振荡器</t>
+  </si>
+  <si>
+    <t>能产生低频信号，电容电阻组成</t>
+  </si>
+  <si>
+    <t>5.2.1 RC移相式振荡器</t>
+  </si>
+  <si>
+    <t>⑴超前移相式振荡器</t>
+  </si>
+  <si>
+    <t>5.2.2 RC桥式振荡器</t>
+  </si>
+  <si>
+    <t>5.3 可调音频信号发生器的安装和检修</t>
+  </si>
+  <si>
+    <t>5.4 LC振荡器</t>
+  </si>
+  <si>
+    <t>5.4.1变压器反馈式振荡器</t>
+  </si>
+  <si>
+    <t>5.4.2电感三点式振荡器</t>
+  </si>
+  <si>
+    <t>5.4.3电容三点式振荡器</t>
+  </si>
+  <si>
+    <t>5.4.4改进型电容三点式振荡器</t>
+  </si>
+  <si>
+    <t>5.5晶体振荡器</t>
+  </si>
+  <si>
+    <t>LC在振荡器不太稳定，所以振荡器中采用一种石英晶体，可以产生高度稳定的信号，采用像石英晶体的振荡器叫晶体振荡器</t>
+  </si>
+  <si>
+    <t>5.5.1石英晶体</t>
+  </si>
+  <si>
+    <t>⑴外形</t>
+  </si>
+  <si>
+    <t>⑵特性</t>
+  </si>
+  <si>
+    <t>5.5.2石英晶体振荡器</t>
+  </si>
+  <si>
+    <t>⑴并联型晶体振荡器</t>
+  </si>
+  <si>
+    <t>⑵串联型晶体振荡器</t>
+  </si>
+  <si>
+    <t>第六章：调制与解调</t>
+  </si>
+  <si>
+    <t>6.1无线电信号的发送和接手</t>
+  </si>
+  <si>
+    <t>6.1.1无线电信号的发送</t>
+  </si>
+  <si>
+    <t>电信号要以无线电波的方式传送出去，可将电信号发送到天线，天线将电信号专成无线电波发射出去。</t>
+  </si>
+  <si>
+    <t>如果把声音发射出去，可以先用话筒把声音信号转成电信号，再把电信号通过天线发出去。</t>
+  </si>
+  <si>
+    <t>但是广播电台没有采用这种方式，主要是因为声音信号的频率比较低。</t>
+  </si>
+  <si>
+    <t>无线电波传送的规律表明：要将无线电信号有效的发射出去，要求无线电的频率和发射的天线长度有关系，</t>
+  </si>
+  <si>
+    <t>频率越低天线的长度就越长。要是直接发声音信号，天线就得几千米长，不符合实际。</t>
+  </si>
+  <si>
+    <t>⑴无线电信号的发送过程：</t>
+  </si>
+  <si>
+    <t>为了解决天线太长的问题，人们采用了一个办法，把低频信号调制到高频信号上，把高频信号发出去，这样天线就可以很短了，</t>
+  </si>
+  <si>
+    <t>话筒将声音转成音频信号，在将声音通过放大器放大，通过调制器调制到高频信号上，把高频信号通过天线发出去。</t>
+  </si>
+  <si>
+    <t>⑵调制方式：</t>
+  </si>
+  <si>
+    <t>常用的方法是调幅和调频</t>
+  </si>
+  <si>
+    <t>①幅度调制</t>
+  </si>
+  <si>
+    <t>将低频信号和高频载波信号通过数学方法处理，得到频不变幅变的高频信号，这个过程叫条幅调制。这种幅度随低频信号变化的高频信号称为条幅调制。</t>
+  </si>
+  <si>
+    <t>②调频调制</t>
+  </si>
+  <si>
+    <t>将低频信号与高频信号经数学方法变换，得到幅度不变频率改变的高频信号，这个过程叫调频调制。</t>
+  </si>
+  <si>
+    <t>低频信号送到调制器，同时高频信号也送进去，在内部调制后输出幅度不变频率变化的高频信号，这叫调频调制。</t>
+  </si>
+  <si>
+    <t>6.1.2无线电信号接收</t>
+  </si>
+  <si>
+    <t>在无线电发送设备中，将低频信号调制到高频载波上，通过天线发射出去，当无线电波经过无线电接收设备把信号拿下来，经过处理取出低频信号。这过程叫解调。</t>
+  </si>
+  <si>
+    <t>⑴无线电信号的接收处理过程：</t>
+  </si>
+  <si>
+    <t>如上</t>
+  </si>
+  <si>
+    <t>⑵解调方式：</t>
+  </si>
+  <si>
+    <t>检波和鉴频，和上面的幅度调试和调频调制对应。</t>
+  </si>
+  <si>
+    <t>6.2调幅调制和检波电路</t>
+  </si>
+  <si>
+    <t>6.2.1调幅调制电路</t>
+  </si>
+  <si>
+    <t>⑴功能</t>
+  </si>
+  <si>
+    <t>把低频信号放到高频信号上，把调制信号发出去</t>
+  </si>
+  <si>
+    <t>⑵电路分析</t>
+  </si>
+  <si>
+    <t>6.2.2检波电路</t>
   </si>
 </sst>
 </file>
@@ -423,26 +693,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -472,23 +728,16 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -502,22 +751,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -531,9 +780,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -562,14 +818,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -586,14 +834,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -608,20 +871,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -632,7 +881,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -644,43 +1037,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -692,109 +1049,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -806,13 +1061,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -823,21 +1072,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -852,21 +1086,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -904,13 +1123,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -923,159 +1161,176 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1083,22 +1338,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1505,6 +1748,174 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>343535</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>153035</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1857375" y="15373350"/>
+          <a:ext cx="2572385" cy="1353185"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4829175" y="15373350"/>
+          <a:ext cx="3495675" cy="1123950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>334010</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>170180</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1857375" y="17087850"/>
+          <a:ext cx="2562860" cy="1541780"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4829175" y="17087850"/>
+          <a:ext cx="2133600" cy="695325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1512,16 +1923,273 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>294005</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>86360</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1485900" y="1314450"/>
+          <a:ext cx="1036955" cy="1457960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>113030</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3714750" y="1314450"/>
+          <a:ext cx="1247775" cy="627380"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>283845</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>133985</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1485900" y="3200400"/>
+          <a:ext cx="1026795" cy="991235"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>113030</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3714750" y="3200400"/>
+          <a:ext cx="1247775" cy="627380"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1485900" y="5086350"/>
+          <a:ext cx="3390900" cy="1028700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>4445</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1485900" y="6286500"/>
+          <a:ext cx="3347720" cy="1247775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>132080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1538,8 +2206,55 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
+          <a:off x="1485900" y="5429250"/>
+          <a:ext cx="2390775" cy="1503680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="8305800" cy="5314950"/>
+          <a:ext cx="8315325" cy="5534025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1853,251 +2568,166 @@
     <col min="1" max="16384" width="4.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="22.5" spans="1:31">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6" t="s">
+    <row r="1" s="1" customFormat="1" ht="22.5" spans="9:31">
+      <c r="I1" s="4"/>
+      <c r="J1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="3" t="s">
+      <c r="V1" s="2"/>
+      <c r="W1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="X1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AD1" s="3"/>
-      <c r="AE1" s="4"/>
+      <c r="AE1" s="2"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="23:27">
-      <c r="W2" s="3" t="s">
+      <c r="W2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="X2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Y2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="Z2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AA2" s="7" t="s">
+      <c r="AA2" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" ht="22.5" spans="1:16">
-      <c r="A3" s="2" t="s">
+    <row r="3" ht="22.5" spans="1:10">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
     </row>
     <row r="4" s="1" customFormat="1" spans="2:31">
       <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="3"/>
-      <c r="AE4" s="4"/>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:27">
-      <c r="A5" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="AE4" s="2"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="3:27">
       <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="W5" s="3"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
-      <c r="AA5" s="7"/>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="2:3">
-      <c r="B6" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="AA5" s="5"/>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="3:3">
       <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="3:3">
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="2:3">
+    <row r="8" s="1" customFormat="1" spans="2:2">
       <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="2:3">
-      <c r="B9" s="2"/>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="3:3">
       <c r="C9" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="2:3">
-      <c r="B10" s="2"/>
+    <row r="10" s="1" customFormat="1" spans="3:3">
       <c r="C10" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="4:4">
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="4:4">
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="4:4">
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" spans="1:3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="3" t="s">
+    <row r="15" s="1" customFormat="1" spans="3:3">
+      <c r="C15" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="2:4">
-      <c r="B16" s="5"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3" t="s">
+      <c r="B16" s="3"/>
+      <c r="D16" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="2:4">
-      <c r="B17" s="5"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3" t="s">
+      <c r="B17" s="3"/>
+      <c r="D17" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" spans="1:3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="3" t="s">
+    <row r="18" s="1" customFormat="1" spans="3:3">
+      <c r="C18" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" spans="2:4">
-      <c r="B19" s="5"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="3" t="s">
+      <c r="B19" s="3"/>
+      <c r="D19" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" spans="2:5">
-      <c r="B20" s="5"/>
-      <c r="C20" s="3" t="s">
+    <row r="20" s="1" customFormat="1" spans="2:3">
+      <c r="B20" s="3"/>
+      <c r="C20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" s="1" customFormat="1" spans="1:5">
-      <c r="A21" s="2"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="3" t="s">
+    </row>
+    <row r="21" s="1" customFormat="1" spans="3:3">
+      <c r="C21" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" s="1" customFormat="1" spans="1:5">
-      <c r="A22" s="2"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="4"/>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="3:4">
+      <c r="C22" s="2"/>
       <c r="D22" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" s="1" customFormat="1" spans="2:5">
-      <c r="B23" s="5"/>
-      <c r="C23" s="4"/>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="2:4">
+      <c r="B23" s="3"/>
+      <c r="C23" s="2"/>
       <c r="D23" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" s="1" customFormat="1" spans="1:30">
-      <c r="A24" s="2"/>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="2:30">
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24"/>
@@ -3306,8 +3936,7 @@
       <c r="AC62"/>
       <c r="AD62"/>
     </row>
-    <row r="63" s="1" customFormat="1" spans="1:30">
-      <c r="A63" s="3"/>
+    <row r="63" s="1" customFormat="1" spans="2:30">
       <c r="B63"/>
       <c r="C63"/>
       <c r="D63"/>
@@ -4072,63 +4701,43 @@
     <col min="1" max="16384" width="4.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="22.5" spans="1:31">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6" t="s">
+    <row r="1" s="1" customFormat="1" ht="22.5" spans="9:31">
+      <c r="I1" s="4"/>
+      <c r="J1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="3" t="s">
+      <c r="V1" s="2"/>
+      <c r="W1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="X1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AD1" s="3"/>
-      <c r="AE1" s="4"/>
+      <c r="AE1" s="2"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="23:27">
-      <c r="W2" s="3" t="s">
+      <c r="W2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="X2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Y2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="Z2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AA2" s="7" t="s">
+      <c r="AA2" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -4136,229 +4745,108 @@
       <c r="A3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="W3" s="3"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="7"/>
+      <c r="X3" s="2"/>
+      <c r="AA3" s="5"/>
     </row>
     <row r="4" s="1" customFormat="1" spans="2:27">
       <c r="B4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="7"/>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="22.5" spans="1:16">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3" t="s">
+      <c r="X4" s="2"/>
+      <c r="AA4" s="5"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="22.5" spans="3:10">
+      <c r="C5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
     </row>
     <row r="6" s="1" customFormat="1" spans="3:31">
       <c r="C6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
-      <c r="AA6" s="1"/>
-      <c r="AB6" s="1"/>
-      <c r="AC6" s="1"/>
-      <c r="AD6" s="3"/>
-      <c r="AE6" s="4"/>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:27">
-      <c r="A7" s="2"/>
-      <c r="B7" s="1"/>
+      <c r="V6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="AE6" s="2"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="3:27">
       <c r="C7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="7"/>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="2:3">
-      <c r="B8" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="AA7" s="5"/>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="3:3">
       <c r="C8" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="3:3">
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="3:3">
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="2:3">
-      <c r="B11" s="2"/>
+    <row r="11" s="1" customFormat="1" spans="3:3">
       <c r="C11" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="2:2">
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" spans="3:4">
+    <row r="13" s="1" customFormat="1" spans="3:3">
       <c r="C13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" s="1" customFormat="1" spans="4:4">
-      <c r="D14" s="3"/>
     </row>
     <row r="15" s="1" customFormat="1" spans="4:4">
-      <c r="D15" s="4"/>
+      <c r="D15" s="2"/>
     </row>
     <row r="16" s="1" customFormat="1" spans="4:4">
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="1:3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="2:4">
-      <c r="B18" s="5"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="2:4">
-      <c r="B19" s="5"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" s="1" customFormat="1" spans="1:3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" s="1" customFormat="1" spans="2:4">
-      <c r="B21" s="5"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" s="1" customFormat="1" spans="2:5">
-      <c r="B22" s="5"/>
-      <c r="C22" s="3"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="2:2">
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="2:2">
+      <c r="B19" s="3"/>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="2:2">
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="2:4">
+      <c r="B22" s="3"/>
       <c r="D22" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" s="1" customFormat="1" spans="1:5">
-      <c r="A23" s="2"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="3" t="s">
+    </row>
+    <row r="23" s="1" customFormat="1" spans="5:5">
+      <c r="E23" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" spans="1:5">
-      <c r="A24" s="2"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="4"/>
+    <row r="24" s="1" customFormat="1" spans="3:4">
+      <c r="C24" s="2"/>
       <c r="D24" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" s="1" customFormat="1" spans="2:5">
-      <c r="B25" s="5"/>
-      <c r="C25" s="4"/>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="2:4">
+      <c r="B25" s="3"/>
+      <c r="C25" s="2"/>
       <c r="D25" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" s="1" customFormat="1" spans="1:30">
-      <c r="A26" s="2"/>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="2:30">
       <c r="B26"/>
       <c r="C26" t="s">
         <v>47</v>
@@ -5645,8 +6133,7 @@
       <c r="AC64"/>
       <c r="AD64"/>
     </row>
-    <row r="65" s="1" customFormat="1" spans="1:30">
-      <c r="A65" s="3"/>
+    <row r="65" s="1" customFormat="1" spans="2:30">
       <c r="B65"/>
       <c r="C65"/>
       <c r="D65"/>
@@ -6401,10 +6888,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AE95"/>
+  <dimension ref="A1:AG117"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="E90" sqref="E90"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
@@ -6412,63 +6899,43 @@
     <col min="1" max="16384" width="4.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="22.5" spans="1:31">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6" t="s">
+    <row r="1" s="1" customFormat="1" ht="22.5" spans="9:31">
+      <c r="I1" s="4"/>
+      <c r="J1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="3" t="s">
+      <c r="V1" s="2"/>
+      <c r="W1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="X1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AD1" s="3"/>
-      <c r="AE1" s="4"/>
+      <c r="AE1" s="2"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="23:27">
-      <c r="W2" s="3" t="s">
+      <c r="W2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="X2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Y2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="Z2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AA2" s="7" t="s">
+      <c r="AA2" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -6476,108 +6943,64 @@
       <c r="A3" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="7"/>
+      <c r="X3" s="2"/>
+      <c r="AA3" s="5"/>
     </row>
     <row r="4" s="1" customFormat="1" spans="2:31">
       <c r="B4" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AD4" s="3"/>
-      <c r="AE4" s="4"/>
+      <c r="V4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="AE4" s="2"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="3:31">
       <c r="C5" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
-      <c r="AD5" s="3"/>
-      <c r="AE5" s="4"/>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:27">
-      <c r="A6" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="AE5" s="2"/>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="3:27">
       <c r="C6" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="W6" s="3"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
-      <c r="AA6" s="7"/>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="2:3">
-      <c r="B7" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="AA6" s="5"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="3:3">
       <c r="C7" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="3:4">
-      <c r="C8" s="2"/>
+    <row r="8" s="1" customFormat="1" spans="4:4">
       <c r="D8" s="1" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="3:3">
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="2:3">
-      <c r="B10" s="2"/>
+    <row r="10" s="1" customFormat="1" spans="3:3">
       <c r="C10" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="2:2">
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="3:4">
+    <row r="12" s="1" customFormat="1" spans="3:3">
       <c r="C12" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D12" s="3"/>
     </row>
     <row r="13" s="1" customFormat="1" spans="4:4">
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="1" t="s">
         <v>94</v>
       </c>
     </row>
@@ -6585,239 +7008,70 @@
       <c r="C14" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D14" s="4"/>
+      <c r="D14" s="2"/>
     </row>
     <row r="15" s="1" customFormat="1" spans="4:4">
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" spans="1:3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="3" t="s">
+    <row r="16" s="1" customFormat="1" spans="3:3">
+      <c r="C16" s="1" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="2:4">
-      <c r="B17" s="5"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3" t="s">
+      <c r="B17" s="3"/>
+      <c r="D17" s="1" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="2:4">
-      <c r="B18" s="5"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3" t="s">
+      <c r="B18" s="3"/>
+      <c r="D18" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" spans="1:22">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2" t="s">
+    <row r="19" s="1" customFormat="1" spans="4:4">
+      <c r="D19" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
-      <c r="U19" s="2"/>
-      <c r="V19" s="2"/>
-    </row>
-    <row r="20" s="1" customFormat="1" spans="1:22">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2" t="s">
+    </row>
+    <row r="20" s="1" customFormat="1" spans="4:4">
+      <c r="D20" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
-      <c r="V20" s="2"/>
-    </row>
-    <row r="21" s="1" customFormat="1" spans="1:22">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2" t="s">
+    </row>
+    <row r="21" s="1" customFormat="1" spans="2:2">
+      <c r="B21" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
-      <c r="U21" s="2"/>
-      <c r="V21" s="2"/>
-    </row>
-    <row r="22" s="1" customFormat="1" spans="1:22">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2" t="s">
+    </row>
+    <row r="22" s="1" customFormat="1" spans="3:3">
+      <c r="C22" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
-    </row>
-    <row r="23" s="1" customFormat="1" spans="1:22">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2" t="s">
+    </row>
+    <row r="23" s="1" customFormat="1" spans="3:3">
+      <c r="C23" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
-      <c r="V23" s="2"/>
-    </row>
-    <row r="24" s="1" customFormat="1" spans="1:22">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="3" t="s">
+    </row>
+    <row r="24" s="1" customFormat="1" spans="4:4">
+      <c r="D24" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-      <c r="U24" s="2"/>
-      <c r="V24" s="2"/>
-    </row>
-    <row r="25" s="1" customFormat="1" spans="1:31">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="5:31">
       <c r="E25" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
-      <c r="U25" s="2"/>
-      <c r="V25" s="2"/>
-      <c r="AE25" s="4"/>
-    </row>
-    <row r="26" s="1" customFormat="1" spans="1:22">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="E26" s="2" t="s">
+      <c r="AE25" s="2"/>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="5:5">
+      <c r="E26" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
-      <c r="U26" s="2"/>
-      <c r="V26" s="2"/>
     </row>
     <row r="27" s="1" customFormat="1" spans="2:30">
       <c r="B27"/>
@@ -6978,7 +7232,7 @@
     <row r="32" s="1" customFormat="1" spans="2:30">
       <c r="B32"/>
       <c r="C32"/>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="1" t="s">
         <v>113</v>
       </c>
       <c r="E32"/>
@@ -7066,8 +7320,6 @@
     <row r="35" s="1" customFormat="1" spans="7:30">
       <c r="G35"/>
       <c r="H35"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
       <c r="K35"/>
       <c r="L35"/>
       <c r="M35"/>
@@ -7092,8 +7344,6 @@
     <row r="36" s="1" customFormat="1" spans="7:30">
       <c r="G36"/>
       <c r="H36"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
       <c r="K36"/>
       <c r="L36"/>
       <c r="M36"/>
@@ -7326,7 +7576,7 @@
       <c r="B44"/>
       <c r="C44"/>
       <c r="D44"/>
-      <c r="F44" s="3" t="s">
+      <c r="F44" s="1" t="s">
         <v>115</v>
       </c>
       <c r="G44"/>
@@ -7358,7 +7608,7 @@
       <c r="B45"/>
       <c r="C45"/>
       <c r="D45"/>
-      <c r="F45" s="3" t="s">
+      <c r="F45" s="1" t="s">
         <v>116</v>
       </c>
       <c r="G45"/>
@@ -7390,7 +7640,7 @@
       <c r="B46"/>
       <c r="C46"/>
       <c r="D46"/>
-      <c r="F46" s="3" t="s">
+      <c r="F46" s="1" t="s">
         <v>117</v>
       </c>
       <c r="G46"/>
@@ -7421,7 +7671,7 @@
     <row r="47" s="1" customFormat="1" spans="2:30">
       <c r="B47"/>
       <c r="C47"/>
-      <c r="F47" s="3" t="s">
+      <c r="F47" s="1" t="s">
         <v>118</v>
       </c>
       <c r="G47"/>
@@ -7580,7 +7830,7 @@
     <row r="52" s="1" customFormat="1" spans="2:30">
       <c r="B52"/>
       <c r="C52"/>
-      <c r="D52" s="4"/>
+      <c r="D52" s="2"/>
       <c r="E52"/>
       <c r="F52"/>
       <c r="G52"/>
@@ -7611,7 +7861,7 @@
     <row r="53" s="1" customFormat="1" spans="2:30">
       <c r="B53"/>
       <c r="C53"/>
-      <c r="D53" s="4"/>
+      <c r="D53" s="2"/>
       <c r="E53"/>
       <c r="F53"/>
       <c r="G53"/>
@@ -7935,7 +8185,6 @@
       <c r="M63"/>
       <c r="N63"/>
       <c r="O63"/>
-      <c r="W63" s="3"/>
       <c r="X63"/>
       <c r="Y63"/>
       <c r="Z63"/>
@@ -7944,8 +8193,7 @@
       <c r="AC63"/>
       <c r="AD63"/>
     </row>
-    <row r="64" s="1" customFormat="1" spans="1:30">
-      <c r="A64" s="3"/>
+    <row r="64" s="1" customFormat="1" spans="2:30">
       <c r="B64"/>
       <c r="C64"/>
       <c r="D64" t="s">
@@ -8007,7 +8255,7 @@
       <c r="B66"/>
       <c r="C66"/>
       <c r="D66"/>
-      <c r="E66" s="3" t="s">
+      <c r="E66" s="1" t="s">
         <v>125</v>
       </c>
       <c r="F66"/>
@@ -8318,7 +8566,7 @@
       <c r="B76"/>
       <c r="C76"/>
       <c r="D76"/>
-      <c r="E76" s="3" t="s">
+      <c r="E76" s="1" t="s">
         <v>127</v>
       </c>
       <c r="F76"/>
@@ -8661,13 +8909,13 @@
       <c r="B87"/>
       <c r="C87"/>
       <c r="D87"/>
-      <c r="E87" s="4" t="s">
+      <c r="E87" s="2" t="s">
         <v>129</v>
       </c>
       <c r="F87"/>
       <c r="G87"/>
       <c r="H87"/>
-      <c r="I87" s="8" t="s">
+      <c r="I87" s="6" t="s">
         <v>130</v>
       </c>
       <c r="J87"/>
@@ -8693,10 +8941,10 @@
       <c r="AD87"/>
     </row>
     <row r="88" spans="5:9">
-      <c r="E88" s="4" t="s">
+      <c r="E88" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="I88" s="8" t="s">
+      <c r="I88" s="6" t="s">
         <v>130</v>
       </c>
     </row>
@@ -8705,38 +8953,73 @@
         <v>132</v>
       </c>
     </row>
-    <row r="94" spans="22:26">
-      <c r="V94" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="W94" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="X94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z94" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="22:26">
-      <c r="V95" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="W95" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="X95" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y95" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z95" s="7" t="s">
-        <v>10</v>
+    <row r="98" spans="6:6">
+      <c r="F98" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="99" spans="5:5">
+      <c r="E99" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="109" spans="3:3">
+      <c r="C109" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="110" spans="4:4">
+      <c r="D110" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="111" spans="4:33">
+      <c r="D111" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA111"/>
+      <c r="AB111"/>
+      <c r="AC111"/>
+      <c r="AD111"/>
+      <c r="AE111"/>
+      <c r="AF111"/>
+      <c r="AG111"/>
+    </row>
+    <row r="112" spans="4:33">
+      <c r="D112" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AA112"/>
+      <c r="AB112"/>
+      <c r="AC112"/>
+      <c r="AD112"/>
+      <c r="AE112"/>
+      <c r="AF112"/>
+      <c r="AG112"/>
+    </row>
+    <row r="113" spans="3:3">
+      <c r="C113" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="114" spans="4:4">
+      <c r="D114" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="115" spans="4:4">
+      <c r="D115" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="116" spans="4:4">
+      <c r="D116" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2">
+      <c r="B117" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -8750,10 +9033,6105 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:AG116"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="16384" width="4.875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="22.5" spans="9:31">
+      <c r="I1" s="4"/>
+      <c r="J1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="V1" s="2"/>
+      <c r="W1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE1" s="2"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="23:27">
+      <c r="W2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA2" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:27">
+      <c r="A3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="X3" s="2"/>
+      <c r="AA3" s="5"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="2:31">
+      <c r="B4" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="V4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="AE4" s="2"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="3:31">
+      <c r="C5" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="V5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="AE5" s="2"/>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="3:27">
+      <c r="C6" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="X6" s="2"/>
+      <c r="AA6" s="5"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="4:10">
+      <c r="D7" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="4:4">
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="4:4">
+      <c r="D15" s="2"/>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="2:3">
+      <c r="B17" s="3"/>
+      <c r="C17" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="2:10">
+      <c r="B18" s="3"/>
+      <c r="D18" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="2:2">
+      <c r="B25" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="3:3">
+      <c r="C26" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="2:30">
+      <c r="B27"/>
+      <c r="C27" t="s">
+        <v>153</v>
+      </c>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
+      <c r="O27"/>
+      <c r="P27"/>
+      <c r="Q27"/>
+      <c r="R27"/>
+      <c r="S27"/>
+      <c r="T27"/>
+      <c r="U27"/>
+      <c r="V27"/>
+      <c r="W27"/>
+      <c r="X27"/>
+      <c r="Y27"/>
+      <c r="Z27"/>
+      <c r="AA27"/>
+      <c r="AB27"/>
+      <c r="AC27"/>
+      <c r="AD27"/>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="2:30">
+      <c r="B28"/>
+      <c r="C28" t="s">
+        <v>154</v>
+      </c>
+      <c r="D28"/>
+      <c r="F28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28"/>
+      <c r="N28"/>
+      <c r="O28"/>
+      <c r="P28"/>
+      <c r="Q28"/>
+      <c r="R28"/>
+      <c r="S28"/>
+      <c r="T28"/>
+      <c r="U28"/>
+      <c r="V28"/>
+      <c r="W28"/>
+      <c r="X28"/>
+      <c r="Y28"/>
+      <c r="Z28"/>
+      <c r="AA28"/>
+      <c r="AB28"/>
+      <c r="AC28"/>
+      <c r="AD28"/>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="2:30">
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29"/>
+      <c r="N29"/>
+      <c r="O29"/>
+      <c r="P29"/>
+      <c r="Q29"/>
+      <c r="R29"/>
+      <c r="S29"/>
+      <c r="T29"/>
+      <c r="U29"/>
+      <c r="V29"/>
+      <c r="W29"/>
+      <c r="X29"/>
+      <c r="Y29"/>
+      <c r="Z29"/>
+      <c r="AA29"/>
+      <c r="AB29"/>
+      <c r="AC29"/>
+      <c r="AD29"/>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="2:30">
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="F30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="O30"/>
+      <c r="P30"/>
+      <c r="Q30"/>
+      <c r="R30"/>
+      <c r="S30"/>
+      <c r="T30"/>
+      <c r="U30"/>
+      <c r="V30"/>
+      <c r="W30"/>
+      <c r="X30"/>
+      <c r="Y30"/>
+      <c r="Z30"/>
+      <c r="AA30"/>
+      <c r="AB30"/>
+      <c r="AC30"/>
+      <c r="AD30"/>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="2:30">
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31"/>
+      <c r="N31"/>
+      <c r="O31"/>
+      <c r="P31"/>
+      <c r="Q31"/>
+      <c r="R31"/>
+      <c r="S31"/>
+      <c r="T31"/>
+      <c r="U31"/>
+      <c r="V31"/>
+      <c r="W31"/>
+      <c r="X31"/>
+      <c r="Y31"/>
+      <c r="Z31"/>
+      <c r="AA31"/>
+      <c r="AB31"/>
+      <c r="AC31"/>
+      <c r="AD31"/>
+    </row>
+    <row r="32" s="1" customFormat="1" spans="2:30">
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32" s="1"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
+      <c r="M32"/>
+      <c r="N32"/>
+      <c r="O32"/>
+      <c r="P32"/>
+      <c r="Q32"/>
+      <c r="R32"/>
+      <c r="S32"/>
+      <c r="T32"/>
+      <c r="U32"/>
+      <c r="V32"/>
+      <c r="W32"/>
+      <c r="X32"/>
+      <c r="Y32"/>
+      <c r="Z32"/>
+      <c r="AA32"/>
+      <c r="AB32"/>
+      <c r="AC32"/>
+      <c r="AD32"/>
+    </row>
+    <row r="33" s="1" customFormat="1" spans="7:30">
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="O33"/>
+      <c r="P33"/>
+      <c r="Q33"/>
+      <c r="R33"/>
+      <c r="S33"/>
+      <c r="T33"/>
+      <c r="U33"/>
+      <c r="V33"/>
+      <c r="W33"/>
+      <c r="X33"/>
+      <c r="Y33"/>
+      <c r="Z33"/>
+      <c r="AA33"/>
+      <c r="AB33"/>
+      <c r="AC33"/>
+      <c r="AD33"/>
+    </row>
+    <row r="34" s="1" customFormat="1" spans="7:30">
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="L34"/>
+      <c r="M34"/>
+      <c r="N34"/>
+      <c r="O34"/>
+      <c r="P34"/>
+      <c r="Q34"/>
+      <c r="R34"/>
+      <c r="S34"/>
+      <c r="T34"/>
+      <c r="U34"/>
+      <c r="V34"/>
+      <c r="W34"/>
+      <c r="X34"/>
+      <c r="Y34"/>
+      <c r="Z34"/>
+      <c r="AA34"/>
+      <c r="AB34"/>
+      <c r="AC34"/>
+      <c r="AD34"/>
+    </row>
+    <row r="35" s="1" customFormat="1" spans="7:30">
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="O35"/>
+      <c r="P35"/>
+      <c r="Q35"/>
+      <c r="R35"/>
+      <c r="S35"/>
+      <c r="T35"/>
+      <c r="U35"/>
+      <c r="V35"/>
+      <c r="W35"/>
+      <c r="X35"/>
+      <c r="Y35"/>
+      <c r="Z35"/>
+      <c r="AA35"/>
+      <c r="AB35"/>
+      <c r="AC35"/>
+      <c r="AD35"/>
+    </row>
+    <row r="36" s="1" customFormat="1" spans="4:30">
+      <c r="D36" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="O36"/>
+      <c r="P36"/>
+      <c r="Q36"/>
+      <c r="R36"/>
+      <c r="S36"/>
+      <c r="T36"/>
+      <c r="U36"/>
+      <c r="V36"/>
+      <c r="W36"/>
+      <c r="X36"/>
+      <c r="Y36"/>
+      <c r="Z36"/>
+      <c r="AA36"/>
+      <c r="AB36"/>
+      <c r="AC36"/>
+      <c r="AD36"/>
+    </row>
+    <row r="37" s="1" customFormat="1" spans="7:30">
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37"/>
+      <c r="N37"/>
+      <c r="O37"/>
+      <c r="P37"/>
+      <c r="Q37"/>
+      <c r="R37"/>
+      <c r="S37"/>
+      <c r="T37"/>
+      <c r="U37"/>
+      <c r="V37"/>
+      <c r="W37"/>
+      <c r="X37"/>
+      <c r="Y37"/>
+      <c r="Z37"/>
+      <c r="AA37"/>
+      <c r="AB37"/>
+      <c r="AC37"/>
+      <c r="AD37"/>
+    </row>
+    <row r="38" s="1" customFormat="1" spans="7:26">
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38"/>
+      <c r="P38"/>
+      <c r="Q38"/>
+      <c r="R38"/>
+      <c r="S38"/>
+      <c r="T38"/>
+      <c r="U38"/>
+      <c r="V38"/>
+      <c r="W38"/>
+      <c r="X38"/>
+      <c r="Y38"/>
+      <c r="Z38"/>
+    </row>
+    <row r="39" s="1" customFormat="1" spans="2:26">
+      <c r="B39"/>
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39"/>
+      <c r="K39"/>
+      <c r="L39"/>
+      <c r="M39"/>
+      <c r="N39"/>
+      <c r="O39"/>
+      <c r="P39"/>
+      <c r="Q39"/>
+      <c r="R39"/>
+      <c r="S39"/>
+      <c r="T39"/>
+      <c r="U39"/>
+      <c r="V39"/>
+      <c r="W39"/>
+      <c r="X39"/>
+      <c r="Y39"/>
+      <c r="Z39"/>
+    </row>
+    <row r="40" s="1" customFormat="1" spans="2:30">
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40"/>
+      <c r="M40"/>
+      <c r="N40"/>
+      <c r="O40"/>
+      <c r="P40"/>
+      <c r="Q40"/>
+      <c r="R40"/>
+      <c r="S40"/>
+      <c r="T40"/>
+      <c r="U40"/>
+      <c r="V40"/>
+      <c r="W40"/>
+      <c r="X40"/>
+      <c r="Y40"/>
+      <c r="Z40"/>
+      <c r="AA40"/>
+      <c r="AB40"/>
+      <c r="AC40"/>
+      <c r="AD40"/>
+    </row>
+    <row r="41" s="1" customFormat="1" spans="2:30">
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41"/>
+      <c r="L41"/>
+      <c r="M41"/>
+      <c r="N41"/>
+      <c r="O41"/>
+      <c r="P41"/>
+      <c r="Q41"/>
+      <c r="R41"/>
+      <c r="S41"/>
+      <c r="T41"/>
+      <c r="U41"/>
+      <c r="V41"/>
+      <c r="W41"/>
+      <c r="X41"/>
+      <c r="Y41"/>
+      <c r="Z41"/>
+      <c r="AA41"/>
+      <c r="AB41"/>
+      <c r="AC41"/>
+      <c r="AD41"/>
+    </row>
+    <row r="42" s="1" customFormat="1" spans="2:30">
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42"/>
+      <c r="I42"/>
+      <c r="J42"/>
+      <c r="K42"/>
+      <c r="L42"/>
+      <c r="M42"/>
+      <c r="N42"/>
+      <c r="O42"/>
+      <c r="P42"/>
+      <c r="Q42"/>
+      <c r="R42"/>
+      <c r="S42"/>
+      <c r="T42"/>
+      <c r="U42"/>
+      <c r="V42"/>
+      <c r="W42"/>
+      <c r="X42"/>
+      <c r="Y42"/>
+      <c r="Z42"/>
+      <c r="AA42"/>
+      <c r="AB42"/>
+      <c r="AC42"/>
+      <c r="AD42"/>
+    </row>
+    <row r="43" s="1" customFormat="1" spans="2:30">
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43"/>
+      <c r="I43"/>
+      <c r="J43"/>
+      <c r="K43"/>
+      <c r="L43"/>
+      <c r="M43"/>
+      <c r="N43"/>
+      <c r="O43"/>
+      <c r="P43"/>
+      <c r="Q43"/>
+      <c r="R43"/>
+      <c r="S43"/>
+      <c r="T43"/>
+      <c r="U43"/>
+      <c r="V43"/>
+      <c r="W43"/>
+      <c r="X43"/>
+      <c r="Y43"/>
+      <c r="Z43"/>
+      <c r="AA43"/>
+      <c r="AB43"/>
+      <c r="AC43"/>
+      <c r="AD43"/>
+    </row>
+    <row r="44" s="1" customFormat="1" spans="2:30">
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="G44"/>
+      <c r="H44"/>
+      <c r="I44"/>
+      <c r="J44"/>
+      <c r="K44"/>
+      <c r="L44"/>
+      <c r="M44"/>
+      <c r="N44"/>
+      <c r="O44"/>
+      <c r="P44"/>
+      <c r="Q44"/>
+      <c r="R44"/>
+      <c r="S44"/>
+      <c r="T44"/>
+      <c r="U44"/>
+      <c r="V44"/>
+      <c r="W44"/>
+      <c r="X44"/>
+      <c r="Y44"/>
+      <c r="Z44"/>
+      <c r="AA44"/>
+      <c r="AB44"/>
+      <c r="AC44"/>
+      <c r="AD44"/>
+    </row>
+    <row r="45" s="1" customFormat="1" spans="2:30">
+      <c r="B45"/>
+      <c r="C45"/>
+      <c r="D45" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G45"/>
+      <c r="H45"/>
+      <c r="I45"/>
+      <c r="J45"/>
+      <c r="K45"/>
+      <c r="L45"/>
+      <c r="M45"/>
+      <c r="N45"/>
+      <c r="O45"/>
+      <c r="P45"/>
+      <c r="Q45"/>
+      <c r="R45"/>
+      <c r="S45"/>
+      <c r="T45"/>
+      <c r="U45"/>
+      <c r="V45"/>
+      <c r="W45"/>
+      <c r="X45"/>
+      <c r="Y45"/>
+      <c r="Z45"/>
+      <c r="AA45"/>
+      <c r="AB45"/>
+      <c r="AC45"/>
+      <c r="AD45"/>
+    </row>
+    <row r="46" s="1" customFormat="1" spans="2:30">
+      <c r="B46"/>
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F46" s="1"/>
+      <c r="G46"/>
+      <c r="H46"/>
+      <c r="I46"/>
+      <c r="J46"/>
+      <c r="K46"/>
+      <c r="L46"/>
+      <c r="M46"/>
+      <c r="N46"/>
+      <c r="O46"/>
+      <c r="P46"/>
+      <c r="Q46"/>
+      <c r="R46"/>
+      <c r="S46"/>
+      <c r="T46"/>
+      <c r="U46"/>
+      <c r="V46"/>
+      <c r="W46"/>
+      <c r="X46"/>
+      <c r="Y46"/>
+      <c r="Z46"/>
+      <c r="AA46"/>
+      <c r="AB46"/>
+      <c r="AC46"/>
+      <c r="AD46"/>
+    </row>
+    <row r="47" s="1" customFormat="1" spans="2:30">
+      <c r="B47"/>
+      <c r="C47"/>
+      <c r="D47" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G47"/>
+      <c r="H47"/>
+      <c r="I47"/>
+      <c r="J47"/>
+      <c r="K47"/>
+      <c r="L47"/>
+      <c r="M47"/>
+      <c r="N47"/>
+      <c r="O47"/>
+      <c r="P47"/>
+      <c r="Q47"/>
+      <c r="R47"/>
+      <c r="S47"/>
+      <c r="T47"/>
+      <c r="U47"/>
+      <c r="V47"/>
+      <c r="W47"/>
+      <c r="X47"/>
+      <c r="Y47"/>
+      <c r="Z47"/>
+      <c r="AA47"/>
+      <c r="AB47"/>
+      <c r="AC47"/>
+      <c r="AD47"/>
+    </row>
+    <row r="48" s="1" customFormat="1" spans="2:30">
+      <c r="B48"/>
+      <c r="C48"/>
+      <c r="E48" t="s">
+        <v>160</v>
+      </c>
+      <c r="F48"/>
+      <c r="G48"/>
+      <c r="H48"/>
+      <c r="I48"/>
+      <c r="J48"/>
+      <c r="K48"/>
+      <c r="L48"/>
+      <c r="M48"/>
+      <c r="N48"/>
+      <c r="O48"/>
+      <c r="P48"/>
+      <c r="Q48"/>
+      <c r="R48"/>
+      <c r="S48"/>
+      <c r="T48"/>
+      <c r="U48"/>
+      <c r="V48"/>
+      <c r="W48"/>
+      <c r="X48"/>
+      <c r="Y48"/>
+      <c r="Z48"/>
+      <c r="AA48"/>
+      <c r="AB48"/>
+      <c r="AC48"/>
+      <c r="AD48"/>
+    </row>
+    <row r="49" s="1" customFormat="1" spans="2:30">
+      <c r="B49"/>
+      <c r="C49" t="s">
+        <v>161</v>
+      </c>
+      <c r="E49"/>
+      <c r="F49"/>
+      <c r="G49"/>
+      <c r="H49"/>
+      <c r="I49"/>
+      <c r="J49"/>
+      <c r="K49"/>
+      <c r="L49"/>
+      <c r="M49"/>
+      <c r="N49"/>
+      <c r="O49"/>
+      <c r="P49"/>
+      <c r="Q49"/>
+      <c r="R49"/>
+      <c r="S49"/>
+      <c r="T49"/>
+      <c r="U49"/>
+      <c r="V49"/>
+      <c r="W49"/>
+      <c r="X49"/>
+      <c r="Y49"/>
+      <c r="Z49"/>
+      <c r="AA49"/>
+      <c r="AB49"/>
+      <c r="AC49"/>
+      <c r="AD49"/>
+    </row>
+    <row r="50" s="1" customFormat="1" spans="2:30">
+      <c r="B50"/>
+      <c r="C50"/>
+      <c r="D50" t="s">
+        <v>162</v>
+      </c>
+      <c r="E50"/>
+      <c r="F50"/>
+      <c r="G50"/>
+      <c r="H50"/>
+      <c r="I50"/>
+      <c r="J50"/>
+      <c r="K50"/>
+      <c r="L50"/>
+      <c r="M50"/>
+      <c r="N50"/>
+      <c r="O50"/>
+      <c r="P50"/>
+      <c r="Q50"/>
+      <c r="R50"/>
+      <c r="S50"/>
+      <c r="T50"/>
+      <c r="U50"/>
+      <c r="V50"/>
+      <c r="W50"/>
+      <c r="X50"/>
+      <c r="Y50"/>
+      <c r="Z50"/>
+      <c r="AA50"/>
+      <c r="AB50"/>
+      <c r="AC50"/>
+      <c r="AD50"/>
+    </row>
+    <row r="51" s="1" customFormat="1" spans="2:30">
+      <c r="B51"/>
+      <c r="C51"/>
+      <c r="D51" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F51"/>
+      <c r="G51"/>
+      <c r="H51"/>
+      <c r="I51"/>
+      <c r="J51"/>
+      <c r="K51"/>
+      <c r="L51"/>
+      <c r="M51"/>
+      <c r="N51"/>
+      <c r="O51"/>
+      <c r="P51"/>
+      <c r="Q51"/>
+      <c r="R51"/>
+      <c r="S51"/>
+      <c r="T51"/>
+      <c r="U51"/>
+      <c r="V51"/>
+      <c r="W51"/>
+      <c r="X51"/>
+      <c r="Y51"/>
+      <c r="Z51"/>
+      <c r="AA51"/>
+      <c r="AB51"/>
+      <c r="AC51"/>
+      <c r="AD51"/>
+    </row>
+    <row r="52" s="1" customFormat="1" spans="2:30">
+      <c r="B52"/>
+      <c r="C52"/>
+      <c r="D52" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F52"/>
+      <c r="G52"/>
+      <c r="H52"/>
+      <c r="I52"/>
+      <c r="J52"/>
+      <c r="K52"/>
+      <c r="L52"/>
+      <c r="M52"/>
+      <c r="N52"/>
+      <c r="O52"/>
+      <c r="P52"/>
+      <c r="Q52"/>
+      <c r="R52"/>
+      <c r="S52"/>
+      <c r="T52"/>
+      <c r="U52"/>
+      <c r="V52"/>
+      <c r="W52"/>
+      <c r="X52"/>
+      <c r="Y52"/>
+      <c r="Z52"/>
+      <c r="AA52"/>
+      <c r="AB52"/>
+      <c r="AC52"/>
+      <c r="AD52"/>
+    </row>
+    <row r="53" s="1" customFormat="1" spans="2:30">
+      <c r="B53"/>
+      <c r="C53"/>
+      <c r="D53" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E53"/>
+      <c r="F53"/>
+      <c r="G53"/>
+      <c r="H53"/>
+      <c r="I53"/>
+      <c r="J53"/>
+      <c r="K53"/>
+      <c r="L53"/>
+      <c r="M53"/>
+      <c r="N53"/>
+      <c r="O53"/>
+      <c r="P53"/>
+      <c r="Q53"/>
+      <c r="R53"/>
+      <c r="S53"/>
+      <c r="T53"/>
+      <c r="U53"/>
+      <c r="V53"/>
+      <c r="W53"/>
+      <c r="X53"/>
+      <c r="Y53"/>
+      <c r="Z53"/>
+      <c r="AA53"/>
+      <c r="AB53"/>
+      <c r="AC53"/>
+      <c r="AD53"/>
+    </row>
+    <row r="54" s="1" customFormat="1" spans="2:30">
+      <c r="B54"/>
+      <c r="C54"/>
+      <c r="D54" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E54"/>
+      <c r="F54"/>
+      <c r="G54"/>
+      <c r="H54"/>
+      <c r="I54"/>
+      <c r="J54"/>
+      <c r="K54"/>
+      <c r="L54"/>
+      <c r="M54"/>
+      <c r="N54"/>
+      <c r="O54"/>
+      <c r="P54"/>
+      <c r="Q54"/>
+      <c r="R54"/>
+      <c r="S54"/>
+      <c r="T54"/>
+      <c r="U54"/>
+      <c r="V54"/>
+      <c r="W54"/>
+      <c r="X54"/>
+      <c r="Y54"/>
+      <c r="Z54"/>
+      <c r="AA54"/>
+      <c r="AB54"/>
+      <c r="AC54"/>
+      <c r="AD54"/>
+    </row>
+    <row r="55" s="1" customFormat="1" spans="2:30">
+      <c r="B55"/>
+      <c r="C55"/>
+      <c r="D55"/>
+      <c r="E55"/>
+      <c r="F55"/>
+      <c r="G55"/>
+      <c r="H55"/>
+      <c r="I55"/>
+      <c r="J55"/>
+      <c r="K55"/>
+      <c r="L55"/>
+      <c r="M55"/>
+      <c r="N55"/>
+      <c r="O55"/>
+      <c r="P55"/>
+      <c r="Q55"/>
+      <c r="R55"/>
+      <c r="S55"/>
+      <c r="T55"/>
+      <c r="U55"/>
+      <c r="V55"/>
+      <c r="W55"/>
+      <c r="X55"/>
+      <c r="Y55"/>
+      <c r="Z55"/>
+      <c r="AA55"/>
+      <c r="AB55"/>
+      <c r="AC55"/>
+      <c r="AD55"/>
+    </row>
+    <row r="56" s="1" customFormat="1" spans="2:33">
+      <c r="B56"/>
+      <c r="C56"/>
+      <c r="D56"/>
+      <c r="E56"/>
+      <c r="F56"/>
+      <c r="G56"/>
+      <c r="H56"/>
+      <c r="I56"/>
+      <c r="J56"/>
+      <c r="K56"/>
+      <c r="L56"/>
+      <c r="M56"/>
+      <c r="N56"/>
+      <c r="O56"/>
+      <c r="P56"/>
+      <c r="Q56"/>
+      <c r="R56"/>
+      <c r="S56"/>
+      <c r="T56"/>
+      <c r="U56"/>
+      <c r="V56"/>
+      <c r="W56"/>
+      <c r="X56"/>
+      <c r="Y56"/>
+      <c r="Z56"/>
+      <c r="AA56"/>
+      <c r="AB56"/>
+      <c r="AC56"/>
+      <c r="AD56"/>
+      <c r="AE56"/>
+      <c r="AF56"/>
+      <c r="AG56"/>
+    </row>
+    <row r="57" s="1" customFormat="1" spans="2:33">
+      <c r="B57"/>
+      <c r="C57"/>
+      <c r="D57"/>
+      <c r="E57"/>
+      <c r="F57"/>
+      <c r="G57"/>
+      <c r="H57"/>
+      <c r="I57"/>
+      <c r="J57"/>
+      <c r="K57"/>
+      <c r="L57"/>
+      <c r="M57"/>
+      <c r="N57"/>
+      <c r="O57"/>
+      <c r="P57"/>
+      <c r="Q57"/>
+      <c r="R57"/>
+      <c r="S57"/>
+      <c r="T57"/>
+      <c r="U57"/>
+      <c r="V57"/>
+      <c r="W57"/>
+      <c r="X57"/>
+      <c r="Y57"/>
+      <c r="Z57"/>
+      <c r="AA57"/>
+      <c r="AB57"/>
+      <c r="AC57"/>
+      <c r="AD57"/>
+      <c r="AE57"/>
+      <c r="AF57"/>
+      <c r="AG57"/>
+    </row>
+    <row r="58" s="1" customFormat="1" spans="2:30">
+      <c r="B58"/>
+      <c r="C58"/>
+      <c r="D58"/>
+      <c r="E58"/>
+      <c r="F58"/>
+      <c r="G58"/>
+      <c r="H58"/>
+      <c r="I58"/>
+      <c r="J58"/>
+      <c r="K58"/>
+      <c r="L58"/>
+      <c r="M58"/>
+      <c r="N58"/>
+      <c r="O58"/>
+      <c r="P58"/>
+      <c r="Q58"/>
+      <c r="R58"/>
+      <c r="S58"/>
+      <c r="T58"/>
+      <c r="U58"/>
+      <c r="V58"/>
+      <c r="W58"/>
+      <c r="X58"/>
+      <c r="Y58"/>
+      <c r="Z58"/>
+      <c r="AA58"/>
+      <c r="AB58"/>
+      <c r="AC58"/>
+      <c r="AD58"/>
+    </row>
+    <row r="59" s="1" customFormat="1" spans="2:30">
+      <c r="B59"/>
+      <c r="C59"/>
+      <c r="D59"/>
+      <c r="E59"/>
+      <c r="F59"/>
+      <c r="G59"/>
+      <c r="H59"/>
+      <c r="I59"/>
+      <c r="J59"/>
+      <c r="K59"/>
+      <c r="L59"/>
+      <c r="M59"/>
+      <c r="N59"/>
+      <c r="O59"/>
+      <c r="P59"/>
+      <c r="Q59"/>
+      <c r="R59"/>
+      <c r="S59"/>
+      <c r="T59"/>
+      <c r="U59"/>
+      <c r="V59"/>
+      <c r="W59"/>
+      <c r="X59"/>
+      <c r="Y59"/>
+      <c r="Z59"/>
+      <c r="AA59"/>
+      <c r="AB59"/>
+      <c r="AC59"/>
+      <c r="AD59"/>
+    </row>
+    <row r="60" s="1" customFormat="1" spans="2:30">
+      <c r="B60"/>
+      <c r="C60"/>
+      <c r="D60"/>
+      <c r="E60"/>
+      <c r="F60"/>
+      <c r="G60"/>
+      <c r="H60"/>
+      <c r="I60"/>
+      <c r="J60"/>
+      <c r="K60"/>
+      <c r="L60"/>
+      <c r="M60"/>
+      <c r="N60"/>
+      <c r="O60"/>
+      <c r="P60"/>
+      <c r="Q60"/>
+      <c r="R60"/>
+      <c r="S60"/>
+      <c r="T60"/>
+      <c r="U60"/>
+      <c r="V60"/>
+      <c r="W60"/>
+      <c r="X60"/>
+      <c r="Y60"/>
+      <c r="Z60"/>
+      <c r="AA60"/>
+      <c r="AB60"/>
+      <c r="AC60"/>
+      <c r="AD60"/>
+    </row>
+    <row r="61" s="1" customFormat="1" spans="2:30">
+      <c r="B61"/>
+      <c r="C61"/>
+      <c r="D61"/>
+      <c r="E61"/>
+      <c r="F61"/>
+      <c r="G61"/>
+      <c r="H61"/>
+      <c r="I61"/>
+      <c r="J61"/>
+      <c r="K61"/>
+      <c r="L61"/>
+      <c r="M61"/>
+      <c r="N61"/>
+      <c r="O61"/>
+      <c r="P61"/>
+      <c r="Q61"/>
+      <c r="R61"/>
+      <c r="S61"/>
+      <c r="T61"/>
+      <c r="U61"/>
+      <c r="V61"/>
+      <c r="W61"/>
+      <c r="X61"/>
+      <c r="Y61"/>
+      <c r="Z61"/>
+      <c r="AA61"/>
+      <c r="AB61"/>
+      <c r="AC61"/>
+      <c r="AD61"/>
+    </row>
+    <row r="62" s="1" customFormat="1" spans="2:30">
+      <c r="B62"/>
+      <c r="C62"/>
+      <c r="D62"/>
+      <c r="E62"/>
+      <c r="F62"/>
+      <c r="G62"/>
+      <c r="H62"/>
+      <c r="I62"/>
+      <c r="J62"/>
+      <c r="K62"/>
+      <c r="L62"/>
+      <c r="M62"/>
+      <c r="N62"/>
+      <c r="O62"/>
+      <c r="P62"/>
+      <c r="Q62"/>
+      <c r="R62"/>
+      <c r="S62"/>
+      <c r="T62"/>
+      <c r="U62"/>
+      <c r="V62"/>
+      <c r="W62"/>
+      <c r="X62"/>
+      <c r="Y62"/>
+      <c r="Z62"/>
+      <c r="AA62"/>
+      <c r="AB62"/>
+      <c r="AC62"/>
+      <c r="AD62"/>
+    </row>
+    <row r="63" s="1" customFormat="1" spans="2:30">
+      <c r="B63"/>
+      <c r="C63"/>
+      <c r="D63"/>
+      <c r="E63"/>
+      <c r="F63"/>
+      <c r="G63"/>
+      <c r="H63"/>
+      <c r="I63"/>
+      <c r="J63"/>
+      <c r="K63"/>
+      <c r="L63"/>
+      <c r="M63"/>
+      <c r="N63"/>
+      <c r="O63"/>
+      <c r="X63"/>
+      <c r="Y63"/>
+      <c r="Z63"/>
+      <c r="AA63"/>
+      <c r="AB63"/>
+      <c r="AC63"/>
+      <c r="AD63"/>
+    </row>
+    <row r="64" s="1" customFormat="1" spans="2:30">
+      <c r="B64"/>
+      <c r="C64"/>
+      <c r="D64"/>
+      <c r="E64"/>
+      <c r="F64"/>
+      <c r="G64"/>
+      <c r="H64"/>
+      <c r="I64"/>
+      <c r="J64"/>
+      <c r="K64"/>
+      <c r="L64"/>
+      <c r="M64"/>
+      <c r="N64"/>
+      <c r="O64"/>
+      <c r="X64"/>
+      <c r="Y64"/>
+      <c r="Z64"/>
+      <c r="AA64"/>
+      <c r="AB64"/>
+      <c r="AC64"/>
+      <c r="AD64"/>
+    </row>
+    <row r="65" s="1" customFormat="1" spans="2:30">
+      <c r="B65"/>
+      <c r="C65"/>
+      <c r="D65"/>
+      <c r="E65"/>
+      <c r="F65"/>
+      <c r="G65"/>
+      <c r="H65"/>
+      <c r="I65"/>
+      <c r="J65"/>
+      <c r="K65"/>
+      <c r="L65"/>
+      <c r="M65"/>
+      <c r="N65"/>
+      <c r="O65"/>
+      <c r="P65"/>
+      <c r="Q65"/>
+      <c r="R65"/>
+      <c r="S65"/>
+      <c r="T65"/>
+      <c r="U65"/>
+      <c r="V65"/>
+      <c r="W65"/>
+      <c r="X65"/>
+      <c r="Y65"/>
+      <c r="Z65"/>
+      <c r="AA65"/>
+      <c r="AB65"/>
+      <c r="AC65"/>
+      <c r="AD65"/>
+    </row>
+    <row r="66" s="1" customFormat="1" spans="2:30">
+      <c r="B66"/>
+      <c r="C66"/>
+      <c r="D66"/>
+      <c r="E66" s="1"/>
+      <c r="F66"/>
+      <c r="G66"/>
+      <c r="H66"/>
+      <c r="I66"/>
+      <c r="J66"/>
+      <c r="K66"/>
+      <c r="L66"/>
+      <c r="M66"/>
+      <c r="N66"/>
+      <c r="O66"/>
+      <c r="P66"/>
+      <c r="Q66"/>
+      <c r="R66"/>
+      <c r="S66"/>
+      <c r="T66"/>
+      <c r="U66"/>
+      <c r="V66"/>
+      <c r="W66"/>
+      <c r="X66"/>
+      <c r="Y66"/>
+      <c r="Z66"/>
+      <c r="AA66"/>
+      <c r="AB66"/>
+      <c r="AC66"/>
+      <c r="AD66"/>
+    </row>
+    <row r="67" s="1" customFormat="1" spans="2:30">
+      <c r="B67"/>
+      <c r="C67"/>
+      <c r="D67"/>
+      <c r="F67"/>
+      <c r="G67"/>
+      <c r="H67"/>
+      <c r="I67"/>
+      <c r="J67"/>
+      <c r="K67"/>
+      <c r="L67"/>
+      <c r="M67"/>
+      <c r="N67"/>
+      <c r="O67"/>
+      <c r="P67"/>
+      <c r="Q67"/>
+      <c r="R67"/>
+      <c r="S67"/>
+      <c r="T67"/>
+      <c r="U67"/>
+      <c r="V67"/>
+      <c r="W67"/>
+      <c r="X67"/>
+      <c r="Y67"/>
+      <c r="Z67"/>
+      <c r="AA67"/>
+      <c r="AB67"/>
+      <c r="AC67"/>
+      <c r="AD67"/>
+    </row>
+    <row r="68" s="1" customFormat="1" spans="2:30">
+      <c r="B68"/>
+      <c r="C68"/>
+      <c r="D68"/>
+      <c r="F68"/>
+      <c r="G68"/>
+      <c r="H68"/>
+      <c r="I68"/>
+      <c r="J68"/>
+      <c r="K68"/>
+      <c r="L68"/>
+      <c r="M68"/>
+      <c r="N68"/>
+      <c r="O68"/>
+      <c r="P68"/>
+      <c r="Q68"/>
+      <c r="R68"/>
+      <c r="S68"/>
+      <c r="T68"/>
+      <c r="U68"/>
+      <c r="V68"/>
+      <c r="W68"/>
+      <c r="X68"/>
+      <c r="Y68"/>
+      <c r="Z68"/>
+      <c r="AA68"/>
+      <c r="AB68"/>
+      <c r="AC68"/>
+      <c r="AD68"/>
+    </row>
+    <row r="69" s="1" customFormat="1" spans="2:30">
+      <c r="B69"/>
+      <c r="C69"/>
+      <c r="D69"/>
+      <c r="F69"/>
+      <c r="G69"/>
+      <c r="H69"/>
+      <c r="I69"/>
+      <c r="J69"/>
+      <c r="K69"/>
+      <c r="L69"/>
+      <c r="M69"/>
+      <c r="N69"/>
+      <c r="O69"/>
+      <c r="P69"/>
+      <c r="Q69"/>
+      <c r="R69"/>
+      <c r="S69"/>
+      <c r="T69"/>
+      <c r="U69"/>
+      <c r="V69"/>
+      <c r="W69"/>
+      <c r="X69"/>
+      <c r="Y69"/>
+      <c r="Z69"/>
+      <c r="AA69"/>
+      <c r="AB69"/>
+      <c r="AC69"/>
+      <c r="AD69"/>
+    </row>
+    <row r="70" s="1" customFormat="1" spans="2:30">
+      <c r="B70"/>
+      <c r="C70"/>
+      <c r="D70"/>
+      <c r="E70"/>
+      <c r="F70"/>
+      <c r="G70"/>
+      <c r="H70"/>
+      <c r="I70"/>
+      <c r="J70"/>
+      <c r="K70"/>
+      <c r="L70"/>
+      <c r="M70"/>
+      <c r="N70"/>
+      <c r="O70"/>
+      <c r="P70"/>
+      <c r="Q70"/>
+      <c r="R70"/>
+      <c r="S70"/>
+      <c r="T70"/>
+      <c r="U70"/>
+      <c r="V70"/>
+      <c r="W70"/>
+      <c r="X70"/>
+      <c r="Y70"/>
+      <c r="Z70"/>
+      <c r="AA70"/>
+      <c r="AB70"/>
+      <c r="AC70"/>
+      <c r="AD70"/>
+    </row>
+    <row r="71" s="1" customFormat="1" spans="2:30">
+      <c r="B71"/>
+      <c r="C71"/>
+      <c r="D71"/>
+      <c r="E71"/>
+      <c r="F71"/>
+      <c r="G71"/>
+      <c r="H71"/>
+      <c r="I71"/>
+      <c r="J71"/>
+      <c r="K71"/>
+      <c r="L71"/>
+      <c r="M71"/>
+      <c r="N71"/>
+      <c r="O71"/>
+      <c r="P71"/>
+      <c r="Q71"/>
+      <c r="R71"/>
+      <c r="S71"/>
+      <c r="T71"/>
+      <c r="U71"/>
+      <c r="V71"/>
+      <c r="W71"/>
+      <c r="X71"/>
+      <c r="Y71"/>
+      <c r="Z71"/>
+      <c r="AA71"/>
+      <c r="AB71"/>
+      <c r="AC71"/>
+      <c r="AD71"/>
+    </row>
+    <row r="72" s="1" customFormat="1" spans="2:30">
+      <c r="B72"/>
+      <c r="C72"/>
+      <c r="D72"/>
+      <c r="E72"/>
+      <c r="F72"/>
+      <c r="G72"/>
+      <c r="H72"/>
+      <c r="I72"/>
+      <c r="J72"/>
+      <c r="K72"/>
+      <c r="L72"/>
+      <c r="M72"/>
+      <c r="N72"/>
+      <c r="O72"/>
+      <c r="P72"/>
+      <c r="Q72"/>
+      <c r="R72"/>
+      <c r="S72"/>
+      <c r="T72"/>
+      <c r="U72"/>
+      <c r="V72"/>
+      <c r="W72"/>
+      <c r="X72"/>
+      <c r="Y72"/>
+      <c r="Z72"/>
+      <c r="AA72"/>
+      <c r="AB72"/>
+      <c r="AC72"/>
+      <c r="AD72"/>
+    </row>
+    <row r="73" s="1" customFormat="1" spans="2:30">
+      <c r="B73"/>
+      <c r="C73"/>
+      <c r="D73"/>
+      <c r="E73"/>
+      <c r="F73"/>
+      <c r="G73"/>
+      <c r="H73"/>
+      <c r="I73"/>
+      <c r="J73"/>
+      <c r="K73"/>
+      <c r="L73"/>
+      <c r="M73"/>
+      <c r="N73"/>
+      <c r="O73"/>
+      <c r="P73"/>
+      <c r="Q73"/>
+      <c r="R73"/>
+      <c r="S73"/>
+      <c r="T73"/>
+      <c r="U73"/>
+      <c r="V73"/>
+      <c r="W73"/>
+      <c r="X73"/>
+      <c r="Y73"/>
+      <c r="Z73"/>
+      <c r="AA73"/>
+      <c r="AB73"/>
+      <c r="AC73"/>
+      <c r="AD73"/>
+    </row>
+    <row r="74" s="1" customFormat="1" spans="2:30">
+      <c r="B74"/>
+      <c r="C74"/>
+      <c r="D74"/>
+      <c r="E74"/>
+      <c r="F74"/>
+      <c r="G74"/>
+      <c r="H74"/>
+      <c r="I74"/>
+      <c r="J74"/>
+      <c r="K74"/>
+      <c r="L74"/>
+      <c r="M74"/>
+      <c r="N74"/>
+      <c r="O74"/>
+      <c r="P74"/>
+      <c r="Q74"/>
+      <c r="R74"/>
+      <c r="S74"/>
+      <c r="T74"/>
+      <c r="U74"/>
+      <c r="V74"/>
+      <c r="W74"/>
+      <c r="X74"/>
+      <c r="Y74"/>
+      <c r="Z74"/>
+      <c r="AA74"/>
+      <c r="AB74"/>
+      <c r="AC74"/>
+      <c r="AD74"/>
+    </row>
+    <row r="75" s="1" customFormat="1" spans="2:30">
+      <c r="B75"/>
+      <c r="C75"/>
+      <c r="D75"/>
+      <c r="E75"/>
+      <c r="F75"/>
+      <c r="G75"/>
+      <c r="H75"/>
+      <c r="I75"/>
+      <c r="J75"/>
+      <c r="K75"/>
+      <c r="L75"/>
+      <c r="M75"/>
+      <c r="N75"/>
+      <c r="O75"/>
+      <c r="P75"/>
+      <c r="Q75"/>
+      <c r="R75"/>
+      <c r="S75"/>
+      <c r="T75"/>
+      <c r="U75"/>
+      <c r="V75"/>
+      <c r="W75"/>
+      <c r="X75"/>
+      <c r="Y75"/>
+      <c r="Z75"/>
+      <c r="AA75"/>
+      <c r="AB75"/>
+      <c r="AC75"/>
+      <c r="AD75"/>
+    </row>
+    <row r="76" s="1" customFormat="1" spans="2:30">
+      <c r="B76"/>
+      <c r="C76"/>
+      <c r="D76"/>
+      <c r="E76" s="1"/>
+      <c r="F76"/>
+      <c r="G76"/>
+      <c r="H76"/>
+      <c r="I76"/>
+      <c r="J76"/>
+      <c r="K76"/>
+      <c r="L76"/>
+      <c r="M76"/>
+      <c r="N76"/>
+      <c r="O76"/>
+      <c r="P76"/>
+      <c r="Q76"/>
+      <c r="R76"/>
+      <c r="S76"/>
+      <c r="T76"/>
+      <c r="U76"/>
+      <c r="V76"/>
+      <c r="W76"/>
+      <c r="X76"/>
+      <c r="Y76"/>
+      <c r="Z76"/>
+      <c r="AA76"/>
+      <c r="AB76"/>
+      <c r="AC76"/>
+      <c r="AD76"/>
+    </row>
+    <row r="77" s="1" customFormat="1" spans="2:30">
+      <c r="B77"/>
+      <c r="C77"/>
+      <c r="D77"/>
+      <c r="F77"/>
+      <c r="G77"/>
+      <c r="H77"/>
+      <c r="I77"/>
+      <c r="J77"/>
+      <c r="K77"/>
+      <c r="L77"/>
+      <c r="M77"/>
+      <c r="N77"/>
+      <c r="O77"/>
+      <c r="P77"/>
+      <c r="Q77"/>
+      <c r="R77"/>
+      <c r="S77"/>
+      <c r="T77"/>
+      <c r="U77"/>
+      <c r="V77"/>
+      <c r="W77"/>
+      <c r="X77"/>
+      <c r="Y77"/>
+      <c r="Z77"/>
+      <c r="AA77"/>
+      <c r="AB77"/>
+      <c r="AC77"/>
+      <c r="AD77"/>
+    </row>
+    <row r="78" s="1" customFormat="1" spans="2:30">
+      <c r="B78"/>
+      <c r="C78"/>
+      <c r="D78"/>
+      <c r="F78"/>
+      <c r="G78"/>
+      <c r="H78"/>
+      <c r="I78"/>
+      <c r="J78"/>
+      <c r="K78"/>
+      <c r="L78"/>
+      <c r="M78"/>
+      <c r="N78"/>
+      <c r="O78"/>
+      <c r="P78"/>
+      <c r="Q78"/>
+      <c r="R78"/>
+      <c r="S78"/>
+      <c r="T78"/>
+      <c r="U78"/>
+      <c r="V78"/>
+      <c r="W78"/>
+      <c r="X78"/>
+      <c r="Y78"/>
+      <c r="Z78"/>
+      <c r="AA78"/>
+      <c r="AB78"/>
+      <c r="AC78"/>
+      <c r="AD78"/>
+    </row>
+    <row r="79" s="1" customFormat="1" spans="2:30">
+      <c r="B79"/>
+      <c r="C79"/>
+      <c r="D79"/>
+      <c r="E79"/>
+      <c r="F79"/>
+      <c r="G79"/>
+      <c r="H79"/>
+      <c r="I79"/>
+      <c r="J79"/>
+      <c r="K79"/>
+      <c r="L79"/>
+      <c r="M79"/>
+      <c r="N79"/>
+      <c r="O79"/>
+      <c r="P79"/>
+      <c r="Q79"/>
+      <c r="R79"/>
+      <c r="S79"/>
+      <c r="T79"/>
+      <c r="U79"/>
+      <c r="V79"/>
+      <c r="W79"/>
+      <c r="X79"/>
+      <c r="Y79"/>
+      <c r="Z79"/>
+      <c r="AA79"/>
+      <c r="AB79"/>
+      <c r="AC79"/>
+      <c r="AD79"/>
+    </row>
+    <row r="80" s="1" customFormat="1" spans="2:30">
+      <c r="B80"/>
+      <c r="C80"/>
+      <c r="D80"/>
+      <c r="E80"/>
+      <c r="F80"/>
+      <c r="G80"/>
+      <c r="H80"/>
+      <c r="I80"/>
+      <c r="J80"/>
+      <c r="K80"/>
+      <c r="L80"/>
+      <c r="M80"/>
+      <c r="N80"/>
+      <c r="O80"/>
+      <c r="P80"/>
+      <c r="Q80"/>
+      <c r="R80"/>
+      <c r="S80"/>
+      <c r="T80"/>
+      <c r="U80"/>
+      <c r="V80"/>
+      <c r="W80"/>
+      <c r="X80"/>
+      <c r="Y80"/>
+      <c r="Z80"/>
+      <c r="AA80"/>
+      <c r="AB80"/>
+      <c r="AC80"/>
+      <c r="AD80"/>
+    </row>
+    <row r="81" s="1" customFormat="1" spans="2:30">
+      <c r="B81"/>
+      <c r="C81"/>
+      <c r="D81"/>
+      <c r="E81"/>
+      <c r="F81"/>
+      <c r="G81"/>
+      <c r="H81"/>
+      <c r="I81"/>
+      <c r="J81"/>
+      <c r="K81"/>
+      <c r="L81"/>
+      <c r="M81"/>
+      <c r="N81"/>
+      <c r="O81"/>
+      <c r="P81"/>
+      <c r="Q81"/>
+      <c r="R81"/>
+      <c r="S81"/>
+      <c r="T81"/>
+      <c r="U81"/>
+      <c r="V81"/>
+      <c r="W81"/>
+      <c r="X81"/>
+      <c r="Y81"/>
+      <c r="Z81"/>
+      <c r="AA81"/>
+      <c r="AB81"/>
+      <c r="AC81"/>
+      <c r="AD81"/>
+    </row>
+    <row r="82" s="1" customFormat="1" spans="2:30">
+      <c r="B82"/>
+      <c r="C82"/>
+      <c r="D82"/>
+      <c r="E82"/>
+      <c r="F82"/>
+      <c r="G82"/>
+      <c r="H82"/>
+      <c r="I82"/>
+      <c r="J82"/>
+      <c r="K82"/>
+      <c r="L82"/>
+      <c r="M82"/>
+      <c r="N82"/>
+      <c r="O82"/>
+      <c r="P82"/>
+      <c r="Q82"/>
+      <c r="R82"/>
+      <c r="S82"/>
+      <c r="T82"/>
+      <c r="U82"/>
+      <c r="V82"/>
+      <c r="W82"/>
+      <c r="X82"/>
+      <c r="Y82"/>
+      <c r="Z82"/>
+      <c r="AA82"/>
+      <c r="AB82"/>
+      <c r="AC82"/>
+      <c r="AD82"/>
+    </row>
+    <row r="83" s="1" customFormat="1" spans="2:30">
+      <c r="B83"/>
+      <c r="C83"/>
+      <c r="D83"/>
+      <c r="E83"/>
+      <c r="F83"/>
+      <c r="G83"/>
+      <c r="H83"/>
+      <c r="I83"/>
+      <c r="J83"/>
+      <c r="K83"/>
+      <c r="L83"/>
+      <c r="M83"/>
+      <c r="N83"/>
+      <c r="O83"/>
+      <c r="P83"/>
+      <c r="Q83"/>
+      <c r="R83"/>
+      <c r="S83"/>
+      <c r="T83"/>
+      <c r="U83"/>
+      <c r="V83"/>
+      <c r="W83"/>
+      <c r="X83"/>
+      <c r="Y83"/>
+      <c r="Z83"/>
+      <c r="AA83"/>
+      <c r="AB83"/>
+      <c r="AC83"/>
+      <c r="AD83"/>
+    </row>
+    <row r="84" s="1" customFormat="1" spans="2:30">
+      <c r="B84"/>
+      <c r="C84"/>
+      <c r="D84"/>
+      <c r="E84"/>
+      <c r="F84"/>
+      <c r="G84"/>
+      <c r="H84"/>
+      <c r="I84"/>
+      <c r="J84"/>
+      <c r="K84"/>
+      <c r="L84"/>
+      <c r="M84"/>
+      <c r="N84"/>
+      <c r="O84"/>
+      <c r="P84"/>
+      <c r="Q84"/>
+      <c r="R84"/>
+      <c r="S84"/>
+      <c r="T84"/>
+      <c r="U84"/>
+      <c r="V84"/>
+      <c r="W84"/>
+      <c r="X84"/>
+      <c r="Y84"/>
+      <c r="Z84"/>
+      <c r="AA84"/>
+      <c r="AB84"/>
+      <c r="AC84"/>
+      <c r="AD84"/>
+    </row>
+    <row r="85" s="1" customFormat="1" spans="2:30">
+      <c r="B85"/>
+      <c r="C85"/>
+      <c r="D85"/>
+      <c r="E85"/>
+      <c r="F85"/>
+      <c r="G85"/>
+      <c r="H85"/>
+      <c r="I85"/>
+      <c r="J85"/>
+      <c r="K85"/>
+      <c r="L85"/>
+      <c r="M85"/>
+      <c r="N85"/>
+      <c r="O85"/>
+      <c r="P85"/>
+      <c r="Q85"/>
+      <c r="R85"/>
+      <c r="S85"/>
+      <c r="T85"/>
+      <c r="U85"/>
+      <c r="V85"/>
+      <c r="W85"/>
+      <c r="X85"/>
+      <c r="Y85"/>
+      <c r="Z85"/>
+      <c r="AA85"/>
+      <c r="AB85"/>
+      <c r="AC85"/>
+      <c r="AD85"/>
+    </row>
+    <row r="86" s="1" customFormat="1" spans="2:30">
+      <c r="B86"/>
+      <c r="C86"/>
+      <c r="D86"/>
+      <c r="E86"/>
+      <c r="F86"/>
+      <c r="G86"/>
+      <c r="H86"/>
+      <c r="I86"/>
+      <c r="J86"/>
+      <c r="K86"/>
+      <c r="L86"/>
+      <c r="M86"/>
+      <c r="N86"/>
+      <c r="O86"/>
+      <c r="P86"/>
+      <c r="Q86"/>
+      <c r="R86"/>
+      <c r="S86"/>
+      <c r="T86"/>
+      <c r="U86"/>
+      <c r="V86"/>
+      <c r="W86"/>
+      <c r="X86"/>
+      <c r="Y86"/>
+      <c r="Z86"/>
+      <c r="AA86"/>
+      <c r="AB86"/>
+      <c r="AC86"/>
+      <c r="AD86"/>
+    </row>
+    <row r="87" s="1" customFormat="1" spans="2:30">
+      <c r="B87"/>
+      <c r="C87"/>
+      <c r="D87"/>
+      <c r="E87" s="2"/>
+      <c r="F87"/>
+      <c r="G87"/>
+      <c r="H87"/>
+      <c r="I87" s="6"/>
+      <c r="J87"/>
+      <c r="K87"/>
+      <c r="L87"/>
+      <c r="M87"/>
+      <c r="N87"/>
+      <c r="O87"/>
+      <c r="P87"/>
+      <c r="Q87"/>
+      <c r="R87"/>
+      <c r="S87"/>
+      <c r="T87"/>
+      <c r="U87"/>
+      <c r="V87"/>
+      <c r="W87"/>
+      <c r="X87"/>
+      <c r="Y87"/>
+      <c r="Z87"/>
+      <c r="AA87"/>
+      <c r="AB87"/>
+      <c r="AC87"/>
+      <c r="AD87"/>
+    </row>
+    <row r="88" s="1" customFormat="1" spans="5:9">
+      <c r="E88" s="2"/>
+      <c r="I88" s="6"/>
+    </row>
+    <row r="111" s="1" customFormat="1" spans="27:33">
+      <c r="AA111"/>
+      <c r="AB111"/>
+      <c r="AC111"/>
+      <c r="AD111"/>
+      <c r="AE111"/>
+      <c r="AF111"/>
+      <c r="AG111"/>
+    </row>
+    <row r="112" s="1" customFormat="1" spans="27:33">
+      <c r="AA112"/>
+      <c r="AB112"/>
+      <c r="AC112"/>
+      <c r="AD112"/>
+      <c r="AE112"/>
+      <c r="AF112"/>
+      <c r="AG112"/>
+    </row>
+    <row r="116" s="1" customFormat="1" spans="4:4">
+      <c r="D116" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AG116"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="16384" width="4.875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="22.5" spans="9:31">
+      <c r="I1" s="4"/>
+      <c r="J1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="V1" s="2"/>
+      <c r="W1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE1" s="2"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="23:27">
+      <c r="W2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA2" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:27">
+      <c r="A3" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="X3" s="2"/>
+      <c r="AA3" s="5"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="2:31">
+      <c r="B4" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="V4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="AE4" s="2"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="3:31">
+      <c r="C5" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="V5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="AE5" s="2"/>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="3:27">
+      <c r="C6" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="X6" s="2"/>
+      <c r="AA6" s="5"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="4:4">
+      <c r="D7" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="3:3">
+      <c r="C8" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="2:2">
+      <c r="B9" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="3:3">
+      <c r="C10" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="3:3">
+      <c r="C11" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="4:4">
+      <c r="D12" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="3:3">
+      <c r="C13" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="2:4">
+      <c r="B14" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="2:4">
+      <c r="B15" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="3:3">
+      <c r="C16" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="2:3">
+      <c r="B17" s="3"/>
+      <c r="C17" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="2:3">
+      <c r="B18" s="3"/>
+      <c r="C18" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="3:3">
+      <c r="C19" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="2:2">
+      <c r="B20" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="3:3">
+      <c r="C21" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="3:3">
+      <c r="C22" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="4:4">
+      <c r="D23" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="4:4">
+      <c r="D24" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="3:3">
+      <c r="C25" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="4:4">
+      <c r="D26" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="2:30">
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
+      <c r="O27"/>
+      <c r="P27"/>
+      <c r="Q27"/>
+      <c r="R27"/>
+      <c r="S27"/>
+      <c r="T27"/>
+      <c r="U27"/>
+      <c r="V27"/>
+      <c r="W27"/>
+      <c r="X27"/>
+      <c r="Y27"/>
+      <c r="Z27"/>
+      <c r="AA27"/>
+      <c r="AB27"/>
+      <c r="AC27"/>
+      <c r="AD27"/>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="2:30">
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="F28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28"/>
+      <c r="N28"/>
+      <c r="O28"/>
+      <c r="P28"/>
+      <c r="Q28"/>
+      <c r="R28"/>
+      <c r="S28"/>
+      <c r="T28"/>
+      <c r="U28"/>
+      <c r="V28"/>
+      <c r="W28"/>
+      <c r="X28"/>
+      <c r="Y28"/>
+      <c r="Z28"/>
+      <c r="AA28"/>
+      <c r="AB28"/>
+      <c r="AC28"/>
+      <c r="AD28"/>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="2:30">
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29" s="1"/>
+      <c r="F29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29"/>
+      <c r="N29"/>
+      <c r="O29"/>
+      <c r="P29"/>
+      <c r="Q29"/>
+      <c r="R29"/>
+      <c r="S29"/>
+      <c r="T29"/>
+      <c r="U29"/>
+      <c r="V29"/>
+      <c r="W29"/>
+      <c r="X29"/>
+      <c r="Y29"/>
+      <c r="Z29"/>
+      <c r="AA29"/>
+      <c r="AB29"/>
+      <c r="AC29"/>
+      <c r="AD29"/>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="2:30">
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="F30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="O30"/>
+      <c r="P30"/>
+      <c r="Q30"/>
+      <c r="R30"/>
+      <c r="S30"/>
+      <c r="T30"/>
+      <c r="U30"/>
+      <c r="V30"/>
+      <c r="W30"/>
+      <c r="X30"/>
+      <c r="Y30"/>
+      <c r="Z30"/>
+      <c r="AA30"/>
+      <c r="AB30"/>
+      <c r="AC30"/>
+      <c r="AD30"/>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="2:30">
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31"/>
+      <c r="N31"/>
+      <c r="O31"/>
+      <c r="P31"/>
+      <c r="Q31"/>
+      <c r="R31"/>
+      <c r="S31"/>
+      <c r="T31"/>
+      <c r="U31"/>
+      <c r="V31"/>
+      <c r="W31"/>
+      <c r="X31"/>
+      <c r="Y31"/>
+      <c r="Z31"/>
+      <c r="AA31"/>
+      <c r="AB31"/>
+      <c r="AC31"/>
+      <c r="AD31"/>
+    </row>
+    <row r="32" s="1" customFormat="1" spans="2:30">
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
+      <c r="M32"/>
+      <c r="N32"/>
+      <c r="O32"/>
+      <c r="P32"/>
+      <c r="Q32"/>
+      <c r="R32"/>
+      <c r="S32"/>
+      <c r="T32"/>
+      <c r="U32"/>
+      <c r="V32"/>
+      <c r="W32"/>
+      <c r="X32"/>
+      <c r="Y32"/>
+      <c r="Z32"/>
+      <c r="AA32"/>
+      <c r="AB32"/>
+      <c r="AC32"/>
+      <c r="AD32"/>
+    </row>
+    <row r="33" s="1" customFormat="1" spans="7:30">
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="O33"/>
+      <c r="P33"/>
+      <c r="Q33"/>
+      <c r="R33"/>
+      <c r="S33"/>
+      <c r="T33"/>
+      <c r="U33"/>
+      <c r="V33"/>
+      <c r="W33"/>
+      <c r="X33"/>
+      <c r="Y33"/>
+      <c r="Z33"/>
+      <c r="AA33"/>
+      <c r="AB33"/>
+      <c r="AC33"/>
+      <c r="AD33"/>
+    </row>
+    <row r="34" s="1" customFormat="1" spans="7:33">
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="L34"/>
+      <c r="M34"/>
+      <c r="N34"/>
+      <c r="O34"/>
+      <c r="P34"/>
+      <c r="Q34"/>
+      <c r="R34"/>
+      <c r="S34"/>
+      <c r="T34"/>
+      <c r="U34"/>
+      <c r="V34"/>
+      <c r="W34"/>
+      <c r="X34"/>
+      <c r="Y34"/>
+      <c r="Z34"/>
+      <c r="AA34"/>
+      <c r="AB34"/>
+      <c r="AC34"/>
+      <c r="AD34"/>
+      <c r="AE34"/>
+      <c r="AF34"/>
+      <c r="AG34"/>
+    </row>
+    <row r="35" s="1" customFormat="1" spans="7:33">
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="O35"/>
+      <c r="P35"/>
+      <c r="Q35"/>
+      <c r="R35"/>
+      <c r="S35"/>
+      <c r="T35"/>
+      <c r="U35"/>
+      <c r="V35"/>
+      <c r="W35"/>
+      <c r="X35"/>
+      <c r="Y35"/>
+      <c r="Z35"/>
+      <c r="AA35"/>
+      <c r="AB35"/>
+      <c r="AC35"/>
+      <c r="AD35"/>
+      <c r="AE35"/>
+      <c r="AF35"/>
+      <c r="AG35"/>
+    </row>
+    <row r="36" s="1" customFormat="1" spans="7:30">
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="O36"/>
+      <c r="P36"/>
+      <c r="Q36"/>
+      <c r="R36"/>
+      <c r="S36"/>
+      <c r="T36"/>
+      <c r="U36"/>
+      <c r="V36"/>
+      <c r="W36"/>
+      <c r="X36"/>
+      <c r="Y36"/>
+      <c r="Z36"/>
+      <c r="AA36"/>
+      <c r="AB36"/>
+      <c r="AC36"/>
+      <c r="AD36"/>
+    </row>
+    <row r="37" s="1" customFormat="1" spans="7:30">
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37"/>
+      <c r="N37"/>
+      <c r="O37"/>
+      <c r="P37"/>
+      <c r="Q37"/>
+      <c r="R37"/>
+      <c r="S37"/>
+      <c r="T37"/>
+      <c r="U37"/>
+      <c r="V37"/>
+      <c r="W37"/>
+      <c r="X37"/>
+      <c r="Y37"/>
+      <c r="Z37"/>
+      <c r="AA37"/>
+      <c r="AB37"/>
+      <c r="AC37"/>
+      <c r="AD37"/>
+    </row>
+    <row r="38" s="1" customFormat="1" spans="7:26">
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38"/>
+      <c r="P38"/>
+      <c r="Q38"/>
+      <c r="R38"/>
+      <c r="S38"/>
+      <c r="T38"/>
+      <c r="U38"/>
+      <c r="V38"/>
+      <c r="W38"/>
+      <c r="X38"/>
+      <c r="Y38"/>
+      <c r="Z38"/>
+    </row>
+    <row r="39" s="1" customFormat="1" spans="2:26">
+      <c r="B39"/>
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39"/>
+      <c r="K39"/>
+      <c r="L39"/>
+      <c r="M39"/>
+      <c r="N39"/>
+      <c r="O39"/>
+      <c r="P39"/>
+      <c r="Q39"/>
+      <c r="R39"/>
+      <c r="S39"/>
+      <c r="T39"/>
+      <c r="U39"/>
+      <c r="V39"/>
+      <c r="W39"/>
+      <c r="X39"/>
+      <c r="Y39"/>
+      <c r="Z39"/>
+    </row>
+    <row r="40" s="1" customFormat="1" spans="2:30">
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40"/>
+      <c r="M40"/>
+      <c r="N40"/>
+      <c r="O40"/>
+      <c r="P40"/>
+      <c r="Q40"/>
+      <c r="R40"/>
+      <c r="S40"/>
+      <c r="T40"/>
+      <c r="U40"/>
+      <c r="V40"/>
+      <c r="W40"/>
+      <c r="X40"/>
+      <c r="Y40"/>
+      <c r="Z40"/>
+      <c r="AA40"/>
+      <c r="AB40"/>
+      <c r="AC40"/>
+      <c r="AD40"/>
+    </row>
+    <row r="41" s="1" customFormat="1" spans="2:30">
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41"/>
+      <c r="L41"/>
+      <c r="M41"/>
+      <c r="N41"/>
+      <c r="O41"/>
+      <c r="P41"/>
+      <c r="Q41"/>
+      <c r="R41"/>
+      <c r="S41"/>
+      <c r="T41"/>
+      <c r="U41"/>
+      <c r="V41"/>
+      <c r="W41"/>
+      <c r="X41"/>
+      <c r="Y41"/>
+      <c r="Z41"/>
+      <c r="AA41"/>
+      <c r="AB41"/>
+      <c r="AC41"/>
+      <c r="AD41"/>
+    </row>
+    <row r="42" s="1" customFormat="1" spans="2:30">
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42"/>
+      <c r="I42"/>
+      <c r="J42"/>
+      <c r="K42"/>
+      <c r="L42"/>
+      <c r="M42"/>
+      <c r="N42"/>
+      <c r="O42"/>
+      <c r="P42"/>
+      <c r="Q42"/>
+      <c r="R42"/>
+      <c r="S42"/>
+      <c r="T42"/>
+      <c r="U42"/>
+      <c r="V42"/>
+      <c r="W42"/>
+      <c r="X42"/>
+      <c r="Y42"/>
+      <c r="Z42"/>
+      <c r="AA42"/>
+      <c r="AB42"/>
+      <c r="AC42"/>
+      <c r="AD42"/>
+    </row>
+    <row r="43" s="1" customFormat="1" spans="2:30">
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43"/>
+      <c r="I43"/>
+      <c r="J43"/>
+      <c r="K43"/>
+      <c r="L43"/>
+      <c r="M43"/>
+      <c r="N43"/>
+      <c r="O43"/>
+      <c r="P43"/>
+      <c r="Q43"/>
+      <c r="R43"/>
+      <c r="S43"/>
+      <c r="T43"/>
+      <c r="U43"/>
+      <c r="V43"/>
+      <c r="W43"/>
+      <c r="X43"/>
+      <c r="Y43"/>
+      <c r="Z43"/>
+      <c r="AA43"/>
+      <c r="AB43"/>
+      <c r="AC43"/>
+      <c r="AD43"/>
+    </row>
+    <row r="44" s="1" customFormat="1" spans="2:30">
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="G44"/>
+      <c r="H44"/>
+      <c r="I44"/>
+      <c r="J44"/>
+      <c r="K44"/>
+      <c r="L44"/>
+      <c r="M44"/>
+      <c r="N44"/>
+      <c r="O44"/>
+      <c r="P44"/>
+      <c r="Q44"/>
+      <c r="R44"/>
+      <c r="S44"/>
+      <c r="T44"/>
+      <c r="U44"/>
+      <c r="V44"/>
+      <c r="W44"/>
+      <c r="X44"/>
+      <c r="Y44"/>
+      <c r="Z44"/>
+      <c r="AA44"/>
+      <c r="AB44"/>
+      <c r="AC44"/>
+      <c r="AD44"/>
+    </row>
+    <row r="45" s="1" customFormat="1" spans="2:30">
+      <c r="B45"/>
+      <c r="C45"/>
+      <c r="D45" s="1"/>
+      <c r="G45"/>
+      <c r="H45"/>
+      <c r="I45"/>
+      <c r="J45"/>
+      <c r="K45"/>
+      <c r="L45"/>
+      <c r="M45"/>
+      <c r="N45"/>
+      <c r="O45"/>
+      <c r="P45"/>
+      <c r="Q45"/>
+      <c r="R45"/>
+      <c r="S45"/>
+      <c r="T45"/>
+      <c r="U45"/>
+      <c r="V45"/>
+      <c r="W45"/>
+      <c r="X45"/>
+      <c r="Y45"/>
+      <c r="Z45"/>
+      <c r="AA45"/>
+      <c r="AB45"/>
+      <c r="AC45"/>
+      <c r="AD45"/>
+    </row>
+    <row r="46" s="1" customFormat="1" spans="2:30">
+      <c r="B46"/>
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46" s="1"/>
+      <c r="G46"/>
+      <c r="H46"/>
+      <c r="I46"/>
+      <c r="J46"/>
+      <c r="K46"/>
+      <c r="L46"/>
+      <c r="M46"/>
+      <c r="N46"/>
+      <c r="O46"/>
+      <c r="P46"/>
+      <c r="Q46"/>
+      <c r="R46"/>
+      <c r="S46"/>
+      <c r="T46"/>
+      <c r="U46"/>
+      <c r="V46"/>
+      <c r="W46"/>
+      <c r="X46"/>
+      <c r="Y46"/>
+      <c r="Z46"/>
+      <c r="AA46"/>
+      <c r="AB46"/>
+      <c r="AC46"/>
+      <c r="AD46"/>
+    </row>
+    <row r="47" s="1" customFormat="1" spans="2:30">
+      <c r="B47"/>
+      <c r="C47"/>
+      <c r="D47" s="1"/>
+      <c r="G47"/>
+      <c r="H47"/>
+      <c r="I47"/>
+      <c r="J47"/>
+      <c r="K47"/>
+      <c r="L47"/>
+      <c r="M47"/>
+      <c r="N47"/>
+      <c r="O47"/>
+      <c r="P47"/>
+      <c r="Q47"/>
+      <c r="R47"/>
+      <c r="S47"/>
+      <c r="T47"/>
+      <c r="U47"/>
+      <c r="V47"/>
+      <c r="W47"/>
+      <c r="X47"/>
+      <c r="Y47"/>
+      <c r="Z47"/>
+      <c r="AA47"/>
+      <c r="AB47"/>
+      <c r="AC47"/>
+      <c r="AD47"/>
+    </row>
+    <row r="48" s="1" customFormat="1" spans="2:30">
+      <c r="B48"/>
+      <c r="C48"/>
+      <c r="E48"/>
+      <c r="F48"/>
+      <c r="G48"/>
+      <c r="H48"/>
+      <c r="I48"/>
+      <c r="J48"/>
+      <c r="K48"/>
+      <c r="L48"/>
+      <c r="M48"/>
+      <c r="N48"/>
+      <c r="O48"/>
+      <c r="P48"/>
+      <c r="Q48"/>
+      <c r="R48"/>
+      <c r="S48"/>
+      <c r="T48"/>
+      <c r="U48"/>
+      <c r="V48"/>
+      <c r="W48"/>
+      <c r="X48"/>
+      <c r="Y48"/>
+      <c r="Z48"/>
+      <c r="AA48"/>
+      <c r="AB48"/>
+      <c r="AC48"/>
+      <c r="AD48"/>
+    </row>
+    <row r="49" s="1" customFormat="1" spans="2:30">
+      <c r="B49"/>
+      <c r="C49"/>
+      <c r="E49"/>
+      <c r="F49"/>
+      <c r="G49"/>
+      <c r="H49"/>
+      <c r="I49"/>
+      <c r="J49"/>
+      <c r="K49"/>
+      <c r="L49"/>
+      <c r="M49"/>
+      <c r="N49"/>
+      <c r="O49"/>
+      <c r="P49"/>
+      <c r="Q49"/>
+      <c r="R49"/>
+      <c r="S49"/>
+      <c r="T49"/>
+      <c r="U49"/>
+      <c r="V49"/>
+      <c r="W49"/>
+      <c r="X49"/>
+      <c r="Y49"/>
+      <c r="Z49"/>
+      <c r="AA49"/>
+      <c r="AB49"/>
+      <c r="AC49"/>
+      <c r="AD49"/>
+    </row>
+    <row r="50" s="1" customFormat="1" spans="2:30">
+      <c r="B50"/>
+      <c r="C50"/>
+      <c r="D50"/>
+      <c r="E50"/>
+      <c r="F50"/>
+      <c r="G50"/>
+      <c r="H50"/>
+      <c r="I50"/>
+      <c r="J50"/>
+      <c r="K50"/>
+      <c r="L50"/>
+      <c r="M50"/>
+      <c r="N50"/>
+      <c r="O50"/>
+      <c r="P50"/>
+      <c r="Q50"/>
+      <c r="R50"/>
+      <c r="S50"/>
+      <c r="T50"/>
+      <c r="U50"/>
+      <c r="V50"/>
+      <c r="W50"/>
+      <c r="X50"/>
+      <c r="Y50"/>
+      <c r="Z50"/>
+      <c r="AA50"/>
+      <c r="AB50"/>
+      <c r="AC50"/>
+      <c r="AD50"/>
+    </row>
+    <row r="51" s="1" customFormat="1" spans="2:30">
+      <c r="B51"/>
+      <c r="C51"/>
+      <c r="D51" s="1"/>
+      <c r="F51"/>
+      <c r="G51"/>
+      <c r="H51"/>
+      <c r="I51"/>
+      <c r="J51"/>
+      <c r="K51"/>
+      <c r="L51"/>
+      <c r="M51"/>
+      <c r="N51"/>
+      <c r="O51"/>
+      <c r="P51"/>
+      <c r="Q51"/>
+      <c r="R51"/>
+      <c r="S51"/>
+      <c r="T51"/>
+      <c r="U51"/>
+      <c r="V51"/>
+      <c r="W51"/>
+      <c r="X51"/>
+      <c r="Y51"/>
+      <c r="Z51"/>
+      <c r="AA51"/>
+      <c r="AB51"/>
+      <c r="AC51"/>
+      <c r="AD51"/>
+    </row>
+    <row r="52" s="1" customFormat="1" spans="2:30">
+      <c r="B52"/>
+      <c r="C52"/>
+      <c r="D52" s="1"/>
+      <c r="F52"/>
+      <c r="G52"/>
+      <c r="H52"/>
+      <c r="I52"/>
+      <c r="J52"/>
+      <c r="K52"/>
+      <c r="L52"/>
+      <c r="M52"/>
+      <c r="N52"/>
+      <c r="O52"/>
+      <c r="P52"/>
+      <c r="Q52"/>
+      <c r="R52"/>
+      <c r="S52"/>
+      <c r="T52"/>
+      <c r="U52"/>
+      <c r="V52"/>
+      <c r="W52"/>
+      <c r="X52"/>
+      <c r="Y52"/>
+      <c r="Z52"/>
+      <c r="AA52"/>
+      <c r="AB52"/>
+      <c r="AC52"/>
+      <c r="AD52"/>
+    </row>
+    <row r="53" s="1" customFormat="1" spans="2:30">
+      <c r="B53"/>
+      <c r="C53"/>
+      <c r="D53" s="1"/>
+      <c r="E53"/>
+      <c r="F53"/>
+      <c r="G53"/>
+      <c r="H53"/>
+      <c r="I53"/>
+      <c r="J53"/>
+      <c r="K53"/>
+      <c r="L53"/>
+      <c r="M53"/>
+      <c r="N53"/>
+      <c r="O53"/>
+      <c r="P53"/>
+      <c r="Q53"/>
+      <c r="R53"/>
+      <c r="S53"/>
+      <c r="T53"/>
+      <c r="U53"/>
+      <c r="V53"/>
+      <c r="W53"/>
+      <c r="X53"/>
+      <c r="Y53"/>
+      <c r="Z53"/>
+      <c r="AA53"/>
+      <c r="AB53"/>
+      <c r="AC53"/>
+      <c r="AD53"/>
+    </row>
+    <row r="54" s="1" customFormat="1" spans="2:30">
+      <c r="B54"/>
+      <c r="C54"/>
+      <c r="D54" s="1"/>
+      <c r="E54"/>
+      <c r="F54"/>
+      <c r="G54"/>
+      <c r="H54"/>
+      <c r="I54"/>
+      <c r="J54"/>
+      <c r="K54"/>
+      <c r="L54"/>
+      <c r="M54"/>
+      <c r="N54"/>
+      <c r="O54"/>
+      <c r="P54"/>
+      <c r="Q54"/>
+      <c r="R54"/>
+      <c r="S54"/>
+      <c r="T54"/>
+      <c r="U54"/>
+      <c r="V54"/>
+      <c r="W54"/>
+      <c r="X54"/>
+      <c r="Y54"/>
+      <c r="Z54"/>
+      <c r="AA54"/>
+      <c r="AB54"/>
+      <c r="AC54"/>
+      <c r="AD54"/>
+    </row>
+    <row r="55" s="1" customFormat="1" spans="2:30">
+      <c r="B55"/>
+      <c r="C55"/>
+      <c r="D55"/>
+      <c r="E55"/>
+      <c r="F55"/>
+      <c r="G55"/>
+      <c r="H55"/>
+      <c r="I55"/>
+      <c r="J55"/>
+      <c r="K55"/>
+      <c r="L55"/>
+      <c r="M55"/>
+      <c r="N55"/>
+      <c r="O55"/>
+      <c r="P55"/>
+      <c r="Q55"/>
+      <c r="R55"/>
+      <c r="S55"/>
+      <c r="T55"/>
+      <c r="U55"/>
+      <c r="V55"/>
+      <c r="W55"/>
+      <c r="X55"/>
+      <c r="Y55"/>
+      <c r="Z55"/>
+      <c r="AA55"/>
+      <c r="AB55"/>
+      <c r="AC55"/>
+      <c r="AD55"/>
+    </row>
+    <row r="56" s="1" customFormat="1" spans="2:33">
+      <c r="B56"/>
+      <c r="C56"/>
+      <c r="D56"/>
+      <c r="E56"/>
+      <c r="F56"/>
+      <c r="G56"/>
+      <c r="H56"/>
+      <c r="I56"/>
+      <c r="J56"/>
+      <c r="K56"/>
+      <c r="L56"/>
+      <c r="M56"/>
+      <c r="N56"/>
+      <c r="O56"/>
+      <c r="P56"/>
+      <c r="Q56"/>
+      <c r="R56"/>
+      <c r="S56"/>
+      <c r="T56"/>
+      <c r="U56"/>
+      <c r="V56"/>
+      <c r="W56"/>
+      <c r="X56"/>
+      <c r="Y56"/>
+      <c r="Z56"/>
+      <c r="AA56"/>
+      <c r="AB56"/>
+      <c r="AC56"/>
+      <c r="AD56"/>
+      <c r="AE56"/>
+      <c r="AF56"/>
+      <c r="AG56"/>
+    </row>
+    <row r="57" s="1" customFormat="1" spans="2:33">
+      <c r="B57"/>
+      <c r="C57"/>
+      <c r="D57"/>
+      <c r="E57"/>
+      <c r="F57"/>
+      <c r="G57"/>
+      <c r="H57"/>
+      <c r="I57"/>
+      <c r="J57"/>
+      <c r="K57"/>
+      <c r="L57"/>
+      <c r="M57"/>
+      <c r="N57"/>
+      <c r="O57"/>
+      <c r="P57"/>
+      <c r="Q57"/>
+      <c r="R57"/>
+      <c r="S57"/>
+      <c r="T57"/>
+      <c r="U57"/>
+      <c r="V57"/>
+      <c r="W57"/>
+      <c r="X57"/>
+      <c r="Y57"/>
+      <c r="Z57"/>
+      <c r="AA57"/>
+      <c r="AB57"/>
+      <c r="AC57"/>
+      <c r="AD57"/>
+      <c r="AE57"/>
+      <c r="AF57"/>
+      <c r="AG57"/>
+    </row>
+    <row r="58" s="1" customFormat="1" spans="2:30">
+      <c r="B58"/>
+      <c r="C58"/>
+      <c r="D58"/>
+      <c r="E58"/>
+      <c r="F58"/>
+      <c r="G58"/>
+      <c r="H58"/>
+      <c r="I58"/>
+      <c r="J58"/>
+      <c r="K58"/>
+      <c r="L58"/>
+      <c r="M58"/>
+      <c r="N58"/>
+      <c r="O58"/>
+      <c r="P58"/>
+      <c r="Q58"/>
+      <c r="R58"/>
+      <c r="S58"/>
+      <c r="T58"/>
+      <c r="U58"/>
+      <c r="V58"/>
+      <c r="W58"/>
+      <c r="X58"/>
+      <c r="Y58"/>
+      <c r="Z58"/>
+      <c r="AA58"/>
+      <c r="AB58"/>
+      <c r="AC58"/>
+      <c r="AD58"/>
+    </row>
+    <row r="59" s="1" customFormat="1" spans="2:30">
+      <c r="B59"/>
+      <c r="C59"/>
+      <c r="D59"/>
+      <c r="E59"/>
+      <c r="F59"/>
+      <c r="G59"/>
+      <c r="H59"/>
+      <c r="I59"/>
+      <c r="J59"/>
+      <c r="K59"/>
+      <c r="L59"/>
+      <c r="M59"/>
+      <c r="N59"/>
+      <c r="O59"/>
+      <c r="P59"/>
+      <c r="Q59"/>
+      <c r="R59"/>
+      <c r="S59"/>
+      <c r="T59"/>
+      <c r="U59"/>
+      <c r="V59"/>
+      <c r="W59"/>
+      <c r="X59"/>
+      <c r="Y59"/>
+      <c r="Z59"/>
+      <c r="AA59"/>
+      <c r="AB59"/>
+      <c r="AC59"/>
+      <c r="AD59"/>
+    </row>
+    <row r="60" s="1" customFormat="1" spans="2:30">
+      <c r="B60"/>
+      <c r="C60"/>
+      <c r="D60"/>
+      <c r="E60"/>
+      <c r="F60"/>
+      <c r="G60"/>
+      <c r="H60"/>
+      <c r="I60"/>
+      <c r="J60"/>
+      <c r="K60"/>
+      <c r="L60"/>
+      <c r="M60"/>
+      <c r="N60"/>
+      <c r="O60"/>
+      <c r="P60"/>
+      <c r="Q60"/>
+      <c r="R60"/>
+      <c r="S60"/>
+      <c r="T60"/>
+      <c r="U60"/>
+      <c r="V60"/>
+      <c r="W60"/>
+      <c r="X60"/>
+      <c r="Y60"/>
+      <c r="Z60"/>
+      <c r="AA60"/>
+      <c r="AB60"/>
+      <c r="AC60"/>
+      <c r="AD60"/>
+    </row>
+    <row r="61" s="1" customFormat="1" spans="2:30">
+      <c r="B61"/>
+      <c r="C61"/>
+      <c r="D61"/>
+      <c r="E61"/>
+      <c r="F61"/>
+      <c r="G61"/>
+      <c r="H61"/>
+      <c r="I61"/>
+      <c r="J61"/>
+      <c r="K61"/>
+      <c r="L61"/>
+      <c r="M61"/>
+      <c r="N61"/>
+      <c r="O61"/>
+      <c r="P61"/>
+      <c r="Q61"/>
+      <c r="R61"/>
+      <c r="S61"/>
+      <c r="T61"/>
+      <c r="U61"/>
+      <c r="V61"/>
+      <c r="W61"/>
+      <c r="X61"/>
+      <c r="Y61"/>
+      <c r="Z61"/>
+      <c r="AA61"/>
+      <c r="AB61"/>
+      <c r="AC61"/>
+      <c r="AD61"/>
+    </row>
+    <row r="62" s="1" customFormat="1" spans="2:30">
+      <c r="B62"/>
+      <c r="C62"/>
+      <c r="D62"/>
+      <c r="E62"/>
+      <c r="F62"/>
+      <c r="G62"/>
+      <c r="H62"/>
+      <c r="I62"/>
+      <c r="J62"/>
+      <c r="K62"/>
+      <c r="L62"/>
+      <c r="M62"/>
+      <c r="N62"/>
+      <c r="O62"/>
+      <c r="P62"/>
+      <c r="Q62"/>
+      <c r="R62"/>
+      <c r="S62"/>
+      <c r="T62"/>
+      <c r="U62"/>
+      <c r="V62"/>
+      <c r="W62"/>
+      <c r="X62"/>
+      <c r="Y62"/>
+      <c r="Z62"/>
+      <c r="AA62"/>
+      <c r="AB62"/>
+      <c r="AC62"/>
+      <c r="AD62"/>
+    </row>
+    <row r="63" s="1" customFormat="1" spans="2:30">
+      <c r="B63"/>
+      <c r="C63"/>
+      <c r="D63"/>
+      <c r="E63"/>
+      <c r="F63"/>
+      <c r="G63"/>
+      <c r="H63"/>
+      <c r="I63"/>
+      <c r="J63"/>
+      <c r="K63"/>
+      <c r="L63"/>
+      <c r="M63"/>
+      <c r="N63"/>
+      <c r="O63"/>
+      <c r="X63"/>
+      <c r="Y63"/>
+      <c r="Z63"/>
+      <c r="AA63"/>
+      <c r="AB63"/>
+      <c r="AC63"/>
+      <c r="AD63"/>
+    </row>
+    <row r="64" s="1" customFormat="1" spans="2:30">
+      <c r="B64"/>
+      <c r="C64"/>
+      <c r="D64"/>
+      <c r="E64"/>
+      <c r="F64"/>
+      <c r="G64"/>
+      <c r="H64"/>
+      <c r="I64"/>
+      <c r="J64"/>
+      <c r="K64"/>
+      <c r="L64"/>
+      <c r="M64"/>
+      <c r="N64"/>
+      <c r="O64"/>
+      <c r="X64"/>
+      <c r="Y64"/>
+      <c r="Z64"/>
+      <c r="AA64"/>
+      <c r="AB64"/>
+      <c r="AC64"/>
+      <c r="AD64"/>
+    </row>
+    <row r="65" s="1" customFormat="1" spans="2:30">
+      <c r="B65"/>
+      <c r="C65"/>
+      <c r="D65"/>
+      <c r="E65"/>
+      <c r="F65"/>
+      <c r="G65"/>
+      <c r="H65"/>
+      <c r="I65"/>
+      <c r="J65"/>
+      <c r="K65"/>
+      <c r="L65"/>
+      <c r="M65"/>
+      <c r="N65"/>
+      <c r="O65"/>
+      <c r="P65"/>
+      <c r="Q65"/>
+      <c r="R65"/>
+      <c r="S65"/>
+      <c r="T65"/>
+      <c r="U65"/>
+      <c r="V65"/>
+      <c r="W65"/>
+      <c r="X65"/>
+      <c r="Y65"/>
+      <c r="Z65"/>
+      <c r="AA65"/>
+      <c r="AB65"/>
+      <c r="AC65"/>
+      <c r="AD65"/>
+    </row>
+    <row r="66" s="1" customFormat="1" spans="2:30">
+      <c r="B66"/>
+      <c r="C66"/>
+      <c r="D66"/>
+      <c r="F66"/>
+      <c r="G66"/>
+      <c r="H66"/>
+      <c r="I66"/>
+      <c r="J66"/>
+      <c r="K66"/>
+      <c r="L66"/>
+      <c r="M66"/>
+      <c r="N66"/>
+      <c r="O66"/>
+      <c r="P66"/>
+      <c r="Q66"/>
+      <c r="R66"/>
+      <c r="S66"/>
+      <c r="T66"/>
+      <c r="U66"/>
+      <c r="V66"/>
+      <c r="W66"/>
+      <c r="X66"/>
+      <c r="Y66"/>
+      <c r="Z66"/>
+      <c r="AA66"/>
+      <c r="AB66"/>
+      <c r="AC66"/>
+      <c r="AD66"/>
+    </row>
+    <row r="67" s="1" customFormat="1" spans="2:30">
+      <c r="B67"/>
+      <c r="C67"/>
+      <c r="D67"/>
+      <c r="F67"/>
+      <c r="G67"/>
+      <c r="H67"/>
+      <c r="I67"/>
+      <c r="J67"/>
+      <c r="K67"/>
+      <c r="L67"/>
+      <c r="M67"/>
+      <c r="N67"/>
+      <c r="O67"/>
+      <c r="P67"/>
+      <c r="Q67"/>
+      <c r="R67"/>
+      <c r="S67"/>
+      <c r="T67"/>
+      <c r="U67"/>
+      <c r="V67"/>
+      <c r="W67"/>
+      <c r="X67"/>
+      <c r="Y67"/>
+      <c r="Z67"/>
+      <c r="AA67"/>
+      <c r="AB67"/>
+      <c r="AC67"/>
+      <c r="AD67"/>
+    </row>
+    <row r="68" s="1" customFormat="1" spans="2:30">
+      <c r="B68"/>
+      <c r="C68"/>
+      <c r="D68"/>
+      <c r="F68"/>
+      <c r="G68"/>
+      <c r="H68"/>
+      <c r="I68"/>
+      <c r="J68"/>
+      <c r="K68"/>
+      <c r="L68"/>
+      <c r="M68"/>
+      <c r="N68"/>
+      <c r="O68"/>
+      <c r="P68"/>
+      <c r="Q68"/>
+      <c r="R68"/>
+      <c r="S68"/>
+      <c r="T68"/>
+      <c r="U68"/>
+      <c r="V68"/>
+      <c r="W68"/>
+      <c r="X68"/>
+      <c r="Y68"/>
+      <c r="Z68"/>
+      <c r="AA68"/>
+      <c r="AB68"/>
+      <c r="AC68"/>
+      <c r="AD68"/>
+    </row>
+    <row r="69" s="1" customFormat="1" spans="2:30">
+      <c r="B69"/>
+      <c r="C69"/>
+      <c r="D69"/>
+      <c r="F69"/>
+      <c r="G69"/>
+      <c r="H69"/>
+      <c r="I69"/>
+      <c r="J69"/>
+      <c r="K69"/>
+      <c r="L69"/>
+      <c r="M69"/>
+      <c r="N69"/>
+      <c r="O69"/>
+      <c r="P69"/>
+      <c r="Q69"/>
+      <c r="R69"/>
+      <c r="S69"/>
+      <c r="T69"/>
+      <c r="U69"/>
+      <c r="V69"/>
+      <c r="W69"/>
+      <c r="X69"/>
+      <c r="Y69"/>
+      <c r="Z69"/>
+      <c r="AA69"/>
+      <c r="AB69"/>
+      <c r="AC69"/>
+      <c r="AD69"/>
+    </row>
+    <row r="70" s="1" customFormat="1" spans="2:30">
+      <c r="B70"/>
+      <c r="C70"/>
+      <c r="D70"/>
+      <c r="E70"/>
+      <c r="F70"/>
+      <c r="G70"/>
+      <c r="H70"/>
+      <c r="I70"/>
+      <c r="J70"/>
+      <c r="K70"/>
+      <c r="L70"/>
+      <c r="M70"/>
+      <c r="N70"/>
+      <c r="O70"/>
+      <c r="P70"/>
+      <c r="Q70"/>
+      <c r="R70"/>
+      <c r="S70"/>
+      <c r="T70"/>
+      <c r="U70"/>
+      <c r="V70"/>
+      <c r="W70"/>
+      <c r="X70"/>
+      <c r="Y70"/>
+      <c r="Z70"/>
+      <c r="AA70"/>
+      <c r="AB70"/>
+      <c r="AC70"/>
+      <c r="AD70"/>
+    </row>
+    <row r="71" s="1" customFormat="1" spans="2:30">
+      <c r="B71"/>
+      <c r="C71"/>
+      <c r="D71"/>
+      <c r="E71"/>
+      <c r="F71"/>
+      <c r="G71"/>
+      <c r="H71"/>
+      <c r="I71"/>
+      <c r="J71"/>
+      <c r="K71"/>
+      <c r="L71"/>
+      <c r="M71"/>
+      <c r="N71"/>
+      <c r="O71"/>
+      <c r="P71"/>
+      <c r="Q71"/>
+      <c r="R71"/>
+      <c r="S71"/>
+      <c r="T71"/>
+      <c r="U71"/>
+      <c r="V71"/>
+      <c r="W71"/>
+      <c r="X71"/>
+      <c r="Y71"/>
+      <c r="Z71"/>
+      <c r="AA71"/>
+      <c r="AB71"/>
+      <c r="AC71"/>
+      <c r="AD71"/>
+    </row>
+    <row r="72" s="1" customFormat="1" spans="2:30">
+      <c r="B72"/>
+      <c r="C72"/>
+      <c r="D72"/>
+      <c r="E72"/>
+      <c r="F72"/>
+      <c r="G72"/>
+      <c r="H72"/>
+      <c r="I72"/>
+      <c r="J72"/>
+      <c r="K72"/>
+      <c r="L72"/>
+      <c r="M72"/>
+      <c r="N72"/>
+      <c r="O72"/>
+      <c r="P72"/>
+      <c r="Q72"/>
+      <c r="R72"/>
+      <c r="S72"/>
+      <c r="T72"/>
+      <c r="U72"/>
+      <c r="V72"/>
+      <c r="W72"/>
+      <c r="X72"/>
+      <c r="Y72"/>
+      <c r="Z72"/>
+      <c r="AA72"/>
+      <c r="AB72"/>
+      <c r="AC72"/>
+      <c r="AD72"/>
+    </row>
+    <row r="73" s="1" customFormat="1" spans="2:30">
+      <c r="B73"/>
+      <c r="C73"/>
+      <c r="D73"/>
+      <c r="E73"/>
+      <c r="F73"/>
+      <c r="G73"/>
+      <c r="H73"/>
+      <c r="I73"/>
+      <c r="J73"/>
+      <c r="K73"/>
+      <c r="L73"/>
+      <c r="M73"/>
+      <c r="N73"/>
+      <c r="O73"/>
+      <c r="P73"/>
+      <c r="Q73"/>
+      <c r="R73"/>
+      <c r="S73"/>
+      <c r="T73"/>
+      <c r="U73"/>
+      <c r="V73"/>
+      <c r="W73"/>
+      <c r="X73"/>
+      <c r="Y73"/>
+      <c r="Z73"/>
+      <c r="AA73"/>
+      <c r="AB73"/>
+      <c r="AC73"/>
+      <c r="AD73"/>
+    </row>
+    <row r="74" s="1" customFormat="1" spans="2:30">
+      <c r="B74"/>
+      <c r="C74"/>
+      <c r="D74"/>
+      <c r="E74"/>
+      <c r="F74"/>
+      <c r="G74"/>
+      <c r="H74"/>
+      <c r="I74"/>
+      <c r="J74"/>
+      <c r="K74"/>
+      <c r="L74"/>
+      <c r="M74"/>
+      <c r="N74"/>
+      <c r="O74"/>
+      <c r="P74"/>
+      <c r="Q74"/>
+      <c r="R74"/>
+      <c r="S74"/>
+      <c r="T74"/>
+      <c r="U74"/>
+      <c r="V74"/>
+      <c r="W74"/>
+      <c r="X74"/>
+      <c r="Y74"/>
+      <c r="Z74"/>
+      <c r="AA74"/>
+      <c r="AB74"/>
+      <c r="AC74"/>
+      <c r="AD74"/>
+    </row>
+    <row r="75" s="1" customFormat="1" spans="2:30">
+      <c r="B75"/>
+      <c r="C75"/>
+      <c r="D75"/>
+      <c r="E75"/>
+      <c r="F75"/>
+      <c r="G75"/>
+      <c r="H75"/>
+      <c r="I75"/>
+      <c r="J75"/>
+      <c r="K75"/>
+      <c r="L75"/>
+      <c r="M75"/>
+      <c r="N75"/>
+      <c r="O75"/>
+      <c r="P75"/>
+      <c r="Q75"/>
+      <c r="R75"/>
+      <c r="S75"/>
+      <c r="T75"/>
+      <c r="U75"/>
+      <c r="V75"/>
+      <c r="W75"/>
+      <c r="X75"/>
+      <c r="Y75"/>
+      <c r="Z75"/>
+      <c r="AA75"/>
+      <c r="AB75"/>
+      <c r="AC75"/>
+      <c r="AD75"/>
+    </row>
+    <row r="76" s="1" customFormat="1" spans="2:30">
+      <c r="B76"/>
+      <c r="C76"/>
+      <c r="D76"/>
+      <c r="F76"/>
+      <c r="G76"/>
+      <c r="H76"/>
+      <c r="I76"/>
+      <c r="J76"/>
+      <c r="K76"/>
+      <c r="L76"/>
+      <c r="M76"/>
+      <c r="N76"/>
+      <c r="O76"/>
+      <c r="P76"/>
+      <c r="Q76"/>
+      <c r="R76"/>
+      <c r="S76"/>
+      <c r="T76"/>
+      <c r="U76"/>
+      <c r="V76"/>
+      <c r="W76"/>
+      <c r="X76"/>
+      <c r="Y76"/>
+      <c r="Z76"/>
+      <c r="AA76"/>
+      <c r="AB76"/>
+      <c r="AC76"/>
+      <c r="AD76"/>
+    </row>
+    <row r="77" s="1" customFormat="1" spans="2:30">
+      <c r="B77"/>
+      <c r="C77"/>
+      <c r="D77"/>
+      <c r="F77"/>
+      <c r="G77"/>
+      <c r="H77"/>
+      <c r="I77"/>
+      <c r="J77"/>
+      <c r="K77"/>
+      <c r="L77"/>
+      <c r="M77"/>
+      <c r="N77"/>
+      <c r="O77"/>
+      <c r="P77"/>
+      <c r="Q77"/>
+      <c r="R77"/>
+      <c r="S77"/>
+      <c r="T77"/>
+      <c r="U77"/>
+      <c r="V77"/>
+      <c r="W77"/>
+      <c r="X77"/>
+      <c r="Y77"/>
+      <c r="Z77"/>
+      <c r="AA77"/>
+      <c r="AB77"/>
+      <c r="AC77"/>
+      <c r="AD77"/>
+    </row>
+    <row r="78" s="1" customFormat="1" spans="2:30">
+      <c r="B78"/>
+      <c r="C78"/>
+      <c r="D78"/>
+      <c r="F78"/>
+      <c r="G78"/>
+      <c r="H78"/>
+      <c r="I78"/>
+      <c r="J78"/>
+      <c r="K78"/>
+      <c r="L78"/>
+      <c r="M78"/>
+      <c r="N78"/>
+      <c r="O78"/>
+      <c r="P78"/>
+      <c r="Q78"/>
+      <c r="R78"/>
+      <c r="S78"/>
+      <c r="T78"/>
+      <c r="U78"/>
+      <c r="V78"/>
+      <c r="W78"/>
+      <c r="X78"/>
+      <c r="Y78"/>
+      <c r="Z78"/>
+      <c r="AA78"/>
+      <c r="AB78"/>
+      <c r="AC78"/>
+      <c r="AD78"/>
+    </row>
+    <row r="79" s="1" customFormat="1" spans="2:30">
+      <c r="B79"/>
+      <c r="C79"/>
+      <c r="D79"/>
+      <c r="E79"/>
+      <c r="F79"/>
+      <c r="G79"/>
+      <c r="H79"/>
+      <c r="I79"/>
+      <c r="J79"/>
+      <c r="K79"/>
+      <c r="L79"/>
+      <c r="M79"/>
+      <c r="N79"/>
+      <c r="O79"/>
+      <c r="P79"/>
+      <c r="Q79"/>
+      <c r="R79"/>
+      <c r="S79"/>
+      <c r="T79"/>
+      <c r="U79"/>
+      <c r="V79"/>
+      <c r="W79"/>
+      <c r="X79"/>
+      <c r="Y79"/>
+      <c r="Z79"/>
+      <c r="AA79"/>
+      <c r="AB79"/>
+      <c r="AC79"/>
+      <c r="AD79"/>
+    </row>
+    <row r="80" s="1" customFormat="1" spans="2:30">
+      <c r="B80"/>
+      <c r="C80"/>
+      <c r="D80"/>
+      <c r="E80"/>
+      <c r="F80"/>
+      <c r="G80"/>
+      <c r="H80"/>
+      <c r="I80"/>
+      <c r="J80"/>
+      <c r="K80"/>
+      <c r="L80"/>
+      <c r="M80"/>
+      <c r="N80"/>
+      <c r="O80"/>
+      <c r="P80"/>
+      <c r="Q80"/>
+      <c r="R80"/>
+      <c r="S80"/>
+      <c r="T80"/>
+      <c r="U80"/>
+      <c r="V80"/>
+      <c r="W80"/>
+      <c r="X80"/>
+      <c r="Y80"/>
+      <c r="Z80"/>
+      <c r="AA80"/>
+      <c r="AB80"/>
+      <c r="AC80"/>
+      <c r="AD80"/>
+    </row>
+    <row r="81" s="1" customFormat="1" spans="2:30">
+      <c r="B81"/>
+      <c r="C81"/>
+      <c r="D81"/>
+      <c r="E81"/>
+      <c r="F81"/>
+      <c r="G81"/>
+      <c r="H81"/>
+      <c r="I81"/>
+      <c r="J81"/>
+      <c r="K81"/>
+      <c r="L81"/>
+      <c r="M81"/>
+      <c r="N81"/>
+      <c r="O81"/>
+      <c r="P81"/>
+      <c r="Q81"/>
+      <c r="R81"/>
+      <c r="S81"/>
+      <c r="T81"/>
+      <c r="U81"/>
+      <c r="V81"/>
+      <c r="W81"/>
+      <c r="X81"/>
+      <c r="Y81"/>
+      <c r="Z81"/>
+      <c r="AA81"/>
+      <c r="AB81"/>
+      <c r="AC81"/>
+      <c r="AD81"/>
+    </row>
+    <row r="82" s="1" customFormat="1" spans="2:30">
+      <c r="B82"/>
+      <c r="C82"/>
+      <c r="D82"/>
+      <c r="E82"/>
+      <c r="F82"/>
+      <c r="G82"/>
+      <c r="H82"/>
+      <c r="I82"/>
+      <c r="J82"/>
+      <c r="K82"/>
+      <c r="L82"/>
+      <c r="M82"/>
+      <c r="N82"/>
+      <c r="O82"/>
+      <c r="P82"/>
+      <c r="Q82"/>
+      <c r="R82"/>
+      <c r="S82"/>
+      <c r="T82"/>
+      <c r="U82"/>
+      <c r="V82"/>
+      <c r="W82"/>
+      <c r="X82"/>
+      <c r="Y82"/>
+      <c r="Z82"/>
+      <c r="AA82"/>
+      <c r="AB82"/>
+      <c r="AC82"/>
+      <c r="AD82"/>
+    </row>
+    <row r="83" s="1" customFormat="1" spans="2:30">
+      <c r="B83"/>
+      <c r="C83"/>
+      <c r="D83"/>
+      <c r="E83"/>
+      <c r="F83"/>
+      <c r="G83"/>
+      <c r="H83"/>
+      <c r="I83"/>
+      <c r="J83"/>
+      <c r="K83"/>
+      <c r="L83"/>
+      <c r="M83"/>
+      <c r="N83"/>
+      <c r="O83"/>
+      <c r="P83"/>
+      <c r="Q83"/>
+      <c r="R83"/>
+      <c r="S83"/>
+      <c r="T83"/>
+      <c r="U83"/>
+      <c r="V83"/>
+      <c r="W83"/>
+      <c r="X83"/>
+      <c r="Y83"/>
+      <c r="Z83"/>
+      <c r="AA83"/>
+      <c r="AB83"/>
+      <c r="AC83"/>
+      <c r="AD83"/>
+    </row>
+    <row r="84" s="1" customFormat="1" spans="2:30">
+      <c r="B84"/>
+      <c r="C84"/>
+      <c r="D84"/>
+      <c r="E84"/>
+      <c r="F84"/>
+      <c r="G84"/>
+      <c r="H84"/>
+      <c r="I84"/>
+      <c r="J84"/>
+      <c r="K84"/>
+      <c r="L84"/>
+      <c r="M84"/>
+      <c r="N84"/>
+      <c r="O84"/>
+      <c r="P84"/>
+      <c r="Q84"/>
+      <c r="R84"/>
+      <c r="S84"/>
+      <c r="T84"/>
+      <c r="U84"/>
+      <c r="V84"/>
+      <c r="W84"/>
+      <c r="X84"/>
+      <c r="Y84"/>
+      <c r="Z84"/>
+      <c r="AA84"/>
+      <c r="AB84"/>
+      <c r="AC84"/>
+      <c r="AD84"/>
+    </row>
+    <row r="85" s="1" customFormat="1" spans="2:30">
+      <c r="B85"/>
+      <c r="C85"/>
+      <c r="D85"/>
+      <c r="E85"/>
+      <c r="F85"/>
+      <c r="G85"/>
+      <c r="H85"/>
+      <c r="I85"/>
+      <c r="J85"/>
+      <c r="K85"/>
+      <c r="L85"/>
+      <c r="M85"/>
+      <c r="N85"/>
+      <c r="O85"/>
+      <c r="P85"/>
+      <c r="Q85"/>
+      <c r="R85"/>
+      <c r="S85"/>
+      <c r="T85"/>
+      <c r="U85"/>
+      <c r="V85"/>
+      <c r="W85"/>
+      <c r="X85"/>
+      <c r="Y85"/>
+      <c r="Z85"/>
+      <c r="AA85"/>
+      <c r="AB85"/>
+      <c r="AC85"/>
+      <c r="AD85"/>
+    </row>
+    <row r="86" s="1" customFormat="1" spans="2:30">
+      <c r="B86"/>
+      <c r="C86"/>
+      <c r="D86"/>
+      <c r="E86"/>
+      <c r="F86"/>
+      <c r="G86"/>
+      <c r="H86"/>
+      <c r="I86"/>
+      <c r="J86"/>
+      <c r="K86"/>
+      <c r="L86"/>
+      <c r="M86"/>
+      <c r="N86"/>
+      <c r="O86"/>
+      <c r="P86"/>
+      <c r="Q86"/>
+      <c r="R86"/>
+      <c r="S86"/>
+      <c r="T86"/>
+      <c r="U86"/>
+      <c r="V86"/>
+      <c r="W86"/>
+      <c r="X86"/>
+      <c r="Y86"/>
+      <c r="Z86"/>
+      <c r="AA86"/>
+      <c r="AB86"/>
+      <c r="AC86"/>
+      <c r="AD86"/>
+    </row>
+    <row r="87" s="1" customFormat="1" spans="2:30">
+      <c r="B87"/>
+      <c r="C87"/>
+      <c r="D87"/>
+      <c r="E87" s="2"/>
+      <c r="F87"/>
+      <c r="G87"/>
+      <c r="H87"/>
+      <c r="I87" s="6"/>
+      <c r="J87"/>
+      <c r="K87"/>
+      <c r="L87"/>
+      <c r="M87"/>
+      <c r="N87"/>
+      <c r="O87"/>
+      <c r="P87"/>
+      <c r="Q87"/>
+      <c r="R87"/>
+      <c r="S87"/>
+      <c r="T87"/>
+      <c r="U87"/>
+      <c r="V87"/>
+      <c r="W87"/>
+      <c r="X87"/>
+      <c r="Y87"/>
+      <c r="Z87"/>
+      <c r="AA87"/>
+      <c r="AB87"/>
+      <c r="AC87"/>
+      <c r="AD87"/>
+    </row>
+    <row r="88" s="1" customFormat="1" spans="5:9">
+      <c r="E88" s="2"/>
+      <c r="I88" s="6"/>
+    </row>
+    <row r="111" s="1" customFormat="1" spans="27:33">
+      <c r="AA111"/>
+      <c r="AB111"/>
+      <c r="AC111"/>
+      <c r="AD111"/>
+      <c r="AE111"/>
+      <c r="AF111"/>
+      <c r="AG111"/>
+    </row>
+    <row r="112" s="1" customFormat="1" spans="27:33">
+      <c r="AA112"/>
+      <c r="AB112"/>
+      <c r="AC112"/>
+      <c r="AD112"/>
+      <c r="AE112"/>
+      <c r="AF112"/>
+      <c r="AG112"/>
+    </row>
+    <row r="116" s="1" customFormat="1" spans="4:4">
+      <c r="D116" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AG116"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="O36" sqref="O36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="16384" width="4.875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="22.5" spans="9:31">
+      <c r="I1" s="4"/>
+      <c r="J1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="V1" s="2"/>
+      <c r="W1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE1" s="2"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="23:27">
+      <c r="W2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA2" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:27">
+      <c r="A3" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="X3" s="2"/>
+      <c r="AA3" s="5"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="2:31">
+      <c r="B4" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="V4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="AE4" s="2"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="3:31">
+      <c r="C5" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="V5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="AE5" s="2"/>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="4:27">
+      <c r="D6" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="X6" s="2"/>
+      <c r="AA6" s="5"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="4:4">
+      <c r="D7" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="4:4">
+      <c r="D8" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="4:4">
+      <c r="D9" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="4:4">
+      <c r="D10" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="4:4">
+      <c r="D11" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="5:5">
+      <c r="E12" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="5:5">
+      <c r="E13" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="4:4">
+      <c r="D14" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="4:5">
+      <c r="D15" s="2"/>
+      <c r="E15" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="5:5">
+      <c r="E16" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="2:6">
+      <c r="B17" s="3"/>
+      <c r="C17" s="1"/>
+      <c r="F17" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="2:5">
+      <c r="B18" s="3"/>
+      <c r="C18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="6:6">
+      <c r="F19" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="6:6">
+      <c r="F20" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="3:3">
+      <c r="C21" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="4:4">
+      <c r="D22" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="4:4">
+      <c r="D23" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="5:5">
+      <c r="E24" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="4:4">
+      <c r="D25" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="5:5">
+      <c r="E26" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="2:30">
+      <c r="B27" t="s">
+        <v>216</v>
+      </c>
+      <c r="C27"/>
+      <c r="D27" s="1"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
+      <c r="O27"/>
+      <c r="P27"/>
+      <c r="Q27"/>
+      <c r="R27"/>
+      <c r="S27"/>
+      <c r="T27"/>
+      <c r="U27"/>
+      <c r="V27"/>
+      <c r="W27"/>
+      <c r="X27"/>
+      <c r="Y27"/>
+      <c r="Z27"/>
+      <c r="AA27"/>
+      <c r="AB27"/>
+      <c r="AC27"/>
+      <c r="AD27"/>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="2:30">
+      <c r="B28"/>
+      <c r="C28" t="s">
+        <v>217</v>
+      </c>
+      <c r="D28"/>
+      <c r="F28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28"/>
+      <c r="N28"/>
+      <c r="O28"/>
+      <c r="P28"/>
+      <c r="Q28"/>
+      <c r="R28"/>
+      <c r="S28"/>
+      <c r="T28"/>
+      <c r="U28"/>
+      <c r="V28"/>
+      <c r="W28"/>
+      <c r="X28"/>
+      <c r="Y28"/>
+      <c r="Z28"/>
+      <c r="AA28"/>
+      <c r="AB28"/>
+      <c r="AC28"/>
+      <c r="AD28"/>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="2:30">
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29"/>
+      <c r="N29"/>
+      <c r="O29"/>
+      <c r="P29"/>
+      <c r="Q29"/>
+      <c r="R29"/>
+      <c r="S29"/>
+      <c r="T29"/>
+      <c r="U29"/>
+      <c r="V29"/>
+      <c r="W29"/>
+      <c r="X29"/>
+      <c r="Y29"/>
+      <c r="Z29"/>
+      <c r="AA29"/>
+      <c r="AB29"/>
+      <c r="AC29"/>
+      <c r="AD29"/>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="2:30">
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="E30" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="O30"/>
+      <c r="P30"/>
+      <c r="Q30"/>
+      <c r="R30"/>
+      <c r="S30"/>
+      <c r="T30"/>
+      <c r="U30"/>
+      <c r="V30"/>
+      <c r="W30"/>
+      <c r="X30"/>
+      <c r="Y30"/>
+      <c r="Z30"/>
+      <c r="AA30"/>
+      <c r="AB30"/>
+      <c r="AC30"/>
+      <c r="AD30"/>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="2:30">
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31"/>
+      <c r="N31"/>
+      <c r="O31"/>
+      <c r="P31"/>
+      <c r="Q31"/>
+      <c r="R31"/>
+      <c r="S31"/>
+      <c r="T31"/>
+      <c r="U31"/>
+      <c r="V31"/>
+      <c r="W31"/>
+      <c r="X31"/>
+      <c r="Y31"/>
+      <c r="Z31"/>
+      <c r="AA31"/>
+      <c r="AB31"/>
+      <c r="AC31"/>
+      <c r="AD31"/>
+    </row>
+    <row r="32" s="1" customFormat="1" spans="2:30">
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
+      <c r="M32"/>
+      <c r="N32"/>
+      <c r="O32"/>
+      <c r="P32"/>
+      <c r="Q32"/>
+      <c r="R32"/>
+      <c r="S32"/>
+      <c r="T32"/>
+      <c r="U32"/>
+      <c r="V32"/>
+      <c r="W32"/>
+      <c r="X32"/>
+      <c r="Y32"/>
+      <c r="Z32"/>
+      <c r="AA32"/>
+      <c r="AB32"/>
+      <c r="AC32"/>
+      <c r="AD32"/>
+    </row>
+    <row r="33" s="1" customFormat="1" spans="7:30">
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="O33"/>
+      <c r="P33"/>
+      <c r="Q33"/>
+      <c r="R33"/>
+      <c r="S33"/>
+      <c r="T33"/>
+      <c r="U33"/>
+      <c r="V33"/>
+      <c r="W33"/>
+      <c r="X33"/>
+      <c r="Y33"/>
+      <c r="Z33"/>
+      <c r="AA33"/>
+      <c r="AB33"/>
+      <c r="AC33"/>
+      <c r="AD33"/>
+    </row>
+    <row r="34" s="1" customFormat="1" spans="7:26">
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="L34"/>
+      <c r="M34"/>
+      <c r="N34"/>
+      <c r="O34"/>
+      <c r="P34"/>
+      <c r="Q34"/>
+      <c r="R34"/>
+      <c r="S34"/>
+      <c r="T34"/>
+      <c r="U34"/>
+      <c r="V34"/>
+      <c r="W34"/>
+      <c r="X34"/>
+      <c r="Y34"/>
+      <c r="Z34"/>
+    </row>
+    <row r="35" s="1" customFormat="1" spans="7:26">
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="O35"/>
+      <c r="P35"/>
+      <c r="Q35"/>
+      <c r="R35"/>
+      <c r="S35"/>
+      <c r="T35"/>
+      <c r="U35"/>
+      <c r="V35"/>
+      <c r="W35"/>
+      <c r="X35"/>
+      <c r="Y35"/>
+      <c r="Z35"/>
+    </row>
+    <row r="36" s="1" customFormat="1" spans="7:30">
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="O36"/>
+      <c r="P36"/>
+      <c r="Q36"/>
+      <c r="R36"/>
+      <c r="S36"/>
+      <c r="T36"/>
+      <c r="U36"/>
+      <c r="V36"/>
+      <c r="W36"/>
+      <c r="X36"/>
+      <c r="Y36"/>
+      <c r="Z36"/>
+      <c r="AA36"/>
+      <c r="AB36"/>
+      <c r="AC36"/>
+      <c r="AD36"/>
+    </row>
+    <row r="37" s="1" customFormat="1" spans="7:30">
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37"/>
+      <c r="N37"/>
+      <c r="O37"/>
+      <c r="P37"/>
+      <c r="Q37"/>
+      <c r="R37"/>
+      <c r="S37"/>
+      <c r="T37"/>
+      <c r="U37"/>
+      <c r="V37"/>
+      <c r="W37"/>
+      <c r="X37"/>
+      <c r="Y37"/>
+      <c r="Z37"/>
+      <c r="AA37"/>
+      <c r="AB37"/>
+      <c r="AC37"/>
+      <c r="AD37"/>
+    </row>
+    <row r="38" s="1" customFormat="1" spans="7:33">
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38"/>
+      <c r="P38"/>
+      <c r="Q38"/>
+      <c r="R38"/>
+      <c r="S38"/>
+      <c r="T38"/>
+      <c r="U38"/>
+      <c r="V38"/>
+      <c r="W38"/>
+      <c r="X38"/>
+      <c r="Y38"/>
+      <c r="Z38"/>
+      <c r="AC38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG38" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" s="1" customFormat="1" spans="2:33">
+      <c r="B39"/>
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39"/>
+      <c r="K39"/>
+      <c r="L39"/>
+      <c r="M39"/>
+      <c r="N39"/>
+      <c r="O39"/>
+      <c r="P39"/>
+      <c r="Q39"/>
+      <c r="R39"/>
+      <c r="S39"/>
+      <c r="T39"/>
+      <c r="U39"/>
+      <c r="V39"/>
+      <c r="W39"/>
+      <c r="X39"/>
+      <c r="Y39"/>
+      <c r="Z39"/>
+      <c r="AC39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG39" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" s="1" customFormat="1" spans="2:30">
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40"/>
+      <c r="M40"/>
+      <c r="N40"/>
+      <c r="O40"/>
+      <c r="P40"/>
+      <c r="Q40"/>
+      <c r="R40"/>
+      <c r="S40"/>
+      <c r="T40"/>
+      <c r="U40"/>
+      <c r="V40"/>
+      <c r="W40"/>
+      <c r="X40"/>
+      <c r="Y40"/>
+      <c r="Z40"/>
+      <c r="AA40"/>
+      <c r="AB40"/>
+      <c r="AC40"/>
+      <c r="AD40"/>
+    </row>
+    <row r="41" s="1" customFormat="1" spans="2:30">
+      <c r="B41"/>
+      <c r="C41" t="s">
+        <v>221</v>
+      </c>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41"/>
+      <c r="L41"/>
+      <c r="M41"/>
+      <c r="N41"/>
+      <c r="O41"/>
+      <c r="P41"/>
+      <c r="Q41"/>
+      <c r="R41"/>
+      <c r="S41"/>
+      <c r="T41"/>
+      <c r="U41"/>
+      <c r="V41"/>
+      <c r="W41"/>
+      <c r="X41"/>
+      <c r="Y41"/>
+      <c r="Z41"/>
+      <c r="AA41"/>
+      <c r="AB41"/>
+      <c r="AC41"/>
+      <c r="AD41"/>
+    </row>
+    <row r="42" s="1" customFormat="1" spans="2:30">
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42"/>
+      <c r="I42"/>
+      <c r="J42"/>
+      <c r="K42"/>
+      <c r="L42"/>
+      <c r="M42"/>
+      <c r="N42"/>
+      <c r="O42"/>
+      <c r="P42"/>
+      <c r="Q42"/>
+      <c r="R42"/>
+      <c r="S42"/>
+      <c r="T42"/>
+      <c r="U42"/>
+      <c r="V42"/>
+      <c r="W42"/>
+      <c r="X42"/>
+      <c r="Y42"/>
+      <c r="Z42"/>
+      <c r="AA42"/>
+      <c r="AB42"/>
+      <c r="AC42"/>
+      <c r="AD42"/>
+    </row>
+    <row r="43" s="1" customFormat="1" spans="2:30">
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43"/>
+      <c r="I43"/>
+      <c r="J43"/>
+      <c r="K43"/>
+      <c r="L43"/>
+      <c r="M43"/>
+      <c r="N43"/>
+      <c r="O43"/>
+      <c r="P43"/>
+      <c r="Q43"/>
+      <c r="R43"/>
+      <c r="S43"/>
+      <c r="T43"/>
+      <c r="U43"/>
+      <c r="V43"/>
+      <c r="W43"/>
+      <c r="X43"/>
+      <c r="Y43"/>
+      <c r="Z43"/>
+      <c r="AA43"/>
+      <c r="AB43"/>
+      <c r="AC43"/>
+      <c r="AD43"/>
+    </row>
+    <row r="44" s="1" customFormat="1" spans="2:30">
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="G44"/>
+      <c r="H44"/>
+      <c r="I44"/>
+      <c r="J44"/>
+      <c r="K44"/>
+      <c r="L44"/>
+      <c r="M44"/>
+      <c r="N44"/>
+      <c r="O44"/>
+      <c r="P44"/>
+      <c r="Q44"/>
+      <c r="R44"/>
+      <c r="S44"/>
+      <c r="T44"/>
+      <c r="U44"/>
+      <c r="V44"/>
+      <c r="W44"/>
+      <c r="X44"/>
+      <c r="Y44"/>
+      <c r="Z44"/>
+      <c r="AA44"/>
+      <c r="AB44"/>
+      <c r="AC44"/>
+      <c r="AD44"/>
+    </row>
+    <row r="45" s="1" customFormat="1" spans="2:30">
+      <c r="B45"/>
+      <c r="C45"/>
+      <c r="G45"/>
+      <c r="H45"/>
+      <c r="I45"/>
+      <c r="J45"/>
+      <c r="K45"/>
+      <c r="L45"/>
+      <c r="M45"/>
+      <c r="N45"/>
+      <c r="O45"/>
+      <c r="P45"/>
+      <c r="Q45"/>
+      <c r="R45"/>
+      <c r="S45"/>
+      <c r="T45"/>
+      <c r="U45"/>
+      <c r="V45"/>
+      <c r="W45"/>
+      <c r="X45"/>
+      <c r="Y45"/>
+      <c r="Z45"/>
+      <c r="AA45"/>
+      <c r="AB45"/>
+      <c r="AC45"/>
+      <c r="AD45"/>
+    </row>
+    <row r="46" s="1" customFormat="1" spans="2:30">
+      <c r="B46"/>
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="G46"/>
+      <c r="H46"/>
+      <c r="I46"/>
+      <c r="J46"/>
+      <c r="K46"/>
+      <c r="L46"/>
+      <c r="M46"/>
+      <c r="N46"/>
+      <c r="O46"/>
+      <c r="P46"/>
+      <c r="Q46"/>
+      <c r="R46"/>
+      <c r="S46"/>
+      <c r="T46"/>
+      <c r="U46"/>
+      <c r="V46"/>
+      <c r="W46"/>
+      <c r="X46"/>
+      <c r="Y46"/>
+      <c r="Z46"/>
+      <c r="AA46"/>
+      <c r="AB46"/>
+      <c r="AC46"/>
+      <c r="AD46"/>
+    </row>
+    <row r="47" s="1" customFormat="1" spans="2:30">
+      <c r="B47"/>
+      <c r="C47"/>
+      <c r="G47"/>
+      <c r="H47"/>
+      <c r="I47"/>
+      <c r="J47"/>
+      <c r="K47"/>
+      <c r="L47"/>
+      <c r="M47"/>
+      <c r="N47"/>
+      <c r="O47"/>
+      <c r="P47"/>
+      <c r="Q47"/>
+      <c r="R47"/>
+      <c r="S47"/>
+      <c r="T47"/>
+      <c r="U47"/>
+      <c r="V47"/>
+      <c r="W47"/>
+      <c r="X47"/>
+      <c r="Y47"/>
+      <c r="Z47"/>
+      <c r="AA47"/>
+      <c r="AB47"/>
+      <c r="AC47"/>
+      <c r="AD47"/>
+    </row>
+    <row r="48" s="1" customFormat="1" spans="2:30">
+      <c r="B48"/>
+      <c r="C48"/>
+      <c r="E48"/>
+      <c r="F48"/>
+      <c r="G48"/>
+      <c r="H48"/>
+      <c r="I48"/>
+      <c r="J48"/>
+      <c r="K48"/>
+      <c r="L48"/>
+      <c r="M48"/>
+      <c r="N48"/>
+      <c r="O48"/>
+      <c r="P48"/>
+      <c r="Q48"/>
+      <c r="R48"/>
+      <c r="S48"/>
+      <c r="T48"/>
+      <c r="U48"/>
+      <c r="V48"/>
+      <c r="W48"/>
+      <c r="X48"/>
+      <c r="Y48"/>
+      <c r="Z48"/>
+      <c r="AA48"/>
+      <c r="AB48"/>
+      <c r="AC48"/>
+      <c r="AD48"/>
+    </row>
+    <row r="49" s="1" customFormat="1" spans="2:30">
+      <c r="B49"/>
+      <c r="C49"/>
+      <c r="E49"/>
+      <c r="F49"/>
+      <c r="G49"/>
+      <c r="H49"/>
+      <c r="I49"/>
+      <c r="J49"/>
+      <c r="K49"/>
+      <c r="L49"/>
+      <c r="M49"/>
+      <c r="N49"/>
+      <c r="O49"/>
+      <c r="P49"/>
+      <c r="Q49"/>
+      <c r="R49"/>
+      <c r="S49"/>
+      <c r="T49"/>
+      <c r="U49"/>
+      <c r="V49"/>
+      <c r="W49"/>
+      <c r="X49"/>
+      <c r="Y49"/>
+      <c r="Z49"/>
+      <c r="AA49"/>
+      <c r="AB49"/>
+      <c r="AC49"/>
+      <c r="AD49"/>
+    </row>
+    <row r="50" s="1" customFormat="1" spans="2:30">
+      <c r="B50"/>
+      <c r="C50"/>
+      <c r="D50"/>
+      <c r="E50"/>
+      <c r="F50"/>
+      <c r="G50"/>
+      <c r="H50"/>
+      <c r="I50"/>
+      <c r="J50"/>
+      <c r="K50"/>
+      <c r="L50"/>
+      <c r="M50"/>
+      <c r="N50"/>
+      <c r="O50"/>
+      <c r="P50"/>
+      <c r="Q50"/>
+      <c r="R50"/>
+      <c r="S50"/>
+      <c r="T50"/>
+      <c r="U50"/>
+      <c r="V50"/>
+      <c r="W50"/>
+      <c r="X50"/>
+      <c r="Y50"/>
+      <c r="Z50"/>
+      <c r="AA50"/>
+      <c r="AB50"/>
+      <c r="AC50"/>
+      <c r="AD50"/>
+    </row>
+    <row r="51" s="1" customFormat="1" spans="2:30">
+      <c r="B51"/>
+      <c r="C51"/>
+      <c r="F51"/>
+      <c r="G51"/>
+      <c r="H51"/>
+      <c r="I51"/>
+      <c r="J51"/>
+      <c r="K51"/>
+      <c r="L51"/>
+      <c r="M51"/>
+      <c r="N51"/>
+      <c r="O51"/>
+      <c r="P51"/>
+      <c r="Q51"/>
+      <c r="R51"/>
+      <c r="S51"/>
+      <c r="T51"/>
+      <c r="U51"/>
+      <c r="V51"/>
+      <c r="W51"/>
+      <c r="X51"/>
+      <c r="Y51"/>
+      <c r="Z51"/>
+      <c r="AA51"/>
+      <c r="AB51"/>
+      <c r="AC51"/>
+      <c r="AD51"/>
+    </row>
+    <row r="52" s="1" customFormat="1" spans="2:30">
+      <c r="B52"/>
+      <c r="C52"/>
+      <c r="F52"/>
+      <c r="G52"/>
+      <c r="H52"/>
+      <c r="I52"/>
+      <c r="J52"/>
+      <c r="K52"/>
+      <c r="L52"/>
+      <c r="M52"/>
+      <c r="N52"/>
+      <c r="O52"/>
+      <c r="P52"/>
+      <c r="Q52"/>
+      <c r="R52"/>
+      <c r="S52"/>
+      <c r="T52"/>
+      <c r="U52"/>
+      <c r="V52"/>
+      <c r="W52"/>
+      <c r="X52"/>
+      <c r="Y52"/>
+      <c r="Z52"/>
+      <c r="AA52"/>
+      <c r="AB52"/>
+      <c r="AC52"/>
+      <c r="AD52"/>
+    </row>
+    <row r="53" s="1" customFormat="1" spans="2:30">
+      <c r="B53"/>
+      <c r="C53"/>
+      <c r="E53"/>
+      <c r="F53"/>
+      <c r="G53"/>
+      <c r="H53"/>
+      <c r="I53"/>
+      <c r="J53"/>
+      <c r="K53"/>
+      <c r="L53"/>
+      <c r="M53"/>
+      <c r="N53"/>
+      <c r="O53"/>
+      <c r="P53"/>
+      <c r="Q53"/>
+      <c r="R53"/>
+      <c r="S53"/>
+      <c r="T53"/>
+      <c r="U53"/>
+      <c r="V53"/>
+      <c r="W53"/>
+      <c r="X53"/>
+      <c r="Y53"/>
+      <c r="Z53"/>
+      <c r="AA53"/>
+      <c r="AB53"/>
+      <c r="AC53"/>
+      <c r="AD53"/>
+    </row>
+    <row r="54" s="1" customFormat="1" spans="2:30">
+      <c r="B54"/>
+      <c r="C54"/>
+      <c r="E54"/>
+      <c r="F54"/>
+      <c r="G54"/>
+      <c r="H54"/>
+      <c r="I54"/>
+      <c r="J54"/>
+      <c r="K54"/>
+      <c r="L54"/>
+      <c r="M54"/>
+      <c r="N54"/>
+      <c r="O54"/>
+      <c r="P54"/>
+      <c r="Q54"/>
+      <c r="R54"/>
+      <c r="S54"/>
+      <c r="T54"/>
+      <c r="U54"/>
+      <c r="V54"/>
+      <c r="W54"/>
+      <c r="X54"/>
+      <c r="Y54"/>
+      <c r="Z54"/>
+      <c r="AA54"/>
+      <c r="AB54"/>
+      <c r="AC54"/>
+      <c r="AD54"/>
+    </row>
+    <row r="55" s="1" customFormat="1" spans="2:30">
+      <c r="B55"/>
+      <c r="C55"/>
+      <c r="D55"/>
+      <c r="E55"/>
+      <c r="F55"/>
+      <c r="G55"/>
+      <c r="H55"/>
+      <c r="I55"/>
+      <c r="J55"/>
+      <c r="K55"/>
+      <c r="L55"/>
+      <c r="M55"/>
+      <c r="N55"/>
+      <c r="O55"/>
+      <c r="P55"/>
+      <c r="Q55"/>
+      <c r="R55"/>
+      <c r="S55"/>
+      <c r="T55"/>
+      <c r="U55"/>
+      <c r="V55"/>
+      <c r="W55"/>
+      <c r="X55"/>
+      <c r="Y55"/>
+      <c r="Z55"/>
+      <c r="AA55"/>
+      <c r="AB55"/>
+      <c r="AC55"/>
+      <c r="AD55"/>
+    </row>
+    <row r="56" s="1" customFormat="1" spans="2:33">
+      <c r="B56"/>
+      <c r="C56"/>
+      <c r="D56"/>
+      <c r="E56"/>
+      <c r="F56"/>
+      <c r="G56"/>
+      <c r="H56"/>
+      <c r="I56"/>
+      <c r="J56"/>
+      <c r="K56"/>
+      <c r="L56"/>
+      <c r="M56"/>
+      <c r="N56"/>
+      <c r="O56"/>
+      <c r="P56"/>
+      <c r="Q56"/>
+      <c r="R56"/>
+      <c r="S56"/>
+      <c r="T56"/>
+      <c r="U56"/>
+      <c r="V56"/>
+      <c r="W56"/>
+      <c r="X56"/>
+      <c r="Y56"/>
+      <c r="Z56"/>
+      <c r="AA56"/>
+      <c r="AB56"/>
+      <c r="AC56"/>
+      <c r="AD56"/>
+      <c r="AE56"/>
+      <c r="AF56"/>
+      <c r="AG56"/>
+    </row>
+    <row r="57" s="1" customFormat="1" spans="2:33">
+      <c r="B57"/>
+      <c r="C57"/>
+      <c r="D57"/>
+      <c r="E57"/>
+      <c r="F57"/>
+      <c r="G57"/>
+      <c r="H57"/>
+      <c r="I57"/>
+      <c r="J57"/>
+      <c r="K57"/>
+      <c r="L57"/>
+      <c r="M57"/>
+      <c r="N57"/>
+      <c r="O57"/>
+      <c r="P57"/>
+      <c r="Q57"/>
+      <c r="R57"/>
+      <c r="S57"/>
+      <c r="T57"/>
+      <c r="U57"/>
+      <c r="V57"/>
+      <c r="W57"/>
+      <c r="X57"/>
+      <c r="Y57"/>
+      <c r="Z57"/>
+      <c r="AA57"/>
+      <c r="AB57"/>
+      <c r="AC57"/>
+      <c r="AD57"/>
+      <c r="AE57"/>
+      <c r="AF57"/>
+      <c r="AG57"/>
+    </row>
+    <row r="58" s="1" customFormat="1" spans="2:30">
+      <c r="B58"/>
+      <c r="C58"/>
+      <c r="D58"/>
+      <c r="E58"/>
+      <c r="F58"/>
+      <c r="G58"/>
+      <c r="H58"/>
+      <c r="I58"/>
+      <c r="J58"/>
+      <c r="K58"/>
+      <c r="L58"/>
+      <c r="M58"/>
+      <c r="N58"/>
+      <c r="O58"/>
+      <c r="P58"/>
+      <c r="Q58"/>
+      <c r="R58"/>
+      <c r="S58"/>
+      <c r="T58"/>
+      <c r="U58"/>
+      <c r="V58"/>
+      <c r="W58"/>
+      <c r="X58"/>
+      <c r="Y58"/>
+      <c r="Z58"/>
+      <c r="AA58"/>
+      <c r="AB58"/>
+      <c r="AC58"/>
+      <c r="AD58"/>
+    </row>
+    <row r="59" s="1" customFormat="1" spans="2:30">
+      <c r="B59"/>
+      <c r="C59"/>
+      <c r="D59"/>
+      <c r="E59"/>
+      <c r="F59"/>
+      <c r="G59"/>
+      <c r="H59"/>
+      <c r="I59"/>
+      <c r="J59"/>
+      <c r="K59"/>
+      <c r="L59"/>
+      <c r="M59"/>
+      <c r="N59"/>
+      <c r="O59"/>
+      <c r="P59"/>
+      <c r="Q59"/>
+      <c r="R59"/>
+      <c r="S59"/>
+      <c r="T59"/>
+      <c r="U59"/>
+      <c r="V59"/>
+      <c r="W59"/>
+      <c r="X59"/>
+      <c r="Y59"/>
+      <c r="Z59"/>
+      <c r="AA59"/>
+      <c r="AB59"/>
+      <c r="AC59"/>
+      <c r="AD59"/>
+    </row>
+    <row r="60" s="1" customFormat="1" spans="2:30">
+      <c r="B60"/>
+      <c r="C60"/>
+      <c r="D60"/>
+      <c r="E60"/>
+      <c r="F60"/>
+      <c r="G60"/>
+      <c r="H60"/>
+      <c r="I60"/>
+      <c r="J60"/>
+      <c r="K60"/>
+      <c r="L60"/>
+      <c r="M60"/>
+      <c r="N60"/>
+      <c r="O60"/>
+      <c r="P60"/>
+      <c r="Q60"/>
+      <c r="R60"/>
+      <c r="S60"/>
+      <c r="T60"/>
+      <c r="U60"/>
+      <c r="V60"/>
+      <c r="W60"/>
+      <c r="X60"/>
+      <c r="Y60"/>
+      <c r="Z60"/>
+      <c r="AA60"/>
+      <c r="AB60"/>
+      <c r="AC60"/>
+      <c r="AD60"/>
+    </row>
+    <row r="61" s="1" customFormat="1" spans="2:30">
+      <c r="B61"/>
+      <c r="C61"/>
+      <c r="D61"/>
+      <c r="E61"/>
+      <c r="F61"/>
+      <c r="G61"/>
+      <c r="H61"/>
+      <c r="I61"/>
+      <c r="J61"/>
+      <c r="K61"/>
+      <c r="L61"/>
+      <c r="M61"/>
+      <c r="N61"/>
+      <c r="O61"/>
+      <c r="P61"/>
+      <c r="Q61"/>
+      <c r="R61"/>
+      <c r="S61"/>
+      <c r="T61"/>
+      <c r="U61"/>
+      <c r="V61"/>
+      <c r="W61"/>
+      <c r="X61"/>
+      <c r="Y61"/>
+      <c r="Z61"/>
+      <c r="AA61"/>
+      <c r="AB61"/>
+      <c r="AC61"/>
+      <c r="AD61"/>
+    </row>
+    <row r="62" s="1" customFormat="1" spans="2:30">
+      <c r="B62"/>
+      <c r="C62"/>
+      <c r="D62"/>
+      <c r="E62"/>
+      <c r="F62"/>
+      <c r="G62"/>
+      <c r="H62"/>
+      <c r="I62"/>
+      <c r="J62"/>
+      <c r="K62"/>
+      <c r="L62"/>
+      <c r="M62"/>
+      <c r="N62"/>
+      <c r="O62"/>
+      <c r="P62"/>
+      <c r="Q62"/>
+      <c r="R62"/>
+      <c r="S62"/>
+      <c r="T62"/>
+      <c r="U62"/>
+      <c r="V62"/>
+      <c r="W62"/>
+      <c r="X62"/>
+      <c r="Y62"/>
+      <c r="Z62"/>
+      <c r="AA62"/>
+      <c r="AB62"/>
+      <c r="AC62"/>
+      <c r="AD62"/>
+    </row>
+    <row r="63" s="1" customFormat="1" spans="2:30">
+      <c r="B63"/>
+      <c r="C63"/>
+      <c r="D63"/>
+      <c r="E63"/>
+      <c r="F63"/>
+      <c r="G63"/>
+      <c r="H63"/>
+      <c r="I63"/>
+      <c r="J63"/>
+      <c r="K63"/>
+      <c r="L63"/>
+      <c r="M63"/>
+      <c r="N63"/>
+      <c r="O63"/>
+      <c r="X63"/>
+      <c r="Y63"/>
+      <c r="Z63"/>
+      <c r="AA63"/>
+      <c r="AB63"/>
+      <c r="AC63"/>
+      <c r="AD63"/>
+    </row>
+    <row r="64" s="1" customFormat="1" spans="2:30">
+      <c r="B64"/>
+      <c r="C64"/>
+      <c r="D64"/>
+      <c r="E64"/>
+      <c r="F64"/>
+      <c r="G64"/>
+      <c r="H64"/>
+      <c r="I64"/>
+      <c r="J64"/>
+      <c r="K64"/>
+      <c r="L64"/>
+      <c r="M64"/>
+      <c r="N64"/>
+      <c r="O64"/>
+      <c r="X64"/>
+      <c r="Y64"/>
+      <c r="Z64"/>
+      <c r="AA64"/>
+      <c r="AB64"/>
+      <c r="AC64"/>
+      <c r="AD64"/>
+    </row>
+    <row r="65" s="1" customFormat="1" spans="2:30">
+      <c r="B65"/>
+      <c r="C65"/>
+      <c r="D65"/>
+      <c r="E65"/>
+      <c r="F65"/>
+      <c r="G65"/>
+      <c r="H65"/>
+      <c r="I65"/>
+      <c r="J65"/>
+      <c r="K65"/>
+      <c r="L65"/>
+      <c r="M65"/>
+      <c r="N65"/>
+      <c r="O65"/>
+      <c r="P65"/>
+      <c r="Q65"/>
+      <c r="R65"/>
+      <c r="S65"/>
+      <c r="T65"/>
+      <c r="U65"/>
+      <c r="V65"/>
+      <c r="W65"/>
+      <c r="X65"/>
+      <c r="Y65"/>
+      <c r="Z65"/>
+      <c r="AA65"/>
+      <c r="AB65"/>
+      <c r="AC65"/>
+      <c r="AD65"/>
+    </row>
+    <row r="66" s="1" customFormat="1" spans="2:30">
+      <c r="B66"/>
+      <c r="C66"/>
+      <c r="D66"/>
+      <c r="F66"/>
+      <c r="G66"/>
+      <c r="H66"/>
+      <c r="I66"/>
+      <c r="J66"/>
+      <c r="K66"/>
+      <c r="L66"/>
+      <c r="M66"/>
+      <c r="N66"/>
+      <c r="O66"/>
+      <c r="P66"/>
+      <c r="Q66"/>
+      <c r="R66"/>
+      <c r="S66"/>
+      <c r="T66"/>
+      <c r="U66"/>
+      <c r="V66"/>
+      <c r="W66"/>
+      <c r="X66"/>
+      <c r="Y66"/>
+      <c r="Z66"/>
+      <c r="AA66"/>
+      <c r="AB66"/>
+      <c r="AC66"/>
+      <c r="AD66"/>
+    </row>
+    <row r="67" s="1" customFormat="1" spans="2:30">
+      <c r="B67"/>
+      <c r="C67"/>
+      <c r="D67"/>
+      <c r="F67"/>
+      <c r="G67"/>
+      <c r="H67"/>
+      <c r="I67"/>
+      <c r="J67"/>
+      <c r="K67"/>
+      <c r="L67"/>
+      <c r="M67"/>
+      <c r="N67"/>
+      <c r="O67"/>
+      <c r="P67"/>
+      <c r="Q67"/>
+      <c r="R67"/>
+      <c r="S67"/>
+      <c r="T67"/>
+      <c r="U67"/>
+      <c r="V67"/>
+      <c r="W67"/>
+      <c r="X67"/>
+      <c r="Y67"/>
+      <c r="Z67"/>
+      <c r="AA67"/>
+      <c r="AB67"/>
+      <c r="AC67"/>
+      <c r="AD67"/>
+    </row>
+    <row r="68" s="1" customFormat="1" spans="2:30">
+      <c r="B68"/>
+      <c r="C68"/>
+      <c r="D68"/>
+      <c r="F68"/>
+      <c r="G68"/>
+      <c r="H68"/>
+      <c r="I68"/>
+      <c r="J68"/>
+      <c r="K68"/>
+      <c r="L68"/>
+      <c r="M68"/>
+      <c r="N68"/>
+      <c r="O68"/>
+      <c r="P68"/>
+      <c r="Q68"/>
+      <c r="R68"/>
+      <c r="S68"/>
+      <c r="T68"/>
+      <c r="U68"/>
+      <c r="V68"/>
+      <c r="W68"/>
+      <c r="X68"/>
+      <c r="Y68"/>
+      <c r="Z68"/>
+      <c r="AA68"/>
+      <c r="AB68"/>
+      <c r="AC68"/>
+      <c r="AD68"/>
+    </row>
+    <row r="69" s="1" customFormat="1" spans="2:30">
+      <c r="B69"/>
+      <c r="C69"/>
+      <c r="D69"/>
+      <c r="F69"/>
+      <c r="G69"/>
+      <c r="H69"/>
+      <c r="I69"/>
+      <c r="J69"/>
+      <c r="K69"/>
+      <c r="L69"/>
+      <c r="M69"/>
+      <c r="N69"/>
+      <c r="O69"/>
+      <c r="P69"/>
+      <c r="Q69"/>
+      <c r="R69"/>
+      <c r="S69"/>
+      <c r="T69"/>
+      <c r="U69"/>
+      <c r="V69"/>
+      <c r="W69"/>
+      <c r="X69"/>
+      <c r="Y69"/>
+      <c r="Z69"/>
+      <c r="AA69"/>
+      <c r="AB69"/>
+      <c r="AC69"/>
+      <c r="AD69"/>
+    </row>
+    <row r="70" s="1" customFormat="1" spans="2:30">
+      <c r="B70"/>
+      <c r="C70"/>
+      <c r="D70"/>
+      <c r="E70"/>
+      <c r="F70"/>
+      <c r="G70"/>
+      <c r="H70"/>
+      <c r="I70"/>
+      <c r="J70"/>
+      <c r="K70"/>
+      <c r="L70"/>
+      <c r="M70"/>
+      <c r="N70"/>
+      <c r="O70"/>
+      <c r="P70"/>
+      <c r="Q70"/>
+      <c r="R70"/>
+      <c r="S70"/>
+      <c r="T70"/>
+      <c r="U70"/>
+      <c r="V70"/>
+      <c r="W70"/>
+      <c r="X70"/>
+      <c r="Y70"/>
+      <c r="Z70"/>
+      <c r="AA70"/>
+      <c r="AB70"/>
+      <c r="AC70"/>
+      <c r="AD70"/>
+    </row>
+    <row r="71" s="1" customFormat="1" spans="2:30">
+      <c r="B71"/>
+      <c r="C71"/>
+      <c r="D71"/>
+      <c r="E71"/>
+      <c r="F71"/>
+      <c r="G71"/>
+      <c r="H71"/>
+      <c r="I71"/>
+      <c r="J71"/>
+      <c r="K71"/>
+      <c r="L71"/>
+      <c r="M71"/>
+      <c r="N71"/>
+      <c r="O71"/>
+      <c r="P71"/>
+      <c r="Q71"/>
+      <c r="R71"/>
+      <c r="S71"/>
+      <c r="T71"/>
+      <c r="U71"/>
+      <c r="V71"/>
+      <c r="W71"/>
+      <c r="X71"/>
+      <c r="Y71"/>
+      <c r="Z71"/>
+      <c r="AA71"/>
+      <c r="AB71"/>
+      <c r="AC71"/>
+      <c r="AD71"/>
+    </row>
+    <row r="72" s="1" customFormat="1" spans="2:30">
+      <c r="B72"/>
+      <c r="C72"/>
+      <c r="D72"/>
+      <c r="E72"/>
+      <c r="F72"/>
+      <c r="G72"/>
+      <c r="H72"/>
+      <c r="I72"/>
+      <c r="J72"/>
+      <c r="K72"/>
+      <c r="L72"/>
+      <c r="M72"/>
+      <c r="N72"/>
+      <c r="O72"/>
+      <c r="P72"/>
+      <c r="Q72"/>
+      <c r="R72"/>
+      <c r="S72"/>
+      <c r="T72"/>
+      <c r="U72"/>
+      <c r="V72"/>
+      <c r="W72"/>
+      <c r="X72"/>
+      <c r="Y72"/>
+      <c r="Z72"/>
+      <c r="AA72"/>
+      <c r="AB72"/>
+      <c r="AC72"/>
+      <c r="AD72"/>
+    </row>
+    <row r="73" s="1" customFormat="1" spans="2:30">
+      <c r="B73"/>
+      <c r="C73"/>
+      <c r="D73"/>
+      <c r="E73"/>
+      <c r="F73"/>
+      <c r="G73"/>
+      <c r="H73"/>
+      <c r="I73"/>
+      <c r="J73"/>
+      <c r="K73"/>
+      <c r="L73"/>
+      <c r="M73"/>
+      <c r="N73"/>
+      <c r="O73"/>
+      <c r="P73"/>
+      <c r="Q73"/>
+      <c r="R73"/>
+      <c r="S73"/>
+      <c r="T73"/>
+      <c r="U73"/>
+      <c r="V73"/>
+      <c r="W73"/>
+      <c r="X73"/>
+      <c r="Y73"/>
+      <c r="Z73"/>
+      <c r="AA73"/>
+      <c r="AB73"/>
+      <c r="AC73"/>
+      <c r="AD73"/>
+    </row>
+    <row r="74" s="1" customFormat="1" spans="2:30">
+      <c r="B74"/>
+      <c r="C74"/>
+      <c r="D74"/>
+      <c r="E74"/>
+      <c r="F74"/>
+      <c r="G74"/>
+      <c r="H74"/>
+      <c r="I74"/>
+      <c r="J74"/>
+      <c r="K74"/>
+      <c r="L74"/>
+      <c r="M74"/>
+      <c r="N74"/>
+      <c r="O74"/>
+      <c r="P74"/>
+      <c r="Q74"/>
+      <c r="R74"/>
+      <c r="S74"/>
+      <c r="T74"/>
+      <c r="U74"/>
+      <c r="V74"/>
+      <c r="W74"/>
+      <c r="X74"/>
+      <c r="Y74"/>
+      <c r="Z74"/>
+      <c r="AA74"/>
+      <c r="AB74"/>
+      <c r="AC74"/>
+      <c r="AD74"/>
+    </row>
+    <row r="75" s="1" customFormat="1" spans="2:30">
+      <c r="B75"/>
+      <c r="C75"/>
+      <c r="D75"/>
+      <c r="E75"/>
+      <c r="F75"/>
+      <c r="G75"/>
+      <c r="H75"/>
+      <c r="I75"/>
+      <c r="J75"/>
+      <c r="K75"/>
+      <c r="L75"/>
+      <c r="M75"/>
+      <c r="N75"/>
+      <c r="O75"/>
+      <c r="P75"/>
+      <c r="Q75"/>
+      <c r="R75"/>
+      <c r="S75"/>
+      <c r="T75"/>
+      <c r="U75"/>
+      <c r="V75"/>
+      <c r="W75"/>
+      <c r="X75"/>
+      <c r="Y75"/>
+      <c r="Z75"/>
+      <c r="AA75"/>
+      <c r="AB75"/>
+      <c r="AC75"/>
+      <c r="AD75"/>
+    </row>
+    <row r="76" s="1" customFormat="1" spans="2:30">
+      <c r="B76"/>
+      <c r="C76"/>
+      <c r="D76"/>
+      <c r="F76"/>
+      <c r="G76"/>
+      <c r="H76"/>
+      <c r="I76"/>
+      <c r="J76"/>
+      <c r="K76"/>
+      <c r="L76"/>
+      <c r="M76"/>
+      <c r="N76"/>
+      <c r="O76"/>
+      <c r="P76"/>
+      <c r="Q76"/>
+      <c r="R76"/>
+      <c r="S76"/>
+      <c r="T76"/>
+      <c r="U76"/>
+      <c r="V76"/>
+      <c r="W76"/>
+      <c r="X76"/>
+      <c r="Y76"/>
+      <c r="Z76"/>
+      <c r="AA76"/>
+      <c r="AB76"/>
+      <c r="AC76"/>
+      <c r="AD76"/>
+    </row>
+    <row r="77" s="1" customFormat="1" spans="2:30">
+      <c r="B77"/>
+      <c r="C77"/>
+      <c r="D77"/>
+      <c r="F77"/>
+      <c r="G77"/>
+      <c r="H77"/>
+      <c r="I77"/>
+      <c r="J77"/>
+      <c r="K77"/>
+      <c r="L77"/>
+      <c r="M77"/>
+      <c r="N77"/>
+      <c r="O77"/>
+      <c r="P77"/>
+      <c r="Q77"/>
+      <c r="R77"/>
+      <c r="S77"/>
+      <c r="T77"/>
+      <c r="U77"/>
+      <c r="V77"/>
+      <c r="W77"/>
+      <c r="X77"/>
+      <c r="Y77"/>
+      <c r="Z77"/>
+      <c r="AA77"/>
+      <c r="AB77"/>
+      <c r="AC77"/>
+      <c r="AD77"/>
+    </row>
+    <row r="78" s="1" customFormat="1" spans="2:30">
+      <c r="B78"/>
+      <c r="C78"/>
+      <c r="D78"/>
+      <c r="F78"/>
+      <c r="G78"/>
+      <c r="H78"/>
+      <c r="I78"/>
+      <c r="J78"/>
+      <c r="K78"/>
+      <c r="L78"/>
+      <c r="M78"/>
+      <c r="N78"/>
+      <c r="O78"/>
+      <c r="P78"/>
+      <c r="Q78"/>
+      <c r="R78"/>
+      <c r="S78"/>
+      <c r="T78"/>
+      <c r="U78"/>
+      <c r="V78"/>
+      <c r="W78"/>
+      <c r="X78"/>
+      <c r="Y78"/>
+      <c r="Z78"/>
+      <c r="AA78"/>
+      <c r="AB78"/>
+      <c r="AC78"/>
+      <c r="AD78"/>
+    </row>
+    <row r="79" s="1" customFormat="1" spans="2:30">
+      <c r="B79"/>
+      <c r="C79"/>
+      <c r="D79"/>
+      <c r="E79"/>
+      <c r="F79"/>
+      <c r="G79"/>
+      <c r="H79"/>
+      <c r="I79"/>
+      <c r="J79"/>
+      <c r="K79"/>
+      <c r="L79"/>
+      <c r="M79"/>
+      <c r="N79"/>
+      <c r="O79"/>
+      <c r="P79"/>
+      <c r="Q79"/>
+      <c r="R79"/>
+      <c r="S79"/>
+      <c r="T79"/>
+      <c r="U79"/>
+      <c r="V79"/>
+      <c r="W79"/>
+      <c r="X79"/>
+      <c r="Y79"/>
+      <c r="Z79"/>
+      <c r="AA79"/>
+      <c r="AB79"/>
+      <c r="AC79"/>
+      <c r="AD79"/>
+    </row>
+    <row r="80" s="1" customFormat="1" spans="2:30">
+      <c r="B80"/>
+      <c r="C80"/>
+      <c r="D80"/>
+      <c r="E80"/>
+      <c r="F80"/>
+      <c r="G80"/>
+      <c r="H80"/>
+      <c r="I80"/>
+      <c r="J80"/>
+      <c r="K80"/>
+      <c r="L80"/>
+      <c r="M80"/>
+      <c r="N80"/>
+      <c r="O80"/>
+      <c r="P80"/>
+      <c r="Q80"/>
+      <c r="R80"/>
+      <c r="S80"/>
+      <c r="T80"/>
+      <c r="U80"/>
+      <c r="V80"/>
+      <c r="W80"/>
+      <c r="X80"/>
+      <c r="Y80"/>
+      <c r="Z80"/>
+      <c r="AA80"/>
+      <c r="AB80"/>
+      <c r="AC80"/>
+      <c r="AD80"/>
+    </row>
+    <row r="81" s="1" customFormat="1" spans="2:30">
+      <c r="B81"/>
+      <c r="C81"/>
+      <c r="D81"/>
+      <c r="E81"/>
+      <c r="F81"/>
+      <c r="G81"/>
+      <c r="H81"/>
+      <c r="I81"/>
+      <c r="J81"/>
+      <c r="K81"/>
+      <c r="L81"/>
+      <c r="M81"/>
+      <c r="N81"/>
+      <c r="O81"/>
+      <c r="P81"/>
+      <c r="Q81"/>
+      <c r="R81"/>
+      <c r="S81"/>
+      <c r="T81"/>
+      <c r="U81"/>
+      <c r="V81"/>
+      <c r="W81"/>
+      <c r="X81"/>
+      <c r="Y81"/>
+      <c r="Z81"/>
+      <c r="AA81"/>
+      <c r="AB81"/>
+      <c r="AC81"/>
+      <c r="AD81"/>
+    </row>
+    <row r="82" s="1" customFormat="1" spans="2:30">
+      <c r="B82"/>
+      <c r="C82"/>
+      <c r="D82"/>
+      <c r="E82"/>
+      <c r="F82"/>
+      <c r="G82"/>
+      <c r="H82"/>
+      <c r="I82"/>
+      <c r="J82"/>
+      <c r="K82"/>
+      <c r="L82"/>
+      <c r="M82"/>
+      <c r="N82"/>
+      <c r="O82"/>
+      <c r="P82"/>
+      <c r="Q82"/>
+      <c r="R82"/>
+      <c r="S82"/>
+      <c r="T82"/>
+      <c r="U82"/>
+      <c r="V82"/>
+      <c r="W82"/>
+      <c r="X82"/>
+      <c r="Y82"/>
+      <c r="Z82"/>
+      <c r="AA82"/>
+      <c r="AB82"/>
+      <c r="AC82"/>
+      <c r="AD82"/>
+    </row>
+    <row r="83" s="1" customFormat="1" spans="2:30">
+      <c r="B83"/>
+      <c r="C83"/>
+      <c r="D83"/>
+      <c r="E83"/>
+      <c r="F83"/>
+      <c r="G83"/>
+      <c r="H83"/>
+      <c r="I83"/>
+      <c r="J83"/>
+      <c r="K83"/>
+      <c r="L83"/>
+      <c r="M83"/>
+      <c r="N83"/>
+      <c r="O83"/>
+      <c r="P83"/>
+      <c r="Q83"/>
+      <c r="R83"/>
+      <c r="S83"/>
+      <c r="T83"/>
+      <c r="U83"/>
+      <c r="V83"/>
+      <c r="W83"/>
+      <c r="X83"/>
+      <c r="Y83"/>
+      <c r="Z83"/>
+      <c r="AA83"/>
+      <c r="AB83"/>
+      <c r="AC83"/>
+      <c r="AD83"/>
+    </row>
+    <row r="84" s="1" customFormat="1" spans="2:30">
+      <c r="B84"/>
+      <c r="C84"/>
+      <c r="D84"/>
+      <c r="E84"/>
+      <c r="F84"/>
+      <c r="G84"/>
+      <c r="H84"/>
+      <c r="I84"/>
+      <c r="J84"/>
+      <c r="K84"/>
+      <c r="L84"/>
+      <c r="M84"/>
+      <c r="N84"/>
+      <c r="O84"/>
+      <c r="P84"/>
+      <c r="Q84"/>
+      <c r="R84"/>
+      <c r="S84"/>
+      <c r="T84"/>
+      <c r="U84"/>
+      <c r="V84"/>
+      <c r="W84"/>
+      <c r="X84"/>
+      <c r="Y84"/>
+      <c r="Z84"/>
+      <c r="AA84"/>
+      <c r="AB84"/>
+      <c r="AC84"/>
+      <c r="AD84"/>
+    </row>
+    <row r="85" s="1" customFormat="1" spans="2:30">
+      <c r="B85"/>
+      <c r="C85"/>
+      <c r="D85"/>
+      <c r="E85"/>
+      <c r="F85"/>
+      <c r="G85"/>
+      <c r="H85"/>
+      <c r="I85"/>
+      <c r="J85"/>
+      <c r="K85"/>
+      <c r="L85"/>
+      <c r="M85"/>
+      <c r="N85"/>
+      <c r="O85"/>
+      <c r="P85"/>
+      <c r="Q85"/>
+      <c r="R85"/>
+      <c r="S85"/>
+      <c r="T85"/>
+      <c r="U85"/>
+      <c r="V85"/>
+      <c r="W85"/>
+      <c r="X85"/>
+      <c r="Y85"/>
+      <c r="Z85"/>
+      <c r="AA85"/>
+      <c r="AB85"/>
+      <c r="AC85"/>
+      <c r="AD85"/>
+    </row>
+    <row r="86" s="1" customFormat="1" spans="2:30">
+      <c r="B86"/>
+      <c r="C86"/>
+      <c r="D86"/>
+      <c r="E86"/>
+      <c r="F86"/>
+      <c r="G86"/>
+      <c r="H86"/>
+      <c r="I86"/>
+      <c r="J86"/>
+      <c r="K86"/>
+      <c r="L86"/>
+      <c r="M86"/>
+      <c r="N86"/>
+      <c r="O86"/>
+      <c r="P86"/>
+      <c r="Q86"/>
+      <c r="R86"/>
+      <c r="S86"/>
+      <c r="T86"/>
+      <c r="U86"/>
+      <c r="V86"/>
+      <c r="W86"/>
+      <c r="X86"/>
+      <c r="Y86"/>
+      <c r="Z86"/>
+      <c r="AA86"/>
+      <c r="AB86"/>
+      <c r="AC86"/>
+      <c r="AD86"/>
+    </row>
+    <row r="87" s="1" customFormat="1" spans="2:30">
+      <c r="B87"/>
+      <c r="C87"/>
+      <c r="D87"/>
+      <c r="E87" s="2"/>
+      <c r="F87"/>
+      <c r="G87"/>
+      <c r="H87"/>
+      <c r="I87" s="6"/>
+      <c r="J87"/>
+      <c r="K87"/>
+      <c r="L87"/>
+      <c r="M87"/>
+      <c r="N87"/>
+      <c r="O87"/>
+      <c r="P87"/>
+      <c r="Q87"/>
+      <c r="R87"/>
+      <c r="S87"/>
+      <c r="T87"/>
+      <c r="U87"/>
+      <c r="V87"/>
+      <c r="W87"/>
+      <c r="X87"/>
+      <c r="Y87"/>
+      <c r="Z87"/>
+      <c r="AA87"/>
+      <c r="AB87"/>
+      <c r="AC87"/>
+      <c r="AD87"/>
+    </row>
+    <row r="88" s="1" customFormat="1" spans="5:9">
+      <c r="E88" s="2"/>
+      <c r="I88" s="6"/>
+    </row>
+    <row r="111" s="1" customFormat="1" spans="27:33">
+      <c r="AA111"/>
+      <c r="AB111"/>
+      <c r="AC111"/>
+      <c r="AD111"/>
+      <c r="AE111"/>
+      <c r="AF111"/>
+      <c r="AG111"/>
+    </row>
+    <row r="112" s="1" customFormat="1" spans="27:33">
+      <c r="AA112"/>
+      <c r="AB112"/>
+      <c r="AC112"/>
+      <c r="AD112"/>
+      <c r="AE112"/>
+      <c r="AF112"/>
+      <c r="AG112"/>
+    </row>
+    <row r="116" s="1" customFormat="1" spans="4:4">
+      <c r="D116" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/模电和数电.xlsx
+++ b/模电和数电.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="223">
   <si>
     <t>模电和数电</t>
   </si>
@@ -686,6 +686,9 @@
   </si>
   <si>
     <t>6.2.2检波电路</t>
+  </si>
+  <si>
+    <t>当当阅读器 - 模拟电路和数字电路自学手册 (dangdang.com)</t>
   </si>
 </sst>
 </file>
@@ -693,10 +696,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -737,6 +740,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -750,6 +767,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -757,8 +782,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -772,24 +798,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -843,21 +854,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -867,6 +863,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -887,19 +890,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -917,37 +950,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -965,43 +974,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1013,25 +1004,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1055,13 +1028,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1105,6 +1108,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1138,21 +1156,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1180,10 +1183,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1192,34 +1195,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1228,97 +1228,100 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2229,18 +2232,18 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPr id="2" name="图片 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2253,7 +2256,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
+          <a:off x="0" y="171450"/>
           <a:ext cx="8315325" cy="5534025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9307,7 +9310,6 @@
     <row r="32" s="1" customFormat="1" spans="2:30">
       <c r="B32"/>
       <c r="C32"/>
-      <c r="D32" s="1"/>
       <c r="E32"/>
       <c r="F32"/>
       <c r="G32"/>
@@ -9704,7 +9706,6 @@
       <c r="E46" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="F46" s="1"/>
       <c r="G46"/>
       <c r="H46"/>
       <c r="I46"/>
@@ -10323,7 +10324,6 @@
       <c r="B66"/>
       <c r="C66"/>
       <c r="D66"/>
-      <c r="E66" s="1"/>
       <c r="F66"/>
       <c r="G66"/>
       <c r="H66"/>
@@ -10630,7 +10630,6 @@
       <c r="B76"/>
       <c r="C76"/>
       <c r="D76"/>
-      <c r="E76" s="1"/>
       <c r="F76"/>
       <c r="G76"/>
       <c r="H76"/>
@@ -11279,7 +11278,6 @@
     <row r="29" s="1" customFormat="1" spans="2:30">
       <c r="B29"/>
       <c r="C29"/>
-      <c r="D29" s="1"/>
       <c r="F29"/>
       <c r="H29"/>
       <c r="I29"/>
@@ -11731,7 +11729,6 @@
     <row r="45" s="1" customFormat="1" spans="2:30">
       <c r="B45"/>
       <c r="C45"/>
-      <c r="D45" s="1"/>
       <c r="G45"/>
       <c r="H45"/>
       <c r="I45"/>
@@ -11761,7 +11758,6 @@
       <c r="B46"/>
       <c r="C46"/>
       <c r="D46"/>
-      <c r="E46" s="1"/>
       <c r="G46"/>
       <c r="H46"/>
       <c r="I46"/>
@@ -11790,7 +11786,6 @@
     <row r="47" s="1" customFormat="1" spans="2:30">
       <c r="B47"/>
       <c r="C47"/>
-      <c r="D47" s="1"/>
       <c r="G47"/>
       <c r="H47"/>
       <c r="I47"/>
@@ -11910,7 +11905,6 @@
     <row r="51" s="1" customFormat="1" spans="2:30">
       <c r="B51"/>
       <c r="C51"/>
-      <c r="D51" s="1"/>
       <c r="F51"/>
       <c r="G51"/>
       <c r="H51"/>
@@ -11940,7 +11934,6 @@
     <row r="52" s="1" customFormat="1" spans="2:30">
       <c r="B52"/>
       <c r="C52"/>
-      <c r="D52" s="1"/>
       <c r="F52"/>
       <c r="G52"/>
       <c r="H52"/>
@@ -11970,7 +11963,6 @@
     <row r="53" s="1" customFormat="1" spans="2:30">
       <c r="B53"/>
       <c r="C53"/>
-      <c r="D53" s="1"/>
       <c r="E53"/>
       <c r="F53"/>
       <c r="G53"/>
@@ -12001,7 +11993,6 @@
     <row r="54" s="1" customFormat="1" spans="2:30">
       <c r="B54"/>
       <c r="C54"/>
-      <c r="D54" s="1"/>
       <c r="E54"/>
       <c r="F54"/>
       <c r="G54"/>
@@ -13203,14 +13194,12 @@
     </row>
     <row r="17" s="1" customFormat="1" spans="2:6">
       <c r="B17" s="3"/>
-      <c r="C17" s="1"/>
       <c r="F17" s="1" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="2:5">
       <c r="B18" s="3"/>
-      <c r="C18" s="1"/>
       <c r="E18" s="1" t="s">
         <v>207</v>
       </c>
@@ -13260,7 +13249,6 @@
         <v>216</v>
       </c>
       <c r="C27"/>
-      <c r="D27" s="1"/>
       <c r="G27"/>
       <c r="H27"/>
       <c r="I27"/>
@@ -15131,11 +15119,20 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId2" display="当当阅读器 - 模拟电路和数字电路自学手册 (dangdang.com)" tooltip="https://e.dangdang.com/pc/reader/index.html?id=1901087681"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <drawing r:id="rId1"/>

--- a/模电和数电.xlsx
+++ b/模电和数电.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860" activeTab="6"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="第一章" sheetId="1" r:id="rId1"/>
@@ -13,14 +13,15 @@
     <sheet name="第四章" sheetId="5" r:id="rId4"/>
     <sheet name="第五章" sheetId="6" r:id="rId5"/>
     <sheet name="第六章" sheetId="7" r:id="rId6"/>
-    <sheet name="书签" sheetId="4" r:id="rId7"/>
+    <sheet name="第七章" sheetId="8" r:id="rId7"/>
+    <sheet name="书签" sheetId="4" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="231">
   <si>
     <t>模电和数电</t>
   </si>
@@ -686,6 +687,30 @@
   </si>
   <si>
     <t>6.2.2检波电路</t>
+  </si>
+  <si>
+    <t>用低频信号调制高频信号的频率，让其振幅保持不变</t>
+  </si>
+  <si>
+    <t>6.3鉴频电路</t>
+  </si>
+  <si>
+    <t>把调制信号解调出来</t>
+  </si>
+  <si>
+    <t>⑴鉴频器</t>
+  </si>
+  <si>
+    <t>⑵鉴频器的原理</t>
+  </si>
+  <si>
+    <t>①相位鉴频器</t>
+  </si>
+  <si>
+    <t>②不对称比例鉴频器</t>
+  </si>
+  <si>
+    <t>第七章：频率变换电路和负反馈控制电路</t>
   </si>
   <si>
     <t>当当阅读器 - 模拟电路和数字电路自学手册 (dangdang.com)</t>
@@ -696,10 +721,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -732,24 +757,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -767,9 +778,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -782,9 +792,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -798,9 +814,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -821,11 +837,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -847,12 +863,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -860,16 +893,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -884,13 +909,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -902,55 +969,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -968,19 +993,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -992,7 +1023,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1004,49 +1071,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1058,13 +1089,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1075,21 +1100,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1108,17 +1118,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1141,6 +1160,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1156,22 +1186,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1183,10 +1208,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1195,133 +1220,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2226,53 +2251,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="171450"/>
-          <a:ext cx="8315325" cy="5534025"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -13060,10 +13038,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AG116"/>
+  <dimension ref="A1:AI116"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="O36" sqref="O36"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
@@ -13547,7 +13525,7 @@
       <c r="AC37"/>
       <c r="AD37"/>
     </row>
-    <row r="38" s="1" customFormat="1" spans="7:33">
+    <row r="38" s="1" customFormat="1" spans="7:26">
       <c r="G38"/>
       <c r="H38"/>
       <c r="I38"/>
@@ -13568,23 +13546,8 @@
       <c r="X38"/>
       <c r="Y38"/>
       <c r="Z38"/>
-      <c r="AC38" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD38" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE38" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF38" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AG38" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" s="1" customFormat="1" spans="2:33">
+    </row>
+    <row r="39" s="1" customFormat="1" spans="2:26">
       <c r="B39"/>
       <c r="C39"/>
       <c r="D39"/>
@@ -13610,21 +13573,6 @@
       <c r="X39"/>
       <c r="Y39"/>
       <c r="Z39"/>
-      <c r="AC39" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD39" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE39" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AF39" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG39" s="1" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="40" s="1" customFormat="1" spans="2:30">
       <c r="B40"/>
@@ -13693,7 +13641,9 @@
     <row r="42" s="1" customFormat="1" spans="2:30">
       <c r="B42"/>
       <c r="C42"/>
-      <c r="D42"/>
+      <c r="D42" s="1" t="s">
+        <v>218</v>
+      </c>
       <c r="E42"/>
       <c r="F42"/>
       <c r="G42"/>
@@ -13725,7 +13675,9 @@
       <c r="B43"/>
       <c r="C43"/>
       <c r="D43"/>
-      <c r="E43"/>
+      <c r="E43" t="s">
+        <v>222</v>
+      </c>
       <c r="F43"/>
       <c r="G43"/>
       <c r="H43"/>
@@ -13753,7 +13705,9 @@
       <c r="AD43"/>
     </row>
     <row r="44" s="1" customFormat="1" spans="2:30">
-      <c r="B44"/>
+      <c r="B44" t="s">
+        <v>223</v>
+      </c>
       <c r="C44"/>
       <c r="D44"/>
       <c r="G44"/>
@@ -13783,7 +13737,9 @@
     </row>
     <row r="45" s="1" customFormat="1" spans="2:30">
       <c r="B45"/>
-      <c r="C45"/>
+      <c r="C45" t="s">
+        <v>224</v>
+      </c>
       <c r="G45"/>
       <c r="H45"/>
       <c r="I45"/>
@@ -13811,7 +13767,9 @@
     </row>
     <row r="46" s="1" customFormat="1" spans="2:30">
       <c r="B46"/>
-      <c r="C46"/>
+      <c r="C46" t="s">
+        <v>225</v>
+      </c>
       <c r="D46"/>
       <c r="G46"/>
       <c r="H46"/>
@@ -13840,7 +13798,9 @@
     </row>
     <row r="47" s="1" customFormat="1" spans="2:30">
       <c r="B47"/>
-      <c r="C47"/>
+      <c r="C47" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="G47"/>
       <c r="H47"/>
       <c r="I47"/>
@@ -13869,6 +13829,9 @@
     <row r="48" s="1" customFormat="1" spans="2:30">
       <c r="B48"/>
       <c r="C48"/>
+      <c r="D48" s="1" t="s">
+        <v>227</v>
+      </c>
       <c r="E48"/>
       <c r="F48"/>
       <c r="G48"/>
@@ -13899,6 +13862,9 @@
     <row r="49" s="1" customFormat="1" spans="2:30">
       <c r="B49"/>
       <c r="C49"/>
+      <c r="D49" s="1" t="s">
+        <v>228</v>
+      </c>
       <c r="E49"/>
       <c r="F49"/>
       <c r="G49"/>
@@ -14174,7 +14140,7 @@
       <c r="AF57"/>
       <c r="AG57"/>
     </row>
-    <row r="58" s="1" customFormat="1" spans="2:30">
+    <row r="58" s="1" customFormat="1" spans="2:35">
       <c r="B58"/>
       <c r="C58"/>
       <c r="D58"/>
@@ -14204,8 +14170,13 @@
       <c r="AB58"/>
       <c r="AC58"/>
       <c r="AD58"/>
-    </row>
-    <row r="59" s="1" customFormat="1" spans="2:30">
+      <c r="AE58"/>
+      <c r="AF58"/>
+      <c r="AG58"/>
+      <c r="AH58"/>
+      <c r="AI58"/>
+    </row>
+    <row r="59" s="1" customFormat="1" spans="2:35">
       <c r="B59"/>
       <c r="C59"/>
       <c r="D59"/>
@@ -14235,6 +14206,11 @@
       <c r="AB59"/>
       <c r="AC59"/>
       <c r="AD59"/>
+      <c r="AE59"/>
+      <c r="AF59"/>
+      <c r="AG59"/>
+      <c r="AH59"/>
+      <c r="AI59"/>
     </row>
     <row r="60" s="1" customFormat="1" spans="2:30">
       <c r="B60"/>
@@ -15116,9 +15092,1950 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:AI116"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="16384" width="4.875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="22.5" spans="9:31">
+      <c r="I1" s="4"/>
+      <c r="J1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="V1" s="2"/>
+      <c r="W1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE1" s="2"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="23:27">
+      <c r="W2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA2" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:27">
+      <c r="A3" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="X3" s="2"/>
+      <c r="AA3" s="5"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="22:31">
+      <c r="V4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="AE4" s="2"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="22:31">
+      <c r="V5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="AE5" s="2"/>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="24:27">
+      <c r="X6" s="2"/>
+      <c r="AA6" s="5"/>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="4:4">
+      <c r="D15" s="2"/>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="2:2">
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="2:2">
+      <c r="B18" s="3"/>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="2:30">
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
+      <c r="O27"/>
+      <c r="P27"/>
+      <c r="Q27"/>
+      <c r="R27"/>
+      <c r="S27"/>
+      <c r="T27"/>
+      <c r="U27"/>
+      <c r="V27"/>
+      <c r="W27"/>
+      <c r="X27"/>
+      <c r="Y27"/>
+      <c r="Z27"/>
+      <c r="AA27"/>
+      <c r="AB27"/>
+      <c r="AC27"/>
+      <c r="AD27"/>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="2:30">
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="F28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28"/>
+      <c r="N28"/>
+      <c r="O28"/>
+      <c r="P28"/>
+      <c r="Q28"/>
+      <c r="R28"/>
+      <c r="S28"/>
+      <c r="T28"/>
+      <c r="U28"/>
+      <c r="V28"/>
+      <c r="W28"/>
+      <c r="X28"/>
+      <c r="Y28"/>
+      <c r="Z28"/>
+      <c r="AA28"/>
+      <c r="AB28"/>
+      <c r="AC28"/>
+      <c r="AD28"/>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="2:30">
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29" s="1"/>
+      <c r="F29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29"/>
+      <c r="N29"/>
+      <c r="O29"/>
+      <c r="P29"/>
+      <c r="Q29"/>
+      <c r="R29"/>
+      <c r="S29"/>
+      <c r="T29"/>
+      <c r="U29"/>
+      <c r="V29"/>
+      <c r="W29"/>
+      <c r="X29"/>
+      <c r="Y29"/>
+      <c r="Z29"/>
+      <c r="AA29"/>
+      <c r="AB29"/>
+      <c r="AC29"/>
+      <c r="AD29"/>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="2:30">
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="F30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="O30"/>
+      <c r="P30"/>
+      <c r="Q30"/>
+      <c r="R30"/>
+      <c r="S30"/>
+      <c r="T30"/>
+      <c r="U30"/>
+      <c r="V30"/>
+      <c r="W30"/>
+      <c r="X30"/>
+      <c r="Y30"/>
+      <c r="Z30"/>
+      <c r="AA30"/>
+      <c r="AB30"/>
+      <c r="AC30"/>
+      <c r="AD30"/>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="2:30">
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31" s="1"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31"/>
+      <c r="N31"/>
+      <c r="O31"/>
+      <c r="P31"/>
+      <c r="Q31"/>
+      <c r="R31"/>
+      <c r="S31"/>
+      <c r="T31"/>
+      <c r="U31"/>
+      <c r="V31"/>
+      <c r="W31"/>
+      <c r="X31"/>
+      <c r="Y31"/>
+      <c r="Z31"/>
+      <c r="AA31"/>
+      <c r="AB31"/>
+      <c r="AC31"/>
+      <c r="AD31"/>
+    </row>
+    <row r="32" s="1" customFormat="1" spans="2:30">
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
+      <c r="M32"/>
+      <c r="N32"/>
+      <c r="O32"/>
+      <c r="P32"/>
+      <c r="Q32"/>
+      <c r="R32"/>
+      <c r="S32"/>
+      <c r="T32"/>
+      <c r="U32"/>
+      <c r="V32"/>
+      <c r="W32"/>
+      <c r="X32"/>
+      <c r="Y32"/>
+      <c r="Z32"/>
+      <c r="AA32"/>
+      <c r="AB32"/>
+      <c r="AC32"/>
+      <c r="AD32"/>
+    </row>
+    <row r="33" s="1" customFormat="1" spans="7:30">
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="O33"/>
+      <c r="P33"/>
+      <c r="Q33"/>
+      <c r="R33"/>
+      <c r="S33"/>
+      <c r="T33"/>
+      <c r="U33"/>
+      <c r="V33"/>
+      <c r="W33"/>
+      <c r="X33"/>
+      <c r="Y33"/>
+      <c r="Z33"/>
+      <c r="AA33"/>
+      <c r="AB33"/>
+      <c r="AC33"/>
+      <c r="AD33"/>
+    </row>
+    <row r="34" s="1" customFormat="1" spans="7:26">
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="L34"/>
+      <c r="M34"/>
+      <c r="N34"/>
+      <c r="O34"/>
+      <c r="P34"/>
+      <c r="Q34"/>
+      <c r="R34"/>
+      <c r="S34"/>
+      <c r="T34"/>
+      <c r="U34"/>
+      <c r="V34"/>
+      <c r="W34"/>
+      <c r="X34"/>
+      <c r="Y34"/>
+      <c r="Z34"/>
+    </row>
+    <row r="35" s="1" customFormat="1" spans="7:26">
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="O35" t="s">
+        <v>1</v>
+      </c>
+      <c r="P35" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>3</v>
+      </c>
+      <c r="R35" t="s">
+        <v>8</v>
+      </c>
+      <c r="S35" t="s">
+        <v>5</v>
+      </c>
+      <c r="T35"/>
+      <c r="U35"/>
+      <c r="V35"/>
+      <c r="W35"/>
+      <c r="X35"/>
+      <c r="Y35"/>
+      <c r="Z35"/>
+    </row>
+    <row r="36" s="1" customFormat="1" spans="7:30">
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="O36" t="s">
+        <v>6</v>
+      </c>
+      <c r="P36" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>4</v>
+      </c>
+      <c r="R36" t="s">
+        <v>9</v>
+      </c>
+      <c r="S36" t="s">
+        <v>10</v>
+      </c>
+      <c r="T36"/>
+      <c r="U36"/>
+      <c r="V36"/>
+      <c r="W36"/>
+      <c r="X36"/>
+      <c r="Y36"/>
+      <c r="Z36"/>
+      <c r="AA36"/>
+      <c r="AB36"/>
+      <c r="AC36"/>
+      <c r="AD36"/>
+    </row>
+    <row r="37" s="1" customFormat="1" spans="7:30">
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37"/>
+      <c r="N37"/>
+      <c r="O37"/>
+      <c r="P37"/>
+      <c r="Q37"/>
+      <c r="R37"/>
+      <c r="S37"/>
+      <c r="T37"/>
+      <c r="U37"/>
+      <c r="V37"/>
+      <c r="W37"/>
+      <c r="X37"/>
+      <c r="Y37"/>
+      <c r="Z37"/>
+      <c r="AA37"/>
+      <c r="AB37"/>
+      <c r="AC37"/>
+      <c r="AD37"/>
+    </row>
+    <row r="38" s="1" customFormat="1" spans="7:26">
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38"/>
+      <c r="P38"/>
+      <c r="Q38"/>
+      <c r="R38"/>
+      <c r="S38"/>
+      <c r="T38"/>
+      <c r="U38"/>
+      <c r="V38"/>
+      <c r="W38"/>
+      <c r="X38"/>
+      <c r="Y38"/>
+      <c r="Z38"/>
+    </row>
+    <row r="39" s="1" customFormat="1" spans="2:26">
+      <c r="B39"/>
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39"/>
+      <c r="K39"/>
+      <c r="L39"/>
+      <c r="M39"/>
+      <c r="N39"/>
+      <c r="O39"/>
+      <c r="P39"/>
+      <c r="Q39"/>
+      <c r="R39"/>
+      <c r="S39"/>
+      <c r="T39"/>
+      <c r="U39"/>
+      <c r="V39"/>
+      <c r="W39"/>
+      <c r="X39"/>
+      <c r="Y39"/>
+      <c r="Z39"/>
+    </row>
+    <row r="40" s="1" customFormat="1" spans="2:30">
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40"/>
+      <c r="M40"/>
+      <c r="N40"/>
+      <c r="O40"/>
+      <c r="P40"/>
+      <c r="Q40"/>
+      <c r="R40"/>
+      <c r="S40"/>
+      <c r="T40"/>
+      <c r="U40"/>
+      <c r="V40"/>
+      <c r="W40"/>
+      <c r="X40"/>
+      <c r="Y40"/>
+      <c r="Z40"/>
+      <c r="AA40"/>
+      <c r="AB40"/>
+      <c r="AC40"/>
+      <c r="AD40"/>
+    </row>
+    <row r="41" s="1" customFormat="1" spans="2:30">
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41"/>
+      <c r="L41"/>
+      <c r="M41"/>
+      <c r="N41"/>
+      <c r="O41"/>
+      <c r="P41"/>
+      <c r="Q41"/>
+      <c r="R41"/>
+      <c r="S41"/>
+      <c r="T41"/>
+      <c r="U41"/>
+      <c r="V41"/>
+      <c r="W41"/>
+      <c r="X41"/>
+      <c r="Y41"/>
+      <c r="Z41"/>
+      <c r="AA41"/>
+      <c r="AB41"/>
+      <c r="AC41"/>
+      <c r="AD41"/>
+    </row>
+    <row r="42" s="1" customFormat="1" spans="2:30">
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42" s="1"/>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42"/>
+      <c r="I42"/>
+      <c r="J42"/>
+      <c r="K42"/>
+      <c r="L42"/>
+      <c r="M42"/>
+      <c r="N42"/>
+      <c r="O42"/>
+      <c r="P42"/>
+      <c r="Q42"/>
+      <c r="R42"/>
+      <c r="S42"/>
+      <c r="T42"/>
+      <c r="U42"/>
+      <c r="V42"/>
+      <c r="W42"/>
+      <c r="X42"/>
+      <c r="Y42"/>
+      <c r="Z42"/>
+      <c r="AA42"/>
+      <c r="AB42"/>
+      <c r="AC42"/>
+      <c r="AD42"/>
+    </row>
+    <row r="43" s="1" customFormat="1" spans="2:30">
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43"/>
+      <c r="I43"/>
+      <c r="J43"/>
+      <c r="K43"/>
+      <c r="L43"/>
+      <c r="M43"/>
+      <c r="N43"/>
+      <c r="O43"/>
+      <c r="P43"/>
+      <c r="Q43"/>
+      <c r="R43"/>
+      <c r="S43"/>
+      <c r="T43"/>
+      <c r="U43"/>
+      <c r="V43"/>
+      <c r="W43"/>
+      <c r="X43"/>
+      <c r="Y43"/>
+      <c r="Z43"/>
+      <c r="AA43"/>
+      <c r="AB43"/>
+      <c r="AC43"/>
+      <c r="AD43"/>
+    </row>
+    <row r="44" s="1" customFormat="1" spans="2:30">
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="G44"/>
+      <c r="H44"/>
+      <c r="I44"/>
+      <c r="J44"/>
+      <c r="K44"/>
+      <c r="L44"/>
+      <c r="M44"/>
+      <c r="N44"/>
+      <c r="O44"/>
+      <c r="P44"/>
+      <c r="Q44"/>
+      <c r="R44"/>
+      <c r="S44"/>
+      <c r="T44"/>
+      <c r="U44"/>
+      <c r="V44"/>
+      <c r="W44"/>
+      <c r="X44"/>
+      <c r="Y44"/>
+      <c r="Z44"/>
+      <c r="AA44"/>
+      <c r="AB44"/>
+      <c r="AC44"/>
+      <c r="AD44"/>
+    </row>
+    <row r="45" s="1" customFormat="1" spans="2:30">
+      <c r="B45"/>
+      <c r="C45"/>
+      <c r="G45"/>
+      <c r="H45"/>
+      <c r="I45"/>
+      <c r="J45"/>
+      <c r="K45"/>
+      <c r="L45"/>
+      <c r="M45"/>
+      <c r="N45"/>
+      <c r="O45"/>
+      <c r="P45"/>
+      <c r="Q45"/>
+      <c r="R45"/>
+      <c r="S45"/>
+      <c r="T45"/>
+      <c r="U45"/>
+      <c r="V45"/>
+      <c r="W45"/>
+      <c r="X45"/>
+      <c r="Y45"/>
+      <c r="Z45"/>
+      <c r="AA45"/>
+      <c r="AB45"/>
+      <c r="AC45"/>
+      <c r="AD45"/>
+    </row>
+    <row r="46" s="1" customFormat="1" spans="2:30">
+      <c r="B46"/>
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="G46"/>
+      <c r="H46"/>
+      <c r="I46"/>
+      <c r="J46"/>
+      <c r="K46"/>
+      <c r="L46"/>
+      <c r="M46"/>
+      <c r="N46"/>
+      <c r="O46"/>
+      <c r="P46"/>
+      <c r="Q46"/>
+      <c r="R46"/>
+      <c r="S46"/>
+      <c r="T46"/>
+      <c r="U46"/>
+      <c r="V46"/>
+      <c r="W46"/>
+      <c r="X46"/>
+      <c r="Y46"/>
+      <c r="Z46"/>
+      <c r="AA46"/>
+      <c r="AB46"/>
+      <c r="AC46"/>
+      <c r="AD46"/>
+    </row>
+    <row r="47" s="1" customFormat="1" spans="2:30">
+      <c r="B47"/>
+      <c r="C47" s="1"/>
+      <c r="G47"/>
+      <c r="H47"/>
+      <c r="I47"/>
+      <c r="J47"/>
+      <c r="K47"/>
+      <c r="L47"/>
+      <c r="M47"/>
+      <c r="N47"/>
+      <c r="O47"/>
+      <c r="P47"/>
+      <c r="Q47"/>
+      <c r="R47"/>
+      <c r="S47"/>
+      <c r="T47"/>
+      <c r="U47"/>
+      <c r="V47"/>
+      <c r="W47"/>
+      <c r="X47"/>
+      <c r="Y47"/>
+      <c r="Z47"/>
+      <c r="AA47"/>
+      <c r="AB47"/>
+      <c r="AC47"/>
+      <c r="AD47"/>
+    </row>
+    <row r="48" s="1" customFormat="1" spans="2:30">
+      <c r="B48"/>
+      <c r="C48"/>
+      <c r="D48" s="1"/>
+      <c r="E48"/>
+      <c r="F48"/>
+      <c r="G48"/>
+      <c r="H48"/>
+      <c r="I48"/>
+      <c r="J48"/>
+      <c r="K48"/>
+      <c r="L48"/>
+      <c r="M48"/>
+      <c r="N48"/>
+      <c r="O48"/>
+      <c r="P48"/>
+      <c r="Q48"/>
+      <c r="R48"/>
+      <c r="S48"/>
+      <c r="T48"/>
+      <c r="U48"/>
+      <c r="V48"/>
+      <c r="W48"/>
+      <c r="X48"/>
+      <c r="Y48"/>
+      <c r="Z48"/>
+      <c r="AA48"/>
+      <c r="AB48"/>
+      <c r="AC48"/>
+      <c r="AD48"/>
+    </row>
+    <row r="49" s="1" customFormat="1" spans="2:30">
+      <c r="B49"/>
+      <c r="C49"/>
+      <c r="D49" s="1"/>
+      <c r="E49"/>
+      <c r="F49"/>
+      <c r="G49"/>
+      <c r="H49"/>
+      <c r="I49"/>
+      <c r="J49"/>
+      <c r="K49"/>
+      <c r="L49"/>
+      <c r="M49"/>
+      <c r="N49"/>
+      <c r="O49"/>
+      <c r="P49"/>
+      <c r="Q49"/>
+      <c r="R49"/>
+      <c r="S49"/>
+      <c r="T49"/>
+      <c r="U49"/>
+      <c r="V49"/>
+      <c r="W49"/>
+      <c r="X49"/>
+      <c r="Y49"/>
+      <c r="Z49"/>
+      <c r="AA49"/>
+      <c r="AB49"/>
+      <c r="AC49"/>
+      <c r="AD49"/>
+    </row>
+    <row r="50" s="1" customFormat="1" spans="2:30">
+      <c r="B50"/>
+      <c r="C50"/>
+      <c r="D50"/>
+      <c r="E50"/>
+      <c r="F50"/>
+      <c r="G50"/>
+      <c r="H50"/>
+      <c r="I50"/>
+      <c r="J50"/>
+      <c r="K50"/>
+      <c r="L50"/>
+      <c r="M50"/>
+      <c r="N50"/>
+      <c r="O50"/>
+      <c r="P50"/>
+      <c r="Q50"/>
+      <c r="R50"/>
+      <c r="S50"/>
+      <c r="T50"/>
+      <c r="U50"/>
+      <c r="V50"/>
+      <c r="W50"/>
+      <c r="X50"/>
+      <c r="Y50"/>
+      <c r="Z50"/>
+      <c r="AA50"/>
+      <c r="AB50"/>
+      <c r="AC50"/>
+      <c r="AD50"/>
+    </row>
+    <row r="51" s="1" customFormat="1" spans="2:30">
+      <c r="B51"/>
+      <c r="C51"/>
+      <c r="F51"/>
+      <c r="G51"/>
+      <c r="H51"/>
+      <c r="I51"/>
+      <c r="J51"/>
+      <c r="K51"/>
+      <c r="L51"/>
+      <c r="M51"/>
+      <c r="N51"/>
+      <c r="O51"/>
+      <c r="P51"/>
+      <c r="Q51"/>
+      <c r="R51"/>
+      <c r="S51"/>
+      <c r="T51"/>
+      <c r="U51"/>
+      <c r="V51"/>
+      <c r="W51"/>
+      <c r="X51"/>
+      <c r="Y51"/>
+      <c r="Z51"/>
+      <c r="AA51"/>
+      <c r="AB51"/>
+      <c r="AC51"/>
+      <c r="AD51"/>
+    </row>
+    <row r="52" s="1" customFormat="1" spans="2:30">
+      <c r="B52"/>
+      <c r="C52"/>
+      <c r="F52"/>
+      <c r="G52"/>
+      <c r="H52"/>
+      <c r="I52"/>
+      <c r="J52"/>
+      <c r="K52"/>
+      <c r="L52"/>
+      <c r="M52"/>
+      <c r="N52"/>
+      <c r="O52"/>
+      <c r="P52"/>
+      <c r="Q52"/>
+      <c r="R52"/>
+      <c r="S52"/>
+      <c r="T52"/>
+      <c r="U52"/>
+      <c r="V52"/>
+      <c r="W52"/>
+      <c r="X52"/>
+      <c r="Y52"/>
+      <c r="Z52"/>
+      <c r="AA52"/>
+      <c r="AB52"/>
+      <c r="AC52"/>
+      <c r="AD52"/>
+    </row>
+    <row r="53" s="1" customFormat="1" spans="2:30">
+      <c r="B53"/>
+      <c r="C53"/>
+      <c r="E53"/>
+      <c r="F53"/>
+      <c r="G53"/>
+      <c r="H53"/>
+      <c r="I53"/>
+      <c r="J53"/>
+      <c r="K53"/>
+      <c r="L53"/>
+      <c r="M53"/>
+      <c r="N53"/>
+      <c r="O53"/>
+      <c r="P53"/>
+      <c r="Q53"/>
+      <c r="R53"/>
+      <c r="S53"/>
+      <c r="T53"/>
+      <c r="U53"/>
+      <c r="V53"/>
+      <c r="W53"/>
+      <c r="X53"/>
+      <c r="Y53"/>
+      <c r="Z53"/>
+      <c r="AA53"/>
+      <c r="AB53"/>
+      <c r="AC53"/>
+      <c r="AD53"/>
+    </row>
+    <row r="54" s="1" customFormat="1" spans="2:30">
+      <c r="B54"/>
+      <c r="C54"/>
+      <c r="E54"/>
+      <c r="F54"/>
+      <c r="G54"/>
+      <c r="H54"/>
+      <c r="I54"/>
+      <c r="J54"/>
+      <c r="K54"/>
+      <c r="L54"/>
+      <c r="M54"/>
+      <c r="N54"/>
+      <c r="O54"/>
+      <c r="P54"/>
+      <c r="Q54"/>
+      <c r="R54"/>
+      <c r="S54"/>
+      <c r="T54"/>
+      <c r="U54"/>
+      <c r="V54"/>
+      <c r="W54"/>
+      <c r="X54"/>
+      <c r="Y54"/>
+      <c r="Z54"/>
+      <c r="AA54"/>
+      <c r="AB54"/>
+      <c r="AC54"/>
+      <c r="AD54"/>
+    </row>
+    <row r="55" s="1" customFormat="1" spans="2:30">
+      <c r="B55"/>
+      <c r="C55"/>
+      <c r="D55"/>
+      <c r="E55"/>
+      <c r="F55"/>
+      <c r="G55"/>
+      <c r="H55"/>
+      <c r="I55"/>
+      <c r="J55"/>
+      <c r="K55"/>
+      <c r="L55"/>
+      <c r="M55"/>
+      <c r="N55"/>
+      <c r="O55"/>
+      <c r="P55"/>
+      <c r="Q55"/>
+      <c r="R55"/>
+      <c r="S55"/>
+      <c r="T55"/>
+      <c r="U55"/>
+      <c r="V55"/>
+      <c r="W55"/>
+      <c r="X55"/>
+      <c r="Y55"/>
+      <c r="Z55"/>
+      <c r="AA55"/>
+      <c r="AB55"/>
+      <c r="AC55"/>
+      <c r="AD55"/>
+    </row>
+    <row r="56" s="1" customFormat="1" spans="2:33">
+      <c r="B56"/>
+      <c r="C56"/>
+      <c r="D56"/>
+      <c r="E56"/>
+      <c r="F56"/>
+      <c r="G56"/>
+      <c r="H56"/>
+      <c r="I56"/>
+      <c r="J56"/>
+      <c r="K56"/>
+      <c r="L56"/>
+      <c r="M56"/>
+      <c r="N56"/>
+      <c r="O56"/>
+      <c r="P56"/>
+      <c r="Q56"/>
+      <c r="R56"/>
+      <c r="S56"/>
+      <c r="T56"/>
+      <c r="U56"/>
+      <c r="V56"/>
+      <c r="W56"/>
+      <c r="X56"/>
+      <c r="Y56"/>
+      <c r="Z56"/>
+      <c r="AA56"/>
+      <c r="AB56"/>
+      <c r="AC56"/>
+      <c r="AD56"/>
+      <c r="AE56"/>
+      <c r="AF56"/>
+      <c r="AG56"/>
+    </row>
+    <row r="57" s="1" customFormat="1" spans="2:33">
+      <c r="B57"/>
+      <c r="C57"/>
+      <c r="D57"/>
+      <c r="E57"/>
+      <c r="F57"/>
+      <c r="G57"/>
+      <c r="H57"/>
+      <c r="I57"/>
+      <c r="J57"/>
+      <c r="K57"/>
+      <c r="L57"/>
+      <c r="M57"/>
+      <c r="N57"/>
+      <c r="O57"/>
+      <c r="P57"/>
+      <c r="Q57"/>
+      <c r="R57"/>
+      <c r="S57"/>
+      <c r="T57"/>
+      <c r="U57"/>
+      <c r="V57"/>
+      <c r="W57"/>
+      <c r="X57"/>
+      <c r="Y57"/>
+      <c r="Z57"/>
+      <c r="AA57"/>
+      <c r="AB57"/>
+      <c r="AC57"/>
+      <c r="AD57"/>
+      <c r="AE57"/>
+      <c r="AF57"/>
+      <c r="AG57"/>
+    </row>
+    <row r="58" s="1" customFormat="1" spans="2:35">
+      <c r="B58"/>
+      <c r="C58"/>
+      <c r="D58"/>
+      <c r="E58"/>
+      <c r="F58"/>
+      <c r="G58"/>
+      <c r="H58"/>
+      <c r="I58"/>
+      <c r="J58"/>
+      <c r="K58"/>
+      <c r="L58"/>
+      <c r="M58"/>
+      <c r="N58"/>
+      <c r="O58"/>
+      <c r="P58"/>
+      <c r="Q58"/>
+      <c r="R58"/>
+      <c r="S58"/>
+      <c r="T58"/>
+      <c r="U58"/>
+      <c r="V58"/>
+      <c r="W58"/>
+      <c r="X58"/>
+      <c r="Y58"/>
+      <c r="Z58"/>
+      <c r="AA58"/>
+      <c r="AB58"/>
+      <c r="AC58"/>
+      <c r="AD58"/>
+      <c r="AE58"/>
+      <c r="AF58"/>
+      <c r="AG58"/>
+      <c r="AH58"/>
+      <c r="AI58"/>
+    </row>
+    <row r="59" s="1" customFormat="1" spans="2:35">
+      <c r="B59"/>
+      <c r="C59"/>
+      <c r="D59"/>
+      <c r="E59"/>
+      <c r="F59"/>
+      <c r="G59"/>
+      <c r="H59"/>
+      <c r="I59"/>
+      <c r="J59"/>
+      <c r="K59"/>
+      <c r="L59"/>
+      <c r="M59"/>
+      <c r="N59"/>
+      <c r="O59"/>
+      <c r="P59"/>
+      <c r="Q59"/>
+      <c r="R59"/>
+      <c r="S59"/>
+      <c r="T59"/>
+      <c r="U59"/>
+      <c r="V59"/>
+      <c r="W59"/>
+      <c r="X59"/>
+      <c r="Y59"/>
+      <c r="Z59"/>
+      <c r="AA59"/>
+      <c r="AB59"/>
+      <c r="AC59"/>
+      <c r="AD59"/>
+      <c r="AE59"/>
+      <c r="AF59"/>
+      <c r="AG59"/>
+      <c r="AH59"/>
+      <c r="AI59"/>
+    </row>
+    <row r="60" s="1" customFormat="1" spans="2:30">
+      <c r="B60"/>
+      <c r="C60"/>
+      <c r="D60"/>
+      <c r="E60"/>
+      <c r="F60"/>
+      <c r="G60"/>
+      <c r="H60"/>
+      <c r="I60"/>
+      <c r="J60"/>
+      <c r="K60"/>
+      <c r="L60"/>
+      <c r="M60"/>
+      <c r="N60"/>
+      <c r="O60"/>
+      <c r="P60"/>
+      <c r="Q60"/>
+      <c r="R60"/>
+      <c r="S60"/>
+      <c r="T60"/>
+      <c r="U60"/>
+      <c r="V60"/>
+      <c r="W60"/>
+      <c r="X60"/>
+      <c r="Y60"/>
+      <c r="Z60"/>
+      <c r="AA60"/>
+      <c r="AB60"/>
+      <c r="AC60"/>
+      <c r="AD60"/>
+    </row>
+    <row r="61" s="1" customFormat="1" spans="2:30">
+      <c r="B61"/>
+      <c r="C61"/>
+      <c r="D61"/>
+      <c r="E61"/>
+      <c r="F61"/>
+      <c r="G61"/>
+      <c r="H61"/>
+      <c r="I61"/>
+      <c r="J61"/>
+      <c r="K61"/>
+      <c r="L61"/>
+      <c r="M61"/>
+      <c r="N61"/>
+      <c r="O61"/>
+      <c r="P61"/>
+      <c r="Q61"/>
+      <c r="R61"/>
+      <c r="S61"/>
+      <c r="T61"/>
+      <c r="U61"/>
+      <c r="V61"/>
+      <c r="W61"/>
+      <c r="X61"/>
+      <c r="Y61"/>
+      <c r="Z61"/>
+      <c r="AA61"/>
+      <c r="AB61"/>
+      <c r="AC61"/>
+      <c r="AD61"/>
+    </row>
+    <row r="62" s="1" customFormat="1" spans="2:30">
+      <c r="B62"/>
+      <c r="C62"/>
+      <c r="D62"/>
+      <c r="E62"/>
+      <c r="F62"/>
+      <c r="G62"/>
+      <c r="H62"/>
+      <c r="I62"/>
+      <c r="J62"/>
+      <c r="K62"/>
+      <c r="L62"/>
+      <c r="M62"/>
+      <c r="N62"/>
+      <c r="O62"/>
+      <c r="P62"/>
+      <c r="Q62"/>
+      <c r="R62"/>
+      <c r="S62"/>
+      <c r="T62"/>
+      <c r="U62"/>
+      <c r="V62"/>
+      <c r="W62"/>
+      <c r="X62"/>
+      <c r="Y62"/>
+      <c r="Z62"/>
+      <c r="AA62"/>
+      <c r="AB62"/>
+      <c r="AC62"/>
+      <c r="AD62"/>
+    </row>
+    <row r="63" s="1" customFormat="1" spans="2:30">
+      <c r="B63"/>
+      <c r="C63"/>
+      <c r="D63"/>
+      <c r="E63"/>
+      <c r="F63"/>
+      <c r="G63"/>
+      <c r="H63"/>
+      <c r="I63"/>
+      <c r="J63"/>
+      <c r="K63"/>
+      <c r="L63"/>
+      <c r="M63"/>
+      <c r="N63"/>
+      <c r="O63"/>
+      <c r="X63"/>
+      <c r="Y63"/>
+      <c r="Z63"/>
+      <c r="AA63"/>
+      <c r="AB63"/>
+      <c r="AC63"/>
+      <c r="AD63"/>
+    </row>
+    <row r="64" s="1" customFormat="1" spans="2:30">
+      <c r="B64"/>
+      <c r="C64"/>
+      <c r="D64"/>
+      <c r="E64"/>
+      <c r="F64"/>
+      <c r="G64"/>
+      <c r="H64"/>
+      <c r="I64"/>
+      <c r="J64"/>
+      <c r="K64"/>
+      <c r="L64"/>
+      <c r="M64"/>
+      <c r="N64"/>
+      <c r="O64"/>
+      <c r="X64"/>
+      <c r="Y64"/>
+      <c r="Z64"/>
+      <c r="AA64"/>
+      <c r="AB64"/>
+      <c r="AC64"/>
+      <c r="AD64"/>
+    </row>
+    <row r="65" s="1" customFormat="1" spans="2:30">
+      <c r="B65"/>
+      <c r="C65"/>
+      <c r="D65"/>
+      <c r="E65"/>
+      <c r="F65"/>
+      <c r="G65"/>
+      <c r="H65"/>
+      <c r="I65"/>
+      <c r="J65"/>
+      <c r="K65"/>
+      <c r="L65"/>
+      <c r="M65"/>
+      <c r="N65"/>
+      <c r="O65"/>
+      <c r="P65"/>
+      <c r="Q65"/>
+      <c r="R65"/>
+      <c r="S65"/>
+      <c r="T65"/>
+      <c r="U65"/>
+      <c r="V65"/>
+      <c r="W65"/>
+      <c r="X65"/>
+      <c r="Y65"/>
+      <c r="Z65"/>
+      <c r="AA65"/>
+      <c r="AB65"/>
+      <c r="AC65"/>
+      <c r="AD65"/>
+    </row>
+    <row r="66" s="1" customFormat="1" spans="2:30">
+      <c r="B66"/>
+      <c r="C66"/>
+      <c r="D66"/>
+      <c r="F66"/>
+      <c r="G66"/>
+      <c r="H66"/>
+      <c r="I66"/>
+      <c r="J66"/>
+      <c r="K66"/>
+      <c r="L66"/>
+      <c r="M66"/>
+      <c r="N66"/>
+      <c r="O66"/>
+      <c r="P66"/>
+      <c r="Q66"/>
+      <c r="R66"/>
+      <c r="S66"/>
+      <c r="T66"/>
+      <c r="U66"/>
+      <c r="V66"/>
+      <c r="W66"/>
+      <c r="X66"/>
+      <c r="Y66"/>
+      <c r="Z66"/>
+      <c r="AA66"/>
+      <c r="AB66"/>
+      <c r="AC66"/>
+      <c r="AD66"/>
+    </row>
+    <row r="67" s="1" customFormat="1" spans="2:30">
+      <c r="B67"/>
+      <c r="C67"/>
+      <c r="D67"/>
+      <c r="F67"/>
+      <c r="G67"/>
+      <c r="H67"/>
+      <c r="I67"/>
+      <c r="J67"/>
+      <c r="K67"/>
+      <c r="L67"/>
+      <c r="M67"/>
+      <c r="N67"/>
+      <c r="O67"/>
+      <c r="P67"/>
+      <c r="Q67"/>
+      <c r="R67"/>
+      <c r="S67"/>
+      <c r="T67"/>
+      <c r="U67"/>
+      <c r="V67"/>
+      <c r="W67"/>
+      <c r="X67"/>
+      <c r="Y67"/>
+      <c r="Z67"/>
+      <c r="AA67"/>
+      <c r="AB67"/>
+      <c r="AC67"/>
+      <c r="AD67"/>
+    </row>
+    <row r="68" s="1" customFormat="1" spans="2:30">
+      <c r="B68"/>
+      <c r="C68"/>
+      <c r="D68"/>
+      <c r="F68"/>
+      <c r="G68"/>
+      <c r="H68"/>
+      <c r="I68"/>
+      <c r="J68"/>
+      <c r="K68"/>
+      <c r="L68"/>
+      <c r="M68"/>
+      <c r="N68"/>
+      <c r="O68"/>
+      <c r="P68"/>
+      <c r="Q68"/>
+      <c r="R68"/>
+      <c r="S68"/>
+      <c r="T68"/>
+      <c r="U68"/>
+      <c r="V68"/>
+      <c r="W68"/>
+      <c r="X68"/>
+      <c r="Y68"/>
+      <c r="Z68"/>
+      <c r="AA68"/>
+      <c r="AB68"/>
+      <c r="AC68"/>
+      <c r="AD68"/>
+    </row>
+    <row r="69" s="1" customFormat="1" spans="2:30">
+      <c r="B69"/>
+      <c r="C69"/>
+      <c r="D69"/>
+      <c r="F69"/>
+      <c r="G69"/>
+      <c r="H69"/>
+      <c r="I69"/>
+      <c r="J69"/>
+      <c r="K69"/>
+      <c r="L69"/>
+      <c r="M69"/>
+      <c r="N69"/>
+      <c r="O69"/>
+      <c r="P69"/>
+      <c r="Q69"/>
+      <c r="R69"/>
+      <c r="S69"/>
+      <c r="T69"/>
+      <c r="U69"/>
+      <c r="V69"/>
+      <c r="W69"/>
+      <c r="X69"/>
+      <c r="Y69"/>
+      <c r="Z69"/>
+      <c r="AA69"/>
+      <c r="AB69"/>
+      <c r="AC69"/>
+      <c r="AD69"/>
+    </row>
+    <row r="70" s="1" customFormat="1" spans="2:30">
+      <c r="B70"/>
+      <c r="C70"/>
+      <c r="D70"/>
+      <c r="E70"/>
+      <c r="F70"/>
+      <c r="G70"/>
+      <c r="H70"/>
+      <c r="I70"/>
+      <c r="J70"/>
+      <c r="K70"/>
+      <c r="L70"/>
+      <c r="M70"/>
+      <c r="N70"/>
+      <c r="O70"/>
+      <c r="P70"/>
+      <c r="Q70"/>
+      <c r="R70"/>
+      <c r="S70"/>
+      <c r="T70"/>
+      <c r="U70"/>
+      <c r="V70"/>
+      <c r="W70"/>
+      <c r="X70"/>
+      <c r="Y70"/>
+      <c r="Z70"/>
+      <c r="AA70"/>
+      <c r="AB70"/>
+      <c r="AC70"/>
+      <c r="AD70"/>
+    </row>
+    <row r="71" s="1" customFormat="1" spans="2:30">
+      <c r="B71"/>
+      <c r="C71"/>
+      <c r="D71"/>
+      <c r="E71"/>
+      <c r="F71"/>
+      <c r="G71"/>
+      <c r="H71"/>
+      <c r="I71"/>
+      <c r="J71"/>
+      <c r="K71"/>
+      <c r="L71"/>
+      <c r="M71"/>
+      <c r="N71"/>
+      <c r="O71"/>
+      <c r="P71"/>
+      <c r="Q71"/>
+      <c r="R71"/>
+      <c r="S71"/>
+      <c r="T71"/>
+      <c r="U71"/>
+      <c r="V71"/>
+      <c r="W71"/>
+      <c r="X71"/>
+      <c r="Y71"/>
+      <c r="Z71"/>
+      <c r="AA71"/>
+      <c r="AB71"/>
+      <c r="AC71"/>
+      <c r="AD71"/>
+    </row>
+    <row r="72" s="1" customFormat="1" spans="2:30">
+      <c r="B72"/>
+      <c r="C72"/>
+      <c r="D72"/>
+      <c r="E72"/>
+      <c r="F72"/>
+      <c r="G72"/>
+      <c r="H72"/>
+      <c r="I72"/>
+      <c r="J72"/>
+      <c r="K72"/>
+      <c r="L72"/>
+      <c r="M72"/>
+      <c r="N72"/>
+      <c r="O72"/>
+      <c r="P72"/>
+      <c r="Q72"/>
+      <c r="R72"/>
+      <c r="S72"/>
+      <c r="T72"/>
+      <c r="U72"/>
+      <c r="V72"/>
+      <c r="W72"/>
+      <c r="X72"/>
+      <c r="Y72"/>
+      <c r="Z72"/>
+      <c r="AA72"/>
+      <c r="AB72"/>
+      <c r="AC72"/>
+      <c r="AD72"/>
+    </row>
+    <row r="73" s="1" customFormat="1" spans="2:30">
+      <c r="B73"/>
+      <c r="C73"/>
+      <c r="D73"/>
+      <c r="E73"/>
+      <c r="F73"/>
+      <c r="G73"/>
+      <c r="H73"/>
+      <c r="I73"/>
+      <c r="J73"/>
+      <c r="K73"/>
+      <c r="L73"/>
+      <c r="M73"/>
+      <c r="N73"/>
+      <c r="O73"/>
+      <c r="P73"/>
+      <c r="Q73"/>
+      <c r="R73"/>
+      <c r="S73"/>
+      <c r="T73"/>
+      <c r="U73"/>
+      <c r="V73"/>
+      <c r="W73"/>
+      <c r="X73"/>
+      <c r="Y73"/>
+      <c r="Z73"/>
+      <c r="AA73"/>
+      <c r="AB73"/>
+      <c r="AC73"/>
+      <c r="AD73"/>
+    </row>
+    <row r="74" s="1" customFormat="1" spans="2:30">
+      <c r="B74"/>
+      <c r="C74"/>
+      <c r="D74"/>
+      <c r="E74"/>
+      <c r="F74"/>
+      <c r="G74"/>
+      <c r="H74"/>
+      <c r="I74"/>
+      <c r="J74"/>
+      <c r="K74"/>
+      <c r="L74"/>
+      <c r="M74"/>
+      <c r="N74"/>
+      <c r="O74"/>
+      <c r="P74"/>
+      <c r="Q74"/>
+      <c r="R74"/>
+      <c r="S74"/>
+      <c r="T74"/>
+      <c r="U74"/>
+      <c r="V74"/>
+      <c r="W74"/>
+      <c r="X74"/>
+      <c r="Y74"/>
+      <c r="Z74"/>
+      <c r="AA74"/>
+      <c r="AB74"/>
+      <c r="AC74"/>
+      <c r="AD74"/>
+    </row>
+    <row r="75" s="1" customFormat="1" spans="2:30">
+      <c r="B75"/>
+      <c r="C75"/>
+      <c r="D75"/>
+      <c r="E75"/>
+      <c r="F75"/>
+      <c r="G75"/>
+      <c r="H75"/>
+      <c r="I75"/>
+      <c r="J75"/>
+      <c r="K75"/>
+      <c r="L75"/>
+      <c r="M75"/>
+      <c r="N75"/>
+      <c r="O75"/>
+      <c r="P75"/>
+      <c r="Q75"/>
+      <c r="R75"/>
+      <c r="S75"/>
+      <c r="T75"/>
+      <c r="U75"/>
+      <c r="V75"/>
+      <c r="W75"/>
+      <c r="X75"/>
+      <c r="Y75"/>
+      <c r="Z75"/>
+      <c r="AA75"/>
+      <c r="AB75"/>
+      <c r="AC75"/>
+      <c r="AD75"/>
+    </row>
+    <row r="76" s="1" customFormat="1" spans="2:30">
+      <c r="B76"/>
+      <c r="C76"/>
+      <c r="D76"/>
+      <c r="F76"/>
+      <c r="G76"/>
+      <c r="H76"/>
+      <c r="I76"/>
+      <c r="J76"/>
+      <c r="K76"/>
+      <c r="L76"/>
+      <c r="M76"/>
+      <c r="N76"/>
+      <c r="O76"/>
+      <c r="P76"/>
+      <c r="Q76"/>
+      <c r="R76"/>
+      <c r="S76"/>
+      <c r="T76"/>
+      <c r="U76"/>
+      <c r="V76"/>
+      <c r="W76"/>
+      <c r="X76"/>
+      <c r="Y76"/>
+      <c r="Z76"/>
+      <c r="AA76"/>
+      <c r="AB76"/>
+      <c r="AC76"/>
+      <c r="AD76"/>
+    </row>
+    <row r="77" s="1" customFormat="1" spans="2:30">
+      <c r="B77"/>
+      <c r="C77"/>
+      <c r="D77"/>
+      <c r="F77"/>
+      <c r="G77"/>
+      <c r="H77"/>
+      <c r="I77"/>
+      <c r="J77"/>
+      <c r="K77"/>
+      <c r="L77"/>
+      <c r="M77"/>
+      <c r="N77"/>
+      <c r="O77"/>
+      <c r="P77"/>
+      <c r="Q77"/>
+      <c r="R77"/>
+      <c r="S77"/>
+      <c r="T77"/>
+      <c r="U77"/>
+      <c r="V77"/>
+      <c r="W77"/>
+      <c r="X77"/>
+      <c r="Y77"/>
+      <c r="Z77"/>
+      <c r="AA77"/>
+      <c r="AB77"/>
+      <c r="AC77"/>
+      <c r="AD77"/>
+    </row>
+    <row r="78" s="1" customFormat="1" spans="2:30">
+      <c r="B78"/>
+      <c r="C78"/>
+      <c r="D78"/>
+      <c r="F78"/>
+      <c r="G78"/>
+      <c r="H78"/>
+      <c r="I78"/>
+      <c r="J78"/>
+      <c r="K78"/>
+      <c r="L78"/>
+      <c r="M78"/>
+      <c r="N78"/>
+      <c r="O78"/>
+      <c r="P78"/>
+      <c r="Q78"/>
+      <c r="R78"/>
+      <c r="S78"/>
+      <c r="T78"/>
+      <c r="U78"/>
+      <c r="V78"/>
+      <c r="W78"/>
+      <c r="X78"/>
+      <c r="Y78"/>
+      <c r="Z78"/>
+      <c r="AA78"/>
+      <c r="AB78"/>
+      <c r="AC78"/>
+      <c r="AD78"/>
+    </row>
+    <row r="79" s="1" customFormat="1" spans="2:30">
+      <c r="B79"/>
+      <c r="C79"/>
+      <c r="D79"/>
+      <c r="E79"/>
+      <c r="F79"/>
+      <c r="G79"/>
+      <c r="H79"/>
+      <c r="I79"/>
+      <c r="J79"/>
+      <c r="K79"/>
+      <c r="L79"/>
+      <c r="M79"/>
+      <c r="N79"/>
+      <c r="O79"/>
+      <c r="P79"/>
+      <c r="Q79"/>
+      <c r="R79"/>
+      <c r="S79"/>
+      <c r="T79"/>
+      <c r="U79"/>
+      <c r="V79"/>
+      <c r="W79"/>
+      <c r="X79"/>
+      <c r="Y79"/>
+      <c r="Z79"/>
+      <c r="AA79"/>
+      <c r="AB79"/>
+      <c r="AC79"/>
+      <c r="AD79"/>
+    </row>
+    <row r="80" s="1" customFormat="1" spans="2:30">
+      <c r="B80"/>
+      <c r="C80"/>
+      <c r="D80"/>
+      <c r="E80"/>
+      <c r="F80"/>
+      <c r="G80"/>
+      <c r="H80"/>
+      <c r="I80"/>
+      <c r="J80"/>
+      <c r="K80"/>
+      <c r="L80"/>
+      <c r="M80"/>
+      <c r="N80"/>
+      <c r="O80"/>
+      <c r="P80"/>
+      <c r="Q80"/>
+      <c r="R80"/>
+      <c r="S80"/>
+      <c r="T80"/>
+      <c r="U80"/>
+      <c r="V80"/>
+      <c r="W80"/>
+      <c r="X80"/>
+      <c r="Y80"/>
+      <c r="Z80"/>
+      <c r="AA80"/>
+      <c r="AB80"/>
+      <c r="AC80"/>
+      <c r="AD80"/>
+    </row>
+    <row r="81" s="1" customFormat="1" spans="2:30">
+      <c r="B81"/>
+      <c r="C81"/>
+      <c r="D81"/>
+      <c r="E81"/>
+      <c r="F81"/>
+      <c r="G81"/>
+      <c r="H81"/>
+      <c r="I81"/>
+      <c r="J81"/>
+      <c r="K81"/>
+      <c r="L81"/>
+      <c r="M81"/>
+      <c r="N81"/>
+      <c r="O81"/>
+      <c r="P81"/>
+      <c r="Q81"/>
+      <c r="R81"/>
+      <c r="S81"/>
+      <c r="T81"/>
+      <c r="U81"/>
+      <c r="V81"/>
+      <c r="W81"/>
+      <c r="X81"/>
+      <c r="Y81"/>
+      <c r="Z81"/>
+      <c r="AA81"/>
+      <c r="AB81"/>
+      <c r="AC81"/>
+      <c r="AD81"/>
+    </row>
+    <row r="82" s="1" customFormat="1" spans="2:30">
+      <c r="B82"/>
+      <c r="C82"/>
+      <c r="D82"/>
+      <c r="E82"/>
+      <c r="F82"/>
+      <c r="G82"/>
+      <c r="H82"/>
+      <c r="I82"/>
+      <c r="J82"/>
+      <c r="K82"/>
+      <c r="L82"/>
+      <c r="M82"/>
+      <c r="N82"/>
+      <c r="O82"/>
+      <c r="P82"/>
+      <c r="Q82"/>
+      <c r="R82"/>
+      <c r="S82"/>
+      <c r="T82"/>
+      <c r="U82"/>
+      <c r="V82"/>
+      <c r="W82"/>
+      <c r="X82"/>
+      <c r="Y82"/>
+      <c r="Z82"/>
+      <c r="AA82"/>
+      <c r="AB82"/>
+      <c r="AC82"/>
+      <c r="AD82"/>
+    </row>
+    <row r="83" s="1" customFormat="1" spans="2:30">
+      <c r="B83"/>
+      <c r="C83"/>
+      <c r="D83"/>
+      <c r="E83"/>
+      <c r="F83"/>
+      <c r="G83"/>
+      <c r="H83"/>
+      <c r="I83"/>
+      <c r="J83"/>
+      <c r="K83"/>
+      <c r="L83"/>
+      <c r="M83"/>
+      <c r="N83"/>
+      <c r="O83"/>
+      <c r="P83"/>
+      <c r="Q83"/>
+      <c r="R83"/>
+      <c r="S83"/>
+      <c r="T83"/>
+      <c r="U83"/>
+      <c r="V83"/>
+      <c r="W83"/>
+      <c r="X83"/>
+      <c r="Y83"/>
+      <c r="Z83"/>
+      <c r="AA83"/>
+      <c r="AB83"/>
+      <c r="AC83"/>
+      <c r="AD83"/>
+    </row>
+    <row r="84" s="1" customFormat="1" spans="2:30">
+      <c r="B84"/>
+      <c r="C84"/>
+      <c r="D84"/>
+      <c r="E84"/>
+      <c r="F84"/>
+      <c r="G84"/>
+      <c r="H84"/>
+      <c r="I84"/>
+      <c r="J84"/>
+      <c r="K84"/>
+      <c r="L84"/>
+      <c r="M84"/>
+      <c r="N84"/>
+      <c r="O84"/>
+      <c r="P84"/>
+      <c r="Q84"/>
+      <c r="R84"/>
+      <c r="S84"/>
+      <c r="T84"/>
+      <c r="U84"/>
+      <c r="V84"/>
+      <c r="W84"/>
+      <c r="X84"/>
+      <c r="Y84"/>
+      <c r="Z84"/>
+      <c r="AA84"/>
+      <c r="AB84"/>
+      <c r="AC84"/>
+      <c r="AD84"/>
+    </row>
+    <row r="85" s="1" customFormat="1" spans="2:30">
+      <c r="B85"/>
+      <c r="C85"/>
+      <c r="D85"/>
+      <c r="E85"/>
+      <c r="F85"/>
+      <c r="G85"/>
+      <c r="H85"/>
+      <c r="I85"/>
+      <c r="J85"/>
+      <c r="K85"/>
+      <c r="L85"/>
+      <c r="M85"/>
+      <c r="N85"/>
+      <c r="O85"/>
+      <c r="P85"/>
+      <c r="Q85"/>
+      <c r="R85"/>
+      <c r="S85"/>
+      <c r="T85"/>
+      <c r="U85"/>
+      <c r="V85"/>
+      <c r="W85"/>
+      <c r="X85"/>
+      <c r="Y85"/>
+      <c r="Z85"/>
+      <c r="AA85"/>
+      <c r="AB85"/>
+      <c r="AC85"/>
+      <c r="AD85"/>
+    </row>
+    <row r="86" s="1" customFormat="1" spans="2:30">
+      <c r="B86"/>
+      <c r="C86"/>
+      <c r="D86"/>
+      <c r="E86"/>
+      <c r="F86"/>
+      <c r="G86"/>
+      <c r="H86"/>
+      <c r="I86"/>
+      <c r="J86"/>
+      <c r="K86"/>
+      <c r="L86"/>
+      <c r="M86"/>
+      <c r="N86"/>
+      <c r="O86"/>
+      <c r="P86"/>
+      <c r="Q86"/>
+      <c r="R86"/>
+      <c r="S86"/>
+      <c r="T86"/>
+      <c r="U86"/>
+      <c r="V86"/>
+      <c r="W86"/>
+      <c r="X86"/>
+      <c r="Y86"/>
+      <c r="Z86"/>
+      <c r="AA86"/>
+      <c r="AB86"/>
+      <c r="AC86"/>
+      <c r="AD86"/>
+    </row>
+    <row r="87" s="1" customFormat="1" spans="2:30">
+      <c r="B87"/>
+      <c r="C87"/>
+      <c r="D87"/>
+      <c r="E87" s="2"/>
+      <c r="F87"/>
+      <c r="G87"/>
+      <c r="H87"/>
+      <c r="I87" s="6"/>
+      <c r="J87"/>
+      <c r="K87"/>
+      <c r="L87"/>
+      <c r="M87"/>
+      <c r="N87"/>
+      <c r="O87"/>
+      <c r="P87"/>
+      <c r="Q87"/>
+      <c r="R87"/>
+      <c r="S87"/>
+      <c r="T87"/>
+      <c r="U87"/>
+      <c r="V87"/>
+      <c r="W87"/>
+      <c r="X87"/>
+      <c r="Y87"/>
+      <c r="Z87"/>
+      <c r="AA87"/>
+      <c r="AB87"/>
+      <c r="AC87"/>
+      <c r="AD87"/>
+    </row>
+    <row r="88" s="1" customFormat="1" spans="5:9">
+      <c r="E88" s="2"/>
+      <c r="I88" s="6"/>
+    </row>
+    <row r="111" s="1" customFormat="1" spans="27:33">
+      <c r="AA111"/>
+      <c r="AB111"/>
+      <c r="AC111"/>
+      <c r="AD111"/>
+      <c r="AE111"/>
+      <c r="AF111"/>
+      <c r="AG111"/>
+    </row>
+    <row r="112" s="1" customFormat="1" spans="27:33">
+      <c r="AA112"/>
+      <c r="AB112"/>
+      <c r="AC112"/>
+      <c r="AD112"/>
+      <c r="AE112"/>
+      <c r="AF112"/>
+      <c r="AG112"/>
+    </row>
+    <row r="116" s="1" customFormat="1" spans="4:4">
+      <c r="D116" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
@@ -15126,15 +17043,14 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId2" display="当当阅读器 - 模拟电路和数字电路自学手册 (dangdang.com)" tooltip="https://e.dangdang.com/pc/reader/index.html?id=1901087681"/>
+    <hyperlink ref="A1" r:id="rId1" display="当当阅读器 - 模拟电路和数字电路自学手册 (dangdang.com)" tooltip="https://e.dangdang.com/pc/reader/index.html?id=1901087681"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/模电和数电.xlsx
+++ b/模电和数电.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="6"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="第一章" sheetId="1" r:id="rId1"/>
@@ -14,14 +14,15 @@
     <sheet name="第五章" sheetId="6" r:id="rId5"/>
     <sheet name="第六章" sheetId="7" r:id="rId6"/>
     <sheet name="第七章" sheetId="8" r:id="rId7"/>
-    <sheet name="书签" sheetId="4" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId8"/>
+    <sheet name="书签" sheetId="4" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="272">
   <si>
     <t>模电和数电</t>
   </si>
@@ -713,7 +714,130 @@
     <t>第七章：频率变换电路和负反馈控制电路</t>
   </si>
   <si>
+    <t>7.1频率变换电路</t>
+  </si>
+  <si>
+    <t>频率变换电路可以改变信号频率，根据频率变换的方式不同，频率变换电路可分为倍频电路和混频电路</t>
+  </si>
+  <si>
+    <t>7.1.1倍频电路</t>
+  </si>
+  <si>
+    <t>能将信号的频率成倍的提高，根据需求，2倍、3倍、4倍等</t>
+  </si>
+  <si>
+    <t>⑴倍频原理：</t>
+  </si>
+  <si>
+    <t>某一频率的正弦交流信号通过非线性原件时，由于高次谐波效应，能产生多种新的信号</t>
+  </si>
+  <si>
+    <t>直流成分，基波成分，二次谐波，三次谐波等，基波振幅最大，频率越高振幅越小</t>
+  </si>
+  <si>
+    <t>这样把想要的频率过滤出来就实现了频率变换。</t>
+  </si>
+  <si>
+    <t>⑵倍频电路</t>
+  </si>
+  <si>
+    <t>可分为二极管倍频电路和三极管倍频电路</t>
+  </si>
+  <si>
+    <t>7.1.2混频电路</t>
+  </si>
+  <si>
+    <t>让两个频率不同的信号通过非线性元件得到其他频率的信号</t>
+  </si>
+  <si>
+    <t>⑴混频原理</t>
+  </si>
+  <si>
+    <t>两个频率不同的正弦信号通过非线性元件后，能产生基波信号f1，f2，二次谐波信号2*f1，2*f2，</t>
+  </si>
+  <si>
+    <t>合频信号f1+f2，差频信号f1-f2，还有2*f2-f1，2*f2+f1这种，加上选频器就能得到想要的信号了</t>
+  </si>
+  <si>
+    <t>⑵混频电路</t>
+  </si>
+  <si>
+    <t>可分为二极管混频电路和三极管混频电路</t>
+  </si>
+  <si>
+    <t>7.2反馈控制电路</t>
+  </si>
+  <si>
+    <t>反馈控制的电子技术是一种非常重要的技术，反馈控制的基本原理是从电路的输出端取出一部分信号，</t>
+  </si>
+  <si>
+    <t>再对取出的信号进行分析，若不正常就控制它，让它变正常。</t>
+  </si>
+  <si>
+    <t>常用的反馈电路主要分三类，自动增益控制电路，自动频率控制电路，锁相环控制电路</t>
+  </si>
+  <si>
+    <t>7.2.1自动增益控制电路（AGC）</t>
+  </si>
+  <si>
+    <t>根据电路输出的信号幅度，自动调节电路的增益，输出大就让它变小，输出小就让它变大</t>
+  </si>
+  <si>
+    <t>能让一个不稳定的信号变稳定的电路</t>
+  </si>
+  <si>
+    <t>⑵电路实现</t>
+  </si>
+  <si>
+    <t>7.2.2自动频率控制电路（AFC）</t>
+  </si>
+  <si>
+    <t>将振荡器产生的信号和基准信号进行比较，然后控制振荡器让振荡器产生和基准相同频率的信号</t>
+  </si>
+  <si>
+    <t>⑵工作原理</t>
+  </si>
+  <si>
+    <t>7.2.3锁相环控制电路（PLL）</t>
+  </si>
+  <si>
+    <t>又称自动相位控制电路（APC），用于稳定信号的相位的</t>
+  </si>
+  <si>
+    <t>第八章：电源电路</t>
+  </si>
+  <si>
+    <t>主要能将220V交流转成低压直流</t>
+  </si>
+  <si>
+    <t>结构图</t>
+  </si>
+  <si>
+    <t>8.1整流电路：</t>
+  </si>
+  <si>
+    <t>将交流转成直流，分为半波整流，全波整流，乔治整流，被压整流</t>
+  </si>
+  <si>
+    <t>8.1.1半波整流电路</t>
+  </si>
+  <si>
+    <t>⑴电路结构和原理</t>
+  </si>
+  <si>
+    <t>用一个二极管挡住反向的电流</t>
+  </si>
+  <si>
+    <t>⑵电路计算</t>
+  </si>
+  <si>
+    <t>8.1.2全波整流电路</t>
+  </si>
+  <si>
     <t>当当阅读器 - 模拟电路和数字电路自学手册 (dangdang.com)</t>
+  </si>
+  <si>
+    <t>https://e.dangdang.com/pc/reader/index.html?id=1901087681</t>
   </si>
 </sst>
 </file>
@@ -721,10 +845,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -732,6 +856,14 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -756,14 +888,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -773,13 +897,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -806,17 +923,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -837,6 +946,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -845,33 +962,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -886,6 +979,37 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -894,7 +1018,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -909,31 +1033,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -945,13 +1051,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -975,13 +1087,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -993,25 +1129,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1029,43 +1177,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1077,19 +1195,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1100,21 +1224,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1142,35 +1251,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1182,6 +1262,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1200,6 +1289,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1208,10 +1332,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1220,31 +1344,37 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1253,114 +1383,105 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1369,7 +1490,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2251,6 +2378,100 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="371475" y="971550"/>
+          <a:ext cx="4791075" cy="994410"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="171450"/>
+          <a:ext cx="18288000" cy="10287000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -2546,169 +2767,169 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="4.875" style="1"/>
+    <col min="1" max="16384" width="4.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="22.5" spans="9:31">
+    <row r="1" s="2" customFormat="1" ht="22.5" spans="9:31">
       <c r="I1" s="4"/>
       <c r="J1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="V1" s="2"/>
-      <c r="W1" s="1" t="s">
+      <c r="V1" s="5"/>
+      <c r="W1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="AE1" s="2"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="23:27">
-      <c r="W2" s="1" t="s">
+      <c r="AE1" s="5"/>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="23:27">
+      <c r="W2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="X2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Y2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="Z2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="AA2" s="5" t="s">
+      <c r="AA2" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" ht="22.5" spans="1:10">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
     </row>
-    <row r="4" s="1" customFormat="1" spans="2:31">
-      <c r="B4" s="1" t="s">
+    <row r="4" s="2" customFormat="1" spans="2:31">
+      <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="V4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="AE4" s="2"/>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="3:27">
-      <c r="C5" s="1" t="s">
+      <c r="V4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="AE4" s="5"/>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="3:27">
+      <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="X5" s="2"/>
-      <c r="AA5" s="5"/>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="3:3">
-      <c r="C6" s="1" t="s">
+      <c r="X5" s="5"/>
+      <c r="AA5" s="6"/>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="3:3">
+      <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="3:3">
-      <c r="C7" s="1" t="s">
+    <row r="7" s="2" customFormat="1" spans="3:3">
+      <c r="C7" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="2:2">
-      <c r="B8" s="1" t="s">
+    <row r="8" s="2" customFormat="1" spans="2:2">
+      <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="3:3">
-      <c r="C9" s="1" t="s">
+    <row r="9" s="2" customFormat="1" spans="3:3">
+      <c r="C9" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="3:3">
-      <c r="C10" s="1" t="s">
+    <row r="10" s="2" customFormat="1" spans="3:3">
+      <c r="C10" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="4:4">
-      <c r="D11" s="1" t="s">
+    <row r="11" s="2" customFormat="1" spans="4:4">
+      <c r="D11" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="4:4">
-      <c r="D12" s="1" t="s">
+    <row r="12" s="2" customFormat="1" spans="4:4">
+      <c r="D12" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="4:4">
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" spans="3:3">
-      <c r="C15" s="1" t="s">
+    <row r="15" s="2" customFormat="1" spans="3:3">
+      <c r="C15" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" spans="2:4">
+    <row r="16" s="2" customFormat="1" spans="2:4">
       <c r="B16" s="3"/>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" spans="2:4">
+    <row r="17" s="2" customFormat="1" spans="2:4">
       <c r="B17" s="3"/>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" spans="3:3">
-      <c r="C18" s="1" t="s">
+    <row r="18" s="2" customFormat="1" spans="3:3">
+      <c r="C18" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" spans="2:4">
+    <row r="19" s="2" customFormat="1" spans="2:4">
       <c r="B19" s="3"/>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" spans="2:3">
+    <row r="20" s="2" customFormat="1" spans="2:3">
       <c r="B20" s="3"/>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" spans="3:3">
-      <c r="C21" s="1" t="s">
+    <row r="21" s="2" customFormat="1" spans="3:3">
+      <c r="C21" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" spans="3:4">
-      <c r="C22" s="2"/>
-      <c r="D22" s="1" t="s">
+    <row r="22" s="2" customFormat="1" spans="3:4">
+      <c r="C22" s="5"/>
+      <c r="D22" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" spans="2:4">
+    <row r="23" s="2" customFormat="1" spans="2:4">
       <c r="B23" s="3"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="1" t="s">
+      <c r="C23" s="5"/>
+      <c r="D23" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" spans="2:30">
+    <row r="24" s="2" customFormat="1" spans="2:30">
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24"/>
@@ -2739,7 +2960,7 @@
       <c r="AC24"/>
       <c r="AD24"/>
     </row>
-    <row r="25" s="1" customFormat="1" spans="2:30">
+    <row r="25" s="2" customFormat="1" spans="2:30">
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
@@ -2770,7 +2991,7 @@
       <c r="AC25"/>
       <c r="AD25"/>
     </row>
-    <row r="26" s="1" customFormat="1" spans="2:30">
+    <row r="26" s="2" customFormat="1" spans="2:30">
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
@@ -2801,7 +3022,7 @@
       <c r="AC26"/>
       <c r="AD26"/>
     </row>
-    <row r="27" s="1" customFormat="1" spans="2:30">
+    <row r="27" s="2" customFormat="1" spans="2:30">
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
@@ -2832,7 +3053,7 @@
       <c r="AC27"/>
       <c r="AD27"/>
     </row>
-    <row r="28" s="1" customFormat="1" spans="2:30">
+    <row r="28" s="2" customFormat="1" spans="2:30">
       <c r="B28"/>
       <c r="C28"/>
       <c r="D28"/>
@@ -2863,7 +3084,7 @@
       <c r="AC28"/>
       <c r="AD28"/>
     </row>
-    <row r="29" s="1" customFormat="1" spans="2:30">
+    <row r="29" s="2" customFormat="1" spans="2:30">
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29"/>
@@ -2894,7 +3115,7 @@
       <c r="AC29"/>
       <c r="AD29"/>
     </row>
-    <row r="30" s="1" customFormat="1" spans="2:30">
+    <row r="30" s="2" customFormat="1" spans="2:30">
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30"/>
@@ -2925,7 +3146,7 @@
       <c r="AC30"/>
       <c r="AD30"/>
     </row>
-    <row r="31" s="1" customFormat="1" spans="2:30">
+    <row r="31" s="2" customFormat="1" spans="2:30">
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31"/>
@@ -2956,7 +3177,7 @@
       <c r="AC31"/>
       <c r="AD31"/>
     </row>
-    <row r="32" s="1" customFormat="1" spans="2:30">
+    <row r="32" s="2" customFormat="1" spans="2:30">
       <c r="B32"/>
       <c r="C32"/>
       <c r="D32"/>
@@ -2987,7 +3208,7 @@
       <c r="AC32"/>
       <c r="AD32"/>
     </row>
-    <row r="33" s="1" customFormat="1" spans="2:30">
+    <row r="33" s="2" customFormat="1" spans="2:30">
       <c r="B33"/>
       <c r="C33"/>
       <c r="D33"/>
@@ -3018,7 +3239,7 @@
       <c r="AC33"/>
       <c r="AD33"/>
     </row>
-    <row r="34" s="1" customFormat="1" spans="2:30">
+    <row r="34" s="2" customFormat="1" spans="2:30">
       <c r="B34"/>
       <c r="C34"/>
       <c r="D34"/>
@@ -3049,7 +3270,7 @@
       <c r="AC34"/>
       <c r="AD34"/>
     </row>
-    <row r="35" s="1" customFormat="1" spans="2:30">
+    <row r="35" s="2" customFormat="1" spans="2:30">
       <c r="B35"/>
       <c r="C35"/>
       <c r="D35"/>
@@ -3080,7 +3301,7 @@
       <c r="AC35"/>
       <c r="AD35"/>
     </row>
-    <row r="36" s="1" customFormat="1" spans="2:30">
+    <row r="36" s="2" customFormat="1" spans="2:30">
       <c r="B36"/>
       <c r="C36"/>
       <c r="D36"/>
@@ -3111,7 +3332,7 @@
       <c r="AC36"/>
       <c r="AD36"/>
     </row>
-    <row r="37" s="1" customFormat="1" spans="2:30">
+    <row r="37" s="2" customFormat="1" spans="2:30">
       <c r="B37"/>
       <c r="C37"/>
       <c r="D37"/>
@@ -3142,7 +3363,7 @@
       <c r="AC37"/>
       <c r="AD37"/>
     </row>
-    <row r="38" s="1" customFormat="1" spans="2:30">
+    <row r="38" s="2" customFormat="1" spans="2:30">
       <c r="B38"/>
       <c r="C38"/>
       <c r="D38"/>
@@ -3173,7 +3394,7 @@
       <c r="AC38"/>
       <c r="AD38"/>
     </row>
-    <row r="39" s="1" customFormat="1" spans="2:30">
+    <row r="39" s="2" customFormat="1" spans="2:30">
       <c r="B39"/>
       <c r="C39"/>
       <c r="D39"/>
@@ -3204,7 +3425,7 @@
       <c r="AC39"/>
       <c r="AD39"/>
     </row>
-    <row r="40" s="1" customFormat="1" spans="2:30">
+    <row r="40" s="2" customFormat="1" spans="2:30">
       <c r="B40"/>
       <c r="C40"/>
       <c r="D40"/>
@@ -3235,7 +3456,7 @@
       <c r="AC40"/>
       <c r="AD40"/>
     </row>
-    <row r="41" s="1" customFormat="1" spans="2:30">
+    <row r="41" s="2" customFormat="1" spans="2:30">
       <c r="B41"/>
       <c r="C41"/>
       <c r="D41"/>
@@ -3266,7 +3487,7 @@
       <c r="AC41"/>
       <c r="AD41"/>
     </row>
-    <row r="42" s="1" customFormat="1" spans="2:30">
+    <row r="42" s="2" customFormat="1" spans="2:30">
       <c r="B42"/>
       <c r="C42"/>
       <c r="D42"/>
@@ -3297,7 +3518,7 @@
       <c r="AC42"/>
       <c r="AD42"/>
     </row>
-    <row r="43" s="1" customFormat="1" spans="2:30">
+    <row r="43" s="2" customFormat="1" spans="2:30">
       <c r="B43"/>
       <c r="C43"/>
       <c r="D43"/>
@@ -3328,7 +3549,7 @@
       <c r="AC43"/>
       <c r="AD43"/>
     </row>
-    <row r="44" s="1" customFormat="1" spans="2:30">
+    <row r="44" s="2" customFormat="1" spans="2:30">
       <c r="B44"/>
       <c r="C44"/>
       <c r="D44"/>
@@ -3359,7 +3580,7 @@
       <c r="AC44"/>
       <c r="AD44"/>
     </row>
-    <row r="45" s="1" customFormat="1" spans="2:30">
+    <row r="45" s="2" customFormat="1" spans="2:30">
       <c r="B45"/>
       <c r="C45"/>
       <c r="D45"/>
@@ -3390,7 +3611,7 @@
       <c r="AC45"/>
       <c r="AD45"/>
     </row>
-    <row r="46" s="1" customFormat="1" spans="2:30">
+    <row r="46" s="2" customFormat="1" spans="2:30">
       <c r="B46"/>
       <c r="C46"/>
       <c r="D46"/>
@@ -3421,7 +3642,7 @@
       <c r="AC46"/>
       <c r="AD46"/>
     </row>
-    <row r="47" s="1" customFormat="1" spans="2:30">
+    <row r="47" s="2" customFormat="1" spans="2:30">
       <c r="B47"/>
       <c r="C47"/>
       <c r="D47"/>
@@ -3452,7 +3673,7 @@
       <c r="AC47"/>
       <c r="AD47"/>
     </row>
-    <row r="48" s="1" customFormat="1" spans="2:30">
+    <row r="48" s="2" customFormat="1" spans="2:30">
       <c r="B48"/>
       <c r="C48"/>
       <c r="D48"/>
@@ -3483,7 +3704,7 @@
       <c r="AC48"/>
       <c r="AD48"/>
     </row>
-    <row r="49" s="1" customFormat="1" spans="2:30">
+    <row r="49" s="2" customFormat="1" spans="2:30">
       <c r="B49"/>
       <c r="C49"/>
       <c r="D49"/>
@@ -3514,7 +3735,7 @@
       <c r="AC49"/>
       <c r="AD49"/>
     </row>
-    <row r="50" s="1" customFormat="1" spans="2:30">
+    <row r="50" s="2" customFormat="1" spans="2:30">
       <c r="B50"/>
       <c r="C50"/>
       <c r="D50"/>
@@ -3545,7 +3766,7 @@
       <c r="AC50"/>
       <c r="AD50"/>
     </row>
-    <row r="51" s="1" customFormat="1" spans="2:30">
+    <row r="51" s="2" customFormat="1" spans="2:30">
       <c r="B51"/>
       <c r="C51"/>
       <c r="D51"/>
@@ -3576,7 +3797,7 @@
       <c r="AC51"/>
       <c r="AD51"/>
     </row>
-    <row r="52" s="1" customFormat="1" spans="2:30">
+    <row r="52" s="2" customFormat="1" spans="2:30">
       <c r="B52"/>
       <c r="C52"/>
       <c r="D52"/>
@@ -3607,7 +3828,7 @@
       <c r="AC52"/>
       <c r="AD52"/>
     </row>
-    <row r="53" s="1" customFormat="1" spans="2:30">
+    <row r="53" s="2" customFormat="1" spans="2:30">
       <c r="B53"/>
       <c r="C53"/>
       <c r="D53"/>
@@ -3638,7 +3859,7 @@
       <c r="AC53"/>
       <c r="AD53"/>
     </row>
-    <row r="54" s="1" customFormat="1" spans="2:30">
+    <row r="54" s="2" customFormat="1" spans="2:30">
       <c r="B54"/>
       <c r="C54"/>
       <c r="D54"/>
@@ -3669,7 +3890,7 @@
       <c r="AC54"/>
       <c r="AD54"/>
     </row>
-    <row r="55" s="1" customFormat="1" spans="2:30">
+    <row r="55" s="2" customFormat="1" spans="2:30">
       <c r="B55"/>
       <c r="C55"/>
       <c r="D55"/>
@@ -3700,7 +3921,7 @@
       <c r="AC55"/>
       <c r="AD55"/>
     </row>
-    <row r="56" s="1" customFormat="1" spans="2:30">
+    <row r="56" s="2" customFormat="1" spans="2:30">
       <c r="B56"/>
       <c r="C56"/>
       <c r="D56"/>
@@ -3731,7 +3952,7 @@
       <c r="AC56"/>
       <c r="AD56"/>
     </row>
-    <row r="57" s="1" customFormat="1" spans="2:30">
+    <row r="57" s="2" customFormat="1" spans="2:30">
       <c r="B57"/>
       <c r="C57"/>
       <c r="D57"/>
@@ -3762,7 +3983,7 @@
       <c r="AC57"/>
       <c r="AD57"/>
     </row>
-    <row r="58" s="1" customFormat="1" spans="2:30">
+    <row r="58" s="2" customFormat="1" spans="2:30">
       <c r="B58"/>
       <c r="C58"/>
       <c r="D58"/>
@@ -3793,7 +4014,7 @@
       <c r="AC58"/>
       <c r="AD58"/>
     </row>
-    <row r="59" s="1" customFormat="1" spans="2:30">
+    <row r="59" s="2" customFormat="1" spans="2:30">
       <c r="B59"/>
       <c r="C59"/>
       <c r="D59"/>
@@ -3824,7 +4045,7 @@
       <c r="AC59"/>
       <c r="AD59"/>
     </row>
-    <row r="60" s="1" customFormat="1" spans="2:30">
+    <row r="60" s="2" customFormat="1" spans="2:30">
       <c r="B60"/>
       <c r="C60"/>
       <c r="D60"/>
@@ -3855,7 +4076,7 @@
       <c r="AC60"/>
       <c r="AD60"/>
     </row>
-    <row r="61" s="1" customFormat="1" spans="2:30">
+    <row r="61" s="2" customFormat="1" spans="2:30">
       <c r="B61"/>
       <c r="C61"/>
       <c r="D61"/>
@@ -3886,7 +4107,7 @@
       <c r="AC61"/>
       <c r="AD61"/>
     </row>
-    <row r="62" s="1" customFormat="1" spans="2:30">
+    <row r="62" s="2" customFormat="1" spans="2:30">
       <c r="B62"/>
       <c r="C62"/>
       <c r="D62"/>
@@ -3917,7 +4138,7 @@
       <c r="AC62"/>
       <c r="AD62"/>
     </row>
-    <row r="63" s="1" customFormat="1" spans="2:30">
+    <row r="63" s="2" customFormat="1" spans="2:30">
       <c r="B63"/>
       <c r="C63"/>
       <c r="D63"/>
@@ -3948,7 +4169,7 @@
       <c r="AC63"/>
       <c r="AD63"/>
     </row>
-    <row r="64" s="1" customFormat="1" spans="2:30">
+    <row r="64" s="2" customFormat="1" spans="2:30">
       <c r="B64"/>
       <c r="C64"/>
       <c r="D64"/>
@@ -3979,7 +4200,7 @@
       <c r="AC64"/>
       <c r="AD64"/>
     </row>
-    <row r="65" s="1" customFormat="1" spans="2:30">
+    <row r="65" s="2" customFormat="1" spans="2:30">
       <c r="B65"/>
       <c r="C65"/>
       <c r="D65"/>
@@ -4679,155 +4900,155 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="4.875" style="1"/>
+    <col min="1" max="16384" width="4.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="22.5" spans="9:31">
+    <row r="1" s="2" customFormat="1" ht="22.5" spans="9:31">
       <c r="I1" s="4"/>
       <c r="J1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="V1" s="2"/>
-      <c r="W1" s="1" t="s">
+      <c r="V1" s="5"/>
+      <c r="W1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="AE1" s="2"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="23:27">
-      <c r="W2" s="1" t="s">
+      <c r="AE1" s="5"/>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="23:27">
+      <c r="W2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="X2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Y2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="Z2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="AA2" s="5" t="s">
+      <c r="AA2" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:27">
-      <c r="A3" s="1" t="s">
+    <row r="3" s="2" customFormat="1" spans="1:27">
+      <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="X3" s="2"/>
-      <c r="AA3" s="5"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="2:27">
-      <c r="B4" s="1" t="s">
+      <c r="X3" s="5"/>
+      <c r="AA3" s="6"/>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="2:27">
+      <c r="B4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="X4" s="2"/>
-      <c r="AA4" s="5"/>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="22.5" spans="3:10">
-      <c r="C5" s="1" t="s">
+      <c r="X4" s="5"/>
+      <c r="AA4" s="6"/>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="22.5" spans="3:10">
+      <c r="C5" s="2" t="s">
         <v>34</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" s="1" customFormat="1" spans="3:31">
-      <c r="C6" s="1" t="s">
+    <row r="6" s="2" customFormat="1" spans="3:31">
+      <c r="C6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="V6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="AE6" s="2"/>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="3:27">
-      <c r="C7" s="1" t="s">
+      <c r="V6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="AE6" s="5"/>
+    </row>
+    <row r="7" s="2" customFormat="1" spans="3:27">
+      <c r="C7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="X7" s="2"/>
-      <c r="AA7" s="5"/>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="3:3">
-      <c r="C8" s="1" t="s">
+      <c r="X7" s="5"/>
+      <c r="AA7" s="6"/>
+    </row>
+    <row r="8" s="2" customFormat="1" spans="3:3">
+      <c r="C8" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="3:3">
-      <c r="C9" s="1" t="s">
+    <row r="9" s="2" customFormat="1" spans="3:3">
+      <c r="C9" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="3:3">
-      <c r="C10" s="1" t="s">
+    <row r="10" s="2" customFormat="1" spans="3:3">
+      <c r="C10" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="3:3">
-      <c r="C11" s="1" t="s">
+    <row r="11" s="2" customFormat="1" spans="3:3">
+      <c r="C11" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="2:2">
-      <c r="B12" s="1" t="s">
+    <row r="12" s="2" customFormat="1" spans="2:2">
+      <c r="B12" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" spans="3:3">
-      <c r="C13" s="1" t="s">
+    <row r="13" s="2" customFormat="1" spans="3:3">
+      <c r="C13" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" spans="4:4">
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="4:4">
-      <c r="D16" s="2"/>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="2:2">
+    <row r="15" s="2" customFormat="1" spans="4:4">
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" s="2" customFormat="1" spans="4:4">
+      <c r="D16" s="5"/>
+    </row>
+    <row r="18" s="2" customFormat="1" spans="2:2">
       <c r="B18" s="3"/>
     </row>
-    <row r="19" s="1" customFormat="1" spans="2:2">
+    <row r="19" s="2" customFormat="1" spans="2:2">
       <c r="B19" s="3"/>
     </row>
-    <row r="21" s="1" customFormat="1" spans="2:2">
+    <row r="21" s="2" customFormat="1" spans="2:2">
       <c r="B21" s="3"/>
     </row>
-    <row r="22" s="1" customFormat="1" spans="2:4">
+    <row r="22" s="2" customFormat="1" spans="2:4">
       <c r="B22" s="3"/>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" spans="5:5">
-      <c r="E23" s="1" t="s">
+    <row r="23" s="2" customFormat="1" spans="5:5">
+      <c r="E23" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" spans="3:4">
-      <c r="C24" s="2"/>
-      <c r="D24" s="1" t="s">
+    <row r="24" s="2" customFormat="1" spans="3:4">
+      <c r="C24" s="5"/>
+      <c r="D24" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" spans="2:4">
+    <row r="25" s="2" customFormat="1" spans="2:4">
       <c r="B25" s="3"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="1" t="s">
+      <c r="C25" s="5"/>
+      <c r="D25" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" spans="2:30">
+    <row r="26" s="2" customFormat="1" spans="2:30">
       <c r="B26"/>
       <c r="C26" t="s">
         <v>47</v>
@@ -4860,7 +5081,7 @@
       <c r="AC26"/>
       <c r="AD26"/>
     </row>
-    <row r="27" s="1" customFormat="1" spans="2:30">
+    <row r="27" s="2" customFormat="1" spans="2:30">
       <c r="B27"/>
       <c r="C27" t="s">
         <v>48</v>
@@ -4893,7 +5114,7 @@
       <c r="AC27"/>
       <c r="AD27"/>
     </row>
-    <row r="28" s="1" customFormat="1" spans="2:30">
+    <row r="28" s="2" customFormat="1" spans="2:30">
       <c r="B28"/>
       <c r="C28"/>
       <c r="D28" t="s">
@@ -4926,7 +5147,7 @@
       <c r="AC28"/>
       <c r="AD28"/>
     </row>
-    <row r="29" s="1" customFormat="1" spans="2:30">
+    <row r="29" s="2" customFormat="1" spans="2:30">
       <c r="B29"/>
       <c r="C29" t="s">
         <v>50</v>
@@ -4959,7 +5180,7 @@
       <c r="AC29"/>
       <c r="AD29"/>
     </row>
-    <row r="30" s="1" customFormat="1" spans="2:30">
+    <row r="30" s="2" customFormat="1" spans="2:30">
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30" t="s">
@@ -4992,7 +5213,7 @@
       <c r="AC30"/>
       <c r="AD30"/>
     </row>
-    <row r="31" s="1" customFormat="1" spans="2:30">
+    <row r="31" s="2" customFormat="1" spans="2:30">
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31" t="s">
@@ -5025,7 +5246,7 @@
       <c r="AC31"/>
       <c r="AD31"/>
     </row>
-    <row r="32" s="1" customFormat="1" spans="2:30">
+    <row r="32" s="2" customFormat="1" spans="2:30">
       <c r="B32"/>
       <c r="C32"/>
       <c r="D32" t="s">
@@ -5058,7 +5279,7 @@
       <c r="AC32"/>
       <c r="AD32"/>
     </row>
-    <row r="33" s="1" customFormat="1" spans="2:30">
+    <row r="33" s="2" customFormat="1" spans="2:30">
       <c r="B33"/>
       <c r="C33"/>
       <c r="D33" t="s">
@@ -5091,7 +5312,7 @@
       <c r="AC33"/>
       <c r="AD33"/>
     </row>
-    <row r="34" s="1" customFormat="1" spans="2:30">
+    <row r="34" s="2" customFormat="1" spans="2:30">
       <c r="B34"/>
       <c r="C34"/>
       <c r="D34" t="s">
@@ -5124,7 +5345,7 @@
       <c r="AC34"/>
       <c r="AD34"/>
     </row>
-    <row r="35" s="1" customFormat="1" spans="2:30">
+    <row r="35" s="2" customFormat="1" spans="2:30">
       <c r="B35"/>
       <c r="C35" t="s">
         <v>56</v>
@@ -5157,7 +5378,7 @@
       <c r="AC35"/>
       <c r="AD35"/>
     </row>
-    <row r="36" s="1" customFormat="1" spans="2:30">
+    <row r="36" s="2" customFormat="1" spans="2:30">
       <c r="B36" t="s">
         <v>57</v>
       </c>
@@ -5190,7 +5411,7 @@
       <c r="AC36"/>
       <c r="AD36"/>
     </row>
-    <row r="37" s="1" customFormat="1" spans="2:30">
+    <row r="37" s="2" customFormat="1" spans="2:30">
       <c r="B37"/>
       <c r="C37" t="s">
         <v>58</v>
@@ -5223,7 +5444,7 @@
       <c r="AC37"/>
       <c r="AD37"/>
     </row>
-    <row r="38" s="1" customFormat="1" spans="2:30">
+    <row r="38" s="2" customFormat="1" spans="2:30">
       <c r="B38"/>
       <c r="C38" t="s">
         <v>59</v>
@@ -5256,7 +5477,7 @@
       <c r="AC38"/>
       <c r="AD38"/>
     </row>
-    <row r="39" s="1" customFormat="1" spans="2:30">
+    <row r="39" s="2" customFormat="1" spans="2:30">
       <c r="B39"/>
       <c r="C39" t="s">
         <v>60</v>
@@ -5289,7 +5510,7 @@
       <c r="AC39"/>
       <c r="AD39"/>
     </row>
-    <row r="40" s="1" customFormat="1" spans="2:30">
+    <row r="40" s="2" customFormat="1" spans="2:30">
       <c r="B40"/>
       <c r="C40" t="s">
         <v>61</v>
@@ -5322,7 +5543,7 @@
       <c r="AC40"/>
       <c r="AD40"/>
     </row>
-    <row r="41" s="1" customFormat="1" spans="2:30">
+    <row r="41" s="2" customFormat="1" spans="2:30">
       <c r="B41"/>
       <c r="C41" t="s">
         <v>62</v>
@@ -5355,7 +5576,7 @@
       <c r="AC41"/>
       <c r="AD41"/>
     </row>
-    <row r="42" s="1" customFormat="1" spans="2:30">
+    <row r="42" s="2" customFormat="1" spans="2:30">
       <c r="B42" t="s">
         <v>63</v>
       </c>
@@ -5388,7 +5609,7 @@
       <c r="AC42"/>
       <c r="AD42"/>
     </row>
-    <row r="43" s="1" customFormat="1" spans="2:30">
+    <row r="43" s="2" customFormat="1" spans="2:30">
       <c r="B43"/>
       <c r="C43" t="s">
         <v>64</v>
@@ -5421,7 +5642,7 @@
       <c r="AC43"/>
       <c r="AD43"/>
     </row>
-    <row r="44" s="1" customFormat="1" spans="2:30">
+    <row r="44" s="2" customFormat="1" spans="2:30">
       <c r="B44"/>
       <c r="C44" t="s">
         <v>65</v>
@@ -5454,7 +5675,7 @@
       <c r="AC44"/>
       <c r="AD44"/>
     </row>
-    <row r="45" s="1" customFormat="1" spans="2:30">
+    <row r="45" s="2" customFormat="1" spans="2:30">
       <c r="B45"/>
       <c r="C45" t="s">
         <v>66</v>
@@ -5487,7 +5708,7 @@
       <c r="AC45"/>
       <c r="AD45"/>
     </row>
-    <row r="46" s="1" customFormat="1" spans="2:30">
+    <row r="46" s="2" customFormat="1" spans="2:30">
       <c r="B46"/>
       <c r="C46"/>
       <c r="D46" t="s">
@@ -5520,7 +5741,7 @@
       <c r="AC46"/>
       <c r="AD46"/>
     </row>
-    <row r="47" s="1" customFormat="1" spans="2:30">
+    <row r="47" s="2" customFormat="1" spans="2:30">
       <c r="B47"/>
       <c r="C47"/>
       <c r="D47" t="s">
@@ -5553,7 +5774,7 @@
       <c r="AC47"/>
       <c r="AD47"/>
     </row>
-    <row r="48" s="1" customFormat="1" spans="2:30">
+    <row r="48" s="2" customFormat="1" spans="2:30">
       <c r="B48"/>
       <c r="C48"/>
       <c r="D48"/>
@@ -5586,7 +5807,7 @@
       <c r="AC48"/>
       <c r="AD48"/>
     </row>
-    <row r="49" s="1" customFormat="1" spans="2:30">
+    <row r="49" s="2" customFormat="1" spans="2:30">
       <c r="B49"/>
       <c r="C49"/>
       <c r="D49"/>
@@ -5619,7 +5840,7 @@
       <c r="AC49"/>
       <c r="AD49"/>
     </row>
-    <row r="50" s="1" customFormat="1" spans="2:30">
+    <row r="50" s="2" customFormat="1" spans="2:30">
       <c r="B50"/>
       <c r="C50" t="s">
         <v>71</v>
@@ -5652,7 +5873,7 @@
       <c r="AC50"/>
       <c r="AD50"/>
     </row>
-    <row r="51" s="1" customFormat="1" spans="2:30">
+    <row r="51" s="2" customFormat="1" spans="2:30">
       <c r="B51"/>
       <c r="C51"/>
       <c r="D51" t="s">
@@ -5685,7 +5906,7 @@
       <c r="AC51"/>
       <c r="AD51"/>
     </row>
-    <row r="52" s="1" customFormat="1" spans="2:30">
+    <row r="52" s="2" customFormat="1" spans="2:30">
       <c r="B52"/>
       <c r="C52"/>
       <c r="D52" t="s">
@@ -5718,7 +5939,7 @@
       <c r="AC52"/>
       <c r="AD52"/>
     </row>
-    <row r="53" s="1" customFormat="1" spans="2:30">
+    <row r="53" s="2" customFormat="1" spans="2:30">
       <c r="B53"/>
       <c r="C53"/>
       <c r="D53"/>
@@ -5751,7 +5972,7 @@
       <c r="AC53"/>
       <c r="AD53"/>
     </row>
-    <row r="54" s="1" customFormat="1" spans="2:30">
+    <row r="54" s="2" customFormat="1" spans="2:30">
       <c r="B54"/>
       <c r="C54" t="s">
         <v>74</v>
@@ -5784,7 +6005,7 @@
       <c r="AC54"/>
       <c r="AD54"/>
     </row>
-    <row r="55" s="1" customFormat="1" spans="2:30">
+    <row r="55" s="2" customFormat="1" spans="2:30">
       <c r="B55"/>
       <c r="C55"/>
       <c r="D55" t="s">
@@ -5817,7 +6038,7 @@
       <c r="AC55"/>
       <c r="AD55"/>
     </row>
-    <row r="56" s="1" customFormat="1" spans="2:30">
+    <row r="56" s="2" customFormat="1" spans="2:30">
       <c r="B56"/>
       <c r="C56"/>
       <c r="D56" t="s">
@@ -5850,7 +6071,7 @@
       <c r="AC56"/>
       <c r="AD56"/>
     </row>
-    <row r="57" s="1" customFormat="1" spans="2:30">
+    <row r="57" s="2" customFormat="1" spans="2:30">
       <c r="B57"/>
       <c r="C57"/>
       <c r="D57"/>
@@ -5883,7 +6104,7 @@
       <c r="AC57"/>
       <c r="AD57"/>
     </row>
-    <row r="58" s="1" customFormat="1" spans="2:30">
+    <row r="58" s="2" customFormat="1" spans="2:30">
       <c r="B58" t="s">
         <v>77</v>
       </c>
@@ -5916,7 +6137,7 @@
       <c r="AC58"/>
       <c r="AD58"/>
     </row>
-    <row r="59" s="1" customFormat="1" spans="2:30">
+    <row r="59" s="2" customFormat="1" spans="2:30">
       <c r="B59"/>
       <c r="C59" t="s">
         <v>78</v>
@@ -5949,7 +6170,7 @@
       <c r="AC59"/>
       <c r="AD59"/>
     </row>
-    <row r="60" s="1" customFormat="1" spans="2:30">
+    <row r="60" s="2" customFormat="1" spans="2:30">
       <c r="B60"/>
       <c r="C60" t="s">
         <v>79</v>
@@ -5982,7 +6203,7 @@
       <c r="AC60"/>
       <c r="AD60"/>
     </row>
-    <row r="61" s="1" customFormat="1" spans="2:30">
+    <row r="61" s="2" customFormat="1" spans="2:30">
       <c r="B61"/>
       <c r="C61" t="s">
         <v>80</v>
@@ -6015,7 +6236,7 @@
       <c r="AC61"/>
       <c r="AD61"/>
     </row>
-    <row r="62" s="1" customFormat="1" spans="2:30">
+    <row r="62" s="2" customFormat="1" spans="2:30">
       <c r="B62"/>
       <c r="C62"/>
       <c r="D62" t="s">
@@ -6048,7 +6269,7 @@
       <c r="AC62"/>
       <c r="AD62"/>
     </row>
-    <row r="63" s="1" customFormat="1" spans="2:30">
+    <row r="63" s="2" customFormat="1" spans="2:30">
       <c r="B63"/>
       <c r="C63" t="s">
         <v>82</v>
@@ -6081,7 +6302,7 @@
       <c r="AC63"/>
       <c r="AD63"/>
     </row>
-    <row r="64" s="1" customFormat="1" spans="2:30">
+    <row r="64" s="2" customFormat="1" spans="2:30">
       <c r="B64"/>
       <c r="C64" t="s">
         <v>83</v>
@@ -6114,7 +6335,7 @@
       <c r="AC64"/>
       <c r="AD64"/>
     </row>
-    <row r="65" s="1" customFormat="1" spans="2:30">
+    <row r="65" s="2" customFormat="1" spans="2:30">
       <c r="B65"/>
       <c r="C65"/>
       <c r="D65"/>
@@ -6145,7 +6366,7 @@
       <c r="AC65"/>
       <c r="AD65"/>
     </row>
-    <row r="66" s="1" customFormat="1" spans="2:30">
+    <row r="66" s="2" customFormat="1" spans="2:30">
       <c r="B66"/>
       <c r="C66"/>
       <c r="D66"/>
@@ -6176,7 +6397,7 @@
       <c r="AC66"/>
       <c r="AD66"/>
     </row>
-    <row r="67" s="1" customFormat="1" spans="2:30">
+    <row r="67" s="2" customFormat="1" spans="2:30">
       <c r="B67"/>
       <c r="C67"/>
       <c r="D67"/>
@@ -6207,7 +6428,7 @@
       <c r="AC67"/>
       <c r="AD67"/>
     </row>
-    <row r="68" s="1" customFormat="1" spans="2:30">
+    <row r="68" s="2" customFormat="1" spans="2:30">
       <c r="B68"/>
       <c r="C68"/>
       <c r="D68"/>
@@ -6238,7 +6459,7 @@
       <c r="AC68"/>
       <c r="AD68"/>
     </row>
-    <row r="69" s="1" customFormat="1" spans="2:30">
+    <row r="69" s="2" customFormat="1" spans="2:30">
       <c r="B69"/>
       <c r="C69"/>
       <c r="D69"/>
@@ -6269,7 +6490,7 @@
       <c r="AC69"/>
       <c r="AD69"/>
     </row>
-    <row r="70" s="1" customFormat="1" spans="2:30">
+    <row r="70" s="2" customFormat="1" spans="2:30">
       <c r="B70"/>
       <c r="C70"/>
       <c r="D70"/>
@@ -6300,7 +6521,7 @@
       <c r="AC70"/>
       <c r="AD70"/>
     </row>
-    <row r="71" s="1" customFormat="1" spans="2:30">
+    <row r="71" s="2" customFormat="1" spans="2:30">
       <c r="B71"/>
       <c r="C71"/>
       <c r="D71"/>
@@ -6331,7 +6552,7 @@
       <c r="AC71"/>
       <c r="AD71"/>
     </row>
-    <row r="72" s="1" customFormat="1" spans="2:30">
+    <row r="72" s="2" customFormat="1" spans="2:30">
       <c r="B72"/>
       <c r="C72"/>
       <c r="D72"/>
@@ -6362,7 +6583,7 @@
       <c r="AC72"/>
       <c r="AD72"/>
     </row>
-    <row r="73" s="1" customFormat="1" spans="2:30">
+    <row r="73" s="2" customFormat="1" spans="2:30">
       <c r="B73"/>
       <c r="C73"/>
       <c r="D73"/>
@@ -6393,7 +6614,7 @@
       <c r="AC73"/>
       <c r="AD73"/>
     </row>
-    <row r="74" s="1" customFormat="1" spans="2:30">
+    <row r="74" s="2" customFormat="1" spans="2:30">
       <c r="B74"/>
       <c r="C74"/>
       <c r="D74"/>
@@ -6424,7 +6645,7 @@
       <c r="AC74"/>
       <c r="AD74"/>
     </row>
-    <row r="75" s="1" customFormat="1" spans="2:30">
+    <row r="75" s="2" customFormat="1" spans="2:30">
       <c r="B75"/>
       <c r="C75"/>
       <c r="D75"/>
@@ -6455,7 +6676,7 @@
       <c r="AC75"/>
       <c r="AD75"/>
     </row>
-    <row r="76" s="1" customFormat="1" spans="2:30">
+    <row r="76" s="2" customFormat="1" spans="2:30">
       <c r="B76"/>
       <c r="C76"/>
       <c r="D76"/>
@@ -6486,7 +6707,7 @@
       <c r="AC76"/>
       <c r="AD76"/>
     </row>
-    <row r="77" s="1" customFormat="1" spans="2:30">
+    <row r="77" s="2" customFormat="1" spans="2:30">
       <c r="B77"/>
       <c r="C77"/>
       <c r="D77"/>
@@ -6517,7 +6738,7 @@
       <c r="AC77"/>
       <c r="AD77"/>
     </row>
-    <row r="78" s="1" customFormat="1" spans="2:30">
+    <row r="78" s="2" customFormat="1" spans="2:30">
       <c r="B78"/>
       <c r="C78"/>
       <c r="D78"/>
@@ -6548,7 +6769,7 @@
       <c r="AC78"/>
       <c r="AD78"/>
     </row>
-    <row r="79" s="1" customFormat="1" spans="2:30">
+    <row r="79" s="2" customFormat="1" spans="2:30">
       <c r="B79"/>
       <c r="C79"/>
       <c r="D79"/>
@@ -6579,7 +6800,7 @@
       <c r="AC79"/>
       <c r="AD79"/>
     </row>
-    <row r="80" s="1" customFormat="1" spans="2:30">
+    <row r="80" s="2" customFormat="1" spans="2:30">
       <c r="B80"/>
       <c r="C80"/>
       <c r="D80"/>
@@ -6610,7 +6831,7 @@
       <c r="AC80"/>
       <c r="AD80"/>
     </row>
-    <row r="81" s="1" customFormat="1" spans="2:30">
+    <row r="81" s="2" customFormat="1" spans="2:30">
       <c r="B81"/>
       <c r="C81"/>
       <c r="D81"/>
@@ -6641,7 +6862,7 @@
       <c r="AC81"/>
       <c r="AD81"/>
     </row>
-    <row r="82" s="1" customFormat="1" spans="2:30">
+    <row r="82" s="2" customFormat="1" spans="2:30">
       <c r="B82"/>
       <c r="C82"/>
       <c r="D82"/>
@@ -6672,7 +6893,7 @@
       <c r="AC82"/>
       <c r="AD82"/>
     </row>
-    <row r="83" s="1" customFormat="1" spans="2:30">
+    <row r="83" s="2" customFormat="1" spans="2:30">
       <c r="B83"/>
       <c r="C83"/>
       <c r="D83"/>
@@ -6703,7 +6924,7 @@
       <c r="AC83"/>
       <c r="AD83"/>
     </row>
-    <row r="84" s="1" customFormat="1" spans="2:30">
+    <row r="84" s="2" customFormat="1" spans="2:30">
       <c r="B84"/>
       <c r="C84"/>
       <c r="D84"/>
@@ -6734,7 +6955,7 @@
       <c r="AC84"/>
       <c r="AD84"/>
     </row>
-    <row r="85" s="1" customFormat="1" spans="2:30">
+    <row r="85" s="2" customFormat="1" spans="2:30">
       <c r="B85"/>
       <c r="C85"/>
       <c r="D85"/>
@@ -6765,7 +6986,7 @@
       <c r="AC85"/>
       <c r="AD85"/>
     </row>
-    <row r="86" s="1" customFormat="1" spans="2:30">
+    <row r="86" s="2" customFormat="1" spans="2:30">
       <c r="B86"/>
       <c r="C86"/>
       <c r="D86"/>
@@ -6796,7 +7017,7 @@
       <c r="AC86"/>
       <c r="AD86"/>
     </row>
-    <row r="87" s="1" customFormat="1" spans="2:30">
+    <row r="87" s="2" customFormat="1" spans="2:30">
       <c r="B87"/>
       <c r="C87"/>
       <c r="D87"/>
@@ -6827,7 +7048,7 @@
       <c r="AC87"/>
       <c r="AD87"/>
     </row>
-    <row r="88" s="1" customFormat="1" spans="2:30">
+    <row r="88" s="2" customFormat="1" spans="2:30">
       <c r="B88"/>
       <c r="C88"/>
       <c r="D88"/>
@@ -6877,187 +7098,187 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="4.875" style="1"/>
+    <col min="1" max="16384" width="4.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="22.5" spans="9:31">
+    <row r="1" s="2" customFormat="1" ht="22.5" spans="9:31">
       <c r="I1" s="4"/>
       <c r="J1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="V1" s="2"/>
-      <c r="W1" s="1" t="s">
+      <c r="V1" s="5"/>
+      <c r="W1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="AE1" s="2"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="23:27">
-      <c r="W2" s="1" t="s">
+      <c r="AE1" s="5"/>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="23:27">
+      <c r="W2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="X2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Y2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="Z2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="AA2" s="5" t="s">
+      <c r="AA2" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:27">
-      <c r="A3" s="1" t="s">
+    <row r="3" s="2" customFormat="1" spans="1:27">
+      <c r="A3" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="X3" s="2"/>
-      <c r="AA3" s="5"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="2:31">
-      <c r="B4" s="1" t="s">
+      <c r="X3" s="5"/>
+      <c r="AA3" s="6"/>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="2:31">
+      <c r="B4" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="V4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="AE4" s="2"/>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="3:31">
-      <c r="C5" s="1" t="s">
+      <c r="V4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="AE4" s="5"/>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="3:31">
+      <c r="C5" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="V5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="AE5" s="2"/>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="3:27">
-      <c r="C6" s="1" t="s">
+      <c r="V5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="AE5" s="5"/>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="3:27">
+      <c r="C6" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="X6" s="2"/>
-      <c r="AA6" s="5"/>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="3:3">
-      <c r="C7" s="1" t="s">
+      <c r="X6" s="5"/>
+      <c r="AA6" s="6"/>
+    </row>
+    <row r="7" s="2" customFormat="1" spans="3:3">
+      <c r="C7" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="4:4">
-      <c r="D8" s="1" t="s">
+    <row r="8" s="2" customFormat="1" spans="4:4">
+      <c r="D8" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="3:3">
-      <c r="C9" s="1" t="s">
+    <row r="9" s="2" customFormat="1" spans="3:3">
+      <c r="C9" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="3:3">
-      <c r="C10" s="1" t="s">
+    <row r="10" s="2" customFormat="1" spans="3:3">
+      <c r="C10" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="2:2">
-      <c r="B11" s="1" t="s">
+    <row r="11" s="2" customFormat="1" spans="2:2">
+      <c r="B11" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="3:3">
-      <c r="C12" s="1" t="s">
+    <row r="12" s="2" customFormat="1" spans="3:3">
+      <c r="C12" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" spans="4:4">
-      <c r="D13" s="1" t="s">
+    <row r="13" s="2" customFormat="1" spans="4:4">
+      <c r="D13" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" spans="3:4">
-      <c r="C14" s="1" t="s">
+    <row r="14" s="2" customFormat="1" spans="3:4">
+      <c r="C14" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="4:4">
-      <c r="D15" s="2" t="s">
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" s="2" customFormat="1" spans="4:4">
+      <c r="D15" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" spans="3:3">
-      <c r="C16" s="1" t="s">
+    <row r="16" s="2" customFormat="1" spans="3:3">
+      <c r="C16" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" spans="2:4">
+    <row r="17" s="2" customFormat="1" spans="2:4">
       <c r="B17" s="3"/>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" spans="2:4">
+    <row r="18" s="2" customFormat="1" spans="2:4">
       <c r="B18" s="3"/>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" spans="4:4">
-      <c r="D19" s="1" t="s">
+    <row r="19" s="2" customFormat="1" spans="4:4">
+      <c r="D19" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" spans="4:4">
-      <c r="D20" s="1" t="s">
+    <row r="20" s="2" customFormat="1" spans="4:4">
+      <c r="D20" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" spans="2:2">
-      <c r="B21" s="1" t="s">
+    <row r="21" s="2" customFormat="1" spans="2:2">
+      <c r="B21" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" spans="3:3">
-      <c r="C22" s="1" t="s">
+    <row r="22" s="2" customFormat="1" spans="3:3">
+      <c r="C22" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" spans="3:3">
-      <c r="C23" s="1" t="s">
+    <row r="23" s="2" customFormat="1" spans="3:3">
+      <c r="C23" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" spans="4:4">
-      <c r="D24" s="1" t="s">
+    <row r="24" s="2" customFormat="1" spans="4:4">
+      <c r="D24" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" spans="5:31">
-      <c r="E25" s="1" t="s">
+    <row r="25" s="2" customFormat="1" spans="5:31">
+      <c r="E25" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="AE25" s="2"/>
-    </row>
-    <row r="26" s="1" customFormat="1" spans="5:5">
-      <c r="E26" s="1" t="s">
+      <c r="AE25" s="5"/>
+    </row>
+    <row r="26" s="2" customFormat="1" spans="5:5">
+      <c r="E26" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" spans="2:30">
+    <row r="27" s="2" customFormat="1" spans="2:30">
       <c r="B27"/>
       <c r="C27"/>
-      <c r="E27" s="1" t="s">
+      <c r="E27" s="2" t="s">
         <v>108</v>
       </c>
       <c r="G27"/>
@@ -7085,7 +7306,7 @@
       <c r="AC27"/>
       <c r="AD27"/>
     </row>
-    <row r="28" s="1" customFormat="1" spans="2:30">
+    <row r="28" s="2" customFormat="1" spans="2:30">
       <c r="B28"/>
       <c r="C28"/>
       <c r="D28"/>
@@ -7116,7 +7337,7 @@
       <c r="AC28"/>
       <c r="AD28"/>
     </row>
-    <row r="29" s="1" customFormat="1" spans="2:30">
+    <row r="29" s="2" customFormat="1" spans="2:30">
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29"/>
@@ -7147,7 +7368,7 @@
       <c r="AC29"/>
       <c r="AD29"/>
     </row>
-    <row r="30" s="1" customFormat="1" spans="2:30">
+    <row r="30" s="2" customFormat="1" spans="2:30">
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30"/>
@@ -7178,7 +7399,7 @@
       <c r="AC30"/>
       <c r="AD30"/>
     </row>
-    <row r="31" s="1" customFormat="1" spans="2:30">
+    <row r="31" s="2" customFormat="1" spans="2:30">
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31"/>
@@ -7210,10 +7431,10 @@
       <c r="AC31"/>
       <c r="AD31"/>
     </row>
-    <row r="32" s="1" customFormat="1" spans="2:30">
+    <row r="32" s="2" customFormat="1" spans="2:30">
       <c r="B32"/>
       <c r="C32"/>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="2" t="s">
         <v>113</v>
       </c>
       <c r="E32"/>
@@ -7243,8 +7464,8 @@
       <c r="AC32"/>
       <c r="AD32"/>
     </row>
-    <row r="33" s="1" customFormat="1" spans="5:30">
-      <c r="E33" s="1" t="s">
+    <row r="33" s="2" customFormat="1" spans="5:30">
+      <c r="E33" s="2" t="s">
         <v>114</v>
       </c>
       <c r="G33"/>
@@ -7272,7 +7493,7 @@
       <c r="AC33"/>
       <c r="AD33"/>
     </row>
-    <row r="34" s="1" customFormat="1" spans="7:30">
+    <row r="34" s="2" customFormat="1" spans="7:30">
       <c r="G34"/>
       <c r="H34"/>
       <c r="I34"/>
@@ -7298,7 +7519,7 @@
       <c r="AC34"/>
       <c r="AD34"/>
     </row>
-    <row r="35" s="1" customFormat="1" spans="7:30">
+    <row r="35" s="2" customFormat="1" spans="7:30">
       <c r="G35"/>
       <c r="H35"/>
       <c r="K35"/>
@@ -7322,7 +7543,7 @@
       <c r="AC35"/>
       <c r="AD35"/>
     </row>
-    <row r="36" s="1" customFormat="1" spans="7:30">
+    <row r="36" s="2" customFormat="1" spans="7:30">
       <c r="G36"/>
       <c r="H36"/>
       <c r="K36"/>
@@ -7346,7 +7567,7 @@
       <c r="AC36"/>
       <c r="AD36"/>
     </row>
-    <row r="37" s="1" customFormat="1" spans="7:30">
+    <row r="37" s="2" customFormat="1" spans="7:30">
       <c r="G37"/>
       <c r="H37"/>
       <c r="I37"/>
@@ -7372,7 +7593,7 @@
       <c r="AC37"/>
       <c r="AD37"/>
     </row>
-    <row r="38" s="1" customFormat="1" spans="7:30">
+    <row r="38" s="2" customFormat="1" spans="7:30">
       <c r="G38"/>
       <c r="H38"/>
       <c r="I38"/>
@@ -7398,7 +7619,7 @@
       <c r="AC38"/>
       <c r="AD38"/>
     </row>
-    <row r="39" s="1" customFormat="1" spans="2:30">
+    <row r="39" s="2" customFormat="1" spans="2:30">
       <c r="B39"/>
       <c r="C39"/>
       <c r="D39"/>
@@ -7429,7 +7650,7 @@
       <c r="AC39"/>
       <c r="AD39"/>
     </row>
-    <row r="40" s="1" customFormat="1" spans="2:30">
+    <row r="40" s="2" customFormat="1" spans="2:30">
       <c r="B40"/>
       <c r="C40"/>
       <c r="D40"/>
@@ -7460,7 +7681,7 @@
       <c r="AC40"/>
       <c r="AD40"/>
     </row>
-    <row r="41" s="1" customFormat="1" spans="2:30">
+    <row r="41" s="2" customFormat="1" spans="2:30">
       <c r="B41"/>
       <c r="C41"/>
       <c r="D41"/>
@@ -7491,7 +7712,7 @@
       <c r="AC41"/>
       <c r="AD41"/>
     </row>
-    <row r="42" s="1" customFormat="1" spans="2:30">
+    <row r="42" s="2" customFormat="1" spans="2:30">
       <c r="B42"/>
       <c r="C42"/>
       <c r="D42"/>
@@ -7522,7 +7743,7 @@
       <c r="AC42"/>
       <c r="AD42"/>
     </row>
-    <row r="43" s="1" customFormat="1" spans="2:30">
+    <row r="43" s="2" customFormat="1" spans="2:30">
       <c r="B43"/>
       <c r="C43"/>
       <c r="D43"/>
@@ -7553,11 +7774,11 @@
       <c r="AC43"/>
       <c r="AD43"/>
     </row>
-    <row r="44" s="1" customFormat="1" spans="2:30">
+    <row r="44" s="2" customFormat="1" spans="2:30">
       <c r="B44"/>
       <c r="C44"/>
       <c r="D44"/>
-      <c r="F44" s="1" t="s">
+      <c r="F44" s="2" t="s">
         <v>115</v>
       </c>
       <c r="G44"/>
@@ -7585,11 +7806,11 @@
       <c r="AC44"/>
       <c r="AD44"/>
     </row>
-    <row r="45" s="1" customFormat="1" spans="2:30">
+    <row r="45" s="2" customFormat="1" spans="2:30">
       <c r="B45"/>
       <c r="C45"/>
       <c r="D45"/>
-      <c r="F45" s="1" t="s">
+      <c r="F45" s="2" t="s">
         <v>116</v>
       </c>
       <c r="G45"/>
@@ -7617,11 +7838,11 @@
       <c r="AC45"/>
       <c r="AD45"/>
     </row>
-    <row r="46" s="1" customFormat="1" spans="2:30">
+    <row r="46" s="2" customFormat="1" spans="2:30">
       <c r="B46"/>
       <c r="C46"/>
       <c r="D46"/>
-      <c r="F46" s="1" t="s">
+      <c r="F46" s="2" t="s">
         <v>117</v>
       </c>
       <c r="G46"/>
@@ -7649,10 +7870,10 @@
       <c r="AC46"/>
       <c r="AD46"/>
     </row>
-    <row r="47" s="1" customFormat="1" spans="2:30">
+    <row r="47" s="2" customFormat="1" spans="2:30">
       <c r="B47"/>
       <c r="C47"/>
-      <c r="F47" s="1" t="s">
+      <c r="F47" s="2" t="s">
         <v>118</v>
       </c>
       <c r="G47"/>
@@ -7680,7 +7901,7 @@
       <c r="AC47"/>
       <c r="AD47"/>
     </row>
-    <row r="48" s="1" customFormat="1" spans="2:30">
+    <row r="48" s="2" customFormat="1" spans="2:30">
       <c r="B48"/>
       <c r="C48"/>
       <c r="E48" t="s">
@@ -7712,7 +7933,7 @@
       <c r="AC48"/>
       <c r="AD48"/>
     </row>
-    <row r="49" s="1" customFormat="1" spans="2:30">
+    <row r="49" s="2" customFormat="1" spans="2:30">
       <c r="B49"/>
       <c r="C49" t="s">
         <v>120</v>
@@ -7744,7 +7965,7 @@
       <c r="AC49"/>
       <c r="AD49"/>
     </row>
-    <row r="50" s="1" customFormat="1" spans="2:30">
+    <row r="50" s="2" customFormat="1" spans="2:30">
       <c r="B50"/>
       <c r="C50"/>
       <c r="D50" t="s">
@@ -7777,7 +7998,7 @@
       <c r="AC50"/>
       <c r="AD50"/>
     </row>
-    <row r="51" s="1" customFormat="1" spans="2:30">
+    <row r="51" s="2" customFormat="1" spans="2:30">
       <c r="B51"/>
       <c r="C51"/>
       <c r="D51"/>
@@ -7808,10 +8029,10 @@
       <c r="AC51"/>
       <c r="AD51"/>
     </row>
-    <row r="52" s="1" customFormat="1" spans="2:30">
+    <row r="52" s="2" customFormat="1" spans="2:30">
       <c r="B52"/>
       <c r="C52"/>
-      <c r="D52" s="2"/>
+      <c r="D52" s="5"/>
       <c r="E52"/>
       <c r="F52"/>
       <c r="G52"/>
@@ -7839,10 +8060,10 @@
       <c r="AC52"/>
       <c r="AD52"/>
     </row>
-    <row r="53" s="1" customFormat="1" spans="2:30">
+    <row r="53" s="2" customFormat="1" spans="2:30">
       <c r="B53"/>
       <c r="C53"/>
-      <c r="D53" s="2"/>
+      <c r="D53" s="5"/>
       <c r="E53"/>
       <c r="F53"/>
       <c r="G53"/>
@@ -7870,7 +8091,7 @@
       <c r="AC53"/>
       <c r="AD53"/>
     </row>
-    <row r="54" s="1" customFormat="1" spans="2:30">
+    <row r="54" s="2" customFormat="1" spans="2:30">
       <c r="B54"/>
       <c r="C54"/>
       <c r="D54"/>
@@ -7901,7 +8122,7 @@
       <c r="AC54"/>
       <c r="AD54"/>
     </row>
-    <row r="55" s="1" customFormat="1" spans="2:30">
+    <row r="55" s="2" customFormat="1" spans="2:30">
       <c r="B55"/>
       <c r="C55"/>
       <c r="D55"/>
@@ -7932,7 +8153,7 @@
       <c r="AC55"/>
       <c r="AD55"/>
     </row>
-    <row r="56" s="1" customFormat="1" spans="2:30">
+    <row r="56" s="2" customFormat="1" spans="2:30">
       <c r="B56"/>
       <c r="C56"/>
       <c r="D56"/>
@@ -7963,7 +8184,7 @@
       <c r="AC56"/>
       <c r="AD56"/>
     </row>
-    <row r="57" s="1" customFormat="1" spans="2:30">
+    <row r="57" s="2" customFormat="1" spans="2:30">
       <c r="B57"/>
       <c r="C57"/>
       <c r="D57"/>
@@ -7994,7 +8215,7 @@
       <c r="AC57"/>
       <c r="AD57"/>
     </row>
-    <row r="58" s="1" customFormat="1" spans="2:30">
+    <row r="58" s="2" customFormat="1" spans="2:30">
       <c r="B58"/>
       <c r="C58"/>
       <c r="D58"/>
@@ -8025,7 +8246,7 @@
       <c r="AC58"/>
       <c r="AD58"/>
     </row>
-    <row r="59" s="1" customFormat="1" spans="2:30">
+    <row r="59" s="2" customFormat="1" spans="2:30">
       <c r="B59"/>
       <c r="C59"/>
       <c r="D59"/>
@@ -8056,7 +8277,7 @@
       <c r="AC59"/>
       <c r="AD59"/>
     </row>
-    <row r="60" s="1" customFormat="1" spans="2:30">
+    <row r="60" s="2" customFormat="1" spans="2:30">
       <c r="B60"/>
       <c r="C60"/>
       <c r="D60"/>
@@ -8087,7 +8308,7 @@
       <c r="AC60"/>
       <c r="AD60"/>
     </row>
-    <row r="61" s="1" customFormat="1" spans="2:30">
+    <row r="61" s="2" customFormat="1" spans="2:30">
       <c r="B61"/>
       <c r="C61"/>
       <c r="D61"/>
@@ -8118,7 +8339,7 @@
       <c r="AC61"/>
       <c r="AD61"/>
     </row>
-    <row r="62" s="1" customFormat="1" spans="2:30">
+    <row r="62" s="2" customFormat="1" spans="2:30">
       <c r="B62"/>
       <c r="C62"/>
       <c r="D62"/>
@@ -8149,7 +8370,7 @@
       <c r="AC62"/>
       <c r="AD62"/>
     </row>
-    <row r="63" s="1" customFormat="1" spans="2:30">
+    <row r="63" s="2" customFormat="1" spans="2:30">
       <c r="B63"/>
       <c r="C63"/>
       <c r="D63" t="s">
@@ -8174,7 +8395,7 @@
       <c r="AC63"/>
       <c r="AD63"/>
     </row>
-    <row r="64" s="1" customFormat="1" spans="2:30">
+    <row r="64" s="2" customFormat="1" spans="2:30">
       <c r="B64"/>
       <c r="C64"/>
       <c r="D64" t="s">
@@ -8199,7 +8420,7 @@
       <c r="AC64"/>
       <c r="AD64"/>
     </row>
-    <row r="65" s="1" customFormat="1" spans="2:30">
+    <row r="65" s="2" customFormat="1" spans="2:30">
       <c r="B65"/>
       <c r="C65"/>
       <c r="D65" t="s">
@@ -8232,11 +8453,11 @@
       <c r="AC65"/>
       <c r="AD65"/>
     </row>
-    <row r="66" s="1" customFormat="1" spans="2:30">
+    <row r="66" s="2" customFormat="1" spans="2:30">
       <c r="B66"/>
       <c r="C66"/>
       <c r="D66"/>
-      <c r="E66" s="1" t="s">
+      <c r="E66" s="2" t="s">
         <v>125</v>
       </c>
       <c r="F66"/>
@@ -8265,7 +8486,7 @@
       <c r="AC66"/>
       <c r="AD66"/>
     </row>
-    <row r="67" s="1" customFormat="1" spans="2:30">
+    <row r="67" s="2" customFormat="1" spans="2:30">
       <c r="B67"/>
       <c r="C67"/>
       <c r="D67"/>
@@ -8295,7 +8516,7 @@
       <c r="AC67"/>
       <c r="AD67"/>
     </row>
-    <row r="68" s="1" customFormat="1" spans="2:30">
+    <row r="68" s="2" customFormat="1" spans="2:30">
       <c r="B68"/>
       <c r="C68"/>
       <c r="D68"/>
@@ -8325,7 +8546,7 @@
       <c r="AC68"/>
       <c r="AD68"/>
     </row>
-    <row r="69" s="1" customFormat="1" spans="2:30">
+    <row r="69" s="2" customFormat="1" spans="2:30">
       <c r="B69"/>
       <c r="C69"/>
       <c r="D69"/>
@@ -8355,7 +8576,7 @@
       <c r="AC69"/>
       <c r="AD69"/>
     </row>
-    <row r="70" s="1" customFormat="1" spans="2:30">
+    <row r="70" s="2" customFormat="1" spans="2:30">
       <c r="B70"/>
       <c r="C70"/>
       <c r="D70"/>
@@ -8386,7 +8607,7 @@
       <c r="AC70"/>
       <c r="AD70"/>
     </row>
-    <row r="71" s="1" customFormat="1" spans="2:30">
+    <row r="71" s="2" customFormat="1" spans="2:30">
       <c r="B71"/>
       <c r="C71"/>
       <c r="D71"/>
@@ -8417,7 +8638,7 @@
       <c r="AC71"/>
       <c r="AD71"/>
     </row>
-    <row r="72" s="1" customFormat="1" spans="2:30">
+    <row r="72" s="2" customFormat="1" spans="2:30">
       <c r="B72"/>
       <c r="C72"/>
       <c r="D72"/>
@@ -8448,7 +8669,7 @@
       <c r="AC72"/>
       <c r="AD72"/>
     </row>
-    <row r="73" s="1" customFormat="1" spans="2:30">
+    <row r="73" s="2" customFormat="1" spans="2:30">
       <c r="B73"/>
       <c r="C73"/>
       <c r="D73"/>
@@ -8479,7 +8700,7 @@
       <c r="AC73"/>
       <c r="AD73"/>
     </row>
-    <row r="74" s="1" customFormat="1" spans="2:30">
+    <row r="74" s="2" customFormat="1" spans="2:30">
       <c r="B74"/>
       <c r="C74"/>
       <c r="D74"/>
@@ -8510,7 +8731,7 @@
       <c r="AC74"/>
       <c r="AD74"/>
     </row>
-    <row r="75" s="1" customFormat="1" spans="2:30">
+    <row r="75" s="2" customFormat="1" spans="2:30">
       <c r="B75"/>
       <c r="C75"/>
       <c r="D75"/>
@@ -8543,11 +8764,11 @@
       <c r="AC75"/>
       <c r="AD75"/>
     </row>
-    <row r="76" s="1" customFormat="1" spans="2:30">
+    <row r="76" s="2" customFormat="1" spans="2:30">
       <c r="B76"/>
       <c r="C76"/>
       <c r="D76"/>
-      <c r="E76" s="1" t="s">
+      <c r="E76" s="2" t="s">
         <v>127</v>
       </c>
       <c r="F76"/>
@@ -8576,7 +8797,7 @@
       <c r="AC76"/>
       <c r="AD76"/>
     </row>
-    <row r="77" s="1" customFormat="1" spans="2:30">
+    <row r="77" s="2" customFormat="1" spans="2:30">
       <c r="B77"/>
       <c r="C77"/>
       <c r="D77"/>
@@ -8606,7 +8827,7 @@
       <c r="AC77"/>
       <c r="AD77"/>
     </row>
-    <row r="78" s="1" customFormat="1" spans="2:30">
+    <row r="78" s="2" customFormat="1" spans="2:30">
       <c r="B78"/>
       <c r="C78"/>
       <c r="D78"/>
@@ -8636,7 +8857,7 @@
       <c r="AC78"/>
       <c r="AD78"/>
     </row>
-    <row r="79" s="1" customFormat="1" spans="2:30">
+    <row r="79" s="2" customFormat="1" spans="2:30">
       <c r="B79"/>
       <c r="C79"/>
       <c r="D79"/>
@@ -8667,7 +8888,7 @@
       <c r="AC79"/>
       <c r="AD79"/>
     </row>
-    <row r="80" s="1" customFormat="1" spans="2:30">
+    <row r="80" s="2" customFormat="1" spans="2:30">
       <c r="B80"/>
       <c r="C80"/>
       <c r="D80"/>
@@ -8698,7 +8919,7 @@
       <c r="AC80"/>
       <c r="AD80"/>
     </row>
-    <row r="81" s="1" customFormat="1" spans="2:30">
+    <row r="81" s="2" customFormat="1" spans="2:30">
       <c r="B81"/>
       <c r="C81"/>
       <c r="D81"/>
@@ -8729,7 +8950,7 @@
       <c r="AC81"/>
       <c r="AD81"/>
     </row>
-    <row r="82" s="1" customFormat="1" spans="2:30">
+    <row r="82" s="2" customFormat="1" spans="2:30">
       <c r="B82"/>
       <c r="C82"/>
       <c r="D82"/>
@@ -8760,7 +8981,7 @@
       <c r="AC82"/>
       <c r="AD82"/>
     </row>
-    <row r="83" s="1" customFormat="1" spans="2:30">
+    <row r="83" s="2" customFormat="1" spans="2:30">
       <c r="B83"/>
       <c r="C83"/>
       <c r="D83"/>
@@ -8791,7 +9012,7 @@
       <c r="AC83"/>
       <c r="AD83"/>
     </row>
-    <row r="84" s="1" customFormat="1" spans="2:30">
+    <row r="84" s="2" customFormat="1" spans="2:30">
       <c r="B84"/>
       <c r="C84"/>
       <c r="D84"/>
@@ -8822,7 +9043,7 @@
       <c r="AC84"/>
       <c r="AD84"/>
     </row>
-    <row r="85" s="1" customFormat="1" spans="2:30">
+    <row r="85" s="2" customFormat="1" spans="2:30">
       <c r="B85"/>
       <c r="C85"/>
       <c r="D85"/>
@@ -8853,7 +9074,7 @@
       <c r="AC85"/>
       <c r="AD85"/>
     </row>
-    <row r="86" s="1" customFormat="1" spans="2:30">
+    <row r="86" s="2" customFormat="1" spans="2:30">
       <c r="B86"/>
       <c r="C86"/>
       <c r="D86"/>
@@ -8886,17 +9107,17 @@
       <c r="AC86"/>
       <c r="AD86"/>
     </row>
-    <row r="87" s="1" customFormat="1" spans="2:30">
+    <row r="87" s="2" customFormat="1" spans="2:30">
       <c r="B87"/>
       <c r="C87"/>
       <c r="D87"/>
-      <c r="E87" s="2" t="s">
+      <c r="E87" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F87"/>
       <c r="G87"/>
       <c r="H87"/>
-      <c r="I87" s="6" t="s">
+      <c r="I87" s="7" t="s">
         <v>130</v>
       </c>
       <c r="J87"/>
@@ -8922,40 +9143,40 @@
       <c r="AD87"/>
     </row>
     <row r="88" spans="5:9">
-      <c r="E88" s="2" t="s">
+      <c r="E88" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="I88" s="6" t="s">
+      <c r="I88" s="7" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="89" spans="5:5">
-      <c r="E89" s="1" t="s">
+      <c r="E89" s="2" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="98" spans="6:6">
-      <c r="F98" s="1" t="s">
+      <c r="F98" s="2" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="99" spans="5:5">
-      <c r="E99" s="1" t="s">
+      <c r="E99" s="2" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="109" spans="3:3">
-      <c r="C109" s="1" t="s">
+      <c r="C109" s="2" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="110" spans="4:4">
-      <c r="D110" s="1" t="s">
+      <c r="D110" s="2" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="111" spans="4:33">
-      <c r="D111" s="1" t="s">
+      <c r="D111" s="2" t="s">
         <v>137</v>
       </c>
       <c r="AA111"/>
@@ -8967,7 +9188,7 @@
       <c r="AG111"/>
     </row>
     <row r="112" spans="4:33">
-      <c r="D112" s="1" t="s">
+      <c r="D112" s="2" t="s">
         <v>138</v>
       </c>
       <c r="AA112"/>
@@ -8979,27 +9200,27 @@
       <c r="AG112"/>
     </row>
     <row r="113" spans="3:3">
-      <c r="C113" s="1" t="s">
+      <c r="C113" s="2" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="114" spans="4:4">
-      <c r="D114" s="1" t="s">
+      <c r="D114" s="2" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="115" spans="4:4">
-      <c r="D115" s="1" t="s">
+      <c r="D115" s="2" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="116" spans="4:4">
-      <c r="D116" s="2" t="s">
+      <c r="D116" s="5" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="117" spans="2:2">
-      <c r="B117" s="1" t="s">
+      <c r="B117" s="2" t="s">
         <v>143</v>
       </c>
     </row>
@@ -9022,119 +9243,119 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="4.875" style="1"/>
+    <col min="1" max="16384" width="4.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="22.5" spans="9:31">
+    <row r="1" s="2" customFormat="1" ht="22.5" spans="9:31">
       <c r="I1" s="4"/>
       <c r="J1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="V1" s="2"/>
-      <c r="W1" s="1" t="s">
+      <c r="V1" s="5"/>
+      <c r="W1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="AE1" s="2"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="23:27">
-      <c r="W2" s="1" t="s">
+      <c r="AE1" s="5"/>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="23:27">
+      <c r="W2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="X2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Y2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="Z2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="AA2" s="5" t="s">
+      <c r="AA2" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:27">
-      <c r="A3" s="1" t="s">
+    <row r="3" s="2" customFormat="1" spans="1:27">
+      <c r="A3" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="X3" s="2"/>
-      <c r="AA3" s="5"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="2:31">
-      <c r="B4" s="1" t="s">
+      <c r="X3" s="5"/>
+      <c r="AA3" s="6"/>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="2:31">
+      <c r="B4" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="V4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="AE4" s="2"/>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="3:31">
-      <c r="C5" s="1" t="s">
+      <c r="V4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="AE4" s="5"/>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="3:31">
+      <c r="C5" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="V5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="AE5" s="2"/>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="3:27">
-      <c r="C6" s="1" t="s">
+      <c r="V5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="AE5" s="5"/>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="3:27">
+      <c r="C6" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="X6" s="2"/>
-      <c r="AA6" s="5"/>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="4:10">
-      <c r="D7" s="1" t="s">
+      <c r="X6" s="5"/>
+      <c r="AA6" s="6"/>
+    </row>
+    <row r="7" s="2" customFormat="1" spans="4:10">
+      <c r="D7" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" spans="4:4">
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="4:4">
-      <c r="D15" s="2"/>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="2:3">
+    <row r="14" s="2" customFormat="1" spans="4:4">
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" s="2" customFormat="1" spans="4:4">
+      <c r="D15" s="5"/>
+    </row>
+    <row r="17" s="2" customFormat="1" spans="2:3">
       <c r="B17" s="3"/>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" spans="2:10">
+    <row r="18" s="2" customFormat="1" spans="2:10">
       <c r="B18" s="3"/>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="J18" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" spans="2:2">
-      <c r="B25" s="1" t="s">
+    <row r="25" s="2" customFormat="1" spans="2:2">
+      <c r="B25" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" spans="3:3">
-      <c r="C26" s="1" t="s">
+    <row r="26" s="2" customFormat="1" spans="3:3">
+      <c r="C26" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" spans="2:30">
+    <row r="27" s="2" customFormat="1" spans="2:30">
       <c r="B27"/>
       <c r="C27" t="s">
         <v>153</v>
@@ -9164,7 +9385,7 @@
       <c r="AC27"/>
       <c r="AD27"/>
     </row>
-    <row r="28" s="1" customFormat="1" spans="2:30">
+    <row r="28" s="2" customFormat="1" spans="2:30">
       <c r="B28"/>
       <c r="C28" t="s">
         <v>154</v>
@@ -9195,10 +9416,10 @@
       <c r="AC28"/>
       <c r="AD28"/>
     </row>
-    <row r="29" s="1" customFormat="1" spans="2:30">
+    <row r="29" s="2" customFormat="1" spans="2:30">
       <c r="B29"/>
       <c r="C29"/>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="2" t="s">
         <v>155</v>
       </c>
       <c r="F29"/>
@@ -9226,7 +9447,7 @@
       <c r="AC29"/>
       <c r="AD29"/>
     </row>
-    <row r="30" s="1" customFormat="1" spans="2:30">
+    <row r="30" s="2" customFormat="1" spans="2:30">
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30"/>
@@ -9255,7 +9476,7 @@
       <c r="AC30"/>
       <c r="AD30"/>
     </row>
-    <row r="31" s="1" customFormat="1" spans="2:30">
+    <row r="31" s="2" customFormat="1" spans="2:30">
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31"/>
@@ -9285,7 +9506,7 @@
       <c r="AC31"/>
       <c r="AD31"/>
     </row>
-    <row r="32" s="1" customFormat="1" spans="2:30">
+    <row r="32" s="2" customFormat="1" spans="2:30">
       <c r="B32"/>
       <c r="C32"/>
       <c r="E32"/>
@@ -9315,7 +9536,7 @@
       <c r="AC32"/>
       <c r="AD32"/>
     </row>
-    <row r="33" s="1" customFormat="1" spans="7:30">
+    <row r="33" s="2" customFormat="1" spans="7:30">
       <c r="G33"/>
       <c r="H33"/>
       <c r="I33"/>
@@ -9341,7 +9562,7 @@
       <c r="AC33"/>
       <c r="AD33"/>
     </row>
-    <row r="34" s="1" customFormat="1" spans="7:30">
+    <row r="34" s="2" customFormat="1" spans="7:30">
       <c r="G34"/>
       <c r="H34"/>
       <c r="I34"/>
@@ -9367,7 +9588,7 @@
       <c r="AC34"/>
       <c r="AD34"/>
     </row>
-    <row r="35" s="1" customFormat="1" spans="7:30">
+    <row r="35" s="2" customFormat="1" spans="7:30">
       <c r="G35"/>
       <c r="H35"/>
       <c r="K35"/>
@@ -9391,8 +9612,8 @@
       <c r="AC35"/>
       <c r="AD35"/>
     </row>
-    <row r="36" s="1" customFormat="1" spans="4:30">
-      <c r="D36" s="1" t="s">
+    <row r="36" s="2" customFormat="1" spans="4:30">
+      <c r="D36" s="2" t="s">
         <v>156</v>
       </c>
       <c r="G36"/>
@@ -9418,7 +9639,7 @@
       <c r="AC36"/>
       <c r="AD36"/>
     </row>
-    <row r="37" s="1" customFormat="1" spans="7:30">
+    <row r="37" s="2" customFormat="1" spans="7:30">
       <c r="G37"/>
       <c r="H37"/>
       <c r="I37"/>
@@ -9444,7 +9665,7 @@
       <c r="AC37"/>
       <c r="AD37"/>
     </row>
-    <row r="38" s="1" customFormat="1" spans="7:26">
+    <row r="38" s="2" customFormat="1" spans="7:26">
       <c r="G38"/>
       <c r="H38"/>
       <c r="I38"/>
@@ -9466,7 +9687,7 @@
       <c r="Y38"/>
       <c r="Z38"/>
     </row>
-    <row r="39" s="1" customFormat="1" spans="2:26">
+    <row r="39" s="2" customFormat="1" spans="2:26">
       <c r="B39"/>
       <c r="C39"/>
       <c r="D39"/>
@@ -9493,7 +9714,7 @@
       <c r="Y39"/>
       <c r="Z39"/>
     </row>
-    <row r="40" s="1" customFormat="1" spans="2:30">
+    <row r="40" s="2" customFormat="1" spans="2:30">
       <c r="B40"/>
       <c r="C40"/>
       <c r="D40"/>
@@ -9524,7 +9745,7 @@
       <c r="AC40"/>
       <c r="AD40"/>
     </row>
-    <row r="41" s="1" customFormat="1" spans="2:30">
+    <row r="41" s="2" customFormat="1" spans="2:30">
       <c r="B41"/>
       <c r="C41"/>
       <c r="D41"/>
@@ -9555,7 +9776,7 @@
       <c r="AC41"/>
       <c r="AD41"/>
     </row>
-    <row r="42" s="1" customFormat="1" spans="2:30">
+    <row r="42" s="2" customFormat="1" spans="2:30">
       <c r="B42"/>
       <c r="C42"/>
       <c r="D42"/>
@@ -9586,7 +9807,7 @@
       <c r="AC42"/>
       <c r="AD42"/>
     </row>
-    <row r="43" s="1" customFormat="1" spans="2:30">
+    <row r="43" s="2" customFormat="1" spans="2:30">
       <c r="B43"/>
       <c r="C43"/>
       <c r="D43"/>
@@ -9617,7 +9838,7 @@
       <c r="AC43"/>
       <c r="AD43"/>
     </row>
-    <row r="44" s="1" customFormat="1" spans="2:30">
+    <row r="44" s="2" customFormat="1" spans="2:30">
       <c r="B44"/>
       <c r="C44"/>
       <c r="D44"/>
@@ -9646,10 +9867,10 @@
       <c r="AC44"/>
       <c r="AD44"/>
     </row>
-    <row r="45" s="1" customFormat="1" spans="2:30">
+    <row r="45" s="2" customFormat="1" spans="2:30">
       <c r="B45"/>
       <c r="C45"/>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="2" t="s">
         <v>157</v>
       </c>
       <c r="G45"/>
@@ -9677,11 +9898,11 @@
       <c r="AC45"/>
       <c r="AD45"/>
     </row>
-    <row r="46" s="1" customFormat="1" spans="2:30">
+    <row r="46" s="2" customFormat="1" spans="2:30">
       <c r="B46"/>
       <c r="C46"/>
       <c r="D46"/>
-      <c r="E46" s="1" t="s">
+      <c r="E46" s="2" t="s">
         <v>158</v>
       </c>
       <c r="G46"/>
@@ -9709,10 +9930,10 @@
       <c r="AC46"/>
       <c r="AD46"/>
     </row>
-    <row r="47" s="1" customFormat="1" spans="2:30">
+    <row r="47" s="2" customFormat="1" spans="2:30">
       <c r="B47"/>
       <c r="C47"/>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="2" t="s">
         <v>159</v>
       </c>
       <c r="G47"/>
@@ -9740,7 +9961,7 @@
       <c r="AC47"/>
       <c r="AD47"/>
     </row>
-    <row r="48" s="1" customFormat="1" spans="2:30">
+    <row r="48" s="2" customFormat="1" spans="2:30">
       <c r="B48"/>
       <c r="C48"/>
       <c r="E48" t="s">
@@ -9772,7 +9993,7 @@
       <c r="AC48"/>
       <c r="AD48"/>
     </row>
-    <row r="49" s="1" customFormat="1" spans="2:30">
+    <row r="49" s="2" customFormat="1" spans="2:30">
       <c r="B49"/>
       <c r="C49" t="s">
         <v>161</v>
@@ -9804,7 +10025,7 @@
       <c r="AC49"/>
       <c r="AD49"/>
     </row>
-    <row r="50" s="1" customFormat="1" spans="2:30">
+    <row r="50" s="2" customFormat="1" spans="2:30">
       <c r="B50"/>
       <c r="C50"/>
       <c r="D50" t="s">
@@ -9837,10 +10058,10 @@
       <c r="AC50"/>
       <c r="AD50"/>
     </row>
-    <row r="51" s="1" customFormat="1" spans="2:30">
+    <row r="51" s="2" customFormat="1" spans="2:30">
       <c r="B51"/>
       <c r="C51"/>
-      <c r="D51" s="1" t="s">
+      <c r="D51" s="2" t="s">
         <v>163</v>
       </c>
       <c r="F51"/>
@@ -9869,10 +10090,10 @@
       <c r="AC51"/>
       <c r="AD51"/>
     </row>
-    <row r="52" s="1" customFormat="1" spans="2:30">
+    <row r="52" s="2" customFormat="1" spans="2:30">
       <c r="B52"/>
       <c r="C52"/>
-      <c r="D52" s="1" t="s">
+      <c r="D52" s="2" t="s">
         <v>164</v>
       </c>
       <c r="F52"/>
@@ -9901,10 +10122,10 @@
       <c r="AC52"/>
       <c r="AD52"/>
     </row>
-    <row r="53" s="1" customFormat="1" spans="2:30">
+    <row r="53" s="2" customFormat="1" spans="2:30">
       <c r="B53"/>
       <c r="C53"/>
-      <c r="D53" s="1" t="s">
+      <c r="D53" s="2" t="s">
         <v>165</v>
       </c>
       <c r="E53"/>
@@ -9934,10 +10155,10 @@
       <c r="AC53"/>
       <c r="AD53"/>
     </row>
-    <row r="54" s="1" customFormat="1" spans="2:30">
+    <row r="54" s="2" customFormat="1" spans="2:30">
       <c r="B54"/>
       <c r="C54"/>
-      <c r="D54" s="1" t="s">
+      <c r="D54" s="2" t="s">
         <v>166</v>
       </c>
       <c r="E54"/>
@@ -9967,7 +10188,7 @@
       <c r="AC54"/>
       <c r="AD54"/>
     </row>
-    <row r="55" s="1" customFormat="1" spans="2:30">
+    <row r="55" s="2" customFormat="1" spans="2:30">
       <c r="B55"/>
       <c r="C55"/>
       <c r="D55"/>
@@ -9998,7 +10219,7 @@
       <c r="AC55"/>
       <c r="AD55"/>
     </row>
-    <row r="56" s="1" customFormat="1" spans="2:33">
+    <row r="56" s="2" customFormat="1" spans="2:33">
       <c r="B56"/>
       <c r="C56"/>
       <c r="D56"/>
@@ -10032,7 +10253,7 @@
       <c r="AF56"/>
       <c r="AG56"/>
     </row>
-    <row r="57" s="1" customFormat="1" spans="2:33">
+    <row r="57" s="2" customFormat="1" spans="2:33">
       <c r="B57"/>
       <c r="C57"/>
       <c r="D57"/>
@@ -10066,7 +10287,7 @@
       <c r="AF57"/>
       <c r="AG57"/>
     </row>
-    <row r="58" s="1" customFormat="1" spans="2:30">
+    <row r="58" s="2" customFormat="1" spans="2:30">
       <c r="B58"/>
       <c r="C58"/>
       <c r="D58"/>
@@ -10097,7 +10318,7 @@
       <c r="AC58"/>
       <c r="AD58"/>
     </row>
-    <row r="59" s="1" customFormat="1" spans="2:30">
+    <row r="59" s="2" customFormat="1" spans="2:30">
       <c r="B59"/>
       <c r="C59"/>
       <c r="D59"/>
@@ -10128,7 +10349,7 @@
       <c r="AC59"/>
       <c r="AD59"/>
     </row>
-    <row r="60" s="1" customFormat="1" spans="2:30">
+    <row r="60" s="2" customFormat="1" spans="2:30">
       <c r="B60"/>
       <c r="C60"/>
       <c r="D60"/>
@@ -10159,7 +10380,7 @@
       <c r="AC60"/>
       <c r="AD60"/>
     </row>
-    <row r="61" s="1" customFormat="1" spans="2:30">
+    <row r="61" s="2" customFormat="1" spans="2:30">
       <c r="B61"/>
       <c r="C61"/>
       <c r="D61"/>
@@ -10190,7 +10411,7 @@
       <c r="AC61"/>
       <c r="AD61"/>
     </row>
-    <row r="62" s="1" customFormat="1" spans="2:30">
+    <row r="62" s="2" customFormat="1" spans="2:30">
       <c r="B62"/>
       <c r="C62"/>
       <c r="D62"/>
@@ -10221,7 +10442,7 @@
       <c r="AC62"/>
       <c r="AD62"/>
     </row>
-    <row r="63" s="1" customFormat="1" spans="2:30">
+    <row r="63" s="2" customFormat="1" spans="2:30">
       <c r="B63"/>
       <c r="C63"/>
       <c r="D63"/>
@@ -10244,7 +10465,7 @@
       <c r="AC63"/>
       <c r="AD63"/>
     </row>
-    <row r="64" s="1" customFormat="1" spans="2:30">
+    <row r="64" s="2" customFormat="1" spans="2:30">
       <c r="B64"/>
       <c r="C64"/>
       <c r="D64"/>
@@ -10267,7 +10488,7 @@
       <c r="AC64"/>
       <c r="AD64"/>
     </row>
-    <row r="65" s="1" customFormat="1" spans="2:30">
+    <row r="65" s="2" customFormat="1" spans="2:30">
       <c r="B65"/>
       <c r="C65"/>
       <c r="D65"/>
@@ -10298,7 +10519,7 @@
       <c r="AC65"/>
       <c r="AD65"/>
     </row>
-    <row r="66" s="1" customFormat="1" spans="2:30">
+    <row r="66" s="2" customFormat="1" spans="2:30">
       <c r="B66"/>
       <c r="C66"/>
       <c r="D66"/>
@@ -10328,7 +10549,7 @@
       <c r="AC66"/>
       <c r="AD66"/>
     </row>
-    <row r="67" s="1" customFormat="1" spans="2:30">
+    <row r="67" s="2" customFormat="1" spans="2:30">
       <c r="B67"/>
       <c r="C67"/>
       <c r="D67"/>
@@ -10358,7 +10579,7 @@
       <c r="AC67"/>
       <c r="AD67"/>
     </row>
-    <row r="68" s="1" customFormat="1" spans="2:30">
+    <row r="68" s="2" customFormat="1" spans="2:30">
       <c r="B68"/>
       <c r="C68"/>
       <c r="D68"/>
@@ -10388,7 +10609,7 @@
       <c r="AC68"/>
       <c r="AD68"/>
     </row>
-    <row r="69" s="1" customFormat="1" spans="2:30">
+    <row r="69" s="2" customFormat="1" spans="2:30">
       <c r="B69"/>
       <c r="C69"/>
       <c r="D69"/>
@@ -10418,7 +10639,7 @@
       <c r="AC69"/>
       <c r="AD69"/>
     </row>
-    <row r="70" s="1" customFormat="1" spans="2:30">
+    <row r="70" s="2" customFormat="1" spans="2:30">
       <c r="B70"/>
       <c r="C70"/>
       <c r="D70"/>
@@ -10449,7 +10670,7 @@
       <c r="AC70"/>
       <c r="AD70"/>
     </row>
-    <row r="71" s="1" customFormat="1" spans="2:30">
+    <row r="71" s="2" customFormat="1" spans="2:30">
       <c r="B71"/>
       <c r="C71"/>
       <c r="D71"/>
@@ -10480,7 +10701,7 @@
       <c r="AC71"/>
       <c r="AD71"/>
     </row>
-    <row r="72" s="1" customFormat="1" spans="2:30">
+    <row r="72" s="2" customFormat="1" spans="2:30">
       <c r="B72"/>
       <c r="C72"/>
       <c r="D72"/>
@@ -10511,7 +10732,7 @@
       <c r="AC72"/>
       <c r="AD72"/>
     </row>
-    <row r="73" s="1" customFormat="1" spans="2:30">
+    <row r="73" s="2" customFormat="1" spans="2:30">
       <c r="B73"/>
       <c r="C73"/>
       <c r="D73"/>
@@ -10542,7 +10763,7 @@
       <c r="AC73"/>
       <c r="AD73"/>
     </row>
-    <row r="74" s="1" customFormat="1" spans="2:30">
+    <row r="74" s="2" customFormat="1" spans="2:30">
       <c r="B74"/>
       <c r="C74"/>
       <c r="D74"/>
@@ -10573,7 +10794,7 @@
       <c r="AC74"/>
       <c r="AD74"/>
     </row>
-    <row r="75" s="1" customFormat="1" spans="2:30">
+    <row r="75" s="2" customFormat="1" spans="2:30">
       <c r="B75"/>
       <c r="C75"/>
       <c r="D75"/>
@@ -10604,7 +10825,7 @@
       <c r="AC75"/>
       <c r="AD75"/>
     </row>
-    <row r="76" s="1" customFormat="1" spans="2:30">
+    <row r="76" s="2" customFormat="1" spans="2:30">
       <c r="B76"/>
       <c r="C76"/>
       <c r="D76"/>
@@ -10634,7 +10855,7 @@
       <c r="AC76"/>
       <c r="AD76"/>
     </row>
-    <row r="77" s="1" customFormat="1" spans="2:30">
+    <row r="77" s="2" customFormat="1" spans="2:30">
       <c r="B77"/>
       <c r="C77"/>
       <c r="D77"/>
@@ -10664,7 +10885,7 @@
       <c r="AC77"/>
       <c r="AD77"/>
     </row>
-    <row r="78" s="1" customFormat="1" spans="2:30">
+    <row r="78" s="2" customFormat="1" spans="2:30">
       <c r="B78"/>
       <c r="C78"/>
       <c r="D78"/>
@@ -10694,7 +10915,7 @@
       <c r="AC78"/>
       <c r="AD78"/>
     </row>
-    <row r="79" s="1" customFormat="1" spans="2:30">
+    <row r="79" s="2" customFormat="1" spans="2:30">
       <c r="B79"/>
       <c r="C79"/>
       <c r="D79"/>
@@ -10725,7 +10946,7 @@
       <c r="AC79"/>
       <c r="AD79"/>
     </row>
-    <row r="80" s="1" customFormat="1" spans="2:30">
+    <row r="80" s="2" customFormat="1" spans="2:30">
       <c r="B80"/>
       <c r="C80"/>
       <c r="D80"/>
@@ -10756,7 +10977,7 @@
       <c r="AC80"/>
       <c r="AD80"/>
     </row>
-    <row r="81" s="1" customFormat="1" spans="2:30">
+    <row r="81" s="2" customFormat="1" spans="2:30">
       <c r="B81"/>
       <c r="C81"/>
       <c r="D81"/>
@@ -10787,7 +11008,7 @@
       <c r="AC81"/>
       <c r="AD81"/>
     </row>
-    <row r="82" s="1" customFormat="1" spans="2:30">
+    <row r="82" s="2" customFormat="1" spans="2:30">
       <c r="B82"/>
       <c r="C82"/>
       <c r="D82"/>
@@ -10818,7 +11039,7 @@
       <c r="AC82"/>
       <c r="AD82"/>
     </row>
-    <row r="83" s="1" customFormat="1" spans="2:30">
+    <row r="83" s="2" customFormat="1" spans="2:30">
       <c r="B83"/>
       <c r="C83"/>
       <c r="D83"/>
@@ -10849,7 +11070,7 @@
       <c r="AC83"/>
       <c r="AD83"/>
     </row>
-    <row r="84" s="1" customFormat="1" spans="2:30">
+    <row r="84" s="2" customFormat="1" spans="2:30">
       <c r="B84"/>
       <c r="C84"/>
       <c r="D84"/>
@@ -10880,7 +11101,7 @@
       <c r="AC84"/>
       <c r="AD84"/>
     </row>
-    <row r="85" s="1" customFormat="1" spans="2:30">
+    <row r="85" s="2" customFormat="1" spans="2:30">
       <c r="B85"/>
       <c r="C85"/>
       <c r="D85"/>
@@ -10911,7 +11132,7 @@
       <c r="AC85"/>
       <c r="AD85"/>
     </row>
-    <row r="86" s="1" customFormat="1" spans="2:30">
+    <row r="86" s="2" customFormat="1" spans="2:30">
       <c r="B86"/>
       <c r="C86"/>
       <c r="D86"/>
@@ -10942,15 +11163,15 @@
       <c r="AC86"/>
       <c r="AD86"/>
     </row>
-    <row r="87" s="1" customFormat="1" spans="2:30">
+    <row r="87" s="2" customFormat="1" spans="2:30">
       <c r="B87"/>
       <c r="C87"/>
       <c r="D87"/>
-      <c r="E87" s="2"/>
+      <c r="E87" s="5"/>
       <c r="F87"/>
       <c r="G87"/>
       <c r="H87"/>
-      <c r="I87" s="6"/>
+      <c r="I87" s="7"/>
       <c r="J87"/>
       <c r="K87"/>
       <c r="L87"/>
@@ -10973,11 +11194,11 @@
       <c r="AC87"/>
       <c r="AD87"/>
     </row>
-    <row r="88" s="1" customFormat="1" spans="5:9">
-      <c r="E88" s="2"/>
-      <c r="I88" s="6"/>
-    </row>
-    <row r="111" s="1" customFormat="1" spans="27:33">
+    <row r="88" s="2" customFormat="1" spans="5:9">
+      <c r="E88" s="5"/>
+      <c r="I88" s="7"/>
+    </row>
+    <row r="111" s="2" customFormat="1" spans="27:33">
       <c r="AA111"/>
       <c r="AB111"/>
       <c r="AC111"/>
@@ -10986,7 +11207,7 @@
       <c r="AF111"/>
       <c r="AG111"/>
     </row>
-    <row r="112" s="1" customFormat="1" spans="27:33">
+    <row r="112" s="2" customFormat="1" spans="27:33">
       <c r="AA112"/>
       <c r="AB112"/>
       <c r="AC112"/>
@@ -10995,8 +11216,8 @@
       <c r="AF112"/>
       <c r="AG112"/>
     </row>
-    <row r="116" s="1" customFormat="1" spans="4:4">
-      <c r="D116" s="2"/>
+    <row r="116" s="2" customFormat="1" spans="4:4">
+      <c r="D116" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -11016,187 +11237,187 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="4.875" style="1"/>
+    <col min="1" max="16384" width="4.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="22.5" spans="9:31">
+    <row r="1" s="2" customFormat="1" ht="22.5" spans="9:31">
       <c r="I1" s="4"/>
       <c r="J1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="V1" s="2"/>
-      <c r="W1" s="1" t="s">
+      <c r="V1" s="5"/>
+      <c r="W1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="AE1" s="2"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="23:27">
-      <c r="W2" s="1" t="s">
+      <c r="AE1" s="5"/>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="23:27">
+      <c r="W2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="X2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Y2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="Z2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="AA2" s="5" t="s">
+      <c r="AA2" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:27">
-      <c r="A3" s="1" t="s">
+    <row r="3" s="2" customFormat="1" spans="1:27">
+      <c r="A3" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="X3" s="2"/>
-      <c r="AA3" s="5"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="2:31">
-      <c r="B4" s="1" t="s">
+      <c r="X3" s="5"/>
+      <c r="AA3" s="6"/>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="2:31">
+      <c r="B4" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="V4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="AE4" s="2"/>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="3:31">
-      <c r="C5" s="1" t="s">
+      <c r="V4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="AE4" s="5"/>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="3:31">
+      <c r="C5" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="V5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="AE5" s="2"/>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="3:27">
-      <c r="C6" s="1" t="s">
+      <c r="V5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="AE5" s="5"/>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="3:27">
+      <c r="C6" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="X6" s="2"/>
-      <c r="AA6" s="5"/>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="4:4">
-      <c r="D7" s="1" t="s">
+      <c r="X6" s="5"/>
+      <c r="AA6" s="6"/>
+    </row>
+    <row r="7" s="2" customFormat="1" spans="4:4">
+      <c r="D7" s="2" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="3:3">
-      <c r="C8" s="1" t="s">
+    <row r="8" s="2" customFormat="1" spans="3:3">
+      <c r="C8" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="2:2">
-      <c r="B9" s="1" t="s">
+    <row r="9" s="2" customFormat="1" spans="2:2">
+      <c r="B9" s="2" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="3:3">
-      <c r="C10" s="1" t="s">
+    <row r="10" s="2" customFormat="1" spans="3:3">
+      <c r="C10" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="3:3">
-      <c r="C11" s="1" t="s">
+    <row r="11" s="2" customFormat="1" spans="3:3">
+      <c r="C11" s="2" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="4:4">
-      <c r="D12" s="1" t="s">
+    <row r="12" s="2" customFormat="1" spans="4:4">
+      <c r="D12" s="2" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" spans="3:3">
-      <c r="C13" s="1" t="s">
+    <row r="13" s="2" customFormat="1" spans="3:3">
+      <c r="C13" s="2" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" spans="2:4">
-      <c r="B14" s="1" t="s">
+    <row r="14" s="2" customFormat="1" spans="2:4">
+      <c r="B14" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="2:4">
-      <c r="B15" s="1" t="s">
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" s="2" customFormat="1" spans="2:4">
+      <c r="B15" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="3:3">
-      <c r="C16" s="1" t="s">
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" s="2" customFormat="1" spans="3:3">
+      <c r="C16" s="2" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" spans="2:3">
+    <row r="17" s="2" customFormat="1" spans="2:3">
       <c r="B17" s="3"/>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" spans="2:3">
+    <row r="18" s="2" customFormat="1" spans="2:3">
       <c r="B18" s="3"/>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="2" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" spans="3:3">
-      <c r="C19" s="1" t="s">
+    <row r="19" s="2" customFormat="1" spans="3:3">
+      <c r="C19" s="2" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" spans="2:2">
-      <c r="B20" s="1" t="s">
+    <row r="20" s="2" customFormat="1" spans="2:2">
+      <c r="B20" s="2" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" spans="3:3">
-      <c r="C21" s="1" t="s">
+    <row r="21" s="2" customFormat="1" spans="3:3">
+      <c r="C21" s="2" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" spans="3:3">
-      <c r="C22" s="1" t="s">
+    <row r="22" s="2" customFormat="1" spans="3:3">
+      <c r="C22" s="2" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" spans="4:4">
-      <c r="D23" s="1" t="s">
+    <row r="23" s="2" customFormat="1" spans="4:4">
+      <c r="D23" s="2" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" spans="4:4">
-      <c r="D24" s="1" t="s">
+    <row r="24" s="2" customFormat="1" spans="4:4">
+      <c r="D24" s="2" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" spans="3:3">
-      <c r="C25" s="1" t="s">
+    <row r="25" s="2" customFormat="1" spans="3:3">
+      <c r="C25" s="2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" spans="4:4">
-      <c r="D26" s="1" t="s">
+    <row r="26" s="2" customFormat="1" spans="4:4">
+      <c r="D26" s="2" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" spans="2:30">
+    <row r="27" s="2" customFormat="1" spans="2:30">
       <c r="B27"/>
       <c r="C27"/>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="2" t="s">
         <v>191</v>
       </c>
       <c r="G27"/>
@@ -11224,7 +11445,7 @@
       <c r="AC27"/>
       <c r="AD27"/>
     </row>
-    <row r="28" s="1" customFormat="1" spans="2:30">
+    <row r="28" s="2" customFormat="1" spans="2:30">
       <c r="B28"/>
       <c r="C28"/>
       <c r="D28"/>
@@ -11253,7 +11474,7 @@
       <c r="AC28"/>
       <c r="AD28"/>
     </row>
-    <row r="29" s="1" customFormat="1" spans="2:30">
+    <row r="29" s="2" customFormat="1" spans="2:30">
       <c r="B29"/>
       <c r="C29"/>
       <c r="F29"/>
@@ -11281,7 +11502,7 @@
       <c r="AC29"/>
       <c r="AD29"/>
     </row>
-    <row r="30" s="1" customFormat="1" spans="2:30">
+    <row r="30" s="2" customFormat="1" spans="2:30">
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30"/>
@@ -11310,7 +11531,7 @@
       <c r="AC30"/>
       <c r="AD30"/>
     </row>
-    <row r="31" s="1" customFormat="1" spans="2:30">
+    <row r="31" s="2" customFormat="1" spans="2:30">
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31"/>
@@ -11340,7 +11561,7 @@
       <c r="AC31"/>
       <c r="AD31"/>
     </row>
-    <row r="32" s="1" customFormat="1" spans="2:30">
+    <row r="32" s="2" customFormat="1" spans="2:30">
       <c r="B32"/>
       <c r="C32"/>
       <c r="E32"/>
@@ -11370,7 +11591,7 @@
       <c r="AC32"/>
       <c r="AD32"/>
     </row>
-    <row r="33" s="1" customFormat="1" spans="7:30">
+    <row r="33" s="2" customFormat="1" spans="7:30">
       <c r="G33"/>
       <c r="H33"/>
       <c r="I33"/>
@@ -11396,7 +11617,7 @@
       <c r="AC33"/>
       <c r="AD33"/>
     </row>
-    <row r="34" s="1" customFormat="1" spans="7:33">
+    <row r="34" s="2" customFormat="1" spans="7:33">
       <c r="G34"/>
       <c r="H34"/>
       <c r="I34"/>
@@ -11425,7 +11646,7 @@
       <c r="AF34"/>
       <c r="AG34"/>
     </row>
-    <row r="35" s="1" customFormat="1" spans="7:33">
+    <row r="35" s="2" customFormat="1" spans="7:33">
       <c r="G35"/>
       <c r="H35"/>
       <c r="K35"/>
@@ -11452,7 +11673,7 @@
       <c r="AF35"/>
       <c r="AG35"/>
     </row>
-    <row r="36" s="1" customFormat="1" spans="7:30">
+    <row r="36" s="2" customFormat="1" spans="7:30">
       <c r="G36"/>
       <c r="H36"/>
       <c r="K36"/>
@@ -11476,7 +11697,7 @@
       <c r="AC36"/>
       <c r="AD36"/>
     </row>
-    <row r="37" s="1" customFormat="1" spans="7:30">
+    <row r="37" s="2" customFormat="1" spans="7:30">
       <c r="G37"/>
       <c r="H37"/>
       <c r="I37"/>
@@ -11502,7 +11723,7 @@
       <c r="AC37"/>
       <c r="AD37"/>
     </row>
-    <row r="38" s="1" customFormat="1" spans="7:26">
+    <row r="38" s="2" customFormat="1" spans="7:26">
       <c r="G38"/>
       <c r="H38"/>
       <c r="I38"/>
@@ -11524,7 +11745,7 @@
       <c r="Y38"/>
       <c r="Z38"/>
     </row>
-    <row r="39" s="1" customFormat="1" spans="2:26">
+    <row r="39" s="2" customFormat="1" spans="2:26">
       <c r="B39"/>
       <c r="C39"/>
       <c r="D39"/>
@@ -11551,7 +11772,7 @@
       <c r="Y39"/>
       <c r="Z39"/>
     </row>
-    <row r="40" s="1" customFormat="1" spans="2:30">
+    <row r="40" s="2" customFormat="1" spans="2:30">
       <c r="B40"/>
       <c r="C40"/>
       <c r="D40"/>
@@ -11582,7 +11803,7 @@
       <c r="AC40"/>
       <c r="AD40"/>
     </row>
-    <row r="41" s="1" customFormat="1" spans="2:30">
+    <row r="41" s="2" customFormat="1" spans="2:30">
       <c r="B41"/>
       <c r="C41"/>
       <c r="D41"/>
@@ -11613,7 +11834,7 @@
       <c r="AC41"/>
       <c r="AD41"/>
     </row>
-    <row r="42" s="1" customFormat="1" spans="2:30">
+    <row r="42" s="2" customFormat="1" spans="2:30">
       <c r="B42"/>
       <c r="C42"/>
       <c r="D42"/>
@@ -11644,7 +11865,7 @@
       <c r="AC42"/>
       <c r="AD42"/>
     </row>
-    <row r="43" s="1" customFormat="1" spans="2:30">
+    <row r="43" s="2" customFormat="1" spans="2:30">
       <c r="B43"/>
       <c r="C43"/>
       <c r="D43"/>
@@ -11675,7 +11896,7 @@
       <c r="AC43"/>
       <c r="AD43"/>
     </row>
-    <row r="44" s="1" customFormat="1" spans="2:30">
+    <row r="44" s="2" customFormat="1" spans="2:30">
       <c r="B44"/>
       <c r="C44"/>
       <c r="D44"/>
@@ -11704,7 +11925,7 @@
       <c r="AC44"/>
       <c r="AD44"/>
     </row>
-    <row r="45" s="1" customFormat="1" spans="2:30">
+    <row r="45" s="2" customFormat="1" spans="2:30">
       <c r="B45"/>
       <c r="C45"/>
       <c r="G45"/>
@@ -11732,7 +11953,7 @@
       <c r="AC45"/>
       <c r="AD45"/>
     </row>
-    <row r="46" s="1" customFormat="1" spans="2:30">
+    <row r="46" s="2" customFormat="1" spans="2:30">
       <c r="B46"/>
       <c r="C46"/>
       <c r="D46"/>
@@ -11761,7 +11982,7 @@
       <c r="AC46"/>
       <c r="AD46"/>
     </row>
-    <row r="47" s="1" customFormat="1" spans="2:30">
+    <row r="47" s="2" customFormat="1" spans="2:30">
       <c r="B47"/>
       <c r="C47"/>
       <c r="G47"/>
@@ -11789,7 +12010,7 @@
       <c r="AC47"/>
       <c r="AD47"/>
     </row>
-    <row r="48" s="1" customFormat="1" spans="2:30">
+    <row r="48" s="2" customFormat="1" spans="2:30">
       <c r="B48"/>
       <c r="C48"/>
       <c r="E48"/>
@@ -11819,7 +12040,7 @@
       <c r="AC48"/>
       <c r="AD48"/>
     </row>
-    <row r="49" s="1" customFormat="1" spans="2:30">
+    <row r="49" s="2" customFormat="1" spans="2:30">
       <c r="B49"/>
       <c r="C49"/>
       <c r="E49"/>
@@ -11849,7 +12070,7 @@
       <c r="AC49"/>
       <c r="AD49"/>
     </row>
-    <row r="50" s="1" customFormat="1" spans="2:30">
+    <row r="50" s="2" customFormat="1" spans="2:30">
       <c r="B50"/>
       <c r="C50"/>
       <c r="D50"/>
@@ -11880,7 +12101,7 @@
       <c r="AC50"/>
       <c r="AD50"/>
     </row>
-    <row r="51" s="1" customFormat="1" spans="2:30">
+    <row r="51" s="2" customFormat="1" spans="2:30">
       <c r="B51"/>
       <c r="C51"/>
       <c r="F51"/>
@@ -11909,7 +12130,7 @@
       <c r="AC51"/>
       <c r="AD51"/>
     </row>
-    <row r="52" s="1" customFormat="1" spans="2:30">
+    <row r="52" s="2" customFormat="1" spans="2:30">
       <c r="B52"/>
       <c r="C52"/>
       <c r="F52"/>
@@ -11938,7 +12159,7 @@
       <c r="AC52"/>
       <c r="AD52"/>
     </row>
-    <row r="53" s="1" customFormat="1" spans="2:30">
+    <row r="53" s="2" customFormat="1" spans="2:30">
       <c r="B53"/>
       <c r="C53"/>
       <c r="E53"/>
@@ -11968,7 +12189,7 @@
       <c r="AC53"/>
       <c r="AD53"/>
     </row>
-    <row r="54" s="1" customFormat="1" spans="2:30">
+    <row r="54" s="2" customFormat="1" spans="2:30">
       <c r="B54"/>
       <c r="C54"/>
       <c r="E54"/>
@@ -11998,7 +12219,7 @@
       <c r="AC54"/>
       <c r="AD54"/>
     </row>
-    <row r="55" s="1" customFormat="1" spans="2:30">
+    <row r="55" s="2" customFormat="1" spans="2:30">
       <c r="B55"/>
       <c r="C55"/>
       <c r="D55"/>
@@ -12029,7 +12250,7 @@
       <c r="AC55"/>
       <c r="AD55"/>
     </row>
-    <row r="56" s="1" customFormat="1" spans="2:33">
+    <row r="56" s="2" customFormat="1" spans="2:33">
       <c r="B56"/>
       <c r="C56"/>
       <c r="D56"/>
@@ -12063,7 +12284,7 @@
       <c r="AF56"/>
       <c r="AG56"/>
     </row>
-    <row r="57" s="1" customFormat="1" spans="2:33">
+    <row r="57" s="2" customFormat="1" spans="2:33">
       <c r="B57"/>
       <c r="C57"/>
       <c r="D57"/>
@@ -12097,7 +12318,7 @@
       <c r="AF57"/>
       <c r="AG57"/>
     </row>
-    <row r="58" s="1" customFormat="1" spans="2:30">
+    <row r="58" s="2" customFormat="1" spans="2:30">
       <c r="B58"/>
       <c r="C58"/>
       <c r="D58"/>
@@ -12128,7 +12349,7 @@
       <c r="AC58"/>
       <c r="AD58"/>
     </row>
-    <row r="59" s="1" customFormat="1" spans="2:30">
+    <row r="59" s="2" customFormat="1" spans="2:30">
       <c r="B59"/>
       <c r="C59"/>
       <c r="D59"/>
@@ -12159,7 +12380,7 @@
       <c r="AC59"/>
       <c r="AD59"/>
     </row>
-    <row r="60" s="1" customFormat="1" spans="2:30">
+    <row r="60" s="2" customFormat="1" spans="2:30">
       <c r="B60"/>
       <c r="C60"/>
       <c r="D60"/>
@@ -12190,7 +12411,7 @@
       <c r="AC60"/>
       <c r="AD60"/>
     </row>
-    <row r="61" s="1" customFormat="1" spans="2:30">
+    <row r="61" s="2" customFormat="1" spans="2:30">
       <c r="B61"/>
       <c r="C61"/>
       <c r="D61"/>
@@ -12221,7 +12442,7 @@
       <c r="AC61"/>
       <c r="AD61"/>
     </row>
-    <row r="62" s="1" customFormat="1" spans="2:30">
+    <row r="62" s="2" customFormat="1" spans="2:30">
       <c r="B62"/>
       <c r="C62"/>
       <c r="D62"/>
@@ -12252,7 +12473,7 @@
       <c r="AC62"/>
       <c r="AD62"/>
     </row>
-    <row r="63" s="1" customFormat="1" spans="2:30">
+    <row r="63" s="2" customFormat="1" spans="2:30">
       <c r="B63"/>
       <c r="C63"/>
       <c r="D63"/>
@@ -12275,7 +12496,7 @@
       <c r="AC63"/>
       <c r="AD63"/>
     </row>
-    <row r="64" s="1" customFormat="1" spans="2:30">
+    <row r="64" s="2" customFormat="1" spans="2:30">
       <c r="B64"/>
       <c r="C64"/>
       <c r="D64"/>
@@ -12298,7 +12519,7 @@
       <c r="AC64"/>
       <c r="AD64"/>
     </row>
-    <row r="65" s="1" customFormat="1" spans="2:30">
+    <row r="65" s="2" customFormat="1" spans="2:30">
       <c r="B65"/>
       <c r="C65"/>
       <c r="D65"/>
@@ -12329,7 +12550,7 @@
       <c r="AC65"/>
       <c r="AD65"/>
     </row>
-    <row r="66" s="1" customFormat="1" spans="2:30">
+    <row r="66" s="2" customFormat="1" spans="2:30">
       <c r="B66"/>
       <c r="C66"/>
       <c r="D66"/>
@@ -12359,7 +12580,7 @@
       <c r="AC66"/>
       <c r="AD66"/>
     </row>
-    <row r="67" s="1" customFormat="1" spans="2:30">
+    <row r="67" s="2" customFormat="1" spans="2:30">
       <c r="B67"/>
       <c r="C67"/>
       <c r="D67"/>
@@ -12389,7 +12610,7 @@
       <c r="AC67"/>
       <c r="AD67"/>
     </row>
-    <row r="68" s="1" customFormat="1" spans="2:30">
+    <row r="68" s="2" customFormat="1" spans="2:30">
       <c r="B68"/>
       <c r="C68"/>
       <c r="D68"/>
@@ -12419,7 +12640,7 @@
       <c r="AC68"/>
       <c r="AD68"/>
     </row>
-    <row r="69" s="1" customFormat="1" spans="2:30">
+    <row r="69" s="2" customFormat="1" spans="2:30">
       <c r="B69"/>
       <c r="C69"/>
       <c r="D69"/>
@@ -12449,7 +12670,7 @@
       <c r="AC69"/>
       <c r="AD69"/>
     </row>
-    <row r="70" s="1" customFormat="1" spans="2:30">
+    <row r="70" s="2" customFormat="1" spans="2:30">
       <c r="B70"/>
       <c r="C70"/>
       <c r="D70"/>
@@ -12480,7 +12701,7 @@
       <c r="AC70"/>
       <c r="AD70"/>
     </row>
-    <row r="71" s="1" customFormat="1" spans="2:30">
+    <row r="71" s="2" customFormat="1" spans="2:30">
       <c r="B71"/>
       <c r="C71"/>
       <c r="D71"/>
@@ -12511,7 +12732,7 @@
       <c r="AC71"/>
       <c r="AD71"/>
     </row>
-    <row r="72" s="1" customFormat="1" spans="2:30">
+    <row r="72" s="2" customFormat="1" spans="2:30">
       <c r="B72"/>
       <c r="C72"/>
       <c r="D72"/>
@@ -12542,7 +12763,7 @@
       <c r="AC72"/>
       <c r="AD72"/>
     </row>
-    <row r="73" s="1" customFormat="1" spans="2:30">
+    <row r="73" s="2" customFormat="1" spans="2:30">
       <c r="B73"/>
       <c r="C73"/>
       <c r="D73"/>
@@ -12573,7 +12794,7 @@
       <c r="AC73"/>
       <c r="AD73"/>
     </row>
-    <row r="74" s="1" customFormat="1" spans="2:30">
+    <row r="74" s="2" customFormat="1" spans="2:30">
       <c r="B74"/>
       <c r="C74"/>
       <c r="D74"/>
@@ -12604,7 +12825,7 @@
       <c r="AC74"/>
       <c r="AD74"/>
     </row>
-    <row r="75" s="1" customFormat="1" spans="2:30">
+    <row r="75" s="2" customFormat="1" spans="2:30">
       <c r="B75"/>
       <c r="C75"/>
       <c r="D75"/>
@@ -12635,7 +12856,7 @@
       <c r="AC75"/>
       <c r="AD75"/>
     </row>
-    <row r="76" s="1" customFormat="1" spans="2:30">
+    <row r="76" s="2" customFormat="1" spans="2:30">
       <c r="B76"/>
       <c r="C76"/>
       <c r="D76"/>
@@ -12665,7 +12886,7 @@
       <c r="AC76"/>
       <c r="AD76"/>
     </row>
-    <row r="77" s="1" customFormat="1" spans="2:30">
+    <row r="77" s="2" customFormat="1" spans="2:30">
       <c r="B77"/>
       <c r="C77"/>
       <c r="D77"/>
@@ -12695,7 +12916,7 @@
       <c r="AC77"/>
       <c r="AD77"/>
     </row>
-    <row r="78" s="1" customFormat="1" spans="2:30">
+    <row r="78" s="2" customFormat="1" spans="2:30">
       <c r="B78"/>
       <c r="C78"/>
       <c r="D78"/>
@@ -12725,7 +12946,7 @@
       <c r="AC78"/>
       <c r="AD78"/>
     </row>
-    <row r="79" s="1" customFormat="1" spans="2:30">
+    <row r="79" s="2" customFormat="1" spans="2:30">
       <c r="B79"/>
       <c r="C79"/>
       <c r="D79"/>
@@ -12756,7 +12977,7 @@
       <c r="AC79"/>
       <c r="AD79"/>
     </row>
-    <row r="80" s="1" customFormat="1" spans="2:30">
+    <row r="80" s="2" customFormat="1" spans="2:30">
       <c r="B80"/>
       <c r="C80"/>
       <c r="D80"/>
@@ -12787,7 +13008,7 @@
       <c r="AC80"/>
       <c r="AD80"/>
     </row>
-    <row r="81" s="1" customFormat="1" spans="2:30">
+    <row r="81" s="2" customFormat="1" spans="2:30">
       <c r="B81"/>
       <c r="C81"/>
       <c r="D81"/>
@@ -12818,7 +13039,7 @@
       <c r="AC81"/>
       <c r="AD81"/>
     </row>
-    <row r="82" s="1" customFormat="1" spans="2:30">
+    <row r="82" s="2" customFormat="1" spans="2:30">
       <c r="B82"/>
       <c r="C82"/>
       <c r="D82"/>
@@ -12849,7 +13070,7 @@
       <c r="AC82"/>
       <c r="AD82"/>
     </row>
-    <row r="83" s="1" customFormat="1" spans="2:30">
+    <row r="83" s="2" customFormat="1" spans="2:30">
       <c r="B83"/>
       <c r="C83"/>
       <c r="D83"/>
@@ -12880,7 +13101,7 @@
       <c r="AC83"/>
       <c r="AD83"/>
     </row>
-    <row r="84" s="1" customFormat="1" spans="2:30">
+    <row r="84" s="2" customFormat="1" spans="2:30">
       <c r="B84"/>
       <c r="C84"/>
       <c r="D84"/>
@@ -12911,7 +13132,7 @@
       <c r="AC84"/>
       <c r="AD84"/>
     </row>
-    <row r="85" s="1" customFormat="1" spans="2:30">
+    <row r="85" s="2" customFormat="1" spans="2:30">
       <c r="B85"/>
       <c r="C85"/>
       <c r="D85"/>
@@ -12942,7 +13163,7 @@
       <c r="AC85"/>
       <c r="AD85"/>
     </row>
-    <row r="86" s="1" customFormat="1" spans="2:30">
+    <row r="86" s="2" customFormat="1" spans="2:30">
       <c r="B86"/>
       <c r="C86"/>
       <c r="D86"/>
@@ -12973,15 +13194,15 @@
       <c r="AC86"/>
       <c r="AD86"/>
     </row>
-    <row r="87" s="1" customFormat="1" spans="2:30">
+    <row r="87" s="2" customFormat="1" spans="2:30">
       <c r="B87"/>
       <c r="C87"/>
       <c r="D87"/>
-      <c r="E87" s="2"/>
+      <c r="E87" s="5"/>
       <c r="F87"/>
       <c r="G87"/>
       <c r="H87"/>
-      <c r="I87" s="6"/>
+      <c r="I87" s="7"/>
       <c r="J87"/>
       <c r="K87"/>
       <c r="L87"/>
@@ -13004,11 +13225,11 @@
       <c r="AC87"/>
       <c r="AD87"/>
     </row>
-    <row r="88" s="1" customFormat="1" spans="5:9">
-      <c r="E88" s="2"/>
-      <c r="I88" s="6"/>
-    </row>
-    <row r="111" s="1" customFormat="1" spans="27:33">
+    <row r="88" s="2" customFormat="1" spans="5:9">
+      <c r="E88" s="5"/>
+      <c r="I88" s="7"/>
+    </row>
+    <row r="111" s="2" customFormat="1" spans="27:33">
       <c r="AA111"/>
       <c r="AB111"/>
       <c r="AC111"/>
@@ -13017,7 +13238,7 @@
       <c r="AF111"/>
       <c r="AG111"/>
     </row>
-    <row r="112" s="1" customFormat="1" spans="27:33">
+    <row r="112" s="2" customFormat="1" spans="27:33">
       <c r="AA112"/>
       <c r="AB112"/>
       <c r="AC112"/>
@@ -13026,8 +13247,8 @@
       <c r="AF112"/>
       <c r="AG112"/>
     </row>
-    <row r="116" s="1" customFormat="1" spans="4:4">
-      <c r="D116" s="2"/>
+    <row r="116" s="2" customFormat="1" spans="4:4">
+      <c r="D116" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -13046,183 +13267,183 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="4.875" style="1"/>
+    <col min="1" max="16384" width="4.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="22.5" spans="9:31">
+    <row r="1" s="2" customFormat="1" ht="22.5" spans="9:31">
       <c r="I1" s="4"/>
       <c r="J1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="V1" s="2"/>
-      <c r="W1" s="1" t="s">
+      <c r="V1" s="5"/>
+      <c r="W1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="AE1" s="2"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="23:27">
-      <c r="W2" s="1" t="s">
+      <c r="AE1" s="5"/>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="23:27">
+      <c r="W2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="X2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Y2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="Z2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="AA2" s="5" t="s">
+      <c r="AA2" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:27">
-      <c r="A3" s="1" t="s">
+    <row r="3" s="2" customFormat="1" spans="1:27">
+      <c r="A3" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="X3" s="2"/>
-      <c r="AA3" s="5"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="2:31">
-      <c r="B4" s="1" t="s">
+      <c r="X3" s="5"/>
+      <c r="AA3" s="6"/>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="2:31">
+      <c r="B4" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="V4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="AE4" s="2"/>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="3:31">
-      <c r="C5" s="1" t="s">
+      <c r="V4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="AE4" s="5"/>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="3:31">
+      <c r="C5" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="V5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="AE5" s="2"/>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="4:27">
-      <c r="D6" s="1" t="s">
+      <c r="V5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="AE5" s="5"/>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="4:27">
+      <c r="D6" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="X6" s="2"/>
-      <c r="AA6" s="5"/>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="4:4">
-      <c r="D7" s="1" t="s">
+      <c r="X6" s="5"/>
+      <c r="AA6" s="6"/>
+    </row>
+    <row r="7" s="2" customFormat="1" spans="4:4">
+      <c r="D7" s="2" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="4:4">
-      <c r="D8" s="1" t="s">
+    <row r="8" s="2" customFormat="1" spans="4:4">
+      <c r="D8" s="2" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="4:4">
-      <c r="D9" s="1" t="s">
+    <row r="9" s="2" customFormat="1" spans="4:4">
+      <c r="D9" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="4:4">
-      <c r="D10" s="1" t="s">
+    <row r="10" s="2" customFormat="1" spans="4:4">
+      <c r="D10" s="2" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="4:4">
-      <c r="D11" s="1" t="s">
+    <row r="11" s="2" customFormat="1" spans="4:4">
+      <c r="D11" s="2" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="5:5">
-      <c r="E12" s="1" t="s">
+    <row r="12" s="2" customFormat="1" spans="5:5">
+      <c r="E12" s="2" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" spans="5:5">
-      <c r="E13" s="1" t="s">
+    <row r="13" s="2" customFormat="1" spans="5:5">
+      <c r="E13" s="2" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" spans="4:4">
-      <c r="D14" s="1" t="s">
+    <row r="14" s="2" customFormat="1" spans="4:4">
+      <c r="D14" s="2" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" spans="4:5">
-      <c r="D15" s="2"/>
-      <c r="E15" s="1" t="s">
+    <row r="15" s="2" customFormat="1" spans="4:5">
+      <c r="D15" s="5"/>
+      <c r="E15" s="2" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" spans="5:5">
-      <c r="E16" s="1" t="s">
+    <row r="16" s="2" customFormat="1" spans="5:5">
+      <c r="E16" s="2" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" spans="2:6">
+    <row r="17" s="2" customFormat="1" spans="2:6">
       <c r="B17" s="3"/>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="2" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" spans="2:5">
+    <row r="18" s="2" customFormat="1" spans="2:5">
       <c r="B18" s="3"/>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="2" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" spans="6:6">
-      <c r="F19" s="1" t="s">
+    <row r="19" s="2" customFormat="1" spans="6:6">
+      <c r="F19" s="2" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" spans="6:6">
-      <c r="F20" s="1" t="s">
+    <row r="20" s="2" customFormat="1" spans="6:6">
+      <c r="F20" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" spans="3:3">
-      <c r="C21" s="1" t="s">
+    <row r="21" s="2" customFormat="1" spans="3:3">
+      <c r="C21" s="2" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" spans="4:4">
-      <c r="D22" s="1" t="s">
+    <row r="22" s="2" customFormat="1" spans="4:4">
+      <c r="D22" s="2" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" spans="4:4">
-      <c r="D23" s="1" t="s">
+    <row r="23" s="2" customFormat="1" spans="4:4">
+      <c r="D23" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" spans="5:5">
-      <c r="E24" s="1" t="s">
+    <row r="24" s="2" customFormat="1" spans="5:5">
+      <c r="E24" s="2" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" spans="4:4">
-      <c r="D25" s="1" t="s">
+    <row r="25" s="2" customFormat="1" spans="4:4">
+      <c r="D25" s="2" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" spans="5:5">
-      <c r="E26" s="1" t="s">
+    <row r="26" s="2" customFormat="1" spans="5:5">
+      <c r="E26" s="2" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" spans="2:30">
+    <row r="27" s="2" customFormat="1" spans="2:30">
       <c r="B27" t="s">
         <v>216</v>
       </c>
@@ -13252,7 +13473,7 @@
       <c r="AC27"/>
       <c r="AD27"/>
     </row>
-    <row r="28" s="1" customFormat="1" spans="2:30">
+    <row r="28" s="2" customFormat="1" spans="2:30">
       <c r="B28"/>
       <c r="C28" t="s">
         <v>217</v>
@@ -13283,10 +13504,10 @@
       <c r="AC28"/>
       <c r="AD28"/>
     </row>
-    <row r="29" s="1" customFormat="1" spans="2:30">
+    <row r="29" s="2" customFormat="1" spans="2:30">
       <c r="B29"/>
       <c r="C29"/>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="2" t="s">
         <v>218</v>
       </c>
       <c r="F29"/>
@@ -13314,10 +13535,10 @@
       <c r="AC29"/>
       <c r="AD29"/>
     </row>
-    <row r="30" s="1" customFormat="1" spans="2:30">
+    <row r="30" s="2" customFormat="1" spans="2:30">
       <c r="B30"/>
       <c r="C30"/>
-      <c r="E30" s="1" t="s">
+      <c r="E30" s="2" t="s">
         <v>219</v>
       </c>
       <c r="F30"/>
@@ -13345,10 +13566,10 @@
       <c r="AC30"/>
       <c r="AD30"/>
     </row>
-    <row r="31" s="1" customFormat="1" spans="2:30">
+    <row r="31" s="2" customFormat="1" spans="2:30">
       <c r="B31"/>
       <c r="C31"/>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="2" t="s">
         <v>220</v>
       </c>
       <c r="E31"/>
@@ -13377,7 +13598,7 @@
       <c r="AC31"/>
       <c r="AD31"/>
     </row>
-    <row r="32" s="1" customFormat="1" spans="2:30">
+    <row r="32" s="2" customFormat="1" spans="2:30">
       <c r="B32"/>
       <c r="C32"/>
       <c r="E32"/>
@@ -13407,7 +13628,7 @@
       <c r="AC32"/>
       <c r="AD32"/>
     </row>
-    <row r="33" s="1" customFormat="1" spans="7:30">
+    <row r="33" s="2" customFormat="1" spans="7:30">
       <c r="G33"/>
       <c r="H33"/>
       <c r="I33"/>
@@ -13433,7 +13654,7 @@
       <c r="AC33"/>
       <c r="AD33"/>
     </row>
-    <row r="34" s="1" customFormat="1" spans="7:26">
+    <row r="34" s="2" customFormat="1" spans="7:26">
       <c r="G34"/>
       <c r="H34"/>
       <c r="I34"/>
@@ -13455,7 +13676,7 @@
       <c r="Y34"/>
       <c r="Z34"/>
     </row>
-    <row r="35" s="1" customFormat="1" spans="7:26">
+    <row r="35" s="2" customFormat="1" spans="7:26">
       <c r="G35"/>
       <c r="H35"/>
       <c r="K35"/>
@@ -13475,7 +13696,7 @@
       <c r="Y35"/>
       <c r="Z35"/>
     </row>
-    <row r="36" s="1" customFormat="1" spans="7:30">
+    <row r="36" s="2" customFormat="1" spans="7:30">
       <c r="G36"/>
       <c r="H36"/>
       <c r="K36"/>
@@ -13499,7 +13720,7 @@
       <c r="AC36"/>
       <c r="AD36"/>
     </row>
-    <row r="37" s="1" customFormat="1" spans="7:30">
+    <row r="37" s="2" customFormat="1" spans="7:30">
       <c r="G37"/>
       <c r="H37"/>
       <c r="I37"/>
@@ -13525,7 +13746,7 @@
       <c r="AC37"/>
       <c r="AD37"/>
     </row>
-    <row r="38" s="1" customFormat="1" spans="7:26">
+    <row r="38" s="2" customFormat="1" spans="7:26">
       <c r="G38"/>
       <c r="H38"/>
       <c r="I38"/>
@@ -13547,7 +13768,7 @@
       <c r="Y38"/>
       <c r="Z38"/>
     </row>
-    <row r="39" s="1" customFormat="1" spans="2:26">
+    <row r="39" s="2" customFormat="1" spans="2:26">
       <c r="B39"/>
       <c r="C39"/>
       <c r="D39"/>
@@ -13574,7 +13795,7 @@
       <c r="Y39"/>
       <c r="Z39"/>
     </row>
-    <row r="40" s="1" customFormat="1" spans="2:30">
+    <row r="40" s="2" customFormat="1" spans="2:30">
       <c r="B40"/>
       <c r="C40"/>
       <c r="D40"/>
@@ -13605,7 +13826,7 @@
       <c r="AC40"/>
       <c r="AD40"/>
     </row>
-    <row r="41" s="1" customFormat="1" spans="2:30">
+    <row r="41" s="2" customFormat="1" spans="2:30">
       <c r="B41"/>
       <c r="C41" t="s">
         <v>221</v>
@@ -13638,10 +13859,10 @@
       <c r="AC41"/>
       <c r="AD41"/>
     </row>
-    <row r="42" s="1" customFormat="1" spans="2:30">
+    <row r="42" s="2" customFormat="1" spans="2:30">
       <c r="B42"/>
       <c r="C42"/>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="2" t="s">
         <v>218</v>
       </c>
       <c r="E42"/>
@@ -13671,7 +13892,7 @@
       <c r="AC42"/>
       <c r="AD42"/>
     </row>
-    <row r="43" s="1" customFormat="1" spans="2:30">
+    <row r="43" s="2" customFormat="1" spans="2:30">
       <c r="B43"/>
       <c r="C43"/>
       <c r="D43"/>
@@ -13704,7 +13925,7 @@
       <c r="AC43"/>
       <c r="AD43"/>
     </row>
-    <row r="44" s="1" customFormat="1" spans="2:30">
+    <row r="44" s="2" customFormat="1" spans="2:30">
       <c r="B44" t="s">
         <v>223</v>
       </c>
@@ -13735,7 +13956,7 @@
       <c r="AC44"/>
       <c r="AD44"/>
     </row>
-    <row r="45" s="1" customFormat="1" spans="2:30">
+    <row r="45" s="2" customFormat="1" spans="2:30">
       <c r="B45"/>
       <c r="C45" t="s">
         <v>224</v>
@@ -13765,7 +13986,7 @@
       <c r="AC45"/>
       <c r="AD45"/>
     </row>
-    <row r="46" s="1" customFormat="1" spans="2:30">
+    <row r="46" s="2" customFormat="1" spans="2:30">
       <c r="B46"/>
       <c r="C46" t="s">
         <v>225</v>
@@ -13796,9 +14017,9 @@
       <c r="AC46"/>
       <c r="AD46"/>
     </row>
-    <row r="47" s="1" customFormat="1" spans="2:30">
+    <row r="47" s="2" customFormat="1" spans="2:30">
       <c r="B47"/>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="2" t="s">
         <v>226</v>
       </c>
       <c r="G47"/>
@@ -13826,10 +14047,10 @@
       <c r="AC47"/>
       <c r="AD47"/>
     </row>
-    <row r="48" s="1" customFormat="1" spans="2:30">
+    <row r="48" s="2" customFormat="1" spans="2:30">
       <c r="B48"/>
       <c r="C48"/>
-      <c r="D48" s="1" t="s">
+      <c r="D48" s="2" t="s">
         <v>227</v>
       </c>
       <c r="E48"/>
@@ -13859,10 +14080,10 @@
       <c r="AC48"/>
       <c r="AD48"/>
     </row>
-    <row r="49" s="1" customFormat="1" spans="2:30">
+    <row r="49" s="2" customFormat="1" spans="2:30">
       <c r="B49"/>
       <c r="C49"/>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="2" t="s">
         <v>228</v>
       </c>
       <c r="E49"/>
@@ -13892,7 +14113,7 @@
       <c r="AC49"/>
       <c r="AD49"/>
     </row>
-    <row r="50" s="1" customFormat="1" spans="2:30">
+    <row r="50" s="2" customFormat="1" spans="2:30">
       <c r="B50"/>
       <c r="C50"/>
       <c r="D50"/>
@@ -13923,7 +14144,7 @@
       <c r="AC50"/>
       <c r="AD50"/>
     </row>
-    <row r="51" s="1" customFormat="1" spans="2:30">
+    <row r="51" s="2" customFormat="1" spans="2:30">
       <c r="B51"/>
       <c r="C51"/>
       <c r="F51"/>
@@ -13952,7 +14173,7 @@
       <c r="AC51"/>
       <c r="AD51"/>
     </row>
-    <row r="52" s="1" customFormat="1" spans="2:30">
+    <row r="52" s="2" customFormat="1" spans="2:30">
       <c r="B52"/>
       <c r="C52"/>
       <c r="F52"/>
@@ -13981,7 +14202,7 @@
       <c r="AC52"/>
       <c r="AD52"/>
     </row>
-    <row r="53" s="1" customFormat="1" spans="2:30">
+    <row r="53" s="2" customFormat="1" spans="2:30">
       <c r="B53"/>
       <c r="C53"/>
       <c r="E53"/>
@@ -14011,7 +14232,7 @@
       <c r="AC53"/>
       <c r="AD53"/>
     </row>
-    <row r="54" s="1" customFormat="1" spans="2:30">
+    <row r="54" s="2" customFormat="1" spans="2:30">
       <c r="B54"/>
       <c r="C54"/>
       <c r="E54"/>
@@ -14041,7 +14262,7 @@
       <c r="AC54"/>
       <c r="AD54"/>
     </row>
-    <row r="55" s="1" customFormat="1" spans="2:30">
+    <row r="55" s="2" customFormat="1" spans="2:30">
       <c r="B55"/>
       <c r="C55"/>
       <c r="D55"/>
@@ -14072,7 +14293,7 @@
       <c r="AC55"/>
       <c r="AD55"/>
     </row>
-    <row r="56" s="1" customFormat="1" spans="2:33">
+    <row r="56" s="2" customFormat="1" spans="2:33">
       <c r="B56"/>
       <c r="C56"/>
       <c r="D56"/>
@@ -14106,7 +14327,7 @@
       <c r="AF56"/>
       <c r="AG56"/>
     </row>
-    <row r="57" s="1" customFormat="1" spans="2:33">
+    <row r="57" s="2" customFormat="1" spans="2:33">
       <c r="B57"/>
       <c r="C57"/>
       <c r="D57"/>
@@ -14140,7 +14361,7 @@
       <c r="AF57"/>
       <c r="AG57"/>
     </row>
-    <row r="58" s="1" customFormat="1" spans="2:35">
+    <row r="58" s="2" customFormat="1" spans="2:35">
       <c r="B58"/>
       <c r="C58"/>
       <c r="D58"/>
@@ -14176,7 +14397,7 @@
       <c r="AH58"/>
       <c r="AI58"/>
     </row>
-    <row r="59" s="1" customFormat="1" spans="2:35">
+    <row r="59" s="2" customFormat="1" spans="2:35">
       <c r="B59"/>
       <c r="C59"/>
       <c r="D59"/>
@@ -14212,7 +14433,7 @@
       <c r="AH59"/>
       <c r="AI59"/>
     </row>
-    <row r="60" s="1" customFormat="1" spans="2:30">
+    <row r="60" s="2" customFormat="1" spans="2:30">
       <c r="B60"/>
       <c r="C60"/>
       <c r="D60"/>
@@ -14243,7 +14464,7 @@
       <c r="AC60"/>
       <c r="AD60"/>
     </row>
-    <row r="61" s="1" customFormat="1" spans="2:30">
+    <row r="61" s="2" customFormat="1" spans="2:30">
       <c r="B61"/>
       <c r="C61"/>
       <c r="D61"/>
@@ -14274,7 +14495,7 @@
       <c r="AC61"/>
       <c r="AD61"/>
     </row>
-    <row r="62" s="1" customFormat="1" spans="2:30">
+    <row r="62" s="2" customFormat="1" spans="2:30">
       <c r="B62"/>
       <c r="C62"/>
       <c r="D62"/>
@@ -14305,7 +14526,7 @@
       <c r="AC62"/>
       <c r="AD62"/>
     </row>
-    <row r="63" s="1" customFormat="1" spans="2:30">
+    <row r="63" s="2" customFormat="1" spans="2:30">
       <c r="B63"/>
       <c r="C63"/>
       <c r="D63"/>
@@ -14328,7 +14549,7 @@
       <c r="AC63"/>
       <c r="AD63"/>
     </row>
-    <row r="64" s="1" customFormat="1" spans="2:30">
+    <row r="64" s="2" customFormat="1" spans="2:30">
       <c r="B64"/>
       <c r="C64"/>
       <c r="D64"/>
@@ -14351,7 +14572,7 @@
       <c r="AC64"/>
       <c r="AD64"/>
     </row>
-    <row r="65" s="1" customFormat="1" spans="2:30">
+    <row r="65" s="2" customFormat="1" spans="2:30">
       <c r="B65"/>
       <c r="C65"/>
       <c r="D65"/>
@@ -14382,7 +14603,7 @@
       <c r="AC65"/>
       <c r="AD65"/>
     </row>
-    <row r="66" s="1" customFormat="1" spans="2:30">
+    <row r="66" s="2" customFormat="1" spans="2:30">
       <c r="B66"/>
       <c r="C66"/>
       <c r="D66"/>
@@ -14412,7 +14633,7 @@
       <c r="AC66"/>
       <c r="AD66"/>
     </row>
-    <row r="67" s="1" customFormat="1" spans="2:30">
+    <row r="67" s="2" customFormat="1" spans="2:30">
       <c r="B67"/>
       <c r="C67"/>
       <c r="D67"/>
@@ -14442,7 +14663,7 @@
       <c r="AC67"/>
       <c r="AD67"/>
     </row>
-    <row r="68" s="1" customFormat="1" spans="2:30">
+    <row r="68" s="2" customFormat="1" spans="2:30">
       <c r="B68"/>
       <c r="C68"/>
       <c r="D68"/>
@@ -14472,7 +14693,7 @@
       <c r="AC68"/>
       <c r="AD68"/>
     </row>
-    <row r="69" s="1" customFormat="1" spans="2:30">
+    <row r="69" s="2" customFormat="1" spans="2:30">
       <c r="B69"/>
       <c r="C69"/>
       <c r="D69"/>
@@ -14502,7 +14723,7 @@
       <c r="AC69"/>
       <c r="AD69"/>
     </row>
-    <row r="70" s="1" customFormat="1" spans="2:30">
+    <row r="70" s="2" customFormat="1" spans="2:30">
       <c r="B70"/>
       <c r="C70"/>
       <c r="D70"/>
@@ -14533,7 +14754,7 @@
       <c r="AC70"/>
       <c r="AD70"/>
     </row>
-    <row r="71" s="1" customFormat="1" spans="2:30">
+    <row r="71" s="2" customFormat="1" spans="2:30">
       <c r="B71"/>
       <c r="C71"/>
       <c r="D71"/>
@@ -14564,7 +14785,7 @@
       <c r="AC71"/>
       <c r="AD71"/>
     </row>
-    <row r="72" s="1" customFormat="1" spans="2:30">
+    <row r="72" s="2" customFormat="1" spans="2:30">
       <c r="B72"/>
       <c r="C72"/>
       <c r="D72"/>
@@ -14595,7 +14816,7 @@
       <c r="AC72"/>
       <c r="AD72"/>
     </row>
-    <row r="73" s="1" customFormat="1" spans="2:30">
+    <row r="73" s="2" customFormat="1" spans="2:30">
       <c r="B73"/>
       <c r="C73"/>
       <c r="D73"/>
@@ -14626,7 +14847,7 @@
       <c r="AC73"/>
       <c r="AD73"/>
     </row>
-    <row r="74" s="1" customFormat="1" spans="2:30">
+    <row r="74" s="2" customFormat="1" spans="2:30">
       <c r="B74"/>
       <c r="C74"/>
       <c r="D74"/>
@@ -14657,7 +14878,7 @@
       <c r="AC74"/>
       <c r="AD74"/>
     </row>
-    <row r="75" s="1" customFormat="1" spans="2:30">
+    <row r="75" s="2" customFormat="1" spans="2:30">
       <c r="B75"/>
       <c r="C75"/>
       <c r="D75"/>
@@ -14688,7 +14909,7 @@
       <c r="AC75"/>
       <c r="AD75"/>
     </row>
-    <row r="76" s="1" customFormat="1" spans="2:30">
+    <row r="76" s="2" customFormat="1" spans="2:30">
       <c r="B76"/>
       <c r="C76"/>
       <c r="D76"/>
@@ -14718,7 +14939,7 @@
       <c r="AC76"/>
       <c r="AD76"/>
     </row>
-    <row r="77" s="1" customFormat="1" spans="2:30">
+    <row r="77" s="2" customFormat="1" spans="2:30">
       <c r="B77"/>
       <c r="C77"/>
       <c r="D77"/>
@@ -14748,7 +14969,7 @@
       <c r="AC77"/>
       <c r="AD77"/>
     </row>
-    <row r="78" s="1" customFormat="1" spans="2:30">
+    <row r="78" s="2" customFormat="1" spans="2:30">
       <c r="B78"/>
       <c r="C78"/>
       <c r="D78"/>
@@ -14778,7 +14999,7 @@
       <c r="AC78"/>
       <c r="AD78"/>
     </row>
-    <row r="79" s="1" customFormat="1" spans="2:30">
+    <row r="79" s="2" customFormat="1" spans="2:30">
       <c r="B79"/>
       <c r="C79"/>
       <c r="D79"/>
@@ -14809,7 +15030,7 @@
       <c r="AC79"/>
       <c r="AD79"/>
     </row>
-    <row r="80" s="1" customFormat="1" spans="2:30">
+    <row r="80" s="2" customFormat="1" spans="2:30">
       <c r="B80"/>
       <c r="C80"/>
       <c r="D80"/>
@@ -14840,7 +15061,7 @@
       <c r="AC80"/>
       <c r="AD80"/>
     </row>
-    <row r="81" s="1" customFormat="1" spans="2:30">
+    <row r="81" s="2" customFormat="1" spans="2:30">
       <c r="B81"/>
       <c r="C81"/>
       <c r="D81"/>
@@ -14871,7 +15092,7 @@
       <c r="AC81"/>
       <c r="AD81"/>
     </row>
-    <row r="82" s="1" customFormat="1" spans="2:30">
+    <row r="82" s="2" customFormat="1" spans="2:30">
       <c r="B82"/>
       <c r="C82"/>
       <c r="D82"/>
@@ -14902,7 +15123,7 @@
       <c r="AC82"/>
       <c r="AD82"/>
     </row>
-    <row r="83" s="1" customFormat="1" spans="2:30">
+    <row r="83" s="2" customFormat="1" spans="2:30">
       <c r="B83"/>
       <c r="C83"/>
       <c r="D83"/>
@@ -14933,7 +15154,7 @@
       <c r="AC83"/>
       <c r="AD83"/>
     </row>
-    <row r="84" s="1" customFormat="1" spans="2:30">
+    <row r="84" s="2" customFormat="1" spans="2:30">
       <c r="B84"/>
       <c r="C84"/>
       <c r="D84"/>
@@ -14964,7 +15185,7 @@
       <c r="AC84"/>
       <c r="AD84"/>
     </row>
-    <row r="85" s="1" customFormat="1" spans="2:30">
+    <row r="85" s="2" customFormat="1" spans="2:30">
       <c r="B85"/>
       <c r="C85"/>
       <c r="D85"/>
@@ -14995,7 +15216,7 @@
       <c r="AC85"/>
       <c r="AD85"/>
     </row>
-    <row r="86" s="1" customFormat="1" spans="2:30">
+    <row r="86" s="2" customFormat="1" spans="2:30">
       <c r="B86"/>
       <c r="C86"/>
       <c r="D86"/>
@@ -15026,15 +15247,15 @@
       <c r="AC86"/>
       <c r="AD86"/>
     </row>
-    <row r="87" s="1" customFormat="1" spans="2:30">
+    <row r="87" s="2" customFormat="1" spans="2:30">
       <c r="B87"/>
       <c r="C87"/>
       <c r="D87"/>
-      <c r="E87" s="2"/>
+      <c r="E87" s="5"/>
       <c r="F87"/>
       <c r="G87"/>
       <c r="H87"/>
-      <c r="I87" s="6"/>
+      <c r="I87" s="7"/>
       <c r="J87"/>
       <c r="K87"/>
       <c r="L87"/>
@@ -15057,11 +15278,11 @@
       <c r="AC87"/>
       <c r="AD87"/>
     </row>
-    <row r="88" s="1" customFormat="1" spans="5:9">
-      <c r="E88" s="2"/>
-      <c r="I88" s="6"/>
-    </row>
-    <row r="111" s="1" customFormat="1" spans="27:33">
+    <row r="88" s="2" customFormat="1" spans="5:9">
+      <c r="E88" s="5"/>
+      <c r="I88" s="7"/>
+    </row>
+    <row r="111" s="2" customFormat="1" spans="27:33">
       <c r="AA111"/>
       <c r="AB111"/>
       <c r="AC111"/>
@@ -15070,7 +15291,7 @@
       <c r="AF111"/>
       <c r="AG111"/>
     </row>
-    <row r="112" s="1" customFormat="1" spans="27:33">
+    <row r="112" s="2" customFormat="1" spans="27:33">
       <c r="AA112"/>
       <c r="AB112"/>
       <c r="AC112"/>
@@ -15079,8 +15300,8 @@
       <c r="AF112"/>
       <c r="AG112"/>
     </row>
-    <row r="116" s="1" customFormat="1" spans="4:4">
-      <c r="D116" s="2"/>
+    <row r="116" s="2" customFormat="1" spans="4:4">
+      <c r="D116" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -15094,88 +15315,194 @@
   <sheetPr/>
   <dimension ref="A1:AI116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="4.875" style="1"/>
+    <col min="1" max="16384" width="4.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="22.5" spans="9:31">
+    <row r="1" s="2" customFormat="1" ht="22.5" spans="9:31">
       <c r="I1" s="4"/>
       <c r="J1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="V1" s="2"/>
-      <c r="W1" s="1" t="s">
+      <c r="V1" s="5"/>
+      <c r="W1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="AE1" s="2"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="23:27">
-      <c r="W2" s="1" t="s">
+      <c r="AE1" s="5"/>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="23:27">
+      <c r="W2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="X2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Y2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="Z2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="AA2" s="5" t="s">
+      <c r="AA2" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:27">
-      <c r="A3" s="1" t="s">
+    <row r="3" s="2" customFormat="1" spans="1:27">
+      <c r="A3" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="X3" s="2"/>
-      <c r="AA3" s="5"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="22:31">
-      <c r="V4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="AE4" s="2"/>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="22:31">
-      <c r="V5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="AE5" s="2"/>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="24:27">
-      <c r="X6" s="2"/>
-      <c r="AA6" s="5"/>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="4:4">
-      <c r="D15" s="2"/>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="2:2">
+      <c r="X3" s="5"/>
+      <c r="AA3" s="6"/>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="2:31">
+      <c r="B4" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="V4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="AE4" s="5"/>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="3:31">
+      <c r="C5" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="V5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="AE5" s="5"/>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="3:27">
+      <c r="C6" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="X6" s="5"/>
+      <c r="AA6" s="6"/>
+    </row>
+    <row r="7" spans="4:4">
+      <c r="D7" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="8" spans="4:4">
+      <c r="D8" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="9" spans="5:5">
+      <c r="E9" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="10" spans="5:5">
+      <c r="E10" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="11" spans="4:5">
+      <c r="D11"/>
+      <c r="E11" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="12" spans="4:4">
+      <c r="D12" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="13" spans="5:5">
+      <c r="E13" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3">
+      <c r="C14" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="1" spans="4:4">
+      <c r="D15" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="16" spans="4:4">
+      <c r="D16" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="17" s="2" customFormat="1" spans="2:5">
       <c r="B17" s="3"/>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="2:2">
+      <c r="E17" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="18" s="2" customFormat="1" spans="2:5">
       <c r="B18" s="3"/>
-    </row>
-    <row r="27" s="1" customFormat="1" spans="2:30">
+      <c r="E18" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4">
+      <c r="D19" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="20" spans="5:5">
+      <c r="E20" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3">
+      <c r="C25" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="26" spans="4:4">
+      <c r="D26" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="27" s="2" customFormat="1" spans="2:30">
       <c r="B27"/>
       <c r="C27"/>
+      <c r="E27" s="2" t="s">
+        <v>252</v>
+      </c>
       <c r="G27"/>
       <c r="H27"/>
       <c r="I27"/>
@@ -15201,10 +15528,13 @@
       <c r="AC27"/>
       <c r="AD27"/>
     </row>
-    <row r="28" s="1" customFormat="1" spans="2:30">
+    <row r="28" s="2" customFormat="1" spans="2:30">
       <c r="B28"/>
       <c r="C28"/>
       <c r="D28"/>
+      <c r="E28" s="2" t="s">
+        <v>253</v>
+      </c>
       <c r="F28"/>
       <c r="H28"/>
       <c r="I28"/>
@@ -15230,10 +15560,12 @@
       <c r="AC28"/>
       <c r="AD28"/>
     </row>
-    <row r="29" s="1" customFormat="1" spans="2:30">
+    <row r="29" s="2" customFormat="1" spans="2:30">
       <c r="B29"/>
       <c r="C29"/>
-      <c r="D29" s="1"/>
+      <c r="D29" t="s">
+        <v>254</v>
+      </c>
       <c r="F29"/>
       <c r="H29"/>
       <c r="I29"/>
@@ -15259,9 +15591,11 @@
       <c r="AC29"/>
       <c r="AD29"/>
     </row>
-    <row r="30" s="1" customFormat="1" spans="2:30">
+    <row r="30" s="2" customFormat="1" spans="2:30">
       <c r="B30"/>
-      <c r="C30"/>
+      <c r="C30" t="s">
+        <v>255</v>
+      </c>
       <c r="F30"/>
       <c r="H30"/>
       <c r="I30"/>
@@ -15287,10 +15621,12 @@
       <c r="AC30"/>
       <c r="AD30"/>
     </row>
-    <row r="31" s="1" customFormat="1" spans="2:30">
+    <row r="31" s="2" customFormat="1" spans="2:30">
       <c r="B31"/>
       <c r="C31"/>
-      <c r="D31" s="1"/>
+      <c r="D31" t="s">
+        <v>218</v>
+      </c>
       <c r="E31"/>
       <c r="F31"/>
       <c r="H31"/>
@@ -15317,10 +15653,12 @@
       <c r="AC31"/>
       <c r="AD31"/>
     </row>
-    <row r="32" s="1" customFormat="1" spans="2:30">
+    <row r="32" s="2" customFormat="1" spans="2:30">
       <c r="B32"/>
       <c r="C32"/>
-      <c r="E32"/>
+      <c r="E32" t="s">
+        <v>256</v>
+      </c>
       <c r="F32"/>
       <c r="G32"/>
       <c r="H32"/>
@@ -15347,7 +15685,10 @@
       <c r="AC32"/>
       <c r="AD32"/>
     </row>
-    <row r="33" s="1" customFormat="1" spans="7:30">
+    <row r="33" s="2" customFormat="1" spans="4:30">
+      <c r="D33" t="s">
+        <v>257</v>
+      </c>
       <c r="G33"/>
       <c r="H33"/>
       <c r="I33"/>
@@ -15373,7 +15714,10 @@
       <c r="AC33"/>
       <c r="AD33"/>
     </row>
-    <row r="34" s="1" customFormat="1" spans="7:26">
+    <row r="34" s="2" customFormat="1" spans="3:26">
+      <c r="C34" s="2" t="s">
+        <v>258</v>
+      </c>
       <c r="G34"/>
       <c r="H34"/>
       <c r="I34"/>
@@ -15395,60 +15739,32 @@
       <c r="Y34"/>
       <c r="Z34"/>
     </row>
-    <row r="35" s="1" customFormat="1" spans="7:26">
+    <row r="35" s="2" customFormat="1" spans="4:26">
+      <c r="D35" t="s">
+        <v>218</v>
+      </c>
       <c r="G35"/>
       <c r="H35"/>
       <c r="K35"/>
       <c r="L35"/>
       <c r="M35"/>
       <c r="N35"/>
-      <c r="O35" t="s">
-        <v>1</v>
-      </c>
-      <c r="P35" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>3</v>
-      </c>
-      <c r="R35" t="s">
-        <v>8</v>
-      </c>
-      <c r="S35" t="s">
-        <v>5</v>
-      </c>
-      <c r="T35"/>
-      <c r="U35"/>
       <c r="V35"/>
       <c r="W35"/>
       <c r="X35"/>
       <c r="Y35"/>
       <c r="Z35"/>
     </row>
-    <row r="36" s="1" customFormat="1" spans="7:30">
+    <row r="36" s="2" customFormat="1" spans="5:30">
+      <c r="E36" s="2" t="s">
+        <v>259</v>
+      </c>
       <c r="G36"/>
       <c r="H36"/>
       <c r="K36"/>
       <c r="L36"/>
       <c r="M36"/>
       <c r="N36"/>
-      <c r="O36" t="s">
-        <v>6</v>
-      </c>
-      <c r="P36" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>4</v>
-      </c>
-      <c r="R36" t="s">
-        <v>9</v>
-      </c>
-      <c r="S36" t="s">
-        <v>10</v>
-      </c>
-      <c r="T36"/>
-      <c r="U36"/>
       <c r="V36"/>
       <c r="W36"/>
       <c r="X36"/>
@@ -15459,7 +15775,10 @@
       <c r="AC36"/>
       <c r="AD36"/>
     </row>
-    <row r="37" s="1" customFormat="1" spans="7:30">
+    <row r="37" s="2" customFormat="1" spans="4:30">
+      <c r="D37" t="s">
+        <v>257</v>
+      </c>
       <c r="G37"/>
       <c r="H37"/>
       <c r="I37"/>
@@ -15485,7 +15804,7 @@
       <c r="AC37"/>
       <c r="AD37"/>
     </row>
-    <row r="38" s="1" customFormat="1" spans="7:26">
+    <row r="38" s="2" customFormat="1" spans="7:26">
       <c r="G38"/>
       <c r="H38"/>
       <c r="I38"/>
@@ -15507,7 +15826,7 @@
       <c r="Y38"/>
       <c r="Z38"/>
     </row>
-    <row r="39" s="1" customFormat="1" spans="2:26">
+    <row r="39" s="2" customFormat="1" spans="2:26">
       <c r="B39"/>
       <c r="C39"/>
       <c r="D39"/>
@@ -15534,7 +15853,7 @@
       <c r="Y39"/>
       <c r="Z39"/>
     </row>
-    <row r="40" s="1" customFormat="1" spans="2:30">
+    <row r="40" s="2" customFormat="1" spans="2:30">
       <c r="B40"/>
       <c r="C40"/>
       <c r="D40"/>
@@ -15565,7 +15884,7 @@
       <c r="AC40"/>
       <c r="AD40"/>
     </row>
-    <row r="41" s="1" customFormat="1" spans="2:30">
+    <row r="41" s="2" customFormat="1" spans="2:30">
       <c r="B41"/>
       <c r="C41"/>
       <c r="D41"/>
@@ -15596,10 +15915,9 @@
       <c r="AC41"/>
       <c r="AD41"/>
     </row>
-    <row r="42" s="1" customFormat="1" spans="2:30">
+    <row r="42" s="2" customFormat="1" spans="2:30">
       <c r="B42"/>
       <c r="C42"/>
-      <c r="D42" s="1"/>
       <c r="E42"/>
       <c r="F42"/>
       <c r="G42"/>
@@ -15627,7 +15945,7 @@
       <c r="AC42"/>
       <c r="AD42"/>
     </row>
-    <row r="43" s="1" customFormat="1" spans="2:30">
+    <row r="43" s="2" customFormat="1" spans="2:30">
       <c r="B43"/>
       <c r="C43"/>
       <c r="D43"/>
@@ -15658,7 +15976,7 @@
       <c r="AC43"/>
       <c r="AD43"/>
     </row>
-    <row r="44" s="1" customFormat="1" spans="2:30">
+    <row r="44" s="2" customFormat="1" spans="2:30">
       <c r="B44"/>
       <c r="C44"/>
       <c r="D44"/>
@@ -15687,7 +16005,7 @@
       <c r="AC44"/>
       <c r="AD44"/>
     </row>
-    <row r="45" s="1" customFormat="1" spans="2:30">
+    <row r="45" s="2" customFormat="1" spans="2:30">
       <c r="B45"/>
       <c r="C45"/>
       <c r="G45"/>
@@ -15715,7 +16033,7 @@
       <c r="AC45"/>
       <c r="AD45"/>
     </row>
-    <row r="46" s="1" customFormat="1" spans="2:30">
+    <row r="46" s="2" customFormat="1" spans="2:30">
       <c r="B46"/>
       <c r="C46"/>
       <c r="D46"/>
@@ -15744,9 +16062,8 @@
       <c r="AC46"/>
       <c r="AD46"/>
     </row>
-    <row r="47" s="1" customFormat="1" spans="2:30">
+    <row r="47" s="2" customFormat="1" spans="2:30">
       <c r="B47"/>
-      <c r="C47" s="1"/>
       <c r="G47"/>
       <c r="H47"/>
       <c r="I47"/>
@@ -15772,10 +16089,9 @@
       <c r="AC47"/>
       <c r="AD47"/>
     </row>
-    <row r="48" s="1" customFormat="1" spans="2:30">
+    <row r="48" s="2" customFormat="1" spans="2:30">
       <c r="B48"/>
       <c r="C48"/>
-      <c r="D48" s="1"/>
       <c r="E48"/>
       <c r="F48"/>
       <c r="G48"/>
@@ -15803,10 +16119,9 @@
       <c r="AC48"/>
       <c r="AD48"/>
     </row>
-    <row r="49" s="1" customFormat="1" spans="2:30">
+    <row r="49" s="2" customFormat="1" spans="2:30">
       <c r="B49"/>
       <c r="C49"/>
-      <c r="D49" s="1"/>
       <c r="E49"/>
       <c r="F49"/>
       <c r="G49"/>
@@ -15834,7 +16149,7 @@
       <c r="AC49"/>
       <c r="AD49"/>
     </row>
-    <row r="50" s="1" customFormat="1" spans="2:30">
+    <row r="50" s="2" customFormat="1" spans="2:30">
       <c r="B50"/>
       <c r="C50"/>
       <c r="D50"/>
@@ -15865,7 +16180,7 @@
       <c r="AC50"/>
       <c r="AD50"/>
     </row>
-    <row r="51" s="1" customFormat="1" spans="2:30">
+    <row r="51" s="2" customFormat="1" spans="2:30">
       <c r="B51"/>
       <c r="C51"/>
       <c r="F51"/>
@@ -15894,7 +16209,7 @@
       <c r="AC51"/>
       <c r="AD51"/>
     </row>
-    <row r="52" s="1" customFormat="1" spans="2:30">
+    <row r="52" s="2" customFormat="1" spans="2:30">
       <c r="B52"/>
       <c r="C52"/>
       <c r="F52"/>
@@ -15923,7 +16238,7 @@
       <c r="AC52"/>
       <c r="AD52"/>
     </row>
-    <row r="53" s="1" customFormat="1" spans="2:30">
+    <row r="53" s="2" customFormat="1" spans="2:30">
       <c r="B53"/>
       <c r="C53"/>
       <c r="E53"/>
@@ -15953,7 +16268,7 @@
       <c r="AC53"/>
       <c r="AD53"/>
     </row>
-    <row r="54" s="1" customFormat="1" spans="2:30">
+    <row r="54" s="2" customFormat="1" spans="2:30">
       <c r="B54"/>
       <c r="C54"/>
       <c r="E54"/>
@@ -15983,7 +16298,7 @@
       <c r="AC54"/>
       <c r="AD54"/>
     </row>
-    <row r="55" s="1" customFormat="1" spans="2:30">
+    <row r="55" s="2" customFormat="1" spans="2:30">
       <c r="B55"/>
       <c r="C55"/>
       <c r="D55"/>
@@ -16014,7 +16329,7 @@
       <c r="AC55"/>
       <c r="AD55"/>
     </row>
-    <row r="56" s="1" customFormat="1" spans="2:33">
+    <row r="56" s="2" customFormat="1" spans="2:33">
       <c r="B56"/>
       <c r="C56"/>
       <c r="D56"/>
@@ -16048,7 +16363,7 @@
       <c r="AF56"/>
       <c r="AG56"/>
     </row>
-    <row r="57" s="1" customFormat="1" spans="2:33">
+    <row r="57" s="2" customFormat="1" spans="2:33">
       <c r="B57"/>
       <c r="C57"/>
       <c r="D57"/>
@@ -16082,7 +16397,7 @@
       <c r="AF57"/>
       <c r="AG57"/>
     </row>
-    <row r="58" s="1" customFormat="1" spans="2:35">
+    <row r="58" s="2" customFormat="1" spans="2:35">
       <c r="B58"/>
       <c r="C58"/>
       <c r="D58"/>
@@ -16118,7 +16433,7 @@
       <c r="AH58"/>
       <c r="AI58"/>
     </row>
-    <row r="59" s="1" customFormat="1" spans="2:35">
+    <row r="59" s="2" customFormat="1" spans="2:35">
       <c r="B59"/>
       <c r="C59"/>
       <c r="D59"/>
@@ -16154,7 +16469,7 @@
       <c r="AH59"/>
       <c r="AI59"/>
     </row>
-    <row r="60" s="1" customFormat="1" spans="2:30">
+    <row r="60" s="2" customFormat="1" spans="2:30">
       <c r="B60"/>
       <c r="C60"/>
       <c r="D60"/>
@@ -16185,7 +16500,7 @@
       <c r="AC60"/>
       <c r="AD60"/>
     </row>
-    <row r="61" s="1" customFormat="1" spans="2:30">
+    <row r="61" s="2" customFormat="1" spans="2:30">
       <c r="B61"/>
       <c r="C61"/>
       <c r="D61"/>
@@ -16216,7 +16531,7 @@
       <c r="AC61"/>
       <c r="AD61"/>
     </row>
-    <row r="62" s="1" customFormat="1" spans="2:30">
+    <row r="62" s="2" customFormat="1" spans="2:30">
       <c r="B62"/>
       <c r="C62"/>
       <c r="D62"/>
@@ -16247,7 +16562,7 @@
       <c r="AC62"/>
       <c r="AD62"/>
     </row>
-    <row r="63" s="1" customFormat="1" spans="2:30">
+    <row r="63" s="2" customFormat="1" spans="2:30">
       <c r="B63"/>
       <c r="C63"/>
       <c r="D63"/>
@@ -16270,7 +16585,7 @@
       <c r="AC63"/>
       <c r="AD63"/>
     </row>
-    <row r="64" s="1" customFormat="1" spans="2:30">
+    <row r="64" s="2" customFormat="1" spans="2:30">
       <c r="B64"/>
       <c r="C64"/>
       <c r="D64"/>
@@ -16293,7 +16608,7 @@
       <c r="AC64"/>
       <c r="AD64"/>
     </row>
-    <row r="65" s="1" customFormat="1" spans="2:30">
+    <row r="65" s="2" customFormat="1" spans="2:30">
       <c r="B65"/>
       <c r="C65"/>
       <c r="D65"/>
@@ -16324,7 +16639,7 @@
       <c r="AC65"/>
       <c r="AD65"/>
     </row>
-    <row r="66" s="1" customFormat="1" spans="2:30">
+    <row r="66" s="2" customFormat="1" spans="2:30">
       <c r="B66"/>
       <c r="C66"/>
       <c r="D66"/>
@@ -16354,7 +16669,7 @@
       <c r="AC66"/>
       <c r="AD66"/>
     </row>
-    <row r="67" s="1" customFormat="1" spans="2:30">
+    <row r="67" s="2" customFormat="1" spans="2:30">
       <c r="B67"/>
       <c r="C67"/>
       <c r="D67"/>
@@ -16384,7 +16699,7 @@
       <c r="AC67"/>
       <c r="AD67"/>
     </row>
-    <row r="68" s="1" customFormat="1" spans="2:30">
+    <row r="68" s="2" customFormat="1" spans="2:30">
       <c r="B68"/>
       <c r="C68"/>
       <c r="D68"/>
@@ -16414,7 +16729,7 @@
       <c r="AC68"/>
       <c r="AD68"/>
     </row>
-    <row r="69" s="1" customFormat="1" spans="2:30">
+    <row r="69" s="2" customFormat="1" spans="2:30">
       <c r="B69"/>
       <c r="C69"/>
       <c r="D69"/>
@@ -16444,7 +16759,7 @@
       <c r="AC69"/>
       <c r="AD69"/>
     </row>
-    <row r="70" s="1" customFormat="1" spans="2:30">
+    <row r="70" s="2" customFormat="1" spans="2:30">
       <c r="B70"/>
       <c r="C70"/>
       <c r="D70"/>
@@ -16475,7 +16790,7 @@
       <c r="AC70"/>
       <c r="AD70"/>
     </row>
-    <row r="71" s="1" customFormat="1" spans="2:30">
+    <row r="71" s="2" customFormat="1" spans="2:30">
       <c r="B71"/>
       <c r="C71"/>
       <c r="D71"/>
@@ -16506,7 +16821,7 @@
       <c r="AC71"/>
       <c r="AD71"/>
     </row>
-    <row r="72" s="1" customFormat="1" spans="2:30">
+    <row r="72" s="2" customFormat="1" spans="2:30">
       <c r="B72"/>
       <c r="C72"/>
       <c r="D72"/>
@@ -16537,7 +16852,7 @@
       <c r="AC72"/>
       <c r="AD72"/>
     </row>
-    <row r="73" s="1" customFormat="1" spans="2:30">
+    <row r="73" s="2" customFormat="1" spans="2:30">
       <c r="B73"/>
       <c r="C73"/>
       <c r="D73"/>
@@ -16568,7 +16883,7 @@
       <c r="AC73"/>
       <c r="AD73"/>
     </row>
-    <row r="74" s="1" customFormat="1" spans="2:30">
+    <row r="74" s="2" customFormat="1" spans="2:30">
       <c r="B74"/>
       <c r="C74"/>
       <c r="D74"/>
@@ -16599,7 +16914,7 @@
       <c r="AC74"/>
       <c r="AD74"/>
     </row>
-    <row r="75" s="1" customFormat="1" spans="2:30">
+    <row r="75" s="2" customFormat="1" spans="2:30">
       <c r="B75"/>
       <c r="C75"/>
       <c r="D75"/>
@@ -16630,7 +16945,7 @@
       <c r="AC75"/>
       <c r="AD75"/>
     </row>
-    <row r="76" s="1" customFormat="1" spans="2:30">
+    <row r="76" s="2" customFormat="1" spans="2:30">
       <c r="B76"/>
       <c r="C76"/>
       <c r="D76"/>
@@ -16660,7 +16975,7 @@
       <c r="AC76"/>
       <c r="AD76"/>
     </row>
-    <row r="77" s="1" customFormat="1" spans="2:30">
+    <row r="77" s="2" customFormat="1" spans="2:30">
       <c r="B77"/>
       <c r="C77"/>
       <c r="D77"/>
@@ -16690,7 +17005,7 @@
       <c r="AC77"/>
       <c r="AD77"/>
     </row>
-    <row r="78" s="1" customFormat="1" spans="2:30">
+    <row r="78" s="2" customFormat="1" spans="2:30">
       <c r="B78"/>
       <c r="C78"/>
       <c r="D78"/>
@@ -16720,7 +17035,7 @@
       <c r="AC78"/>
       <c r="AD78"/>
     </row>
-    <row r="79" s="1" customFormat="1" spans="2:30">
+    <row r="79" s="2" customFormat="1" spans="2:30">
       <c r="B79"/>
       <c r="C79"/>
       <c r="D79"/>
@@ -16751,7 +17066,7 @@
       <c r="AC79"/>
       <c r="AD79"/>
     </row>
-    <row r="80" s="1" customFormat="1" spans="2:30">
+    <row r="80" s="2" customFormat="1" spans="2:30">
       <c r="B80"/>
       <c r="C80"/>
       <c r="D80"/>
@@ -16782,7 +17097,7 @@
       <c r="AC80"/>
       <c r="AD80"/>
     </row>
-    <row r="81" s="1" customFormat="1" spans="2:30">
+    <row r="81" s="2" customFormat="1" spans="2:30">
       <c r="B81"/>
       <c r="C81"/>
       <c r="D81"/>
@@ -16813,7 +17128,7 @@
       <c r="AC81"/>
       <c r="AD81"/>
     </row>
-    <row r="82" s="1" customFormat="1" spans="2:30">
+    <row r="82" s="2" customFormat="1" spans="2:30">
       <c r="B82"/>
       <c r="C82"/>
       <c r="D82"/>
@@ -16844,7 +17159,7 @@
       <c r="AC82"/>
       <c r="AD82"/>
     </row>
-    <row r="83" s="1" customFormat="1" spans="2:30">
+    <row r="83" s="2" customFormat="1" spans="2:30">
       <c r="B83"/>
       <c r="C83"/>
       <c r="D83"/>
@@ -16875,7 +17190,7 @@
       <c r="AC83"/>
       <c r="AD83"/>
     </row>
-    <row r="84" s="1" customFormat="1" spans="2:30">
+    <row r="84" s="2" customFormat="1" spans="2:30">
       <c r="B84"/>
       <c r="C84"/>
       <c r="D84"/>
@@ -16906,7 +17221,7 @@
       <c r="AC84"/>
       <c r="AD84"/>
     </row>
-    <row r="85" s="1" customFormat="1" spans="2:30">
+    <row r="85" s="2" customFormat="1" spans="2:30">
       <c r="B85"/>
       <c r="C85"/>
       <c r="D85"/>
@@ -16937,7 +17252,7 @@
       <c r="AC85"/>
       <c r="AD85"/>
     </row>
-    <row r="86" s="1" customFormat="1" spans="2:30">
+    <row r="86" s="2" customFormat="1" spans="2:30">
       <c r="B86"/>
       <c r="C86"/>
       <c r="D86"/>
@@ -16968,15 +17283,15 @@
       <c r="AC86"/>
       <c r="AD86"/>
     </row>
-    <row r="87" s="1" customFormat="1" spans="2:30">
+    <row r="87" s="2" customFormat="1" spans="2:30">
       <c r="B87"/>
       <c r="C87"/>
       <c r="D87"/>
-      <c r="E87" s="2"/>
+      <c r="E87" s="5"/>
       <c r="F87"/>
       <c r="G87"/>
       <c r="H87"/>
-      <c r="I87" s="6"/>
+      <c r="I87" s="7"/>
       <c r="J87"/>
       <c r="K87"/>
       <c r="L87"/>
@@ -16999,11 +17314,11 @@
       <c r="AC87"/>
       <c r="AD87"/>
     </row>
-    <row r="88" s="1" customFormat="1" spans="5:9">
-      <c r="E88" s="2"/>
-      <c r="I88" s="6"/>
-    </row>
-    <row r="111" s="1" customFormat="1" spans="27:33">
+    <row r="88" s="2" customFormat="1" spans="5:9">
+      <c r="E88" s="5"/>
+      <c r="I88" s="7"/>
+    </row>
+    <row r="111" s="2" customFormat="1" spans="27:33">
       <c r="AA111"/>
       <c r="AB111"/>
       <c r="AC111"/>
@@ -17012,7 +17327,7 @@
       <c r="AF111"/>
       <c r="AG111"/>
     </row>
-    <row r="112" s="1" customFormat="1" spans="27:33">
+    <row r="112" s="2" customFormat="1" spans="27:33">
       <c r="AA112"/>
       <c r="AB112"/>
       <c r="AC112"/>
@@ -17021,8 +17336,8 @@
       <c r="AF112"/>
       <c r="AG112"/>
     </row>
-    <row r="116" s="1" customFormat="1" spans="4:4">
-      <c r="D116" s="2"/>
+    <row r="116" s="2" customFormat="1" spans="4:4">
+      <c r="D116" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -17033,24 +17348,2003 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:AI116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+      <selection activeCell="N29" sqref="N29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="16384" width="4.875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="2" customFormat="1" ht="22.5" spans="9:31">
+      <c r="I1" s="4"/>
+      <c r="J1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="V1" s="5"/>
+      <c r="W1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE1" s="5"/>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="23:27">
+      <c r="W2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:27">
+      <c r="A3" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="X3" s="5"/>
+      <c r="AA3" s="6"/>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="2:31">
+      <c r="B4" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="V4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="AE4" s="5"/>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="2:31">
+      <c r="B5" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="V5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="AE5" s="5"/>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="24:27">
+      <c r="X6" s="5"/>
+      <c r="AA6" s="6"/>
+    </row>
+    <row r="11" s="2" customFormat="1" spans="4:4">
+      <c r="D11"/>
+    </row>
+    <row r="12" s="2" customFormat="1" spans="2:4">
+      <c r="B12" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D12"/>
+    </row>
+    <row r="13" s="2" customFormat="1" spans="3:3">
+      <c r="C13" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" spans="3:3">
+      <c r="C14" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="1" spans="4:4">
+      <c r="D15" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="16" s="2" customFormat="1" spans="4:5">
+      <c r="D16"/>
+      <c r="E16" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="17" s="2" customFormat="1" spans="2:4">
+      <c r="B17" s="3"/>
+      <c r="D17" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="18" s="2" customFormat="1" spans="2:3">
+      <c r="B18" s="3"/>
+      <c r="C18" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="19" s="2" customFormat="1" spans="4:4">
+      <c r="D19"/>
+    </row>
+    <row r="26" s="2" customFormat="1" spans="4:4">
+      <c r="D26"/>
+    </row>
+    <row r="27" s="2" customFormat="1" spans="2:30">
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
+      <c r="O27"/>
+      <c r="P27"/>
+      <c r="Q27"/>
+      <c r="R27"/>
+      <c r="S27"/>
+      <c r="T27"/>
+      <c r="U27"/>
+      <c r="V27"/>
+      <c r="W27"/>
+      <c r="X27"/>
+      <c r="Y27"/>
+      <c r="Z27"/>
+      <c r="AA27"/>
+      <c r="AB27"/>
+      <c r="AC27"/>
+      <c r="AD27"/>
+    </row>
+    <row r="28" s="2" customFormat="1" spans="2:30">
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28" s="2"/>
+      <c r="F28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28"/>
+      <c r="N28"/>
+      <c r="O28"/>
+      <c r="P28"/>
+      <c r="Q28"/>
+      <c r="R28"/>
+      <c r="S28"/>
+      <c r="T28"/>
+      <c r="U28"/>
+      <c r="V28"/>
+      <c r="W28"/>
+      <c r="X28"/>
+      <c r="Y28"/>
+      <c r="Z28"/>
+      <c r="AA28"/>
+      <c r="AB28"/>
+      <c r="AC28"/>
+      <c r="AD28"/>
+    </row>
+    <row r="29" s="2" customFormat="1" spans="2:30">
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="F29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29"/>
+      <c r="N29"/>
+      <c r="O29"/>
+      <c r="P29"/>
+      <c r="Q29"/>
+      <c r="R29"/>
+      <c r="S29"/>
+      <c r="T29"/>
+      <c r="U29"/>
+      <c r="V29"/>
+      <c r="W29"/>
+      <c r="X29"/>
+      <c r="Y29"/>
+      <c r="Z29"/>
+      <c r="AA29"/>
+      <c r="AB29"/>
+      <c r="AC29"/>
+      <c r="AD29"/>
+    </row>
+    <row r="30" s="2" customFormat="1" spans="2:30">
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="F30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="O30"/>
+      <c r="P30"/>
+      <c r="Q30"/>
+      <c r="R30"/>
+      <c r="S30"/>
+      <c r="T30"/>
+      <c r="U30"/>
+      <c r="V30"/>
+      <c r="W30"/>
+      <c r="X30"/>
+      <c r="Y30"/>
+      <c r="Z30"/>
+      <c r="AA30"/>
+      <c r="AB30"/>
+      <c r="AC30"/>
+      <c r="AD30"/>
+    </row>
+    <row r="31" s="2" customFormat="1" spans="2:30">
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31"/>
+      <c r="N31"/>
+      <c r="O31"/>
+      <c r="P31"/>
+      <c r="Q31"/>
+      <c r="R31"/>
+      <c r="S31"/>
+      <c r="T31"/>
+      <c r="U31"/>
+      <c r="V31"/>
+      <c r="W31"/>
+      <c r="X31"/>
+      <c r="Y31"/>
+      <c r="Z31"/>
+      <c r="AA31"/>
+      <c r="AB31"/>
+      <c r="AC31"/>
+      <c r="AD31"/>
+    </row>
+    <row r="32" s="2" customFormat="1" spans="2:30">
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
+      <c r="M32"/>
+      <c r="N32"/>
+      <c r="O32"/>
+      <c r="P32"/>
+      <c r="Q32"/>
+      <c r="R32"/>
+      <c r="S32"/>
+      <c r="T32"/>
+      <c r="U32"/>
+      <c r="V32"/>
+      <c r="W32"/>
+      <c r="X32"/>
+      <c r="Y32"/>
+      <c r="Z32"/>
+      <c r="AA32"/>
+      <c r="AB32"/>
+      <c r="AC32"/>
+      <c r="AD32"/>
+    </row>
+    <row r="33" s="2" customFormat="1" spans="4:30">
+      <c r="D33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="O33"/>
+      <c r="P33"/>
+      <c r="Q33"/>
+      <c r="R33"/>
+      <c r="S33"/>
+      <c r="T33"/>
+      <c r="U33"/>
+      <c r="V33"/>
+      <c r="W33"/>
+      <c r="X33"/>
+      <c r="Y33"/>
+      <c r="Z33"/>
+      <c r="AA33"/>
+      <c r="AB33"/>
+      <c r="AC33"/>
+      <c r="AD33"/>
+    </row>
+    <row r="34" s="2" customFormat="1" spans="7:26">
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="L34"/>
+      <c r="M34"/>
+      <c r="N34"/>
+      <c r="O34"/>
+      <c r="P34"/>
+      <c r="Q34"/>
+      <c r="R34"/>
+      <c r="S34"/>
+      <c r="T34"/>
+      <c r="U34"/>
+      <c r="V34"/>
+      <c r="W34"/>
+      <c r="X34"/>
+      <c r="Y34"/>
+      <c r="Z34"/>
+    </row>
+    <row r="35" s="2" customFormat="1" spans="4:26">
+      <c r="D35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="V35"/>
+      <c r="W35"/>
+      <c r="X35"/>
+      <c r="Y35"/>
+      <c r="Z35"/>
+    </row>
+    <row r="36" s="2" customFormat="1" spans="7:30">
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="V36"/>
+      <c r="W36"/>
+      <c r="X36"/>
+      <c r="Y36"/>
+      <c r="Z36"/>
+      <c r="AA36"/>
+      <c r="AB36"/>
+      <c r="AC36"/>
+      <c r="AD36"/>
+    </row>
+    <row r="37" s="2" customFormat="1" spans="4:30">
+      <c r="D37"/>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37"/>
+      <c r="N37"/>
+      <c r="O37"/>
+      <c r="P37"/>
+      <c r="Q37"/>
+      <c r="R37"/>
+      <c r="S37"/>
+      <c r="T37"/>
+      <c r="U37"/>
+      <c r="V37"/>
+      <c r="W37"/>
+      <c r="X37"/>
+      <c r="Y37"/>
+      <c r="Z37"/>
+      <c r="AA37"/>
+      <c r="AB37"/>
+      <c r="AC37"/>
+      <c r="AD37"/>
+    </row>
+    <row r="38" s="2" customFormat="1" spans="7:26">
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38"/>
+      <c r="P38"/>
+      <c r="Q38"/>
+      <c r="R38"/>
+      <c r="S38"/>
+      <c r="T38"/>
+      <c r="U38"/>
+      <c r="V38"/>
+      <c r="W38"/>
+      <c r="X38"/>
+      <c r="Y38"/>
+      <c r="Z38"/>
+    </row>
+    <row r="39" s="2" customFormat="1" spans="2:26">
+      <c r="B39"/>
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39"/>
+      <c r="K39"/>
+      <c r="L39"/>
+      <c r="M39"/>
+      <c r="N39"/>
+      <c r="O39"/>
+      <c r="P39"/>
+      <c r="Q39"/>
+      <c r="R39"/>
+      <c r="S39"/>
+      <c r="T39"/>
+      <c r="U39"/>
+      <c r="V39"/>
+      <c r="W39"/>
+      <c r="X39"/>
+      <c r="Y39"/>
+      <c r="Z39"/>
+    </row>
+    <row r="40" s="2" customFormat="1" spans="2:30">
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40"/>
+      <c r="M40"/>
+      <c r="N40"/>
+      <c r="O40"/>
+      <c r="P40"/>
+      <c r="Q40"/>
+      <c r="R40"/>
+      <c r="S40"/>
+      <c r="T40"/>
+      <c r="U40"/>
+      <c r="V40"/>
+      <c r="W40"/>
+      <c r="X40"/>
+      <c r="Y40"/>
+      <c r="Z40"/>
+      <c r="AA40"/>
+      <c r="AB40"/>
+      <c r="AC40"/>
+      <c r="AD40"/>
+    </row>
+    <row r="41" s="2" customFormat="1" spans="2:30">
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41"/>
+      <c r="L41"/>
+      <c r="M41"/>
+      <c r="N41"/>
+      <c r="O41"/>
+      <c r="P41"/>
+      <c r="Q41"/>
+      <c r="R41"/>
+      <c r="S41"/>
+      <c r="T41"/>
+      <c r="U41"/>
+      <c r="V41"/>
+      <c r="W41"/>
+      <c r="X41"/>
+      <c r="Y41"/>
+      <c r="Z41"/>
+      <c r="AA41"/>
+      <c r="AB41"/>
+      <c r="AC41"/>
+      <c r="AD41"/>
+    </row>
+    <row r="42" s="2" customFormat="1" spans="2:30">
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42"/>
+      <c r="I42"/>
+      <c r="J42"/>
+      <c r="K42"/>
+      <c r="L42"/>
+      <c r="M42"/>
+      <c r="N42"/>
+      <c r="O42"/>
+      <c r="P42"/>
+      <c r="Q42"/>
+      <c r="R42"/>
+      <c r="S42"/>
+      <c r="T42"/>
+      <c r="U42"/>
+      <c r="V42"/>
+      <c r="W42" t="s">
+        <v>1</v>
+      </c>
+      <c r="X42" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB42"/>
+      <c r="AC42"/>
+      <c r="AD42"/>
+    </row>
+    <row r="43" s="2" customFormat="1" spans="2:30">
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43"/>
+      <c r="I43"/>
+      <c r="J43"/>
+      <c r="K43"/>
+      <c r="L43"/>
+      <c r="M43"/>
+      <c r="N43"/>
+      <c r="O43"/>
+      <c r="P43"/>
+      <c r="Q43"/>
+      <c r="R43"/>
+      <c r="S43"/>
+      <c r="T43"/>
+      <c r="U43"/>
+      <c r="V43"/>
+      <c r="W43" t="s">
+        <v>6</v>
+      </c>
+      <c r="X43" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB43"/>
+      <c r="AC43"/>
+      <c r="AD43"/>
+    </row>
+    <row r="44" s="2" customFormat="1" spans="2:30">
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="G44"/>
+      <c r="H44"/>
+      <c r="I44"/>
+      <c r="J44"/>
+      <c r="K44"/>
+      <c r="L44"/>
+      <c r="M44"/>
+      <c r="N44"/>
+      <c r="O44"/>
+      <c r="P44"/>
+      <c r="Q44"/>
+      <c r="R44"/>
+      <c r="S44"/>
+      <c r="T44"/>
+      <c r="U44"/>
+      <c r="V44"/>
+      <c r="W44"/>
+      <c r="X44"/>
+      <c r="Y44"/>
+      <c r="Z44"/>
+      <c r="AA44"/>
+      <c r="AB44"/>
+      <c r="AC44"/>
+      <c r="AD44"/>
+    </row>
+    <row r="45" s="2" customFormat="1" spans="2:30">
+      <c r="B45"/>
+      <c r="C45"/>
+      <c r="G45"/>
+      <c r="H45"/>
+      <c r="I45"/>
+      <c r="J45"/>
+      <c r="K45"/>
+      <c r="L45"/>
+      <c r="M45"/>
+      <c r="N45"/>
+      <c r="O45"/>
+      <c r="P45"/>
+      <c r="Q45"/>
+      <c r="R45"/>
+      <c r="S45"/>
+      <c r="T45"/>
+      <c r="U45"/>
+      <c r="V45"/>
+      <c r="W45"/>
+      <c r="X45"/>
+      <c r="Y45"/>
+      <c r="Z45"/>
+      <c r="AA45"/>
+      <c r="AB45"/>
+      <c r="AC45"/>
+      <c r="AD45"/>
+    </row>
+    <row r="46" s="2" customFormat="1" spans="2:30">
+      <c r="B46"/>
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="G46"/>
+      <c r="H46"/>
+      <c r="I46"/>
+      <c r="J46"/>
+      <c r="K46"/>
+      <c r="L46"/>
+      <c r="M46"/>
+      <c r="N46"/>
+      <c r="O46"/>
+      <c r="P46"/>
+      <c r="Q46"/>
+      <c r="R46"/>
+      <c r="S46"/>
+      <c r="T46"/>
+      <c r="U46"/>
+      <c r="V46"/>
+      <c r="W46"/>
+      <c r="X46"/>
+      <c r="Y46"/>
+      <c r="Z46"/>
+      <c r="AA46"/>
+      <c r="AB46"/>
+      <c r="AC46"/>
+      <c r="AD46"/>
+    </row>
+    <row r="47" s="2" customFormat="1" spans="2:30">
+      <c r="B47"/>
+      <c r="G47"/>
+      <c r="H47"/>
+      <c r="I47"/>
+      <c r="J47"/>
+      <c r="K47"/>
+      <c r="L47"/>
+      <c r="M47"/>
+      <c r="N47"/>
+      <c r="O47"/>
+      <c r="P47"/>
+      <c r="Q47"/>
+      <c r="R47"/>
+      <c r="S47"/>
+      <c r="T47"/>
+      <c r="U47"/>
+      <c r="V47"/>
+      <c r="W47"/>
+      <c r="X47"/>
+      <c r="Y47"/>
+      <c r="Z47"/>
+      <c r="AA47"/>
+      <c r="AB47"/>
+      <c r="AC47"/>
+      <c r="AD47"/>
+    </row>
+    <row r="48" s="2" customFormat="1" spans="2:30">
+      <c r="B48"/>
+      <c r="C48"/>
+      <c r="E48"/>
+      <c r="F48"/>
+      <c r="G48"/>
+      <c r="H48"/>
+      <c r="I48"/>
+      <c r="J48"/>
+      <c r="K48"/>
+      <c r="L48"/>
+      <c r="M48"/>
+      <c r="N48"/>
+      <c r="O48"/>
+      <c r="P48"/>
+      <c r="Q48"/>
+      <c r="R48"/>
+      <c r="S48"/>
+      <c r="T48"/>
+      <c r="U48"/>
+      <c r="V48"/>
+      <c r="W48"/>
+      <c r="X48"/>
+      <c r="Y48"/>
+      <c r="Z48"/>
+      <c r="AA48"/>
+      <c r="AB48"/>
+      <c r="AC48"/>
+      <c r="AD48"/>
+    </row>
+    <row r="49" s="2" customFormat="1" spans="2:30">
+      <c r="B49"/>
+      <c r="C49"/>
+      <c r="E49"/>
+      <c r="F49"/>
+      <c r="G49"/>
+      <c r="H49"/>
+      <c r="I49"/>
+      <c r="J49"/>
+      <c r="K49"/>
+      <c r="L49"/>
+      <c r="M49"/>
+      <c r="N49"/>
+      <c r="O49"/>
+      <c r="P49"/>
+      <c r="Q49"/>
+      <c r="R49"/>
+      <c r="S49"/>
+      <c r="T49"/>
+      <c r="U49"/>
+      <c r="V49"/>
+      <c r="W49"/>
+      <c r="X49"/>
+      <c r="Y49"/>
+      <c r="Z49"/>
+      <c r="AA49"/>
+      <c r="AB49"/>
+      <c r="AC49"/>
+      <c r="AD49"/>
+    </row>
+    <row r="50" s="2" customFormat="1" spans="2:30">
+      <c r="B50"/>
+      <c r="C50"/>
+      <c r="D50"/>
+      <c r="E50"/>
+      <c r="F50"/>
+      <c r="G50"/>
+      <c r="H50"/>
+      <c r="I50"/>
+      <c r="J50"/>
+      <c r="K50"/>
+      <c r="L50"/>
+      <c r="M50"/>
+      <c r="N50"/>
+      <c r="O50"/>
+      <c r="P50"/>
+      <c r="Q50"/>
+      <c r="R50"/>
+      <c r="S50"/>
+      <c r="T50"/>
+      <c r="U50"/>
+      <c r="V50"/>
+      <c r="W50"/>
+      <c r="X50"/>
+      <c r="Y50"/>
+      <c r="Z50"/>
+      <c r="AA50"/>
+      <c r="AB50"/>
+      <c r="AC50"/>
+      <c r="AD50"/>
+    </row>
+    <row r="51" s="2" customFormat="1" spans="2:30">
+      <c r="B51"/>
+      <c r="C51"/>
+      <c r="F51"/>
+      <c r="G51"/>
+      <c r="H51"/>
+      <c r="I51"/>
+      <c r="J51"/>
+      <c r="K51"/>
+      <c r="L51"/>
+      <c r="M51"/>
+      <c r="N51"/>
+      <c r="O51"/>
+      <c r="P51"/>
+      <c r="Q51"/>
+      <c r="R51"/>
+      <c r="S51"/>
+      <c r="T51"/>
+      <c r="U51"/>
+      <c r="V51"/>
+      <c r="W51"/>
+      <c r="X51"/>
+      <c r="Y51"/>
+      <c r="Z51"/>
+      <c r="AA51"/>
+      <c r="AB51"/>
+      <c r="AC51"/>
+      <c r="AD51"/>
+    </row>
+    <row r="52" s="2" customFormat="1" spans="2:30">
+      <c r="B52"/>
+      <c r="C52"/>
+      <c r="F52"/>
+      <c r="G52"/>
+      <c r="H52"/>
+      <c r="I52"/>
+      <c r="J52"/>
+      <c r="K52"/>
+      <c r="L52"/>
+      <c r="M52"/>
+      <c r="N52"/>
+      <c r="O52"/>
+      <c r="P52"/>
+      <c r="Q52"/>
+      <c r="R52"/>
+      <c r="S52"/>
+      <c r="T52"/>
+      <c r="U52"/>
+      <c r="V52"/>
+      <c r="W52"/>
+      <c r="X52"/>
+      <c r="Y52"/>
+      <c r="Z52"/>
+      <c r="AA52"/>
+      <c r="AB52"/>
+      <c r="AC52"/>
+      <c r="AD52"/>
+    </row>
+    <row r="53" s="2" customFormat="1" spans="2:30">
+      <c r="B53"/>
+      <c r="C53"/>
+      <c r="E53"/>
+      <c r="F53"/>
+      <c r="G53"/>
+      <c r="H53"/>
+      <c r="I53"/>
+      <c r="J53"/>
+      <c r="K53"/>
+      <c r="L53"/>
+      <c r="M53"/>
+      <c r="N53"/>
+      <c r="O53"/>
+      <c r="P53"/>
+      <c r="Q53"/>
+      <c r="R53"/>
+      <c r="S53"/>
+      <c r="T53"/>
+      <c r="U53"/>
+      <c r="V53"/>
+      <c r="W53"/>
+      <c r="X53"/>
+      <c r="Y53"/>
+      <c r="Z53"/>
+      <c r="AA53"/>
+      <c r="AB53"/>
+      <c r="AC53"/>
+      <c r="AD53"/>
+    </row>
+    <row r="54" s="2" customFormat="1" spans="2:30">
+      <c r="B54"/>
+      <c r="C54"/>
+      <c r="E54"/>
+      <c r="F54"/>
+      <c r="G54"/>
+      <c r="H54"/>
+      <c r="I54"/>
+      <c r="J54"/>
+      <c r="K54"/>
+      <c r="L54"/>
+      <c r="M54"/>
+      <c r="N54"/>
+      <c r="O54"/>
+      <c r="P54"/>
+      <c r="Q54"/>
+      <c r="R54"/>
+      <c r="S54"/>
+      <c r="T54"/>
+      <c r="U54"/>
+      <c r="V54"/>
+      <c r="W54"/>
+      <c r="X54"/>
+      <c r="Y54"/>
+      <c r="Z54"/>
+      <c r="AA54"/>
+      <c r="AB54"/>
+      <c r="AC54"/>
+      <c r="AD54"/>
+    </row>
+    <row r="55" s="2" customFormat="1" spans="2:30">
+      <c r="B55"/>
+      <c r="C55"/>
+      <c r="D55"/>
+      <c r="E55"/>
+      <c r="F55"/>
+      <c r="G55"/>
+      <c r="H55"/>
+      <c r="I55"/>
+      <c r="J55"/>
+      <c r="K55"/>
+      <c r="L55"/>
+      <c r="M55"/>
+      <c r="N55"/>
+      <c r="O55"/>
+      <c r="P55"/>
+      <c r="Q55"/>
+      <c r="R55"/>
+      <c r="S55"/>
+      <c r="T55"/>
+      <c r="U55"/>
+      <c r="V55"/>
+      <c r="W55"/>
+      <c r="X55"/>
+      <c r="Y55"/>
+      <c r="Z55"/>
+      <c r="AA55"/>
+      <c r="AB55"/>
+      <c r="AC55"/>
+      <c r="AD55"/>
+    </row>
+    <row r="56" s="2" customFormat="1" spans="2:33">
+      <c r="B56"/>
+      <c r="C56"/>
+      <c r="D56"/>
+      <c r="E56"/>
+      <c r="F56"/>
+      <c r="G56"/>
+      <c r="H56"/>
+      <c r="I56"/>
+      <c r="J56"/>
+      <c r="K56"/>
+      <c r="L56"/>
+      <c r="M56"/>
+      <c r="N56"/>
+      <c r="O56"/>
+      <c r="P56"/>
+      <c r="Q56"/>
+      <c r="R56"/>
+      <c r="S56"/>
+      <c r="T56"/>
+      <c r="U56"/>
+      <c r="V56"/>
+      <c r="W56"/>
+      <c r="X56"/>
+      <c r="Y56"/>
+      <c r="Z56"/>
+      <c r="AA56"/>
+      <c r="AB56"/>
+      <c r="AC56"/>
+      <c r="AD56"/>
+      <c r="AE56"/>
+      <c r="AF56"/>
+      <c r="AG56"/>
+    </row>
+    <row r="57" s="2" customFormat="1" spans="2:33">
+      <c r="B57"/>
+      <c r="C57"/>
+      <c r="D57"/>
+      <c r="E57"/>
+      <c r="F57"/>
+      <c r="G57"/>
+      <c r="H57"/>
+      <c r="I57"/>
+      <c r="J57"/>
+      <c r="K57"/>
+      <c r="L57"/>
+      <c r="M57"/>
+      <c r="N57"/>
+      <c r="O57"/>
+      <c r="P57"/>
+      <c r="Q57"/>
+      <c r="R57"/>
+      <c r="S57"/>
+      <c r="T57"/>
+      <c r="U57"/>
+      <c r="V57"/>
+      <c r="W57"/>
+      <c r="X57"/>
+      <c r="Y57"/>
+      <c r="Z57"/>
+      <c r="AA57"/>
+      <c r="AB57"/>
+      <c r="AC57"/>
+      <c r="AD57"/>
+      <c r="AE57"/>
+      <c r="AF57"/>
+      <c r="AG57"/>
+    </row>
+    <row r="58" s="2" customFormat="1" spans="2:35">
+      <c r="B58"/>
+      <c r="C58"/>
+      <c r="D58"/>
+      <c r="E58"/>
+      <c r="F58"/>
+      <c r="G58"/>
+      <c r="H58"/>
+      <c r="I58"/>
+      <c r="J58"/>
+      <c r="K58"/>
+      <c r="L58"/>
+      <c r="M58"/>
+      <c r="N58"/>
+      <c r="O58"/>
+      <c r="P58"/>
+      <c r="Q58"/>
+      <c r="R58"/>
+      <c r="S58"/>
+      <c r="T58"/>
+      <c r="U58"/>
+      <c r="V58"/>
+      <c r="W58"/>
+      <c r="X58"/>
+      <c r="Y58"/>
+      <c r="Z58"/>
+      <c r="AA58"/>
+      <c r="AB58"/>
+      <c r="AC58"/>
+      <c r="AD58"/>
+      <c r="AE58"/>
+      <c r="AF58"/>
+      <c r="AG58"/>
+      <c r="AH58"/>
+      <c r="AI58"/>
+    </row>
+    <row r="59" s="2" customFormat="1" spans="2:35">
+      <c r="B59"/>
+      <c r="C59"/>
+      <c r="D59"/>
+      <c r="E59"/>
+      <c r="F59"/>
+      <c r="G59"/>
+      <c r="H59"/>
+      <c r="I59"/>
+      <c r="J59"/>
+      <c r="K59"/>
+      <c r="L59"/>
+      <c r="M59"/>
+      <c r="N59"/>
+      <c r="O59"/>
+      <c r="P59"/>
+      <c r="Q59"/>
+      <c r="R59"/>
+      <c r="S59"/>
+      <c r="T59"/>
+      <c r="U59"/>
+      <c r="V59"/>
+      <c r="W59"/>
+      <c r="X59"/>
+      <c r="Y59"/>
+      <c r="Z59"/>
+      <c r="AA59"/>
+      <c r="AB59"/>
+      <c r="AC59"/>
+      <c r="AD59"/>
+      <c r="AE59"/>
+      <c r="AF59"/>
+      <c r="AG59"/>
+      <c r="AH59"/>
+      <c r="AI59"/>
+    </row>
+    <row r="60" s="2" customFormat="1" spans="2:30">
+      <c r="B60"/>
+      <c r="C60"/>
+      <c r="D60"/>
+      <c r="E60"/>
+      <c r="F60"/>
+      <c r="G60"/>
+      <c r="H60"/>
+      <c r="I60"/>
+      <c r="J60"/>
+      <c r="K60"/>
+      <c r="L60"/>
+      <c r="M60"/>
+      <c r="N60"/>
+      <c r="O60"/>
+      <c r="P60"/>
+      <c r="Q60"/>
+      <c r="R60"/>
+      <c r="S60"/>
+      <c r="T60"/>
+      <c r="U60"/>
+      <c r="V60"/>
+      <c r="W60"/>
+      <c r="X60"/>
+      <c r="Y60"/>
+      <c r="Z60"/>
+      <c r="AA60"/>
+      <c r="AB60"/>
+      <c r="AC60"/>
+      <c r="AD60"/>
+    </row>
+    <row r="61" s="2" customFormat="1" spans="2:30">
+      <c r="B61"/>
+      <c r="C61"/>
+      <c r="D61"/>
+      <c r="E61"/>
+      <c r="F61"/>
+      <c r="G61"/>
+      <c r="H61"/>
+      <c r="I61"/>
+      <c r="J61"/>
+      <c r="K61"/>
+      <c r="L61"/>
+      <c r="M61"/>
+      <c r="N61"/>
+      <c r="O61"/>
+      <c r="P61"/>
+      <c r="Q61"/>
+      <c r="R61"/>
+      <c r="S61"/>
+      <c r="T61"/>
+      <c r="U61"/>
+      <c r="V61"/>
+      <c r="W61"/>
+      <c r="X61"/>
+      <c r="Y61"/>
+      <c r="Z61"/>
+      <c r="AA61"/>
+      <c r="AB61"/>
+      <c r="AC61"/>
+      <c r="AD61"/>
+    </row>
+    <row r="62" s="2" customFormat="1" spans="2:30">
+      <c r="B62"/>
+      <c r="C62"/>
+      <c r="D62"/>
+      <c r="E62"/>
+      <c r="F62"/>
+      <c r="G62"/>
+      <c r="H62"/>
+      <c r="I62"/>
+      <c r="J62"/>
+      <c r="K62"/>
+      <c r="L62"/>
+      <c r="M62"/>
+      <c r="N62"/>
+      <c r="O62"/>
+      <c r="P62"/>
+      <c r="Q62"/>
+      <c r="R62"/>
+      <c r="S62"/>
+      <c r="T62"/>
+      <c r="U62"/>
+      <c r="V62"/>
+      <c r="W62"/>
+      <c r="X62"/>
+      <c r="Y62"/>
+      <c r="Z62"/>
+      <c r="AA62"/>
+      <c r="AB62"/>
+      <c r="AC62"/>
+      <c r="AD62"/>
+    </row>
+    <row r="63" s="2" customFormat="1" spans="2:30">
+      <c r="B63"/>
+      <c r="C63"/>
+      <c r="D63"/>
+      <c r="E63"/>
+      <c r="F63"/>
+      <c r="G63"/>
+      <c r="H63"/>
+      <c r="I63"/>
+      <c r="J63"/>
+      <c r="K63"/>
+      <c r="L63"/>
+      <c r="M63"/>
+      <c r="N63"/>
+      <c r="O63"/>
+      <c r="X63"/>
+      <c r="Y63"/>
+      <c r="Z63"/>
+      <c r="AA63"/>
+      <c r="AB63"/>
+      <c r="AC63"/>
+      <c r="AD63"/>
+    </row>
+    <row r="64" s="2" customFormat="1" spans="2:30">
+      <c r="B64"/>
+      <c r="C64"/>
+      <c r="D64"/>
+      <c r="E64"/>
+      <c r="F64"/>
+      <c r="G64"/>
+      <c r="H64"/>
+      <c r="I64"/>
+      <c r="J64"/>
+      <c r="K64"/>
+      <c r="L64"/>
+      <c r="M64"/>
+      <c r="N64"/>
+      <c r="O64"/>
+      <c r="X64"/>
+      <c r="Y64"/>
+      <c r="Z64"/>
+      <c r="AA64"/>
+      <c r="AB64"/>
+      <c r="AC64"/>
+      <c r="AD64"/>
+    </row>
+    <row r="65" s="2" customFormat="1" spans="2:30">
+      <c r="B65"/>
+      <c r="C65"/>
+      <c r="D65"/>
+      <c r="E65"/>
+      <c r="F65"/>
+      <c r="G65"/>
+      <c r="H65"/>
+      <c r="I65"/>
+      <c r="J65"/>
+      <c r="K65"/>
+      <c r="L65"/>
+      <c r="M65"/>
+      <c r="N65"/>
+      <c r="O65"/>
+      <c r="P65"/>
+      <c r="Q65"/>
+      <c r="R65"/>
+      <c r="S65"/>
+      <c r="T65"/>
+      <c r="U65"/>
+      <c r="V65"/>
+      <c r="W65"/>
+      <c r="X65"/>
+      <c r="Y65"/>
+      <c r="Z65"/>
+      <c r="AA65"/>
+      <c r="AB65"/>
+      <c r="AC65"/>
+      <c r="AD65"/>
+    </row>
+    <row r="66" s="2" customFormat="1" spans="2:30">
+      <c r="B66"/>
+      <c r="C66"/>
+      <c r="D66"/>
+      <c r="F66"/>
+      <c r="G66"/>
+      <c r="H66"/>
+      <c r="I66"/>
+      <c r="J66"/>
+      <c r="K66"/>
+      <c r="L66"/>
+      <c r="M66"/>
+      <c r="N66"/>
+      <c r="O66"/>
+      <c r="P66"/>
+      <c r="Q66"/>
+      <c r="R66"/>
+      <c r="S66"/>
+      <c r="T66"/>
+      <c r="U66"/>
+      <c r="V66"/>
+      <c r="W66"/>
+      <c r="X66"/>
+      <c r="Y66"/>
+      <c r="Z66"/>
+      <c r="AA66"/>
+      <c r="AB66"/>
+      <c r="AC66"/>
+      <c r="AD66"/>
+    </row>
+    <row r="67" s="2" customFormat="1" spans="2:30">
+      <c r="B67"/>
+      <c r="C67"/>
+      <c r="D67"/>
+      <c r="F67"/>
+      <c r="G67"/>
+      <c r="H67"/>
+      <c r="I67"/>
+      <c r="J67"/>
+      <c r="K67"/>
+      <c r="L67"/>
+      <c r="M67"/>
+      <c r="N67"/>
+      <c r="O67"/>
+      <c r="P67"/>
+      <c r="Q67"/>
+      <c r="R67"/>
+      <c r="S67"/>
+      <c r="T67"/>
+      <c r="U67"/>
+      <c r="V67"/>
+      <c r="W67"/>
+      <c r="X67"/>
+      <c r="Y67"/>
+      <c r="Z67"/>
+      <c r="AA67"/>
+      <c r="AB67"/>
+      <c r="AC67"/>
+      <c r="AD67"/>
+    </row>
+    <row r="68" s="2" customFormat="1" spans="2:30">
+      <c r="B68"/>
+      <c r="C68"/>
+      <c r="D68"/>
+      <c r="F68"/>
+      <c r="G68"/>
+      <c r="H68"/>
+      <c r="I68"/>
+      <c r="J68"/>
+      <c r="K68"/>
+      <c r="L68"/>
+      <c r="M68"/>
+      <c r="N68"/>
+      <c r="O68"/>
+      <c r="P68"/>
+      <c r="Q68"/>
+      <c r="R68"/>
+      <c r="S68"/>
+      <c r="T68"/>
+      <c r="U68"/>
+      <c r="V68"/>
+      <c r="W68"/>
+      <c r="X68"/>
+      <c r="Y68"/>
+      <c r="Z68"/>
+      <c r="AA68"/>
+      <c r="AB68"/>
+      <c r="AC68"/>
+      <c r="AD68"/>
+    </row>
+    <row r="69" s="2" customFormat="1" spans="2:30">
+      <c r="B69"/>
+      <c r="C69"/>
+      <c r="D69"/>
+      <c r="F69"/>
+      <c r="G69"/>
+      <c r="H69"/>
+      <c r="I69"/>
+      <c r="J69"/>
+      <c r="K69"/>
+      <c r="L69"/>
+      <c r="M69"/>
+      <c r="N69"/>
+      <c r="O69"/>
+      <c r="P69"/>
+      <c r="Q69"/>
+      <c r="R69"/>
+      <c r="S69"/>
+      <c r="T69"/>
+      <c r="U69"/>
+      <c r="V69"/>
+      <c r="W69"/>
+      <c r="X69"/>
+      <c r="Y69"/>
+      <c r="Z69"/>
+      <c r="AA69"/>
+      <c r="AB69"/>
+      <c r="AC69"/>
+      <c r="AD69"/>
+    </row>
+    <row r="70" s="2" customFormat="1" spans="2:30">
+      <c r="B70"/>
+      <c r="C70"/>
+      <c r="D70"/>
+      <c r="E70"/>
+      <c r="F70"/>
+      <c r="G70"/>
+      <c r="H70"/>
+      <c r="I70"/>
+      <c r="J70"/>
+      <c r="K70"/>
+      <c r="L70"/>
+      <c r="M70"/>
+      <c r="N70"/>
+      <c r="O70"/>
+      <c r="P70"/>
+      <c r="Q70"/>
+      <c r="R70"/>
+      <c r="S70"/>
+      <c r="T70"/>
+      <c r="U70"/>
+      <c r="V70"/>
+      <c r="W70"/>
+      <c r="X70"/>
+      <c r="Y70"/>
+      <c r="Z70"/>
+      <c r="AA70"/>
+      <c r="AB70"/>
+      <c r="AC70"/>
+      <c r="AD70"/>
+    </row>
+    <row r="71" s="2" customFormat="1" spans="2:30">
+      <c r="B71"/>
+      <c r="C71"/>
+      <c r="D71"/>
+      <c r="E71"/>
+      <c r="F71"/>
+      <c r="G71"/>
+      <c r="H71"/>
+      <c r="I71"/>
+      <c r="J71"/>
+      <c r="K71"/>
+      <c r="L71"/>
+      <c r="M71"/>
+      <c r="N71"/>
+      <c r="O71"/>
+      <c r="P71"/>
+      <c r="Q71"/>
+      <c r="R71"/>
+      <c r="S71"/>
+      <c r="T71"/>
+      <c r="U71"/>
+      <c r="V71"/>
+      <c r="W71"/>
+      <c r="X71"/>
+      <c r="Y71"/>
+      <c r="Z71"/>
+      <c r="AA71"/>
+      <c r="AB71"/>
+      <c r="AC71"/>
+      <c r="AD71"/>
+    </row>
+    <row r="72" s="2" customFormat="1" spans="2:30">
+      <c r="B72"/>
+      <c r="C72"/>
+      <c r="D72"/>
+      <c r="E72"/>
+      <c r="F72"/>
+      <c r="G72"/>
+      <c r="H72"/>
+      <c r="I72"/>
+      <c r="J72"/>
+      <c r="K72"/>
+      <c r="L72"/>
+      <c r="M72"/>
+      <c r="N72"/>
+      <c r="O72"/>
+      <c r="P72"/>
+      <c r="Q72"/>
+      <c r="R72"/>
+      <c r="S72"/>
+      <c r="T72"/>
+      <c r="U72"/>
+      <c r="V72"/>
+      <c r="W72"/>
+      <c r="X72"/>
+      <c r="Y72"/>
+      <c r="Z72"/>
+      <c r="AA72"/>
+      <c r="AB72"/>
+      <c r="AC72"/>
+      <c r="AD72"/>
+    </row>
+    <row r="73" s="2" customFormat="1" spans="2:30">
+      <c r="B73"/>
+      <c r="C73"/>
+      <c r="D73"/>
+      <c r="E73"/>
+      <c r="F73"/>
+      <c r="G73"/>
+      <c r="H73"/>
+      <c r="I73"/>
+      <c r="J73"/>
+      <c r="K73"/>
+      <c r="L73"/>
+      <c r="M73"/>
+      <c r="N73"/>
+      <c r="O73"/>
+      <c r="P73"/>
+      <c r="Q73"/>
+      <c r="R73"/>
+      <c r="S73"/>
+      <c r="T73"/>
+      <c r="U73"/>
+      <c r="V73"/>
+      <c r="W73"/>
+      <c r="X73"/>
+      <c r="Y73"/>
+      <c r="Z73"/>
+      <c r="AA73"/>
+      <c r="AB73"/>
+      <c r="AC73"/>
+      <c r="AD73"/>
+    </row>
+    <row r="74" s="2" customFormat="1" spans="2:30">
+      <c r="B74"/>
+      <c r="C74"/>
+      <c r="D74"/>
+      <c r="E74"/>
+      <c r="F74"/>
+      <c r="G74"/>
+      <c r="H74"/>
+      <c r="I74"/>
+      <c r="J74"/>
+      <c r="K74"/>
+      <c r="L74"/>
+      <c r="M74"/>
+      <c r="N74"/>
+      <c r="O74"/>
+      <c r="P74"/>
+      <c r="Q74"/>
+      <c r="R74"/>
+      <c r="S74"/>
+      <c r="T74"/>
+      <c r="U74"/>
+      <c r="V74"/>
+      <c r="W74"/>
+      <c r="X74"/>
+      <c r="Y74"/>
+      <c r="Z74"/>
+      <c r="AA74"/>
+      <c r="AB74"/>
+      <c r="AC74"/>
+      <c r="AD74"/>
+    </row>
+    <row r="75" s="2" customFormat="1" spans="2:30">
+      <c r="B75"/>
+      <c r="C75"/>
+      <c r="D75"/>
+      <c r="E75"/>
+      <c r="F75"/>
+      <c r="G75"/>
+      <c r="H75"/>
+      <c r="I75"/>
+      <c r="J75"/>
+      <c r="K75"/>
+      <c r="L75"/>
+      <c r="M75"/>
+      <c r="N75"/>
+      <c r="O75"/>
+      <c r="P75"/>
+      <c r="Q75"/>
+      <c r="R75"/>
+      <c r="S75"/>
+      <c r="T75"/>
+      <c r="U75"/>
+      <c r="V75"/>
+      <c r="W75"/>
+      <c r="X75"/>
+      <c r="Y75"/>
+      <c r="Z75"/>
+      <c r="AA75"/>
+      <c r="AB75"/>
+      <c r="AC75"/>
+      <c r="AD75"/>
+    </row>
+    <row r="76" s="2" customFormat="1" spans="2:30">
+      <c r="B76"/>
+      <c r="C76"/>
+      <c r="D76"/>
+      <c r="F76"/>
+      <c r="G76"/>
+      <c r="H76"/>
+      <c r="I76"/>
+      <c r="J76"/>
+      <c r="K76"/>
+      <c r="L76"/>
+      <c r="M76"/>
+      <c r="N76"/>
+      <c r="O76"/>
+      <c r="P76"/>
+      <c r="Q76"/>
+      <c r="R76"/>
+      <c r="S76"/>
+      <c r="T76"/>
+      <c r="U76"/>
+      <c r="V76"/>
+      <c r="W76"/>
+      <c r="X76"/>
+      <c r="Y76"/>
+      <c r="Z76"/>
+      <c r="AA76"/>
+      <c r="AB76"/>
+      <c r="AC76"/>
+      <c r="AD76"/>
+    </row>
+    <row r="77" s="2" customFormat="1" spans="2:30">
+      <c r="B77"/>
+      <c r="C77"/>
+      <c r="D77"/>
+      <c r="F77"/>
+      <c r="G77"/>
+      <c r="H77"/>
+      <c r="I77"/>
+      <c r="J77"/>
+      <c r="K77"/>
+      <c r="L77"/>
+      <c r="M77"/>
+      <c r="N77"/>
+      <c r="O77"/>
+      <c r="P77"/>
+      <c r="Q77"/>
+      <c r="R77"/>
+      <c r="S77"/>
+      <c r="T77"/>
+      <c r="U77"/>
+      <c r="V77"/>
+      <c r="W77"/>
+      <c r="X77"/>
+      <c r="Y77"/>
+      <c r="Z77"/>
+      <c r="AA77"/>
+      <c r="AB77"/>
+      <c r="AC77"/>
+      <c r="AD77"/>
+    </row>
+    <row r="78" s="2" customFormat="1" spans="2:30">
+      <c r="B78"/>
+      <c r="C78"/>
+      <c r="D78"/>
+      <c r="F78"/>
+      <c r="G78"/>
+      <c r="H78"/>
+      <c r="I78"/>
+      <c r="J78"/>
+      <c r="K78"/>
+      <c r="L78"/>
+      <c r="M78"/>
+      <c r="N78"/>
+      <c r="O78"/>
+      <c r="P78"/>
+      <c r="Q78"/>
+      <c r="R78"/>
+      <c r="S78"/>
+      <c r="T78"/>
+      <c r="U78"/>
+      <c r="V78"/>
+      <c r="W78"/>
+      <c r="X78"/>
+      <c r="Y78"/>
+      <c r="Z78"/>
+      <c r="AA78"/>
+      <c r="AB78"/>
+      <c r="AC78"/>
+      <c r="AD78"/>
+    </row>
+    <row r="79" s="2" customFormat="1" spans="2:30">
+      <c r="B79"/>
+      <c r="C79"/>
+      <c r="D79"/>
+      <c r="E79"/>
+      <c r="F79"/>
+      <c r="G79"/>
+      <c r="H79"/>
+      <c r="I79"/>
+      <c r="J79"/>
+      <c r="K79"/>
+      <c r="L79"/>
+      <c r="M79"/>
+      <c r="N79"/>
+      <c r="O79"/>
+      <c r="P79"/>
+      <c r="Q79"/>
+      <c r="R79"/>
+      <c r="S79"/>
+      <c r="T79"/>
+      <c r="U79"/>
+      <c r="V79"/>
+      <c r="W79"/>
+      <c r="X79"/>
+      <c r="Y79"/>
+      <c r="Z79"/>
+      <c r="AA79"/>
+      <c r="AB79"/>
+      <c r="AC79"/>
+      <c r="AD79"/>
+    </row>
+    <row r="80" s="2" customFormat="1" spans="2:30">
+      <c r="B80"/>
+      <c r="C80"/>
+      <c r="D80"/>
+      <c r="E80"/>
+      <c r="F80"/>
+      <c r="G80"/>
+      <c r="H80"/>
+      <c r="I80"/>
+      <c r="J80"/>
+      <c r="K80"/>
+      <c r="L80"/>
+      <c r="M80"/>
+      <c r="N80"/>
+      <c r="O80"/>
+      <c r="P80"/>
+      <c r="Q80"/>
+      <c r="R80"/>
+      <c r="S80"/>
+      <c r="T80"/>
+      <c r="U80"/>
+      <c r="V80"/>
+      <c r="W80"/>
+      <c r="X80"/>
+      <c r="Y80"/>
+      <c r="Z80"/>
+      <c r="AA80"/>
+      <c r="AB80"/>
+      <c r="AC80"/>
+      <c r="AD80"/>
+    </row>
+    <row r="81" s="2" customFormat="1" spans="2:30">
+      <c r="B81"/>
+      <c r="C81"/>
+      <c r="D81"/>
+      <c r="E81"/>
+      <c r="F81"/>
+      <c r="G81"/>
+      <c r="H81"/>
+      <c r="I81"/>
+      <c r="J81"/>
+      <c r="K81"/>
+      <c r="L81"/>
+      <c r="M81"/>
+      <c r="N81"/>
+      <c r="O81"/>
+      <c r="P81"/>
+      <c r="Q81"/>
+      <c r="R81"/>
+      <c r="S81"/>
+      <c r="T81"/>
+      <c r="U81"/>
+      <c r="V81"/>
+      <c r="W81"/>
+      <c r="X81"/>
+      <c r="Y81"/>
+      <c r="Z81"/>
+      <c r="AA81"/>
+      <c r="AB81"/>
+      <c r="AC81"/>
+      <c r="AD81"/>
+    </row>
+    <row r="82" s="2" customFormat="1" spans="2:30">
+      <c r="B82"/>
+      <c r="C82"/>
+      <c r="D82"/>
+      <c r="E82"/>
+      <c r="F82"/>
+      <c r="G82"/>
+      <c r="H82"/>
+      <c r="I82"/>
+      <c r="J82"/>
+      <c r="K82"/>
+      <c r="L82"/>
+      <c r="M82"/>
+      <c r="N82"/>
+      <c r="O82"/>
+      <c r="P82"/>
+      <c r="Q82"/>
+      <c r="R82"/>
+      <c r="S82"/>
+      <c r="T82"/>
+      <c r="U82"/>
+      <c r="V82"/>
+      <c r="W82"/>
+      <c r="X82"/>
+      <c r="Y82"/>
+      <c r="Z82"/>
+      <c r="AA82"/>
+      <c r="AB82"/>
+      <c r="AC82"/>
+      <c r="AD82"/>
+    </row>
+    <row r="83" s="2" customFormat="1" spans="2:30">
+      <c r="B83"/>
+      <c r="C83"/>
+      <c r="D83"/>
+      <c r="E83"/>
+      <c r="F83"/>
+      <c r="G83"/>
+      <c r="H83"/>
+      <c r="I83"/>
+      <c r="J83"/>
+      <c r="K83"/>
+      <c r="L83"/>
+      <c r="M83"/>
+      <c r="N83"/>
+      <c r="O83"/>
+      <c r="P83"/>
+      <c r="Q83"/>
+      <c r="R83"/>
+      <c r="S83"/>
+      <c r="T83"/>
+      <c r="U83"/>
+      <c r="V83"/>
+      <c r="W83"/>
+      <c r="X83"/>
+      <c r="Y83"/>
+      <c r="Z83"/>
+      <c r="AA83"/>
+      <c r="AB83"/>
+      <c r="AC83"/>
+      <c r="AD83"/>
+    </row>
+    <row r="84" s="2" customFormat="1" spans="2:30">
+      <c r="B84"/>
+      <c r="C84"/>
+      <c r="D84"/>
+      <c r="E84"/>
+      <c r="F84"/>
+      <c r="G84"/>
+      <c r="H84"/>
+      <c r="I84"/>
+      <c r="J84"/>
+      <c r="K84"/>
+      <c r="L84"/>
+      <c r="M84"/>
+      <c r="N84"/>
+      <c r="O84"/>
+      <c r="P84"/>
+      <c r="Q84"/>
+      <c r="R84"/>
+      <c r="S84"/>
+      <c r="T84"/>
+      <c r="U84"/>
+      <c r="V84"/>
+      <c r="W84"/>
+      <c r="X84"/>
+      <c r="Y84"/>
+      <c r="Z84"/>
+      <c r="AA84"/>
+      <c r="AB84"/>
+      <c r="AC84"/>
+      <c r="AD84"/>
+    </row>
+    <row r="85" s="2" customFormat="1" spans="2:30">
+      <c r="B85"/>
+      <c r="C85"/>
+      <c r="D85"/>
+      <c r="E85"/>
+      <c r="F85"/>
+      <c r="G85"/>
+      <c r="H85"/>
+      <c r="I85"/>
+      <c r="J85"/>
+      <c r="K85"/>
+      <c r="L85"/>
+      <c r="M85"/>
+      <c r="N85"/>
+      <c r="O85"/>
+      <c r="P85"/>
+      <c r="Q85"/>
+      <c r="R85"/>
+      <c r="S85"/>
+      <c r="T85"/>
+      <c r="U85"/>
+      <c r="V85"/>
+      <c r="W85"/>
+      <c r="X85"/>
+      <c r="Y85"/>
+      <c r="Z85"/>
+      <c r="AA85"/>
+      <c r="AB85"/>
+      <c r="AC85"/>
+      <c r="AD85"/>
+    </row>
+    <row r="86" s="2" customFormat="1" spans="2:30">
+      <c r="B86"/>
+      <c r="C86"/>
+      <c r="D86"/>
+      <c r="E86"/>
+      <c r="F86"/>
+      <c r="G86"/>
+      <c r="H86"/>
+      <c r="I86"/>
+      <c r="J86"/>
+      <c r="K86"/>
+      <c r="L86"/>
+      <c r="M86"/>
+      <c r="N86"/>
+      <c r="O86"/>
+      <c r="P86"/>
+      <c r="Q86"/>
+      <c r="R86"/>
+      <c r="S86"/>
+      <c r="T86"/>
+      <c r="U86"/>
+      <c r="V86"/>
+      <c r="W86"/>
+      <c r="X86"/>
+      <c r="Y86"/>
+      <c r="Z86"/>
+      <c r="AA86"/>
+      <c r="AB86"/>
+      <c r="AC86"/>
+      <c r="AD86"/>
+    </row>
+    <row r="87" s="2" customFormat="1" spans="2:30">
+      <c r="B87"/>
+      <c r="C87"/>
+      <c r="D87"/>
+      <c r="E87" s="5"/>
+      <c r="F87"/>
+      <c r="G87"/>
+      <c r="H87"/>
+      <c r="I87" s="7"/>
+      <c r="J87"/>
+      <c r="K87"/>
+      <c r="L87"/>
+      <c r="M87"/>
+      <c r="N87"/>
+      <c r="O87"/>
+      <c r="P87"/>
+      <c r="Q87"/>
+      <c r="R87"/>
+      <c r="S87"/>
+      <c r="T87"/>
+      <c r="U87"/>
+      <c r="V87"/>
+      <c r="W87"/>
+      <c r="X87"/>
+      <c r="Y87"/>
+      <c r="Z87"/>
+      <c r="AA87"/>
+      <c r="AB87"/>
+      <c r="AC87"/>
+      <c r="AD87"/>
+    </row>
+    <row r="88" s="2" customFormat="1" spans="5:9">
+      <c r="E88" s="5"/>
+      <c r="I88" s="7"/>
+    </row>
+    <row r="111" s="2" customFormat="1" spans="27:33">
+      <c r="AA111"/>
+      <c r="AB111"/>
+      <c r="AC111"/>
+      <c r="AD111"/>
+      <c r="AE111"/>
+      <c r="AF111"/>
+      <c r="AG111"/>
+    </row>
+    <row r="112" s="2" customFormat="1" spans="27:33">
+      <c r="AA112"/>
+      <c r="AB112"/>
+      <c r="AC112"/>
+      <c r="AD112"/>
+      <c r="AE112"/>
+      <c r="AF112"/>
+      <c r="AG112"/>
+    </row>
+    <row r="116" s="2" customFormat="1" spans="4:4">
+      <c r="D116" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>230</v>
+        <v>270</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>271</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="当当阅读器 - 模拟电路和数字电路自学手册 (dangdang.com)" tooltip="https://e.dangdang.com/pc/reader/index.html?id=1901087681"/>
+    <hyperlink ref="A1" r:id="rId2" display="当当阅读器 - 模拟电路和数字电路自学手册 (dangdang.com)" tooltip="https://e.dangdang.com/pc/reader/index.html?id=1901087681"/>
+    <hyperlink ref="I1" r:id="rId2" display="https://e.dangdang.com/pc/reader/index.html?id=1901087681"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>